--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5205512</v>
+        <v>5205510</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,13 +4909,13 @@
         <v>45035.5</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -4924,43 +4924,43 @@
         <v>49</v>
       </c>
       <c r="K50">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L50">
+        <v>3.4</v>
+      </c>
+      <c r="M50">
         <v>3.6</v>
       </c>
-      <c r="M50">
-        <v>3.8</v>
-      </c>
       <c r="N50">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q50">
         <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>0.7</v>
+        <v>0.571</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,13 +4969,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5205510</v>
+        <v>5205508</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,58 +4998,58 @@
         <v>45035.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>49</v>
       </c>
       <c r="K51">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L51">
         <v>3.4</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N51">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
+        <v>1.975</v>
+      </c>
+      <c r="V51">
         <v>1.825</v>
       </c>
-      <c r="V51">
-        <v>1.975</v>
-      </c>
       <c r="W51">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,13 +5058,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5203870</v>
+        <v>5205512</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,40 +5087,40 @@
         <v>45035.5</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N52">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O52">
+        <v>3.6</v>
+      </c>
+      <c r="P52">
         <v>4</v>
       </c>
-      <c r="P52">
-        <v>5</v>
-      </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
         <v>2</v>
@@ -5129,34 +5129,34 @@
         <v>1.8</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X52">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA52">
+        <v>-1</v>
+      </c>
+      <c r="AB52">
         <v>0.8</v>
       </c>
-      <c r="AB52">
-        <v>-1</v>
-      </c>
       <c r="AC52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5164,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5205509</v>
+        <v>5205511</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,58 +5176,58 @@
         <v>45035.5</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>49</v>
       </c>
       <c r="K53">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M53">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N53">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>1.875</v>
+        <v>1</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5236,16 +5236,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5205513</v>
+        <v>5205509</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,76 +5265,76 @@
         <v>45035.5</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L54">
+        <v>3.2</v>
+      </c>
+      <c r="M54">
+        <v>2.25</v>
+      </c>
+      <c r="N54">
+        <v>2.875</v>
+      </c>
+      <c r="O54">
         <v>3.1</v>
       </c>
-      <c r="M54">
-        <v>3</v>
-      </c>
-      <c r="N54">
-        <v>2.1</v>
-      </c>
-      <c r="O54">
-        <v>3.2</v>
-      </c>
       <c r="P54">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S54">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
         <v>2.5</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5205511</v>
+        <v>5203870</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,76 +5354,76 @@
         <v>45035.5</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
         <v>1.8</v>
       </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
         <v>0.8</v>
       </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
       <c r="AB55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5205508</v>
+        <v>5205513</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,73 +5443,73 @@
         <v>45035.5</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56" t="s">
+        <v>50</v>
+      </c>
+      <c r="K56">
+        <v>2.2</v>
+      </c>
+      <c r="L56">
+        <v>3.1</v>
+      </c>
+      <c r="M56">
         <v>3</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
-      <c r="J56" t="s">
-        <v>49</v>
-      </c>
-      <c r="K56">
+      <c r="N56">
+        <v>2.1</v>
+      </c>
+      <c r="O56">
+        <v>3.2</v>
+      </c>
+      <c r="P56">
+        <v>3.3</v>
+      </c>
+      <c r="Q56">
+        <v>-0.25</v>
+      </c>
+      <c r="R56">
+        <v>1.875</v>
+      </c>
+      <c r="S56">
+        <v>1.925</v>
+      </c>
+      <c r="T56">
+        <v>2.5</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
         <v>1.8</v>
       </c>
-      <c r="L56">
-        <v>3.4</v>
-      </c>
-      <c r="M56">
-        <v>3.8</v>
-      </c>
-      <c r="N56">
-        <v>1.5</v>
-      </c>
-      <c r="O56">
-        <v>4</v>
-      </c>
-      <c r="P56">
-        <v>5.5</v>
-      </c>
-      <c r="Q56">
-        <v>-1</v>
-      </c>
-      <c r="R56">
-        <v>1.8</v>
-      </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
-      <c r="T56">
-        <v>2.75</v>
-      </c>
-      <c r="U56">
-        <v>1.975</v>
-      </c>
-      <c r="V56">
-        <v>1.825</v>
-      </c>
       <c r="W56">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB56">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5204479</v>
+        <v>5205537</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,73 +8202,73 @@
         <v>45060.21875</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H87">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M87">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P87">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.625</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB87">
-        <v>0.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5205537</v>
+        <v>5204479</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,73 +8291,73 @@
         <v>45060.21875</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M88">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="N88">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.625</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X88">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5205545</v>
+        <v>5205543</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,58 +8736,58 @@
         <v>45066.21875</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>49</v>
       </c>
       <c r="K93">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L93">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M93">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>1.625</v>
+        <v>0.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8796,16 +8796,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5205543</v>
+        <v>5205545</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,58 +8825,58 @@
         <v>45066.21875</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L94">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N94">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>0.5</v>
+        <v>1.625</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8885,16 +8885,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5213692</v>
+        <v>5231437</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,58 +9982,58 @@
         <v>45074.5</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>49</v>
       </c>
       <c r="K107">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N107">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P107">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10042,16 +10042,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5231437</v>
+        <v>5213692</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,58 +10071,58 @@
         <v>45074.5</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>49</v>
       </c>
       <c r="K108">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N108">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10131,16 +10131,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10148,7 +10148,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5205558</v>
+        <v>5232540</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,76 +10160,76 @@
         <v>45074.5</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K109">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="L109">
+        <v>6.5</v>
+      </c>
+      <c r="M109">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>1.222</v>
+      </c>
+      <c r="O109">
+        <v>5.75</v>
+      </c>
+      <c r="P109">
+        <v>8.5</v>
+      </c>
+      <c r="Q109">
+        <v>-1.75</v>
+      </c>
+      <c r="R109">
+        <v>1.875</v>
+      </c>
+      <c r="S109">
+        <v>1.925</v>
+      </c>
+      <c r="T109">
         <v>3.25</v>
       </c>
-      <c r="M109">
-        <v>2.75</v>
-      </c>
-      <c r="N109">
-        <v>2.15</v>
-      </c>
-      <c r="O109">
-        <v>3.3</v>
-      </c>
-      <c r="P109">
-        <v>2.9</v>
-      </c>
-      <c r="Q109">
-        <v>-0.25</v>
-      </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
-      <c r="T109">
-        <v>2.5</v>
-      </c>
       <c r="U109">
+        <v>1.85</v>
+      </c>
+      <c r="V109">
         <v>1.95</v>
       </c>
-      <c r="V109">
-        <v>1.85</v>
-      </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>0.95</v>
-      </c>
-      <c r="AC109">
-        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10237,7 +10237,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5232540</v>
+        <v>5205558</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10249,76 +10249,76 @@
         <v>45074.5</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K110">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="N110">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q110">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
+        <v>1.925</v>
+      </c>
+      <c r="S110">
         <v>1.875</v>
       </c>
-      <c r="S110">
-        <v>1.925</v>
-      </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
+        <v>1.95</v>
+      </c>
+      <c r="V110">
         <v>1.85</v>
       </c>
-      <c r="V110">
-        <v>1.95</v>
-      </c>
       <c r="W110">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6804151</v>
+        <v>6804155</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,10 +11406,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11421,19 +11421,19 @@
         <v>49</v>
       </c>
       <c r="K123">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
+        <v>2.9</v>
+      </c>
+      <c r="N123">
+        <v>1.85</v>
+      </c>
+      <c r="O123">
         <v>3.5</v>
-      </c>
-      <c r="N123">
-        <v>1.909</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
       </c>
       <c r="P123">
         <v>3.6</v>
@@ -11442,10 +11442,10 @@
         <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11457,7 +11457,7 @@
         <v>2</v>
       </c>
       <c r="W123">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11466,7 +11466,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6804155</v>
+        <v>6804151</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,10 +11495,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11510,19 +11510,19 @@
         <v>49</v>
       </c>
       <c r="K124">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N124">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
         <v>3.6</v>
@@ -11531,10 +11531,10 @@
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
         <v>2.5</v>
@@ -11546,7 +11546,7 @@
         <v>2</v>
       </c>
       <c r="W124">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11555,7 +11555,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6804160</v>
+        <v>6804157</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,73 +12474,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M135">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6803159</v>
+        <v>6804160</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,46 +12563,46 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>2.5</v>
@@ -12614,25 +12614,25 @@
         <v>2</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6804157</v>
+        <v>6803159</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,55 +12652,55 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>50</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L137">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N137">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
+        <v>1.775</v>
+      </c>
+      <c r="S137">
         <v>2.025</v>
       </c>
-      <c r="S137">
-        <v>1.775</v>
-      </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12709,19 +12709,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.875</v>
+        <v>3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6803160</v>
+        <v>6804161</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,58 +12830,58 @@
         <v>45143.5</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>49</v>
       </c>
       <c r="K139">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M139">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N139">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>1.75</v>
+        <v>1.15</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12890,16 +12890,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6804161</v>
+        <v>6803160</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,58 +13008,58 @@
         <v>45143.5</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>49</v>
       </c>
       <c r="K141">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N141">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13068,16 +13068,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
         <v>0.925</v>
       </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
-      <c r="AB141">
-        <v>-1</v>
-      </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13975,7 +13975,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6803243</v>
+        <v>6804168</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13987,76 +13987,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L152">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N152">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O152">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14064,7 +14064,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6804168</v>
+        <v>6803243</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14076,76 +14076,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M153">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N153">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O153">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P153">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC153">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14242,7 +14242,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6804175</v>
+        <v>6803244</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14254,49 +14254,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H155">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K155">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L155">
         <v>3.25</v>
       </c>
       <c r="M155">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N155">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O155">
         <v>3.3</v>
       </c>
       <c r="P155">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
         <v>1.975</v>
@@ -14305,25 +14305,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>1.6</v>
+      </c>
+      <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
         <v>1</v>
       </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
-      <c r="Z155">
-        <v>0.925</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
       <c r="AB155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14331,7 +14331,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6803244</v>
+        <v>6804175</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14343,49 +14343,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L156">
         <v>3.25</v>
       </c>
       <c r="M156">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N156">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O156">
         <v>3.3</v>
       </c>
       <c r="P156">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
         <v>1.975</v>
@@ -14394,25 +14394,25 @@
         <v>1.825</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6803164</v>
+        <v>6803246</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,10 +15945,10 @@
         <v>45171.5</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15960,43 +15960,43 @@
         <v>49</v>
       </c>
       <c r="K174">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N174">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O174">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P174">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q174">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R174">
+        <v>1.95</v>
+      </c>
+      <c r="S174">
+        <v>1.85</v>
+      </c>
+      <c r="T174">
+        <v>2.75</v>
+      </c>
+      <c r="U174">
+        <v>2</v>
+      </c>
+      <c r="V174">
         <v>1.8</v>
       </c>
-      <c r="S174">
-        <v>2</v>
-      </c>
-      <c r="T174">
-        <v>3</v>
-      </c>
-      <c r="U174">
-        <v>1.975</v>
-      </c>
-      <c r="V174">
-        <v>1.825</v>
-      </c>
       <c r="W174">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16005,16 +16005,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA174">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16022,7 +16022,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6803246</v>
+        <v>6803164</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16034,10 +16034,10 @@
         <v>45171.5</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16049,43 +16049,43 @@
         <v>49</v>
       </c>
       <c r="K175">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N175">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P175">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V175">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W175">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16094,16 +16094,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6804208</v>
+        <v>6803250</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,13 +18526,13 @@
         <v>45206.21875</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -18541,43 +18541,43 @@
         <v>49</v>
       </c>
       <c r="K203">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M203">
+        <v>5</v>
+      </c>
+      <c r="N203">
+        <v>1.5</v>
+      </c>
+      <c r="O203">
+        <v>4.2</v>
+      </c>
+      <c r="P203">
+        <v>5.75</v>
+      </c>
+      <c r="Q203">
+        <v>-1</v>
+      </c>
+      <c r="R203">
+        <v>1.825</v>
+      </c>
+      <c r="S203">
+        <v>1.975</v>
+      </c>
+      <c r="T203">
         <v>2.75</v>
       </c>
-      <c r="N203">
-        <v>2.9</v>
-      </c>
-      <c r="O203">
-        <v>3.2</v>
-      </c>
-      <c r="P203">
-        <v>2.3</v>
-      </c>
-      <c r="Q203">
-        <v>0.25</v>
-      </c>
-      <c r="R203">
+      <c r="U203">
         <v>1.775</v>
       </c>
-      <c r="S203">
+      <c r="V203">
         <v>2.025</v>
       </c>
-      <c r="T203">
-        <v>2.25</v>
-      </c>
-      <c r="U203">
-        <v>1.8</v>
-      </c>
-      <c r="V203">
-        <v>2</v>
-      </c>
       <c r="W203">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18586,7 +18586,7 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA203">
         <v>-1</v>
@@ -18595,7 +18595,7 @@
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6803250</v>
+        <v>6804208</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,13 +18615,13 @@
         <v>45206.21875</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G204" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -18630,43 +18630,43 @@
         <v>49</v>
       </c>
       <c r="K204">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N204">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O204">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P204">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q204">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18675,7 +18675,7 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA204">
         <v>-1</v>
@@ -18684,7 +18684,7 @@
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6804206</v>
+        <v>6804207</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -18808,43 +18808,43 @@
         <v>49</v>
       </c>
       <c r="K206">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L206">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N206">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O206">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S206">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
+        <v>1.875</v>
+      </c>
+      <c r="V206">
         <v>1.925</v>
       </c>
-      <c r="V206">
-        <v>1.875</v>
-      </c>
       <c r="W206">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,13 +18853,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18870,7 +18870,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6804207</v>
+        <v>6804206</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18882,13 +18882,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H207">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -18897,43 +18897,43 @@
         <v>49</v>
       </c>
       <c r="K207">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L207">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N207">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O207">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P207">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R207">
+        <v>1.825</v>
+      </c>
+      <c r="S207">
+        <v>1.975</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
         <v>1.925</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.875</v>
       </c>
-      <c r="T207">
-        <v>2.5</v>
-      </c>
-      <c r="U207">
-        <v>1.875</v>
-      </c>
-      <c r="V207">
-        <v>1.925</v>
-      </c>
       <c r="W207">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18942,13 +18942,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
+        <v>0.825</v>
+      </c>
+      <c r="AA207">
+        <v>-1</v>
+      </c>
+      <c r="AB207">
         <v>0.925</v>
-      </c>
-      <c r="AA207">
-        <v>-1</v>
-      </c>
-      <c r="AB207">
-        <v>0.875</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -19493,7 +19493,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6803337</v>
+        <v>6804213</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19505,73 +19505,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I214">
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K214">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L214">
         <v>3.25</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19582,7 +19582,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6804213</v>
+        <v>6803337</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19594,73 +19594,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I215">
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K215">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N215">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O215">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19671,7 +19671,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6803169</v>
+        <v>6804214</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19683,58 +19683,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L216">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="N216">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="O216">
         <v>3.3</v>
       </c>
       <c r="P216">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q216">
         <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T216">
         <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19743,16 +19743,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19760,7 +19760,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6804214</v>
+        <v>6803169</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19772,58 +19772,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>49</v>
       </c>
       <c r="K217">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L217">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M217">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N217">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="O217">
         <v>3.3</v>
       </c>
       <c r="P217">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
         <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V217">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W217">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19832,16 +19832,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC217">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20739,7 +20739,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6805653</v>
+        <v>6804227</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20751,55 +20751,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>50</v>
       </c>
       <c r="K228">
+        <v>1.727</v>
+      </c>
+      <c r="L228">
+        <v>3.75</v>
+      </c>
+      <c r="M228">
         <v>4</v>
       </c>
-      <c r="L228">
-        <v>3.3</v>
-      </c>
-      <c r="M228">
-        <v>1.833</v>
-      </c>
       <c r="N228">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O228">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P228">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q228">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T228">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20808,19 +20808,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0.6499999999999999</v>
+        <v>3.333</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20917,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6804227</v>
+        <v>6805653</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20929,55 +20929,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
         <v>50</v>
       </c>
       <c r="K230">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L230">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M230">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N230">
+        <v>4.75</v>
+      </c>
+      <c r="O230">
+        <v>3.6</v>
+      </c>
+      <c r="P230">
         <v>1.65</v>
       </c>
-      <c r="O230">
-        <v>4</v>
-      </c>
-      <c r="P230">
-        <v>4.333</v>
-      </c>
       <c r="Q230">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R230">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -20986,19 +20986,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>3.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5205508</v>
+        <v>5205512</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,58 +4998,58 @@
         <v>45035.5</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>49</v>
       </c>
       <c r="K51">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
         <v>3.8</v>
       </c>
       <c r="N51">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O51">
+        <v>3.6</v>
+      </c>
+      <c r="P51">
         <v>4</v>
       </c>
-      <c r="P51">
-        <v>5.5</v>
-      </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
         <v>1.8</v>
       </c>
-      <c r="S51">
-        <v>2</v>
-      </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,13 +5058,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5205512</v>
+        <v>5205508</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,58 +5087,58 @@
         <v>45035.5</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>49</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
         <v>3.8</v>
       </c>
       <c r="N52">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5147,13 +5147,13 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5205543</v>
+        <v>5205545</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,58 +8736,58 @@
         <v>45066.21875</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>49</v>
       </c>
       <c r="K93">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L93">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M93">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N93">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>0.5</v>
+        <v>1.625</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8796,16 +8796,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5205545</v>
+        <v>5205543</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,58 +8825,58 @@
         <v>45066.21875</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M94">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N94">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>1.625</v>
+        <v>0.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8885,16 +8885,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6804155</v>
+        <v>6804151</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,10 +11406,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11421,19 +11421,19 @@
         <v>49</v>
       </c>
       <c r="K123">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N123">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
         <v>3.6</v>
@@ -11442,10 +11442,10 @@
         <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11457,7 +11457,7 @@
         <v>2</v>
       </c>
       <c r="W123">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11466,7 +11466,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6804151</v>
+        <v>6804155</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,10 +11495,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11510,19 +11510,19 @@
         <v>49</v>
       </c>
       <c r="K124">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
+        <v>2.9</v>
+      </c>
+      <c r="N124">
+        <v>1.85</v>
+      </c>
+      <c r="O124">
         <v>3.5</v>
-      </c>
-      <c r="N124">
-        <v>1.909</v>
-      </c>
-      <c r="O124">
-        <v>3.3</v>
       </c>
       <c r="P124">
         <v>3.6</v>
@@ -11531,10 +11531,10 @@
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
         <v>2.5</v>
@@ -11546,7 +11546,7 @@
         <v>2</v>
       </c>
       <c r="W124">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11555,7 +11555,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6804157</v>
+        <v>6804160</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,73 +12474,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I135">
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L135">
+        <v>3.4</v>
+      </c>
+      <c r="M135">
+        <v>3.3</v>
+      </c>
+      <c r="N135">
+        <v>2.15</v>
+      </c>
+      <c r="O135">
         <v>3.25</v>
       </c>
-      <c r="M135">
-        <v>3.25</v>
-      </c>
-      <c r="N135">
-        <v>2.3</v>
-      </c>
-      <c r="O135">
-        <v>3.2</v>
-      </c>
       <c r="P135">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6804160</v>
+        <v>6803159</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,46 +12563,46 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P136">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>2.5</v>
@@ -12614,25 +12614,25 @@
         <v>2</v>
       </c>
       <c r="W136">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6803159</v>
+        <v>6804157</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,55 +12652,55 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
         <v>50</v>
       </c>
       <c r="K137">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M137">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N137">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
+        <v>2.025</v>
+      </c>
+      <c r="S137">
         <v>1.775</v>
       </c>
-      <c r="S137">
-        <v>2.025</v>
-      </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12709,19 +12709,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>3</v>
+        <v>1.875</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6804161</v>
+        <v>6803160</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,58 +12830,58 @@
         <v>45143.5</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>49</v>
       </c>
       <c r="K139">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M139">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12890,16 +12890,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
         <v>0.925</v>
       </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
       <c r="AC139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6804164</v>
+        <v>6804161</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,76 +12919,76 @@
         <v>45143.5</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M140">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N140">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X140">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6803160</v>
+        <v>6804164</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45143.5</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
         <v>3.25</v>
       </c>
       <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>2.6</v>
+      </c>
+      <c r="O141">
+        <v>3.2</v>
+      </c>
+      <c r="P141">
+        <v>2.4</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>1.975</v>
+      </c>
+      <c r="S141">
+        <v>1.825</v>
+      </c>
+      <c r="T141">
+        <v>3</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
+        <v>1.8</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
         <v>2.2</v>
       </c>
-      <c r="N141">
-        <v>2.75</v>
-      </c>
-      <c r="O141">
-        <v>3.25</v>
-      </c>
-      <c r="P141">
-        <v>2.25</v>
-      </c>
-      <c r="Q141">
-        <v>0.25</v>
-      </c>
-      <c r="R141">
-        <v>1.775</v>
-      </c>
-      <c r="S141">
-        <v>2.025</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
-      <c r="U141">
-        <v>1.925</v>
-      </c>
-      <c r="V141">
-        <v>1.875</v>
-      </c>
-      <c r="W141">
-        <v>1.75</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13975,7 +13975,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6804168</v>
+        <v>6803243</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13987,76 +13987,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M152">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N152">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P152">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC152">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14064,7 +14064,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6803243</v>
+        <v>6804168</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14076,76 +14076,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L153">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N153">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O153">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA153">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6803246</v>
+        <v>6803164</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,10 +15945,10 @@
         <v>45171.5</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15960,43 +15960,43 @@
         <v>49</v>
       </c>
       <c r="K174">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N174">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="O174">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P174">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S174">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16005,16 +16005,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16022,7 +16022,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6803164</v>
+        <v>6803246</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16034,10 +16034,10 @@
         <v>45171.5</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16049,43 +16049,43 @@
         <v>49</v>
       </c>
       <c r="K175">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N175">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O175">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q175">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R175">
+        <v>1.95</v>
+      </c>
+      <c r="S175">
+        <v>1.85</v>
+      </c>
+      <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
         <v>1.8</v>
       </c>
-      <c r="S175">
-        <v>2</v>
-      </c>
-      <c r="T175">
-        <v>3</v>
-      </c>
-      <c r="U175">
-        <v>1.975</v>
-      </c>
-      <c r="V175">
-        <v>1.825</v>
-      </c>
       <c r="W175">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16094,16 +16094,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA175">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6803250</v>
+        <v>6804208</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,13 +18526,13 @@
         <v>45206.21875</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -18541,43 +18541,43 @@
         <v>49</v>
       </c>
       <c r="K203">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N203">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O203">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P203">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q203">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R203">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W203">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18586,7 +18586,7 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA203">
         <v>-1</v>
@@ -18595,7 +18595,7 @@
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6804208</v>
+        <v>6803250</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,13 +18615,13 @@
         <v>45206.21875</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -18630,43 +18630,43 @@
         <v>49</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M204">
+        <v>5</v>
+      </c>
+      <c r="N204">
+        <v>1.5</v>
+      </c>
+      <c r="O204">
+        <v>4.2</v>
+      </c>
+      <c r="P204">
+        <v>5.75</v>
+      </c>
+      <c r="Q204">
+        <v>-1</v>
+      </c>
+      <c r="R204">
+        <v>1.825</v>
+      </c>
+      <c r="S204">
+        <v>1.975</v>
+      </c>
+      <c r="T204">
         <v>2.75</v>
       </c>
-      <c r="N204">
-        <v>2.9</v>
-      </c>
-      <c r="O204">
-        <v>3.2</v>
-      </c>
-      <c r="P204">
-        <v>2.3</v>
-      </c>
-      <c r="Q204">
-        <v>0.25</v>
-      </c>
-      <c r="R204">
+      <c r="U204">
         <v>1.775</v>
       </c>
-      <c r="S204">
+      <c r="V204">
         <v>2.025</v>
       </c>
-      <c r="T204">
-        <v>2.25</v>
-      </c>
-      <c r="U204">
-        <v>1.8</v>
-      </c>
-      <c r="V204">
-        <v>2</v>
-      </c>
       <c r="W204">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18675,7 +18675,7 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA204">
         <v>-1</v>
@@ -18684,7 +18684,7 @@
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6804207</v>
+        <v>6804206</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H206">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -18808,43 +18808,43 @@
         <v>49</v>
       </c>
       <c r="K206">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N206">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P206">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R206">
+        <v>1.825</v>
+      </c>
+      <c r="S206">
+        <v>1.975</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
         <v>1.925</v>
       </c>
-      <c r="S206">
+      <c r="V206">
         <v>1.875</v>
       </c>
-      <c r="T206">
-        <v>2.5</v>
-      </c>
-      <c r="U206">
-        <v>1.875</v>
-      </c>
-      <c r="V206">
-        <v>1.925</v>
-      </c>
       <c r="W206">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,13 +18853,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
+        <v>0.825</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
         <v>0.925</v>
-      </c>
-      <c r="AA206">
-        <v>-1</v>
-      </c>
-      <c r="AB206">
-        <v>0.875</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18870,7 +18870,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6804206</v>
+        <v>6804207</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18882,13 +18882,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -18897,43 +18897,43 @@
         <v>49</v>
       </c>
       <c r="K207">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L207">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M207">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N207">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O207">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P207">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S207">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T207">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
+        <v>1.875</v>
+      </c>
+      <c r="V207">
         <v>1.925</v>
       </c>
-      <c r="V207">
-        <v>1.875</v>
-      </c>
       <c r="W207">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18942,13 +18942,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -20739,7 +20739,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6804227</v>
+        <v>6805653</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20751,55 +20751,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
         <v>50</v>
       </c>
       <c r="K228">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L228">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M228">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N228">
+        <v>4.75</v>
+      </c>
+      <c r="O228">
+        <v>3.6</v>
+      </c>
+      <c r="P228">
         <v>1.65</v>
       </c>
-      <c r="O228">
-        <v>4</v>
-      </c>
-      <c r="P228">
-        <v>4.333</v>
-      </c>
       <c r="Q228">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R228">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S228">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20808,19 +20808,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>3.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20917,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6805653</v>
+        <v>6804227</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20929,55 +20929,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
         <v>50</v>
       </c>
       <c r="K230">
+        <v>1.727</v>
+      </c>
+      <c r="L230">
+        <v>3.75</v>
+      </c>
+      <c r="M230">
         <v>4</v>
       </c>
-      <c r="L230">
-        <v>3.3</v>
-      </c>
-      <c r="M230">
-        <v>1.833</v>
-      </c>
       <c r="N230">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P230">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q230">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S230">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -20986,19 +20986,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.6499999999999999</v>
+        <v>3.333</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB230">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21451,7 +21451,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21463,13 +21463,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -21478,43 +21478,43 @@
         <v>49</v>
       </c>
       <c r="K236">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L236">
         <v>3.25</v>
       </c>
       <c r="M236">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N236">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O236">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P236">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S236">
+        <v>1.875</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
         <v>1.8</v>
       </c>
-      <c r="T236">
-        <v>2.5</v>
-      </c>
-      <c r="U236">
-        <v>1.975</v>
-      </c>
-      <c r="V236">
-        <v>1.825</v>
-      </c>
       <c r="W236">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA236">
         <v>-1</v>
@@ -21532,7 +21532,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21540,7 +21540,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21552,13 +21552,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21567,43 +21567,43 @@
         <v>49</v>
       </c>
       <c r="K237">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L237">
         <v>3.25</v>
       </c>
       <c r="M237">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N237">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O237">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA237">
         <v>-1</v>
@@ -21621,7 +21621,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5205483</v>
+        <v>5205480</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,55 +2061,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>50</v>
       </c>
       <c r="K18">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O18">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P18">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2118,19 +2118,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2138,7 +2138,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5205482</v>
+        <v>5205483</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,10 +2150,10 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>50</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N19">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
@@ -2195,11 +2195,11 @@
         <v>2.5</v>
       </c>
       <c r="U19">
+        <v>1.975</v>
+      </c>
+      <c r="V19">
         <v>1.825</v>
       </c>
-      <c r="V19">
-        <v>1.975</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2219,7 +2219,7 @@
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5205480</v>
+        <v>5205482</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,55 +2239,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>50</v>
       </c>
       <c r="K20">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N20">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2296,19 +2296,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2850,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6456633</v>
+        <v>5205490</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2862,76 +2862,76 @@
         <v>45017.21875</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>3.3</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>0.7</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2939,7 +2939,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5205490</v>
+        <v>6456633</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2951,76 +2951,76 @@
         <v>45017.21875</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L28">
         <v>3.3</v>
       </c>
       <c r="M28">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P28">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.7</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5205510</v>
+        <v>5205512</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,13 +4909,13 @@
         <v>45035.5</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -4924,43 +4924,43 @@
         <v>49</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
+        <v>3.8</v>
+      </c>
+      <c r="N50">
+        <v>1.7</v>
+      </c>
+      <c r="O50">
         <v>3.6</v>
       </c>
-      <c r="N50">
-        <v>1.571</v>
-      </c>
-      <c r="O50">
-        <v>3.75</v>
-      </c>
       <c r="P50">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q50">
         <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>0.571</v>
+        <v>0.7</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4969,13 +4969,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5205512</v>
+        <v>5205510</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,13 +4998,13 @@
         <v>45035.5</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -5013,43 +5013,43 @@
         <v>49</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L51">
+        <v>3.4</v>
+      </c>
+      <c r="M51">
         <v>3.6</v>
       </c>
-      <c r="M51">
-        <v>3.8</v>
-      </c>
       <c r="N51">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q51">
         <v>-0.75</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>0.7</v>
+        <v>0.571</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,13 +5058,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5205508</v>
+        <v>5205509</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,58 +5087,58 @@
         <v>45035.5</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>49</v>
       </c>
       <c r="K52">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M52">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N52">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P52">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>0.5</v>
+        <v>1.875</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5147,16 +5147,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5205509</v>
+        <v>5205513</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,76 +5265,76 @@
         <v>45035.5</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L54">
+        <v>3.1</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>2.1</v>
+      </c>
+      <c r="O54">
         <v>3.2</v>
       </c>
-      <c r="M54">
-        <v>2.25</v>
-      </c>
-      <c r="N54">
-        <v>2.875</v>
-      </c>
-      <c r="O54">
-        <v>3.1</v>
-      </c>
       <c r="P54">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
         <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5205513</v>
+        <v>5205508</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,73 +5443,73 @@
         <v>45035.5</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N56">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O56">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P56">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5205514</v>
+        <v>5205518</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,76 +5888,76 @@
         <v>45039.5</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L61">
+        <v>3.25</v>
+      </c>
+      <c r="M61">
         <v>3.2</v>
       </c>
-      <c r="M61">
-        <v>2.625</v>
-      </c>
       <c r="N61">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O61">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
+        <v>3.5</v>
+      </c>
+      <c r="Q61">
+        <v>-0.25</v>
+      </c>
+      <c r="R61">
+        <v>1.8</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>2.25</v>
+      </c>
+      <c r="U61">
+        <v>1.9</v>
+      </c>
+      <c r="V61">
+        <v>1.9</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
         <v>2.1</v>
       </c>
-      <c r="Q61">
-        <v>0.25</v>
-      </c>
-      <c r="R61">
-        <v>2.025</v>
-      </c>
-      <c r="S61">
-        <v>1.775</v>
-      </c>
-      <c r="T61">
-        <v>2.5</v>
-      </c>
-      <c r="U61">
-        <v>1.85</v>
-      </c>
-      <c r="V61">
-        <v>1.95</v>
-      </c>
-      <c r="W61">
-        <v>-1</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
       <c r="Y61">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5205518</v>
+        <v>5205514</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,76 +6066,76 @@
         <v>45039.5</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K63">
+        <v>2.5</v>
+      </c>
+      <c r="L63">
+        <v>3.2</v>
+      </c>
+      <c r="M63">
+        <v>2.625</v>
+      </c>
+      <c r="N63">
+        <v>3.3</v>
+      </c>
+      <c r="O63">
+        <v>3.2</v>
+      </c>
+      <c r="P63">
         <v>2.1</v>
       </c>
-      <c r="L63">
-        <v>3.25</v>
-      </c>
-      <c r="M63">
-        <v>3.2</v>
-      </c>
-      <c r="N63">
-        <v>2.05</v>
-      </c>
-      <c r="O63">
-        <v>3.1</v>
-      </c>
-      <c r="P63">
-        <v>3.5</v>
-      </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5205525</v>
+        <v>6580300</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,13 +6244,13 @@
         <v>45045.21875</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -6259,34 +6259,34 @@
         <v>50</v>
       </c>
       <c r="K65">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
         <v>1.775</v>
@@ -6301,19 +6301,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6580300</v>
+        <v>5205525</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,13 +6333,13 @@
         <v>45045.21875</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -6348,34 +6348,34 @@
         <v>50</v>
       </c>
       <c r="K66">
+        <v>2.1</v>
+      </c>
+      <c r="L66">
+        <v>3.2</v>
+      </c>
+      <c r="M66">
+        <v>3.1</v>
+      </c>
+      <c r="N66">
+        <v>2.15</v>
+      </c>
+      <c r="O66">
+        <v>3.1</v>
+      </c>
+      <c r="P66">
+        <v>3.1</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
         <v>2.25</v>
-      </c>
-      <c r="L66">
-        <v>3.1</v>
-      </c>
-      <c r="M66">
-        <v>2.9</v>
-      </c>
-      <c r="N66">
-        <v>1.909</v>
-      </c>
-      <c r="O66">
-        <v>3.3</v>
-      </c>
-      <c r="P66">
-        <v>3.5</v>
-      </c>
-      <c r="Q66">
-        <v>-0.5</v>
-      </c>
-      <c r="R66">
-        <v>1.975</v>
-      </c>
-      <c r="S66">
-        <v>1.825</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.775</v>
@@ -6390,19 +6390,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC66">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5205521</v>
+        <v>5205526</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,40 +6511,40 @@
         <v>45045.5</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>50</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N68">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O68">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
         <v>1.775</v>
@@ -6553,13 +6553,13 @@
         <v>2.025</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6568,7 +6568,7 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.6</v>
+        <v>4.25</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6577,10 +6577,10 @@
         <v>1.025</v>
       </c>
       <c r="AB68">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5205526</v>
+        <v>5205521</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,40 +6689,40 @@
         <v>45045.5</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
         <v>50</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R70">
         <v>1.775</v>
@@ -6731,13 +6731,13 @@
         <v>2.025</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6746,7 +6746,7 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>4.25</v>
+        <v>1.6</v>
       </c>
       <c r="Z70">
         <v>-1</v>
@@ -6755,10 +6755,10 @@
         <v>1.025</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5205532</v>
+        <v>5205533</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>45052.5</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K77">
+        <v>1.571</v>
+      </c>
+      <c r="L77">
+        <v>3.6</v>
+      </c>
+      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="N77">
         <v>1.8</v>
       </c>
-      <c r="L77">
-        <v>3.4</v>
-      </c>
-      <c r="M77">
-        <v>3.75</v>
-      </c>
-      <c r="N77">
-        <v>1.533</v>
-      </c>
       <c r="O77">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
+        <v>1.9</v>
+      </c>
+      <c r="S77">
+        <v>1.9</v>
+      </c>
+      <c r="T77">
+        <v>2.25</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
-        <v>3</v>
-      </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y77">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
+        <v>-1</v>
+      </c>
+      <c r="AC77">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7389,7 +7389,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5205533</v>
+        <v>5205532</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7401,76 +7401,76 @@
         <v>45052.5</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K78">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N78">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5205537</v>
+        <v>5204479</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,73 +8202,73 @@
         <v>45060.21875</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K87">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L87">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="N87">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.625</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X87">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8500000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5204479</v>
+        <v>5205537</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,73 +8291,73 @@
         <v>45060.21875</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H88">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L88">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="N88">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P88">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.625</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB88">
-        <v>0.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5205545</v>
+        <v>5205543</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,58 +8736,58 @@
         <v>45066.21875</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>49</v>
       </c>
       <c r="K93">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L93">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M93">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>1.625</v>
+        <v>0.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8796,16 +8796,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5205543</v>
+        <v>5205545</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,58 +8825,58 @@
         <v>45066.21875</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L94">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N94">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>0.5</v>
+        <v>1.625</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8885,16 +8885,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5205552</v>
+        <v>5205554</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,13 +9181,13 @@
         <v>45070.5</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -9196,43 +9196,43 @@
         <v>49</v>
       </c>
       <c r="K98">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N98">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9241,16 +9241,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5204481</v>
+        <v>5205551</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,19 +9270,19 @@
         <v>45070.5</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99">
         <v>2.45</v>
@@ -9294,52 +9294,52 @@
         <v>2.45</v>
       </c>
       <c r="N99">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O99">
         <v>3.75</v>
       </c>
       <c r="P99">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1.8</v>
+      </c>
+      <c r="T99">
+        <v>3.25</v>
+      </c>
+      <c r="U99">
         <v>1.975</v>
       </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.825</v>
       </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.925</v>
-      </c>
-      <c r="V99">
-        <v>1.875</v>
-      </c>
       <c r="W99">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9347,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5205549</v>
+        <v>5205552</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,58 +9359,58 @@
         <v>45070.5</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>49</v>
       </c>
       <c r="K100">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="L100">
         <v>3.75</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N100">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O100">
         <v>4.2</v>
       </c>
       <c r="P100">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
+        <v>1.775</v>
+      </c>
+      <c r="V100">
         <v>2.025</v>
       </c>
-      <c r="V100">
-        <v>1.775</v>
-      </c>
       <c r="W100">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9419,16 +9419,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>1.025</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5205550</v>
+        <v>5205553</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,76 +9448,76 @@
         <v>45070.5</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
         <v>50</v>
       </c>
       <c r="K101">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L101">
+        <v>3.25</v>
+      </c>
+      <c r="M101">
+        <v>3.25</v>
+      </c>
+      <c r="N101">
+        <v>1.85</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
         <v>3.3</v>
       </c>
-      <c r="M101">
-        <v>2.55</v>
-      </c>
-      <c r="N101">
-        <v>2.375</v>
-      </c>
-      <c r="O101">
-        <v>3.4</v>
-      </c>
-      <c r="P101">
-        <v>2.55</v>
-      </c>
       <c r="Q101">
+        <v>-0.5</v>
+      </c>
+      <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>1.85</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>1.85</v>
+      </c>
+      <c r="V101">
+        <v>1.95</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
+        <v>2.3</v>
+      </c>
+      <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB101">
         <v>0</v>
       </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
-      <c r="S101">
-        <v>1.9</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>1.825</v>
-      </c>
-      <c r="V101">
-        <v>1.975</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
-      <c r="Y101">
-        <v>1.55</v>
-      </c>
-      <c r="Z101">
-        <v>-1</v>
-      </c>
-      <c r="AA101">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
       <c r="AC101">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5205554</v>
+        <v>5204481</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,58 +9626,58 @@
         <v>45070.5</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>49</v>
       </c>
       <c r="K103">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M103">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N103">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q103">
         <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>3</v>
       </c>
       <c r="U103">
+        <v>1.925</v>
+      </c>
+      <c r="V103">
         <v>1.875</v>
       </c>
-      <c r="V103">
-        <v>1.925</v>
-      </c>
       <c r="W103">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9686,16 +9686,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5205551</v>
+        <v>5205550</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45070.5</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L104">
         <v>3.3</v>
       </c>
       <c r="M104">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N104">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P104">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
+        <v>1.825</v>
+      </c>
+      <c r="V104">
         <v>1.975</v>
       </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9792,7 +9792,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5205553</v>
+        <v>5205549</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9804,76 +9804,76 @@
         <v>45070.5</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="L105">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N105">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
         <v>3</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9881,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5232539</v>
+        <v>5232540</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,49 +9893,49 @@
         <v>45074.5</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K106">
-        <v>3.75</v>
+        <v>1.166</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M106">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N106">
-        <v>2.7</v>
+        <v>1.222</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P106">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R106">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S106">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
         <v>1.85</v>
@@ -9944,25 +9944,25 @@
         <v>1.95</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X106">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5231437</v>
+        <v>5205558</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,40 +9982,40 @@
         <v>45074.5</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K107">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M107">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N107">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
         <v>1.925</v>
@@ -10024,34 +10024,34 @@
         <v>1.875</v>
       </c>
       <c r="T107">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z107">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5213692</v>
+        <v>5204482</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,58 +10071,58 @@
         <v>45074.5</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>49</v>
       </c>
       <c r="K108">
+        <v>2.5</v>
+      </c>
+      <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2.375</v>
+      </c>
+      <c r="N108">
+        <v>3.8</v>
+      </c>
+      <c r="O108">
+        <v>3.75</v>
+      </c>
+      <c r="P108">
+        <v>1.727</v>
+      </c>
+      <c r="Q108">
+        <v>0.75</v>
+      </c>
+      <c r="R108">
+        <v>1.9</v>
+      </c>
+      <c r="S108">
+        <v>1.9</v>
+      </c>
+      <c r="T108">
+        <v>2.75</v>
+      </c>
+      <c r="U108">
         <v>1.8</v>
       </c>
-      <c r="L108">
-        <v>3.6</v>
-      </c>
-      <c r="M108">
-        <v>3.6</v>
-      </c>
-      <c r="N108">
-        <v>2.15</v>
-      </c>
-      <c r="O108">
-        <v>4.2</v>
-      </c>
-      <c r="P108">
-        <v>2.625</v>
-      </c>
-      <c r="Q108">
-        <v>-0.25</v>
-      </c>
-      <c r="R108">
-        <v>1.975</v>
-      </c>
-      <c r="S108">
-        <v>1.825</v>
-      </c>
-      <c r="T108">
-        <v>3.25</v>
-      </c>
-      <c r="U108">
-        <v>1.9</v>
-      </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W108">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10131,13 +10131,13 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10148,7 +10148,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5232540</v>
+        <v>5231437</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,58 +10160,58 @@
         <v>45074.5</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
         <v>1</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>49</v>
       </c>
       <c r="K109">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="L109">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="N109">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O109">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q109">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
+        <v>1.925</v>
+      </c>
+      <c r="S109">
         <v>1.875</v>
       </c>
-      <c r="S109">
+      <c r="T109">
+        <v>3</v>
+      </c>
+      <c r="U109">
         <v>1.925</v>
       </c>
-      <c r="T109">
-        <v>3.25</v>
-      </c>
-      <c r="U109">
-        <v>1.85</v>
-      </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>0.222</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10220,16 +10220,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10237,7 +10237,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5205558</v>
+        <v>5205556</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10249,76 +10249,76 @@
         <v>45074.5</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K110">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="L110">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
+        <v>1.571</v>
+      </c>
+      <c r="N110">
+        <v>3.2</v>
+      </c>
+      <c r="O110">
+        <v>3.4</v>
+      </c>
+      <c r="P110">
+        <v>2</v>
+      </c>
+      <c r="Q110">
+        <v>0.5</v>
+      </c>
+      <c r="R110">
+        <v>1.775</v>
+      </c>
+      <c r="S110">
+        <v>2.025</v>
+      </c>
+      <c r="T110">
         <v>2.75</v>
       </c>
-      <c r="N110">
-        <v>2.15</v>
-      </c>
-      <c r="O110">
-        <v>3.3</v>
-      </c>
-      <c r="P110">
-        <v>2.9</v>
-      </c>
-      <c r="Q110">
-        <v>-0.25</v>
-      </c>
-      <c r="R110">
+      <c r="U110">
+        <v>1.875</v>
+      </c>
+      <c r="V110">
         <v>1.925</v>
       </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.95</v>
-      </c>
-      <c r="V110">
-        <v>1.85</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y110">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5205556</v>
+        <v>5213692</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,76 +10427,76 @@
         <v>45074.5</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
         <v>3.6</v>
       </c>
       <c r="M112">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="N112">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P112">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q112">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X112">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5204482</v>
+        <v>5232539</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,73 +10516,73 @@
         <v>45074.5</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K113">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L113">
         <v>3.4</v>
       </c>
       <c r="M113">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N113">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB113">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6804151</v>
+        <v>6804155</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,10 +11406,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11421,19 +11421,19 @@
         <v>49</v>
       </c>
       <c r="K123">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
+        <v>2.9</v>
+      </c>
+      <c r="N123">
+        <v>1.85</v>
+      </c>
+      <c r="O123">
         <v>3.5</v>
-      </c>
-      <c r="N123">
-        <v>1.909</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
       </c>
       <c r="P123">
         <v>3.6</v>
@@ -11442,10 +11442,10 @@
         <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11457,7 +11457,7 @@
         <v>2</v>
       </c>
       <c r="W123">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11466,7 +11466,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6804155</v>
+        <v>6804151</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,10 +11495,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11510,19 +11510,19 @@
         <v>49</v>
       </c>
       <c r="K124">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N124">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
         <v>3.6</v>
@@ -11531,10 +11531,10 @@
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
         <v>2.5</v>
@@ -11546,7 +11546,7 @@
         <v>2</v>
       </c>
       <c r="W124">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11555,7 +11555,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6804152</v>
+        <v>6803327</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,73 +11584,73 @@
         <v>45136.5</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M125">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N125">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O125">
         <v>3.4</v>
       </c>
       <c r="P125">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6803327</v>
+        <v>6804154</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,76 +11673,76 @@
         <v>45136.5</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L126">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N126">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11750,7 +11750,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6804154</v>
+        <v>6804152</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11762,40 +11762,40 @@
         <v>45136.5</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K127">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
         <v>3.6</v>
       </c>
       <c r="N127">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
         <v>3.8</v>
       </c>
-      <c r="P127">
-        <v>6</v>
-      </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
         <v>1.825</v>
@@ -11804,22 +11804,22 @@
         <v>1.975</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
         <v>2.8</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11828,10 +11828,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6803241</v>
+        <v>6803328</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,13 +12118,13 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -12133,43 +12133,43 @@
         <v>49</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L131">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N131">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P131">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12178,13 +12178,13 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6804159</v>
+        <v>6803159</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,76 +12207,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132" t="s">
+        <v>50</v>
+      </c>
+      <c r="K132">
+        <v>1.75</v>
+      </c>
+      <c r="L132">
+        <v>3.6</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+      <c r="N132">
+        <v>1.75</v>
+      </c>
+      <c r="O132">
+        <v>3.75</v>
+      </c>
+      <c r="P132">
+        <v>4</v>
+      </c>
+      <c r="Q132">
+        <v>-0.5</v>
+      </c>
+      <c r="R132">
+        <v>1.775</v>
+      </c>
+      <c r="S132">
+        <v>2.025</v>
+      </c>
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
+        <v>1.8</v>
+      </c>
+      <c r="V132">
+        <v>2</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
         <v>3</v>
       </c>
-      <c r="I132">
-        <v>3</v>
-      </c>
-      <c r="J132" t="s">
-        <v>48</v>
-      </c>
-      <c r="K132">
-        <v>2.1</v>
-      </c>
-      <c r="L132">
-        <v>3.5</v>
-      </c>
-      <c r="M132">
-        <v>3</v>
-      </c>
-      <c r="N132">
-        <v>2.25</v>
-      </c>
-      <c r="O132">
-        <v>3.5</v>
-      </c>
-      <c r="P132">
-        <v>2.7</v>
-      </c>
-      <c r="Q132">
-        <v>-0.25</v>
-      </c>
-      <c r="R132">
-        <v>2.025</v>
-      </c>
-      <c r="S132">
-        <v>1.775</v>
-      </c>
-      <c r="T132">
-        <v>3</v>
-      </c>
-      <c r="U132">
-        <v>1.85</v>
-      </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>2.5</v>
-      </c>
-      <c r="Y132">
-        <v>-1</v>
-      </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AB132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6804156</v>
+        <v>6803241</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,58 +12296,58 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H133">
+        <v>3</v>
+      </c>
+      <c r="I133">
         <v>1</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>49</v>
       </c>
       <c r="K133">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M133">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P133">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W133">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12356,16 +12356,16 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6803328</v>
+        <v>6804156</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,40 +12385,40 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>49</v>
       </c>
       <c r="K134">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M134">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N134">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
         <v>2</v>
@@ -12427,16 +12427,16 @@
         <v>1.8</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>0.444</v>
+        <v>1.2</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12451,10 +12451,10 @@
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6804160</v>
+        <v>6804157</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,73 +12474,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M135">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6803159</v>
+        <v>6804159</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,76 +12563,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N136">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O136">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q136">
+        <v>-0.25</v>
+      </c>
+      <c r="R136">
+        <v>2.025</v>
+      </c>
+      <c r="S136">
+        <v>1.775</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
+        <v>1.95</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>2.5</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
         <v>-0.5</v>
       </c>
-      <c r="R136">
-        <v>1.775</v>
-      </c>
-      <c r="S136">
-        <v>2.025</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.8</v>
-      </c>
-      <c r="V136">
-        <v>2</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>3</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6804157</v>
+        <v>6804160</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,73 +12652,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I137">
         <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L137">
+        <v>3.4</v>
+      </c>
+      <c r="M137">
+        <v>3.3</v>
+      </c>
+      <c r="N137">
+        <v>2.15</v>
+      </c>
+      <c r="O137">
         <v>3.25</v>
       </c>
-      <c r="M137">
-        <v>3.25</v>
-      </c>
-      <c r="N137">
-        <v>2.3</v>
-      </c>
-      <c r="O137">
-        <v>3.2</v>
-      </c>
       <c r="P137">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6803329</v>
+        <v>6804164</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,10 +12741,10 @@
         <v>45143.5</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12756,46 +12756,46 @@
         <v>48</v>
       </c>
       <c r="K138">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
         <v>3.25</v>
       </c>
       <c r="M138">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N138">
         <v>2.6</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q138">
         <v>0</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
+        <v>1.825</v>
+      </c>
+      <c r="T138">
+        <v>3</v>
+      </c>
+      <c r="U138">
+        <v>2</v>
+      </c>
+      <c r="V138">
         <v>1.8</v>
       </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>1.775</v>
-      </c>
-      <c r="V138">
-        <v>2.025</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y138">
         <v>-1</v>
@@ -12810,7 +12810,7 @@
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6803160</v>
+        <v>6804161</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,58 +12830,58 @@
         <v>45143.5</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>49</v>
       </c>
       <c r="K139">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M139">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N139">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>1.75</v>
+        <v>1.15</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12890,16 +12890,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6804161</v>
+        <v>6803329</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,76 +12919,76 @@
         <v>45143.5</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>48</v>
+      </c>
+      <c r="K140">
+        <v>2.6</v>
+      </c>
+      <c r="L140">
+        <v>3.25</v>
+      </c>
+      <c r="M140">
+        <v>2.375</v>
+      </c>
+      <c r="N140">
+        <v>2.6</v>
+      </c>
+      <c r="O140">
+        <v>3.25</v>
+      </c>
+      <c r="P140">
+        <v>2.375</v>
+      </c>
+      <c r="Q140">
         <v>0</v>
       </c>
-      <c r="J140" t="s">
-        <v>49</v>
-      </c>
-      <c r="K140">
-        <v>2.5</v>
-      </c>
-      <c r="L140">
-        <v>3</v>
-      </c>
-      <c r="M140">
-        <v>2.6</v>
-      </c>
-      <c r="N140">
-        <v>2.15</v>
-      </c>
-      <c r="O140">
-        <v>3.1</v>
-      </c>
-      <c r="P140">
-        <v>3.1</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W140">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6804164</v>
+        <v>6803160</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45143.5</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L141">
         <v>3.25</v>
       </c>
       <c r="M141">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N141">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P141">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X141">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13619,7 +13619,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803330</v>
+        <v>6803161</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13631,73 +13631,73 @@
         <v>45150.5</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H148">
+        <v>4</v>
+      </c>
+      <c r="I148">
         <v>1</v>
       </c>
-      <c r="I148">
-        <v>3</v>
-      </c>
       <c r="J148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N148">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P148">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA148">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6803161</v>
+        <v>6803330</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>45150.5</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K149">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N149">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O149">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S149">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T149">
         <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13797,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6804170</v>
+        <v>6804169</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13809,76 +13809,76 @@
         <v>45151.5</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>48</v>
+      </c>
+      <c r="K150">
+        <v>2.4</v>
+      </c>
+      <c r="L150">
+        <v>3.4</v>
+      </c>
+      <c r="M150">
+        <v>2.5</v>
+      </c>
+      <c r="N150">
+        <v>1.95</v>
+      </c>
+      <c r="O150">
+        <v>3.6</v>
+      </c>
+      <c r="P150">
+        <v>3.4</v>
+      </c>
+      <c r="Q150">
+        <v>-0.5</v>
+      </c>
+      <c r="R150">
+        <v>1.975</v>
+      </c>
+      <c r="S150">
+        <v>1.825</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="K150">
-        <v>2.25</v>
-      </c>
-      <c r="L150">
-        <v>3</v>
-      </c>
-      <c r="M150">
-        <v>3</v>
-      </c>
-      <c r="N150">
-        <v>2.375</v>
-      </c>
-      <c r="O150">
-        <v>3</v>
-      </c>
-      <c r="P150">
-        <v>2.875</v>
-      </c>
-      <c r="Q150">
-        <v>-0.25</v>
-      </c>
-      <c r="R150">
-        <v>2.05</v>
-      </c>
-      <c r="S150">
-        <v>1.75</v>
-      </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB150">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13886,7 +13886,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6804169</v>
+        <v>6804170</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13898,76 +13898,76 @@
         <v>45151.5</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K151">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M151">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N151">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P151">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q151">
+        <v>-0.25</v>
+      </c>
+      <c r="R151">
+        <v>2.05</v>
+      </c>
+      <c r="S151">
+        <v>1.75</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
+        <v>2</v>
+      </c>
+      <c r="V151">
+        <v>1.8</v>
+      </c>
+      <c r="W151">
+        <v>1.375</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>1.05</v>
+      </c>
+      <c r="AA151">
+        <v>-1</v>
+      </c>
+      <c r="AB151">
+        <v>0.5</v>
+      </c>
+      <c r="AC151">
         <v>-0.5</v>
-      </c>
-      <c r="R151">
-        <v>1.975</v>
-      </c>
-      <c r="S151">
-        <v>1.825</v>
-      </c>
-      <c r="T151">
-        <v>3</v>
-      </c>
-      <c r="U151">
-        <v>1.925</v>
-      </c>
-      <c r="V151">
-        <v>1.875</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>2.6</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
-      <c r="AA151">
-        <v>0.825</v>
-      </c>
-      <c r="AB151">
-        <v>0.925</v>
-      </c>
-      <c r="AC151">
-        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14242,7 +14242,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6803244</v>
+        <v>6804175</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14254,49 +14254,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I155">
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K155">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L155">
         <v>3.25</v>
       </c>
       <c r="M155">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N155">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O155">
         <v>3.3</v>
       </c>
       <c r="P155">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S155">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
         <v>1.975</v>
@@ -14305,25 +14305,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14331,7 +14331,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6804175</v>
+        <v>6803244</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14343,49 +14343,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H156">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K156">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L156">
         <v>3.25</v>
       </c>
       <c r="M156">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N156">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O156">
         <v>3.3</v>
       </c>
       <c r="P156">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
         <v>1.975</v>
@@ -14394,25 +14394,25 @@
         <v>1.825</v>
       </c>
       <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>1.6</v>
+      </c>
+      <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
         <v>1</v>
       </c>
-      <c r="X156">
-        <v>-1</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>0.925</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
       <c r="AB156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6804172</v>
+        <v>6804173</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,58 +14610,58 @@
         <v>45157.5</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159">
         <v>1</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>49</v>
       </c>
       <c r="K159">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M159">
+        <v>2.75</v>
+      </c>
+      <c r="N159">
+        <v>1.833</v>
+      </c>
+      <c r="O159">
         <v>3.8</v>
       </c>
-      <c r="N159">
-        <v>1.5</v>
-      </c>
-      <c r="O159">
-        <v>4.2</v>
-      </c>
       <c r="P159">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S159">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T159">
         <v>3</v>
       </c>
       <c r="U159">
+        <v>1.875</v>
+      </c>
+      <c r="V159">
         <v>1.925</v>
       </c>
-      <c r="V159">
-        <v>1.875</v>
-      </c>
       <c r="W159">
-        <v>0.5</v>
+        <v>0.833</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14670,16 +14670,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6804173</v>
+        <v>6804172</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14788,58 +14788,58 @@
         <v>45157.5</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>49</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L161">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N161">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O161">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R161">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
         <v>3</v>
       </c>
       <c r="U161">
+        <v>1.925</v>
+      </c>
+      <c r="V161">
         <v>1.875</v>
       </c>
-      <c r="V161">
-        <v>1.925</v>
-      </c>
       <c r="W161">
-        <v>0.833</v>
+        <v>0.5</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14848,16 +14848,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>-0</v>
+      </c>
+      <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.875</v>
-      </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
-      <c r="AB161">
-        <v>0.875</v>
-      </c>
-      <c r="AC161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6804184</v>
+        <v>6803246</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,76 +15856,76 @@
         <v>45171.5</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N173">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="O173">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P173">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S173">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X173">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16022,7 +16022,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6803246</v>
+        <v>6804184</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16034,76 +16034,76 @@
         <v>45171.5</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K175">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M175">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N175">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P175">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6803333</v>
+        <v>6804193</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,73 +16657,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L182">
         <v>3.25</v>
       </c>
       <c r="M182">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N182">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O182">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P182">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y182">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16734,7 +16734,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6804193</v>
+        <v>6803333</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16746,73 +16746,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K183">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L183">
         <v>3.25</v>
       </c>
       <c r="M183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O183">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P183">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB183">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6804208</v>
+        <v>6803250</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,13 +18526,13 @@
         <v>45206.21875</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -18541,43 +18541,43 @@
         <v>49</v>
       </c>
       <c r="K203">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M203">
+        <v>5</v>
+      </c>
+      <c r="N203">
+        <v>1.5</v>
+      </c>
+      <c r="O203">
+        <v>4.2</v>
+      </c>
+      <c r="P203">
+        <v>5.75</v>
+      </c>
+      <c r="Q203">
+        <v>-1</v>
+      </c>
+      <c r="R203">
+        <v>1.825</v>
+      </c>
+      <c r="S203">
+        <v>1.975</v>
+      </c>
+      <c r="T203">
         <v>2.75</v>
       </c>
-      <c r="N203">
-        <v>2.9</v>
-      </c>
-      <c r="O203">
-        <v>3.2</v>
-      </c>
-      <c r="P203">
-        <v>2.3</v>
-      </c>
-      <c r="Q203">
-        <v>0.25</v>
-      </c>
-      <c r="R203">
+      <c r="U203">
         <v>1.775</v>
       </c>
-      <c r="S203">
+      <c r="V203">
         <v>2.025</v>
       </c>
-      <c r="T203">
-        <v>2.25</v>
-      </c>
-      <c r="U203">
-        <v>1.8</v>
-      </c>
-      <c r="V203">
-        <v>2</v>
-      </c>
       <c r="W203">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18586,7 +18586,7 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA203">
         <v>-1</v>
@@ -18595,7 +18595,7 @@
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6803250</v>
+        <v>6804208</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,13 +18615,13 @@
         <v>45206.21875</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G204" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -18630,43 +18630,43 @@
         <v>49</v>
       </c>
       <c r="K204">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N204">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O204">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P204">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q204">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18675,7 +18675,7 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA204">
         <v>-1</v>
@@ -18684,7 +18684,7 @@
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6804206</v>
+        <v>6804207</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -18808,43 +18808,43 @@
         <v>49</v>
       </c>
       <c r="K206">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L206">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N206">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O206">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S206">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
+        <v>1.875</v>
+      </c>
+      <c r="V206">
         <v>1.925</v>
       </c>
-      <c r="V206">
-        <v>1.875</v>
-      </c>
       <c r="W206">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,13 +18853,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18870,7 +18870,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6804207</v>
+        <v>6804206</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18882,13 +18882,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H207">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -18897,43 +18897,43 @@
         <v>49</v>
       </c>
       <c r="K207">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L207">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N207">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O207">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P207">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R207">
+        <v>1.825</v>
+      </c>
+      <c r="S207">
+        <v>1.975</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
         <v>1.925</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.875</v>
       </c>
-      <c r="T207">
-        <v>2.5</v>
-      </c>
-      <c r="U207">
-        <v>1.875</v>
-      </c>
-      <c r="V207">
-        <v>1.925</v>
-      </c>
       <c r="W207">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18942,13 +18942,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
+        <v>0.825</v>
+      </c>
+      <c r="AA207">
+        <v>-1</v>
+      </c>
+      <c r="AB207">
         <v>0.925</v>
-      </c>
-      <c r="AA207">
-        <v>-1</v>
-      </c>
-      <c r="AB207">
-        <v>0.875</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -19493,7 +19493,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6804213</v>
+        <v>6803337</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19505,73 +19505,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K214">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L214">
         <v>3.25</v>
       </c>
       <c r="M214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N214">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19582,7 +19582,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6803337</v>
+        <v>6804213</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19594,73 +19594,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I215">
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K215">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N215">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P215">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -20027,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6804221</v>
+        <v>6803338</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20039,22 +20039,22 @@
         <v>45227.21875</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H220">
+        <v>3</v>
+      </c>
+      <c r="I220">
         <v>1</v>
       </c>
-      <c r="I220">
-        <v>3</v>
-      </c>
       <c r="J220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L220">
         <v>3.4</v>
@@ -20075,37 +20075,37 @@
         <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA220">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20116,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6803338</v>
+        <v>6804221</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20128,22 +20128,22 @@
         <v>45227.21875</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
         <v>3</v>
       </c>
-      <c r="I221">
-        <v>1</v>
-      </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K221">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L221">
         <v>3.4</v>
@@ -20164,37 +20164,37 @@
         <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T221">
         <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z221">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB221">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20739,7 +20739,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6805653</v>
+        <v>6804227</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20751,55 +20751,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>50</v>
       </c>
       <c r="K228">
+        <v>1.727</v>
+      </c>
+      <c r="L228">
+        <v>3.75</v>
+      </c>
+      <c r="M228">
         <v>4</v>
       </c>
-      <c r="L228">
-        <v>3.3</v>
-      </c>
-      <c r="M228">
-        <v>1.833</v>
-      </c>
       <c r="N228">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O228">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P228">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q228">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T228">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20808,19 +20808,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0.6499999999999999</v>
+        <v>3.333</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20917,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6804227</v>
+        <v>6805653</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20929,55 +20929,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
         <v>50</v>
       </c>
       <c r="K230">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L230">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M230">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N230">
+        <v>4.75</v>
+      </c>
+      <c r="O230">
+        <v>3.6</v>
+      </c>
+      <c r="P230">
         <v>1.65</v>
       </c>
-      <c r="O230">
-        <v>4</v>
-      </c>
-      <c r="P230">
-        <v>4.333</v>
-      </c>
       <c r="Q230">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R230">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -20986,19 +20986,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>3.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21006,7 +21006,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6803252</v>
+        <v>6804225</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21018,56 +21018,56 @@
         <v>45235.26041666666</v>
       </c>
       <c r="F231" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J231" t="s">
         <v>50</v>
       </c>
       <c r="K231">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L231">
         <v>3.3</v>
       </c>
       <c r="M231">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N231">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O231">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
+        <v>1.825</v>
+      </c>
+      <c r="S231">
+        <v>1.975</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
         <v>1.85</v>
       </c>
-      <c r="S231">
+      <c r="V231">
         <v>1.95</v>
       </c>
-      <c r="T231">
-        <v>3</v>
-      </c>
-      <c r="U231">
-        <v>2</v>
-      </c>
-      <c r="V231">
-        <v>1.8</v>
-      </c>
       <c r="W231">
         <v>-1</v>
       </c>
@@ -21075,19 +21075,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC231">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21095,7 +21095,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6804225</v>
+        <v>6803252</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21107,55 +21107,55 @@
         <v>45235.26041666666</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G232" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
         <v>50</v>
       </c>
       <c r="K232">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L232">
         <v>3.3</v>
       </c>
       <c r="M232">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N232">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P232">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R232">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U232">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V232">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21164,19 +21164,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB232">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21451,7 +21451,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21463,13 +21463,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F236" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -21478,43 +21478,43 @@
         <v>49</v>
       </c>
       <c r="K236">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L236">
         <v>3.25</v>
       </c>
       <c r="M236">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N236">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O236">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P236">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA236">
         <v>-1</v>
@@ -21532,7 +21532,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21540,7 +21540,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21552,13 +21552,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21567,43 +21567,43 @@
         <v>49</v>
       </c>
       <c r="K237">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L237">
         <v>3.25</v>
       </c>
       <c r="M237">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N237">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O237">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P237">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S237">
+        <v>1.875</v>
+      </c>
+      <c r="T237">
+        <v>2.75</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
         <v>1.8</v>
       </c>
-      <c r="T237">
-        <v>2.5</v>
-      </c>
-      <c r="U237">
-        <v>1.975</v>
-      </c>
-      <c r="V237">
-        <v>1.825</v>
-      </c>
       <c r="W237">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA237">
         <v>-1</v>
@@ -21621,7 +21621,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="238" spans="1:29">

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5205480</v>
+        <v>5205482</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,55 +2061,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>50</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2118,19 +2118,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2138,7 +2138,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5205483</v>
+        <v>5205480</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,55 +2150,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M19">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N19">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P19">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2207,19 +2207,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5205482</v>
+        <v>5205483</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,10 +2239,10 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2254,22 +2254,22 @@
         <v>50</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N20">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q20">
         <v>-0.25</v>
@@ -2284,11 +2284,11 @@
         <v>2.5</v>
       </c>
       <c r="U20">
+        <v>1.975</v>
+      </c>
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="V20">
-        <v>1.975</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Z20">
         <v>-1</v>
@@ -2308,7 +2308,7 @@
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2850,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5205490</v>
+        <v>6456633</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2862,76 +2862,76 @@
         <v>45017.21875</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L27">
         <v>3.3</v>
       </c>
       <c r="M27">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.7</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2939,7 +2939,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6456633</v>
+        <v>5205490</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2951,76 +2951,76 @@
         <v>45017.21875</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>3.3</v>
       </c>
       <c r="M28">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N28">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>0.7</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5203873</v>
+        <v>5205487</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,76 +3129,76 @@
         <v>45018.21875</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
+        <v>2.8</v>
+      </c>
+      <c r="N30">
+        <v>2.625</v>
+      </c>
+      <c r="O30">
         <v>3.1</v>
       </c>
-      <c r="N30">
-        <v>1.45</v>
-      </c>
-      <c r="O30">
-        <v>4</v>
-      </c>
       <c r="P30">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5205487</v>
+        <v>5203873</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,76 +3218,76 @@
         <v>45018.21875</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N31">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P31">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y31">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5205501</v>
+        <v>5205505</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,58 +4286,58 @@
         <v>45031.21875</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>49</v>
       </c>
       <c r="K43">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L43">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N43">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P43">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
+        <v>1.825</v>
+      </c>
+      <c r="S43">
+        <v>1.975</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
         <v>1.8</v>
       </c>
-      <c r="S43">
-        <v>2</v>
-      </c>
-      <c r="T43">
-        <v>2.75</v>
-      </c>
-      <c r="U43">
-        <v>2</v>
-      </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>0.6000000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4346,16 +4346,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5205505</v>
+        <v>5205501</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,58 +4375,58 @@
         <v>45031.21875</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
         <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>49</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M44">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N44">
+        <v>1.6</v>
+      </c>
+      <c r="O44">
+        <v>3.75</v>
+      </c>
+      <c r="P44">
+        <v>4.5</v>
+      </c>
+      <c r="Q44">
+        <v>-0.75</v>
+      </c>
+      <c r="R44">
+        <v>1.8</v>
+      </c>
+      <c r="S44">
+        <v>2</v>
+      </c>
+      <c r="T44">
         <v>2.75</v>
       </c>
-      <c r="O44">
-        <v>2.9</v>
-      </c>
-      <c r="P44">
-        <v>2.5</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>1.825</v>
-      </c>
-      <c r="S44">
-        <v>1.975</v>
-      </c>
-      <c r="T44">
-        <v>2</v>
-      </c>
       <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
         <v>1.8</v>
       </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
       <c r="W44">
-        <v>1.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4435,16 +4435,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5205512</v>
+        <v>5203870</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,40 +4909,40 @@
         <v>45035.5</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M50">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N50">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -4951,34 +4951,34 @@
         <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5205510</v>
+        <v>5205512</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,13 +4998,13 @@
         <v>45035.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -5013,43 +5013,43 @@
         <v>49</v>
       </c>
       <c r="K51">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
+        <v>3.8</v>
+      </c>
+      <c r="N51">
+        <v>1.7</v>
+      </c>
+      <c r="O51">
         <v>3.6</v>
       </c>
-      <c r="N51">
-        <v>1.571</v>
-      </c>
-      <c r="O51">
-        <v>3.75</v>
-      </c>
       <c r="P51">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q51">
         <v>-0.75</v>
       </c>
       <c r="R51">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.571</v>
+        <v>0.7</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,13 +5058,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5205509</v>
+        <v>5205510</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,40 +5087,40 @@
         <v>45035.5</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
         <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>49</v>
       </c>
       <c r="K52">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L52">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N52">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="O52">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P52">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
         <v>1.775</v>
@@ -5132,13 +5132,13 @@
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>1.875</v>
+        <v>0.571</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5147,16 +5147,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5203870</v>
+        <v>5205509</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,49 +5354,49 @@
         <v>45035.5</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L55">
+        <v>3.2</v>
+      </c>
+      <c r="M55">
+        <v>2.25</v>
+      </c>
+      <c r="N55">
+        <v>2.875</v>
+      </c>
+      <c r="O55">
         <v>3.1</v>
       </c>
-      <c r="M55">
-        <v>2.375</v>
-      </c>
-      <c r="N55">
-        <v>1.571</v>
-      </c>
-      <c r="O55">
-        <v>4</v>
-      </c>
       <c r="P55">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
         <v>1.925</v>
@@ -5405,19 +5405,19 @@
         <v>1.875</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X55">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
         <v>-1</v>
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5204476</v>
+        <v>5205515</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,61 +5532,61 @@
         <v>45038.21875</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M57">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O57">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P57">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5595,13 +5595,13 @@
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5609,7 +5609,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5205515</v>
+        <v>5204476</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5621,61 +5621,61 @@
         <v>45038.21875</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>48</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L58">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M58">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N58">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O58">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P58">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -5684,13 +5684,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5205518</v>
+        <v>5205519</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,76 +5888,76 @@
         <v>45039.5</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L61">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M61">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O61">
         <v>3.1</v>
       </c>
       <c r="P61">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q61">
         <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X61">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA61">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5205519</v>
+        <v>5205518</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,76 +5977,76 @@
         <v>45039.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L62">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M62">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N62">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O62">
         <v>3.1</v>
       </c>
       <c r="P62">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q62">
         <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6580300</v>
+        <v>5205525</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,13 +6244,13 @@
         <v>45045.21875</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -6259,34 +6259,34 @@
         <v>50</v>
       </c>
       <c r="K65">
+        <v>2.1</v>
+      </c>
+      <c r="L65">
+        <v>3.2</v>
+      </c>
+      <c r="M65">
+        <v>3.1</v>
+      </c>
+      <c r="N65">
+        <v>2.15</v>
+      </c>
+      <c r="O65">
+        <v>3.1</v>
+      </c>
+      <c r="P65">
+        <v>3.1</v>
+      </c>
+      <c r="Q65">
+        <v>-0.25</v>
+      </c>
+      <c r="R65">
+        <v>1.9</v>
+      </c>
+      <c r="S65">
+        <v>1.9</v>
+      </c>
+      <c r="T65">
         <v>2.25</v>
-      </c>
-      <c r="L65">
-        <v>3.1</v>
-      </c>
-      <c r="M65">
-        <v>2.9</v>
-      </c>
-      <c r="N65">
-        <v>1.909</v>
-      </c>
-      <c r="O65">
-        <v>3.3</v>
-      </c>
-      <c r="P65">
-        <v>3.5</v>
-      </c>
-      <c r="Q65">
-        <v>-0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
-      <c r="T65">
-        <v>2.75</v>
       </c>
       <c r="U65">
         <v>1.775</v>
@@ -6301,19 +6301,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5205525</v>
+        <v>6580300</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,13 +6333,13 @@
         <v>45045.21875</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -6348,34 +6348,34 @@
         <v>50</v>
       </c>
       <c r="K66">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L66">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M66">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N66">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O66">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P66">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.775</v>
@@ -6390,19 +6390,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5205526</v>
+        <v>5205521</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,40 +6511,40 @@
         <v>45045.5</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
         <v>50</v>
       </c>
       <c r="K68">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
         <v>1.775</v>
@@ -6553,13 +6553,13 @@
         <v>2.025</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6568,7 +6568,7 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>4.25</v>
+        <v>1.6</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6577,10 +6577,10 @@
         <v>1.025</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5205521</v>
+        <v>5205526</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,40 +6689,40 @@
         <v>45045.5</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>50</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
         <v>1.775</v>
@@ -6731,13 +6731,13 @@
         <v>2.025</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6746,7 +6746,7 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.6</v>
+        <v>4.25</v>
       </c>
       <c r="Z70">
         <v>-1</v>
@@ -6755,10 +6755,10 @@
         <v>1.025</v>
       </c>
       <c r="AB70">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5205533</v>
+        <v>5205532</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>45052.5</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N77">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7389,7 +7389,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5205532</v>
+        <v>5205533</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7401,76 +7401,76 @@
         <v>45052.5</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K78">
+        <v>1.571</v>
+      </c>
+      <c r="L78">
+        <v>3.6</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
         <v>1.8</v>
       </c>
-      <c r="L78">
-        <v>3.4</v>
-      </c>
-      <c r="M78">
-        <v>3.75</v>
-      </c>
-      <c r="N78">
-        <v>1.533</v>
-      </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
+        <v>1.9</v>
+      </c>
+      <c r="S78">
+        <v>1.9</v>
+      </c>
+      <c r="T78">
+        <v>2.25</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
-        <v>3</v>
-      </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y78">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC78">
-        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5205528</v>
+        <v>5205534</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7490,58 +7490,58 @@
         <v>45053.5</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>49</v>
       </c>
       <c r="K79">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L79">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N79">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7550,16 +7550,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5205534</v>
+        <v>5205528</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,58 +7579,58 @@
         <v>45053.5</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>49</v>
       </c>
       <c r="K80">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M80">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N80">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.444</v>
+        <v>1.9</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7639,16 +7639,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5204479</v>
+        <v>5205537</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,73 +8202,73 @@
         <v>45060.21875</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H87">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M87">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P87">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.625</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB87">
-        <v>0.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5205537</v>
+        <v>5204479</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,73 +8291,73 @@
         <v>45060.21875</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M88">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="N88">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.625</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X88">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5205543</v>
+        <v>5205545</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,58 +8736,58 @@
         <v>45066.21875</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>49</v>
       </c>
       <c r="K93">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L93">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M93">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N93">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>0.5</v>
+        <v>1.625</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8796,16 +8796,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5205545</v>
+        <v>5205543</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,58 +8825,58 @@
         <v>45066.21875</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M94">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N94">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>1.625</v>
+        <v>0.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8885,16 +8885,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8991,7 +8991,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5204480</v>
+        <v>5205542</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9003,58 +9003,58 @@
         <v>45067.5</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>3</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>49</v>
       </c>
       <c r="K96">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L96">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M96">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N96">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
         <v>1.8</v>
       </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
       <c r="T96">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>0.615</v>
+        <v>1.375</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9063,16 +9063,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC96">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9080,7 +9080,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5205542</v>
+        <v>5204480</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9092,76 +9092,76 @@
         <v>45067.5</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>3</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>49</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L97">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M97">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N97">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O97">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P97">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
+        <v>1.825</v>
+      </c>
+      <c r="V97">
+        <v>1.975</v>
+      </c>
+      <c r="W97">
+        <v>0.615</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>0.8</v>
+      </c>
+      <c r="AA97">
+        <v>-1</v>
+      </c>
+      <c r="AB97">
         <v>0</v>
       </c>
-      <c r="R97">
-        <v>2</v>
-      </c>
-      <c r="S97">
-        <v>1.8</v>
-      </c>
-      <c r="T97">
-        <v>3.25</v>
-      </c>
-      <c r="U97">
-        <v>1.95</v>
-      </c>
-      <c r="V97">
-        <v>1.85</v>
-      </c>
-      <c r="W97">
-        <v>1.375</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>1</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>0.95</v>
-      </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5205554</v>
+        <v>5204481</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,58 +9181,58 @@
         <v>45070.5</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>49</v>
       </c>
       <c r="K98">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N98">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q98">
         <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
         <v>3</v>
       </c>
       <c r="U98">
+        <v>1.925</v>
+      </c>
+      <c r="V98">
         <v>1.875</v>
       </c>
-      <c r="V98">
-        <v>1.925</v>
-      </c>
       <c r="W98">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9241,16 +9241,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5205551</v>
+        <v>5205555</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,76 +9270,76 @@
         <v>45070.5</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N99">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>-0</v>
+      </c>
+      <c r="AB99">
+        <v>0.3875</v>
+      </c>
+      <c r="AC99">
         <v>-0.5</v>
-      </c>
-      <c r="AA99">
-        <v>0.4</v>
-      </c>
-      <c r="AB99">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9347,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5205552</v>
+        <v>5205554</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,13 +9359,13 @@
         <v>45070.5</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -9374,43 +9374,43 @@
         <v>49</v>
       </c>
       <c r="K100">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N100">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9419,16 +9419,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5205555</v>
+        <v>5205551</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9537,76 +9537,76 @@
         <v>45070.5</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L102">
+        <v>3.3</v>
+      </c>
+      <c r="M102">
+        <v>2.45</v>
+      </c>
+      <c r="N102">
+        <v>2.1</v>
+      </c>
+      <c r="O102">
         <v>3.75</v>
       </c>
-      <c r="M102">
-        <v>5</v>
-      </c>
-      <c r="N102">
-        <v>1.444</v>
-      </c>
-      <c r="O102">
-        <v>4</v>
-      </c>
       <c r="P102">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
+        <v>3.25</v>
+      </c>
+      <c r="U102">
+        <v>1.975</v>
+      </c>
+      <c r="V102">
+        <v>1.825</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
         <v>2.75</v>
       </c>
-      <c r="U102">
-        <v>1.775</v>
-      </c>
-      <c r="V102">
-        <v>2.025</v>
-      </c>
-      <c r="W102">
-        <v>0.444</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB102">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5204481</v>
+        <v>5205550</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45070.5</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L103">
         <v>3.3</v>
       </c>
       <c r="M103">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N103">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P103">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R103">
+        <v>1.9</v>
+      </c>
+      <c r="S103">
+        <v>1.9</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
         <v>1.975</v>
       </c>
-      <c r="S103">
-        <v>1.825</v>
-      </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
-      <c r="U103">
-        <v>1.925</v>
-      </c>
-      <c r="V103">
-        <v>1.875</v>
-      </c>
       <c r="W103">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z103">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5205550</v>
+        <v>5205552</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45070.5</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
       <c r="J104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K104">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="L104">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N104">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="O104">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q104">
+        <v>-1</v>
+      </c>
+      <c r="R104">
+        <v>1.825</v>
+      </c>
+      <c r="S104">
+        <v>1.975</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.775</v>
+      </c>
+      <c r="V104">
+        <v>2.025</v>
+      </c>
+      <c r="W104">
+        <v>0.45</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>0</v>
       </c>
-      <c r="R104">
-        <v>1.9</v>
-      </c>
-      <c r="S104">
-        <v>1.9</v>
-      </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.825</v>
-      </c>
-      <c r="V104">
-        <v>1.975</v>
-      </c>
-      <c r="W104">
-        <v>-1</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>1.55</v>
-      </c>
-      <c r="Z104">
-        <v>-1</v>
-      </c>
       <c r="AA104">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9881,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5232540</v>
+        <v>5205556</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,76 +9893,76 @@
         <v>45074.5</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K106">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="L106">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="N106">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="O106">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="Q106">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
+        <v>1.775</v>
+      </c>
+      <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
         <v>1.875</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.925</v>
       </c>
-      <c r="T106">
-        <v>3.25</v>
-      </c>
-      <c r="U106">
-        <v>1.85</v>
-      </c>
-      <c r="V106">
-        <v>1.95</v>
-      </c>
       <c r="W106">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.925</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
-      <c r="AC106">
-        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5204482</v>
+        <v>5205557</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,76 +10071,76 @@
         <v>45074.5</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L108">
         <v>3.4</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N108">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O108">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10237,7 +10237,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5205556</v>
+        <v>5232539</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10249,55 +10249,55 @@
         <v>45074.5</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
         <v>48</v>
       </c>
       <c r="K110">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="N110">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O110">
         <v>3.4</v>
       </c>
       <c r="P110">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S110">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10309,16 +10309,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10326,7 +10326,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5205557</v>
+        <v>5232540</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10338,76 +10338,76 @@
         <v>45074.5</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>0</v>
       </c>
-      <c r="I111">
-        <v>2</v>
-      </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K111">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M111">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>1.222</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R111">
+        <v>1.875</v>
+      </c>
+      <c r="S111">
         <v>1.925</v>
-      </c>
-      <c r="S111">
-        <v>1.875</v>
       </c>
       <c r="T111">
         <v>3.25</v>
       </c>
       <c r="U111">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5232539</v>
+        <v>5204482</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,73 +10516,73 @@
         <v>45074.5</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L113">
         <v>3.4</v>
       </c>
       <c r="M113">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N113">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q113">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X113">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6804155</v>
+        <v>6804151</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,10 +11406,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11421,19 +11421,19 @@
         <v>49</v>
       </c>
       <c r="K123">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N123">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
         <v>3.6</v>
@@ -11442,10 +11442,10 @@
         <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11457,7 +11457,7 @@
         <v>2</v>
       </c>
       <c r="W123">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11466,7 +11466,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6804151</v>
+        <v>6804155</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,10 +11495,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11510,19 +11510,19 @@
         <v>49</v>
       </c>
       <c r="K124">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
+        <v>2.9</v>
+      </c>
+      <c r="N124">
+        <v>1.85</v>
+      </c>
+      <c r="O124">
         <v>3.5</v>
-      </c>
-      <c r="N124">
-        <v>1.909</v>
-      </c>
-      <c r="O124">
-        <v>3.3</v>
       </c>
       <c r="P124">
         <v>3.6</v>
@@ -11531,10 +11531,10 @@
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
         <v>2.5</v>
@@ -11546,7 +11546,7 @@
         <v>2</v>
       </c>
       <c r="W124">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11555,7 +11555,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6804154</v>
+        <v>6804152</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,40 +11673,40 @@
         <v>45136.5</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
         <v>3.6</v>
       </c>
       <c r="N126">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O126">
+        <v>3.4</v>
+      </c>
+      <c r="P126">
         <v>3.8</v>
       </c>
-      <c r="P126">
-        <v>6</v>
-      </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
         <v>1.825</v>
@@ -11715,22 +11715,22 @@
         <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
         <v>2.8</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
       </c>
       <c r="Z126">
         <v>-1</v>
@@ -11739,10 +11739,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11750,7 +11750,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6804152</v>
+        <v>6804154</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11762,40 +11762,40 @@
         <v>45136.5</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K127">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L127">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M127">
         <v>3.6</v>
       </c>
       <c r="N127">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P127">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R127">
         <v>1.825</v>
@@ -11804,22 +11804,22 @@
         <v>1.975</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y127">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11828,10 +11828,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6803328</v>
+        <v>6803159</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,76 +12118,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>50</v>
+      </c>
+      <c r="K131">
+        <v>1.75</v>
+      </c>
+      <c r="L131">
+        <v>3.6</v>
+      </c>
+      <c r="M131">
+        <v>4</v>
+      </c>
+      <c r="N131">
+        <v>1.75</v>
+      </c>
+      <c r="O131">
+        <v>3.75</v>
+      </c>
+      <c r="P131">
+        <v>4</v>
+      </c>
+      <c r="Q131">
+        <v>-0.5</v>
+      </c>
+      <c r="R131">
+        <v>1.775</v>
+      </c>
+      <c r="S131">
+        <v>2.025</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
+        <v>2</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>3</v>
+      </c>
+      <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>1.025</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>1</v>
-      </c>
-      <c r="J131" t="s">
-        <v>49</v>
-      </c>
-      <c r="K131">
-        <v>1.666</v>
-      </c>
-      <c r="L131">
-        <v>3.75</v>
-      </c>
-      <c r="M131">
-        <v>4.333</v>
-      </c>
-      <c r="N131">
-        <v>1.444</v>
-      </c>
-      <c r="O131">
-        <v>4.333</v>
-      </c>
-      <c r="P131">
-        <v>5.75</v>
-      </c>
-      <c r="Q131">
-        <v>-1.25</v>
-      </c>
-      <c r="R131">
-        <v>2</v>
-      </c>
-      <c r="S131">
-        <v>1.8</v>
-      </c>
-      <c r="T131">
-        <v>2.75</v>
-      </c>
-      <c r="U131">
-        <v>1.875</v>
-      </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
-      <c r="W131">
-        <v>0.444</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>1</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>0.875</v>
-      </c>
-      <c r="AC131">
-        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6803159</v>
+        <v>6803241</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,76 +12207,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M132">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N132">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P132">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
+        <v>1.85</v>
+      </c>
+      <c r="S132">
+        <v>1.95</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
         <v>1.775</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>2.025</v>
       </c>
-      <c r="T132">
-        <v>2.5</v>
-      </c>
-      <c r="U132">
-        <v>1.8</v>
-      </c>
-      <c r="V132">
-        <v>2</v>
-      </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC132">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803241</v>
+        <v>6803328</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,13 +12296,13 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -12311,43 +12311,43 @@
         <v>49</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L133">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N133">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O133">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P133">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12356,13 +12356,13 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6804157</v>
+        <v>6804160</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,73 +12474,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I135">
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L135">
+        <v>3.4</v>
+      </c>
+      <c r="M135">
+        <v>3.3</v>
+      </c>
+      <c r="N135">
+        <v>2.15</v>
+      </c>
+      <c r="O135">
         <v>3.25</v>
       </c>
-      <c r="M135">
-        <v>3.25</v>
-      </c>
-      <c r="N135">
-        <v>2.3</v>
-      </c>
-      <c r="O135">
-        <v>3.2</v>
-      </c>
       <c r="P135">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6804160</v>
+        <v>6804157</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,73 +12652,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H137">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M137">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N137">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W137">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB137">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6804164</v>
+        <v>6803160</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,76 +12741,76 @@
         <v>45143.5</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L138">
         <v>3.25</v>
       </c>
       <c r="M138">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N138">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T138">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X138">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6804161</v>
+        <v>6803329</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,76 +12830,76 @@
         <v>45143.5</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>48</v>
+      </c>
+      <c r="K139">
+        <v>2.6</v>
+      </c>
+      <c r="L139">
+        <v>3.25</v>
+      </c>
+      <c r="M139">
+        <v>2.375</v>
+      </c>
+      <c r="N139">
+        <v>2.6</v>
+      </c>
+      <c r="O139">
+        <v>3.25</v>
+      </c>
+      <c r="P139">
+        <v>2.375</v>
+      </c>
+      <c r="Q139">
         <v>0</v>
       </c>
-      <c r="J139" t="s">
-        <v>49</v>
-      </c>
-      <c r="K139">
-        <v>2.5</v>
-      </c>
-      <c r="L139">
-        <v>3</v>
-      </c>
-      <c r="M139">
-        <v>2.6</v>
-      </c>
-      <c r="N139">
-        <v>2.15</v>
-      </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
-      <c r="P139">
-        <v>3.1</v>
-      </c>
-      <c r="Q139">
-        <v>-0.25</v>
-      </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W139">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6803329</v>
+        <v>6804164</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,10 +12919,10 @@
         <v>45143.5</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -12934,46 +12934,46 @@
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
         <v>3.25</v>
       </c>
       <c r="M140">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N140">
         <v>2.6</v>
       </c>
       <c r="O140">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q140">
         <v>0</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
+        <v>1.825</v>
+      </c>
+      <c r="T140">
+        <v>3</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
         <v>1.8</v>
       </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
-      <c r="U140">
-        <v>1.775</v>
-      </c>
-      <c r="V140">
-        <v>2.025</v>
-      </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12988,7 +12988,7 @@
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6803160</v>
+        <v>6804161</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,58 +13008,58 @@
         <v>45143.5</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>49</v>
       </c>
       <c r="K141">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M141">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N141">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O141">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>1.75</v>
+        <v>1.15</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13068,16 +13068,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13619,7 +13619,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803161</v>
+        <v>6803330</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13631,73 +13631,73 @@
         <v>45150.5</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K148">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T148">
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB148">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6803330</v>
+        <v>6803161</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>45150.5</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G149" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H149">
+        <v>4</v>
+      </c>
+      <c r="I149">
         <v>1</v>
       </c>
-      <c r="I149">
-        <v>3</v>
-      </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N149">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P149">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q149">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
         <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA149">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13975,7 +13975,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6803243</v>
+        <v>6804168</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13987,76 +13987,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L152">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N152">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O152">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14064,7 +14064,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6804168</v>
+        <v>6803243</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14076,76 +14076,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M153">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N153">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O153">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P153">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC153">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14242,7 +14242,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6804175</v>
+        <v>6803244</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14254,49 +14254,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H155">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K155">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L155">
         <v>3.25</v>
       </c>
       <c r="M155">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N155">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O155">
         <v>3.3</v>
       </c>
       <c r="P155">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
         <v>1.975</v>
@@ -14305,25 +14305,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>1.6</v>
+      </c>
+      <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
         <v>1</v>
       </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
-      <c r="Z155">
-        <v>0.925</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
       <c r="AB155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14331,7 +14331,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6803244</v>
+        <v>6804175</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14343,49 +14343,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L156">
         <v>3.25</v>
       </c>
       <c r="M156">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N156">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O156">
         <v>3.3</v>
       </c>
       <c r="P156">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
         <v>1.975</v>
@@ -14394,25 +14394,25 @@
         <v>1.825</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14420,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6803331</v>
+        <v>6804174</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14432,49 +14432,49 @@
         <v>45157.5</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K157">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L157">
         <v>3.2</v>
       </c>
       <c r="M157">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N157">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O157">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q157">
         <v>0</v>
       </c>
       <c r="R157">
+        <v>1.85</v>
+      </c>
+      <c r="S157">
         <v>1.95</v>
       </c>
-      <c r="S157">
-        <v>1.85</v>
-      </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
         <v>1.975</v>
@@ -14486,16 +14486,16 @@
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y157">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6804171</v>
+        <v>6803331</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45157.5</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L158">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O158">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6804173</v>
+        <v>6804171</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,13 +14610,13 @@
         <v>45157.5</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -14625,43 +14625,43 @@
         <v>49</v>
       </c>
       <c r="K159">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M159">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N159">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P159">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W159">
-        <v>0.833</v>
+        <v>0.909</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14670,13 +14670,13 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14687,7 +14687,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6804174</v>
+        <v>6804172</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14699,61 +14699,61 @@
         <v>45157.5</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K160">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L160">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N160">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O160">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X160">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
@@ -14768,7 +14768,7 @@
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6804172</v>
+        <v>6804173</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14788,58 +14788,58 @@
         <v>45157.5</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161">
         <v>1</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>49</v>
       </c>
       <c r="K161">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M161">
+        <v>2.75</v>
+      </c>
+      <c r="N161">
+        <v>1.833</v>
+      </c>
+      <c r="O161">
         <v>3.8</v>
       </c>
-      <c r="N161">
-        <v>1.5</v>
-      </c>
-      <c r="O161">
-        <v>4.2</v>
-      </c>
       <c r="P161">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
         <v>3</v>
       </c>
       <c r="U161">
+        <v>1.875</v>
+      </c>
+      <c r="V161">
         <v>1.925</v>
       </c>
-      <c r="V161">
-        <v>1.875</v>
-      </c>
       <c r="W161">
-        <v>0.5</v>
+        <v>0.833</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14848,16 +14848,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14954,7 +14954,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6804180</v>
+        <v>6804176</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14966,76 +14966,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
         <v>48</v>
       </c>
       <c r="K163">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L163">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N163">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O163">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R163">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15043,7 +15043,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6804176</v>
+        <v>6804180</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15055,76 +15055,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
         <v>48</v>
       </c>
       <c r="K164">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L164">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N164">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P164">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q164">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6804183</v>
+        <v>6803246</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,10 +15767,10 @@
         <v>45171.5</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15782,43 +15782,43 @@
         <v>49</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L172">
+        <v>3.2</v>
+      </c>
+      <c r="M172">
+        <v>2.5</v>
+      </c>
+      <c r="N172">
+        <v>2.7</v>
+      </c>
+      <c r="O172">
         <v>3.3</v>
       </c>
-      <c r="M172">
-        <v>3.2</v>
-      </c>
-      <c r="N172">
-        <v>1.65</v>
-      </c>
-      <c r="O172">
-        <v>3.8</v>
-      </c>
       <c r="P172">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S172">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T172">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W172">
-        <v>0.6499999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15827,16 +15827,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6803246</v>
+        <v>6803164</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,10 +15856,10 @@
         <v>45171.5</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15871,43 +15871,43 @@
         <v>49</v>
       </c>
       <c r="K173">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L173">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M173">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N173">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="O173">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P173">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S173">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U173">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15916,16 +15916,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6803164</v>
+        <v>6804183</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,10 +15945,10 @@
         <v>45171.5</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15960,43 +15960,43 @@
         <v>49</v>
       </c>
       <c r="K174">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N174">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O174">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P174">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q174">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S174">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U174">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16005,16 +16005,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
+        <v>0.4625</v>
+      </c>
+      <c r="AA174">
         <v>-0.5</v>
       </c>
-      <c r="AA174">
-        <v>0.5</v>
-      </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6804193</v>
+        <v>6803333</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,73 +16657,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G182" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L182">
         <v>3.25</v>
       </c>
       <c r="M182">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N182">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O182">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P182">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16734,7 +16734,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6803333</v>
+        <v>6804193</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16746,73 +16746,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K183">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L183">
         <v>3.25</v>
       </c>
       <c r="M183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N183">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O183">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P183">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S183">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y183">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA183">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB183">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -17891,7 +17891,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6803335</v>
+        <v>6804202</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17903,76 +17903,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L196">
         <v>3.3</v>
       </c>
       <c r="M196">
+        <v>3.4</v>
+      </c>
+      <c r="N196">
+        <v>2.1</v>
+      </c>
+      <c r="O196">
+        <v>3.3</v>
+      </c>
+      <c r="P196">
+        <v>3</v>
+      </c>
+      <c r="Q196">
+        <v>-0.25</v>
+      </c>
+      <c r="R196">
+        <v>1.85</v>
+      </c>
+      <c r="S196">
+        <v>1.95</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
+        <v>1.8</v>
+      </c>
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
         <v>2.3</v>
       </c>
-      <c r="N196">
-        <v>2.875</v>
-      </c>
-      <c r="O196">
-        <v>3.5</v>
-      </c>
-      <c r="P196">
-        <v>2.15</v>
-      </c>
-      <c r="Q196">
-        <v>0.25</v>
-      </c>
-      <c r="R196">
-        <v>1.875</v>
-      </c>
-      <c r="S196">
-        <v>1.925</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
-      <c r="U196">
-        <v>1.95</v>
-      </c>
-      <c r="V196">
-        <v>1.85</v>
-      </c>
-      <c r="W196">
-        <v>1.875</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB196">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17980,7 +17980,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6804202</v>
+        <v>6803335</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17992,76 +17992,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K197">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L197">
         <v>3.3</v>
       </c>
       <c r="M197">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N197">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O197">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P197">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
+        <v>1.875</v>
+      </c>
+      <c r="S197">
+        <v>1.925</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>1.95</v>
+      </c>
+      <c r="V197">
         <v>1.85</v>
       </c>
-      <c r="S197">
-        <v>1.95</v>
-      </c>
-      <c r="T197">
-        <v>2.5</v>
-      </c>
-      <c r="U197">
-        <v>2</v>
-      </c>
-      <c r="V197">
-        <v>1.8</v>
-      </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X197">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
+        <v>0.875</v>
+      </c>
+      <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>0.475</v>
+      </c>
+      <c r="AC197">
         <v>-0.5</v>
-      </c>
-      <c r="AA197">
-        <v>0.475</v>
-      </c>
-      <c r="AB197">
-        <v>-1</v>
-      </c>
-      <c r="AC197">
-        <v>0.8</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -19671,7 +19671,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6804214</v>
+        <v>6803169</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19683,58 +19683,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F216" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L216">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M216">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N216">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="O216">
         <v>3.3</v>
       </c>
       <c r="P216">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q216">
         <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T216">
         <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W216">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19743,16 +19743,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC216">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19760,7 +19760,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6803169</v>
+        <v>6804214</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19772,58 +19772,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F217" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
         <v>49</v>
       </c>
       <c r="K217">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L217">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M217">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="N217">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="O217">
         <v>3.3</v>
       </c>
       <c r="P217">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
         <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V217">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W217">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19832,16 +19832,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20650,7 +20650,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6804224</v>
+        <v>6805653</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20662,76 +20662,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K227">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L227">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M227">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N227">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="O227">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R227">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20828,7 +20828,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6804223</v>
+        <v>6804224</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20840,76 +20840,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L229">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N229">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O229">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P229">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q229">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V229">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y229">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20917,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6805653</v>
+        <v>6804223</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20929,76 +20929,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
         <v>50</v>
       </c>
       <c r="K230">
+        <v>1.444</v>
+      </c>
+      <c r="L230">
+        <v>4.5</v>
+      </c>
+      <c r="M230">
+        <v>5.5</v>
+      </c>
+      <c r="N230">
+        <v>1.5</v>
+      </c>
+      <c r="O230">
+        <v>4.333</v>
+      </c>
+      <c r="P230">
+        <v>5</v>
+      </c>
+      <c r="Q230">
+        <v>-1</v>
+      </c>
+      <c r="R230">
+        <v>1.9</v>
+      </c>
+      <c r="S230">
+        <v>1.9</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
+        <v>1.925</v>
+      </c>
+      <c r="V230">
+        <v>1.875</v>
+      </c>
+      <c r="W230">
+        <v>-1</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
         <v>4</v>
       </c>
-      <c r="L230">
-        <v>3.3</v>
-      </c>
-      <c r="M230">
-        <v>1.833</v>
-      </c>
-      <c r="N230">
-        <v>4.75</v>
-      </c>
-      <c r="O230">
-        <v>3.6</v>
-      </c>
-      <c r="P230">
-        <v>1.65</v>
-      </c>
-      <c r="Q230">
-        <v>0.75</v>
-      </c>
-      <c r="R230">
-        <v>1.8</v>
-      </c>
-      <c r="S230">
-        <v>2</v>
-      </c>
-      <c r="T230">
-        <v>2.5</v>
-      </c>
-      <c r="U230">
-        <v>1.8</v>
-      </c>
-      <c r="V230">
-        <v>2</v>
-      </c>
-      <c r="W230">
-        <v>-1</v>
-      </c>
-      <c r="X230">
-        <v>-1</v>
-      </c>
-      <c r="Y230">
-        <v>0.6499999999999999</v>
-      </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB230">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21006,7 +21006,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6804225</v>
+        <v>6803252</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21018,55 +21018,55 @@
         <v>45235.26041666666</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G231" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
         <v>50</v>
       </c>
       <c r="K231">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L231">
         <v>3.3</v>
       </c>
       <c r="M231">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N231">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P231">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q231">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S231">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21075,19 +21075,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21095,7 +21095,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6803252</v>
+        <v>6804225</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21107,56 +21107,56 @@
         <v>45235.26041666666</v>
       </c>
       <c r="F232" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G232" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J232" t="s">
         <v>50</v>
       </c>
       <c r="K232">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L232">
         <v>3.3</v>
       </c>
       <c r="M232">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N232">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O232">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q232">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
+        <v>1.825</v>
+      </c>
+      <c r="S232">
+        <v>1.975</v>
+      </c>
+      <c r="T232">
+        <v>2.75</v>
+      </c>
+      <c r="U232">
         <v>1.85</v>
       </c>
-      <c r="S232">
+      <c r="V232">
         <v>1.95</v>
       </c>
-      <c r="T232">
-        <v>3</v>
-      </c>
-      <c r="U232">
-        <v>2</v>
-      </c>
-      <c r="V232">
-        <v>1.8</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
@@ -21164,19 +21164,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC232">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21451,7 +21451,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21463,13 +21463,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -21478,43 +21478,43 @@
         <v>49</v>
       </c>
       <c r="K236">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L236">
         <v>3.25</v>
       </c>
       <c r="M236">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N236">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O236">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P236">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S236">
+        <v>1.875</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
         <v>1.8</v>
       </c>
-      <c r="T236">
-        <v>2.5</v>
-      </c>
-      <c r="U236">
-        <v>1.975</v>
-      </c>
-      <c r="V236">
-        <v>1.825</v>
-      </c>
       <c r="W236">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA236">
         <v>-1</v>
@@ -21532,7 +21532,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21540,7 +21540,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21552,13 +21552,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21567,43 +21567,43 @@
         <v>49</v>
       </c>
       <c r="K237">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L237">
         <v>3.25</v>
       </c>
       <c r="M237">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N237">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O237">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA237">
         <v>-1</v>
@@ -21621,7 +21621,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5205482</v>
+        <v>5205483</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,10 +2061,10 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         <v>50</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P18">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
@@ -2106,11 +2106,11 @@
         <v>2.5</v>
       </c>
       <c r="U18">
+        <v>1.975</v>
+      </c>
+      <c r="V18">
         <v>1.825</v>
       </c>
-      <c r="V18">
-        <v>1.975</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2130,7 +2130,7 @@
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2138,7 +2138,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5205480</v>
+        <v>5205482</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,55 +2150,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N19">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2207,19 +2207,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5205483</v>
+        <v>5205480</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,55 +2239,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>50</v>
       </c>
       <c r="K20">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M20">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P20">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2296,19 +2296,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5205505</v>
+        <v>5205501</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,58 +4286,58 @@
         <v>45031.21875</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>49</v>
       </c>
       <c r="K43">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M43">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N43">
+        <v>1.6</v>
+      </c>
+      <c r="O43">
+        <v>3.75</v>
+      </c>
+      <c r="P43">
+        <v>4.5</v>
+      </c>
+      <c r="Q43">
+        <v>-0.75</v>
+      </c>
+      <c r="R43">
+        <v>1.8</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
         <v>2.75</v>
       </c>
-      <c r="O43">
-        <v>2.9</v>
-      </c>
-      <c r="P43">
-        <v>2.5</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>1.825</v>
-      </c>
-      <c r="S43">
-        <v>1.975</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
       <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
         <v>1.8</v>
       </c>
-      <c r="V43">
-        <v>2</v>
-      </c>
       <c r="W43">
-        <v>1.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4346,16 +4346,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5205501</v>
+        <v>5205505</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,58 +4375,58 @@
         <v>45031.21875</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>49</v>
       </c>
       <c r="K44">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N44">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="O44">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P44">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
+        <v>1.825</v>
+      </c>
+      <c r="S44">
+        <v>1.975</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
         <v>1.8</v>
       </c>
-      <c r="S44">
-        <v>2</v>
-      </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>0.6000000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4435,16 +4435,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5203870</v>
+        <v>5205513</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,76 +4909,76 @@
         <v>45035.5</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L50">
         <v>3.1</v>
       </c>
       <c r="M50">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
+        <v>1.925</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
         <v>1.8</v>
       </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>1.925</v>
-      </c>
-      <c r="V50">
-        <v>1.875</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5205512</v>
+        <v>5203870</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,40 +4998,40 @@
         <v>45035.5</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M51">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N51">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5040,34 +5040,34 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5205510</v>
+        <v>5205508</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,58 +5087,58 @@
         <v>45035.5</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>49</v>
       </c>
       <c r="K52">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L52">
         <v>3.4</v>
       </c>
       <c r="M52">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N52">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
+        <v>1.975</v>
+      </c>
+      <c r="V52">
         <v>1.825</v>
       </c>
-      <c r="V52">
-        <v>1.975</v>
-      </c>
       <c r="W52">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5147,13 +5147,13 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5164,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5205511</v>
+        <v>5205509</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,58 +5176,58 @@
         <v>45035.5</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>49</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L53">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5236,16 +5236,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5205513</v>
+        <v>5205512</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,73 +5265,73 @@
         <v>45035.5</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5205509</v>
+        <v>5205511</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,58 +5354,58 @@
         <v>45035.5</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>49</v>
       </c>
       <c r="K55">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M55">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N55">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O55">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T55">
         <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>1.875</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5414,16 +5414,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5205508</v>
+        <v>5205510</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,58 +5443,58 @@
         <v>45035.5</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>49</v>
       </c>
       <c r="K56">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L56">
         <v>3.4</v>
       </c>
       <c r="M56">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N56">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
+        <v>1.825</v>
+      </c>
+      <c r="V56">
         <v>1.975</v>
       </c>
-      <c r="V56">
-        <v>1.825</v>
-      </c>
       <c r="W56">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5503,13 +5503,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5205515</v>
+        <v>5204476</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,61 +5532,61 @@
         <v>45038.21875</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L57">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N57">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O57">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P57">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5595,13 +5595,13 @@
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5609,7 +5609,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5204476</v>
+        <v>5205515</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5621,61 +5621,61 @@
         <v>45038.21875</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>48</v>
       </c>
       <c r="K58">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M58">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O58">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -5684,13 +5684,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5205519</v>
+        <v>5205514</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,40 +5888,40 @@
         <v>45039.5</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N61">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P61">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
         <v>2.025</v>
@@ -5930,34 +5930,34 @@
         <v>1.775</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5205514</v>
+        <v>5205519</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,40 +6066,40 @@
         <v>45039.5</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M63">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N63">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
         <v>2.025</v>
@@ -6108,34 +6108,34 @@
         <v>1.775</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA63">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5205521</v>
+        <v>5205526</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,40 +6511,40 @@
         <v>45045.5</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>50</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N68">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O68">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
         <v>1.775</v>
@@ -6553,13 +6553,13 @@
         <v>2.025</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6568,7 +6568,7 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.6</v>
+        <v>4.25</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6577,10 +6577,10 @@
         <v>1.025</v>
       </c>
       <c r="AB68">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5205524</v>
+        <v>5205521</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,49 +6600,49 @@
         <v>45045.5</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>3.25</v>
+      </c>
+      <c r="M69">
+        <v>3.2</v>
+      </c>
+      <c r="N69">
+        <v>2.3</v>
+      </c>
+      <c r="O69">
+        <v>3.3</v>
+      </c>
+      <c r="P69">
+        <v>2.6</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>49</v>
-      </c>
-      <c r="K69">
-        <v>2.15</v>
-      </c>
-      <c r="L69">
-        <v>3.2</v>
-      </c>
-      <c r="M69">
-        <v>3.1</v>
-      </c>
-      <c r="N69">
-        <v>2.15</v>
-      </c>
-      <c r="O69">
-        <v>3.25</v>
-      </c>
-      <c r="P69">
-        <v>2.9</v>
-      </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
         <v>1.85</v>
@@ -6651,25 +6651,25 @@
         <v>1.95</v>
       </c>
       <c r="W69">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5205526</v>
+        <v>5205524</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,76 +6689,76 @@
         <v>45045.5</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N70">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P70">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5205532</v>
+        <v>5205533</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>45052.5</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K77">
+        <v>1.571</v>
+      </c>
+      <c r="L77">
+        <v>3.6</v>
+      </c>
+      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="N77">
         <v>1.8</v>
       </c>
-      <c r="L77">
-        <v>3.4</v>
-      </c>
-      <c r="M77">
-        <v>3.75</v>
-      </c>
-      <c r="N77">
-        <v>1.533</v>
-      </c>
       <c r="O77">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
+        <v>1.9</v>
+      </c>
+      <c r="S77">
+        <v>1.9</v>
+      </c>
+      <c r="T77">
+        <v>2.25</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
-        <v>3</v>
-      </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y77">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
+        <v>-1</v>
+      </c>
+      <c r="AC77">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7389,7 +7389,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5205533</v>
+        <v>5205532</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7401,76 +7401,76 @@
         <v>45052.5</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K78">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N78">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5205534</v>
+        <v>5205528</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7490,58 +7490,58 @@
         <v>45053.5</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>49</v>
       </c>
       <c r="K79">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L79">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M79">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N79">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>0.444</v>
+        <v>1.9</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7550,16 +7550,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5205528</v>
+        <v>5205534</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,58 +7579,58 @@
         <v>45053.5</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>49</v>
       </c>
       <c r="K80">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N80">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7639,16 +7639,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5204481</v>
+        <v>5205555</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,10 +9181,10 @@
         <v>45070.5</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9196,43 +9196,43 @@
         <v>49</v>
       </c>
       <c r="K98">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N98">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="O98">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P98">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>0.7</v>
+        <v>0.444</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9241,16 +9241,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA98">
+        <v>-0</v>
+      </c>
+      <c r="AB98">
+        <v>0.3875</v>
+      </c>
+      <c r="AC98">
         <v>-0.5</v>
-      </c>
-      <c r="AB98">
-        <v>0</v>
-      </c>
-      <c r="AC98">
-        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5205555</v>
+        <v>5204481</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,10 +9270,10 @@
         <v>45070.5</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9285,43 +9285,43 @@
         <v>49</v>
       </c>
       <c r="K99">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L99">
+        <v>3.3</v>
+      </c>
+      <c r="M99">
+        <v>2.45</v>
+      </c>
+      <c r="N99">
+        <v>1.7</v>
+      </c>
+      <c r="O99">
         <v>3.75</v>
       </c>
-      <c r="M99">
-        <v>5</v>
-      </c>
-      <c r="N99">
-        <v>1.444</v>
-      </c>
-      <c r="O99">
-        <v>4</v>
-      </c>
       <c r="P99">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.444</v>
+        <v>0.7</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9330,16 +9330,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0.4875</v>
+      </c>
+      <c r="AA99">
+        <v>-0.5</v>
+      </c>
+      <c r="AB99">
         <v>0</v>
       </c>
-      <c r="AA99">
+      <c r="AC99">
         <v>-0</v>
-      </c>
-      <c r="AB99">
-        <v>0.3875</v>
-      </c>
-      <c r="AC99">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9347,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5205554</v>
+        <v>5205553</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,76 +9359,76 @@
         <v>45070.5</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N100">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O100">
         <v>3.6</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5205553</v>
+        <v>5205552</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,76 +9448,76 @@
         <v>45070.5</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
         <v>0</v>
       </c>
-      <c r="I101">
-        <v>3</v>
-      </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N101">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5205552</v>
+        <v>5205549</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,58 +9715,58 @@
         <v>45070.5</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H104">
+        <v>4</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>49</v>
       </c>
       <c r="K104">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N104">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O104">
         <v>4.2</v>
       </c>
       <c r="P104">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
+        <v>2.025</v>
+      </c>
+      <c r="V104">
         <v>1.775</v>
       </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
       <c r="W104">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9775,16 +9775,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9792,7 +9792,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5205549</v>
+        <v>5205554</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9804,58 +9804,58 @@
         <v>45070.5</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H105">
         <v>4</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>49</v>
       </c>
       <c r="K105">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O105">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
         <v>3</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
-        <v>0.3999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9864,13 +9864,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>1</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.875</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>1.025</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9881,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5205556</v>
+        <v>5231437</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,76 +9893,76 @@
         <v>45074.5</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>49</v>
+      </c>
+      <c r="K106">
+        <v>1.5</v>
+      </c>
+      <c r="L106">
+        <v>3.75</v>
+      </c>
+      <c r="M106">
+        <v>5.5</v>
+      </c>
+      <c r="N106">
+        <v>1.666</v>
+      </c>
+      <c r="O106">
+        <v>3.8</v>
+      </c>
+      <c r="P106">
+        <v>4</v>
+      </c>
+      <c r="Q106">
+        <v>-0.75</v>
+      </c>
+      <c r="R106">
+        <v>1.925</v>
+      </c>
+      <c r="S106">
+        <v>1.875</v>
+      </c>
+      <c r="T106">
+        <v>3</v>
+      </c>
+      <c r="U106">
+        <v>1.925</v>
+      </c>
+      <c r="V106">
+        <v>1.875</v>
+      </c>
+      <c r="W106">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <v>-1</v>
+      </c>
+      <c r="Z106">
+        <v>0.4625</v>
+      </c>
+      <c r="AA106">
+        <v>-0.5</v>
+      </c>
+      <c r="AB106">
         <v>0</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106" t="s">
-        <v>48</v>
-      </c>
-      <c r="K106">
-        <v>5</v>
-      </c>
-      <c r="L106">
-        <v>3.6</v>
-      </c>
-      <c r="M106">
-        <v>1.571</v>
-      </c>
-      <c r="N106">
-        <v>3.2</v>
-      </c>
-      <c r="O106">
-        <v>3.4</v>
-      </c>
-      <c r="P106">
-        <v>2</v>
-      </c>
-      <c r="Q106">
-        <v>0.5</v>
-      </c>
-      <c r="R106">
-        <v>1.775</v>
-      </c>
-      <c r="S106">
-        <v>2.025</v>
-      </c>
-      <c r="T106">
-        <v>2.75</v>
-      </c>
-      <c r="U106">
-        <v>1.875</v>
-      </c>
-      <c r="V106">
-        <v>1.925</v>
-      </c>
-      <c r="W106">
-        <v>-1</v>
-      </c>
-      <c r="X106">
-        <v>2.4</v>
-      </c>
-      <c r="Y106">
-        <v>-1</v>
-      </c>
-      <c r="Z106">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5205558</v>
+        <v>5213692</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,73 +9982,73 @@
         <v>45074.5</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L107">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N107">
         <v>2.15</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q107">
         <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5205557</v>
+        <v>5205558</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,37 +10071,37 @@
         <v>45074.5</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
         <v>50</v>
       </c>
       <c r="K108">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N108">
         <v>2.15</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q108">
         <v>-0.25</v>
@@ -10113,13 +10113,13 @@
         <v>1.875</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10128,7 +10128,7 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Z108">
         <v>-1</v>
@@ -10137,10 +10137,10 @@
         <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10148,7 +10148,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5231437</v>
+        <v>5205556</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,76 +10160,76 @@
         <v>45074.5</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K109">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="N109">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
+        <v>1.775</v>
+      </c>
+      <c r="S109">
+        <v>2.025</v>
+      </c>
+      <c r="T109">
+        <v>2.75</v>
+      </c>
+      <c r="U109">
+        <v>1.875</v>
+      </c>
+      <c r="V109">
         <v>1.925</v>
       </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
-      <c r="T109">
-        <v>3</v>
-      </c>
-      <c r="U109">
-        <v>1.925</v>
-      </c>
-      <c r="V109">
-        <v>1.875</v>
-      </c>
       <c r="W109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10237,7 +10237,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5232539</v>
+        <v>5204482</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10249,73 +10249,73 @@
         <v>45074.5</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K110">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L110">
         <v>3.4</v>
       </c>
       <c r="M110">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N110">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X110">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10326,7 +10326,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5232540</v>
+        <v>5205557</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10338,76 +10338,76 @@
         <v>45074.5</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L111">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="N111">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="Q111">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
+        <v>1.925</v>
+      </c>
+      <c r="S111">
         <v>1.875</v>
-      </c>
-      <c r="S111">
-        <v>1.925</v>
       </c>
       <c r="T111">
         <v>3.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5213692</v>
+        <v>5232539</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,73 +10427,73 @@
         <v>45074.5</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
+        <v>3.75</v>
+      </c>
+      <c r="L112">
+        <v>3.4</v>
+      </c>
+      <c r="M112">
         <v>1.8</v>
       </c>
-      <c r="L112">
-        <v>3.6</v>
-      </c>
-      <c r="M112">
-        <v>3.6</v>
-      </c>
       <c r="N112">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5204482</v>
+        <v>5232540</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,58 +10516,58 @@
         <v>45074.5</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.5</v>
+        <v>1.166</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M113">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="N113">
-        <v>3.8</v>
+        <v>1.222</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P113">
-        <v>1.727</v>
+        <v>8.5</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>2.8</v>
+        <v>0.222</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10576,16 +10576,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6804151</v>
+        <v>6804155</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,10 +11406,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11421,19 +11421,19 @@
         <v>49</v>
       </c>
       <c r="K123">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
+        <v>2.9</v>
+      </c>
+      <c r="N123">
+        <v>1.85</v>
+      </c>
+      <c r="O123">
         <v>3.5</v>
-      </c>
-      <c r="N123">
-        <v>1.909</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
       </c>
       <c r="P123">
         <v>3.6</v>
@@ -11442,10 +11442,10 @@
         <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11457,7 +11457,7 @@
         <v>2</v>
       </c>
       <c r="W123">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11466,7 +11466,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6804155</v>
+        <v>6804151</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,10 +11495,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11510,19 +11510,19 @@
         <v>49</v>
       </c>
       <c r="K124">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N124">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
         <v>3.6</v>
@@ -11531,10 +11531,10 @@
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
         <v>2.5</v>
@@ -11546,7 +11546,7 @@
         <v>2</v>
       </c>
       <c r="W124">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11555,7 +11555,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6803327</v>
+        <v>6804154</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,76 +11584,76 @@
         <v>45136.5</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L125">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N125">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11750,7 +11750,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6804154</v>
+        <v>6803327</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11762,76 +11762,76 @@
         <v>45136.5</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="M127">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N127">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O127">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X127">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6803159</v>
+        <v>6804159</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,76 +12118,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q131">
+        <v>-0.25</v>
+      </c>
+      <c r="R131">
+        <v>2.025</v>
+      </c>
+      <c r="S131">
+        <v>1.775</v>
+      </c>
+      <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
+        <v>1.85</v>
+      </c>
+      <c r="V131">
+        <v>1.95</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>2.5</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
         <v>-0.5</v>
       </c>
-      <c r="R131">
-        <v>1.775</v>
-      </c>
-      <c r="S131">
-        <v>2.025</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
-      <c r="U131">
-        <v>1.8</v>
-      </c>
-      <c r="V131">
-        <v>2</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>3</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6803241</v>
+        <v>6803328</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,13 +12207,13 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -12222,43 +12222,43 @@
         <v>49</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L132">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N132">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O132">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P132">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12267,13 +12267,13 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803328</v>
+        <v>6804156</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,40 +12296,40 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>49</v>
       </c>
       <c r="K133">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N133">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
         <v>2</v>
@@ -12338,16 +12338,16 @@
         <v>1.8</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>0.444</v>
+        <v>1.2</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12362,10 +12362,10 @@
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6804156</v>
+        <v>6804157</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,19 +12385,19 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K134">
         <v>2.1</v>
@@ -12409,52 +12409,52 @@
         <v>3.25</v>
       </c>
       <c r="N134">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q134">
         <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6804159</v>
+        <v>6803241</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,73 +12563,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>3</v>
       </c>
       <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>49</v>
+      </c>
+      <c r="K136">
         <v>3</v>
       </c>
-      <c r="J136" t="s">
-        <v>48</v>
-      </c>
-      <c r="K136">
-        <v>2.1</v>
-      </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M136">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N136">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
+        <v>1.85</v>
+      </c>
+      <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>1.775</v>
+      </c>
+      <c r="V136">
         <v>2.025</v>
       </c>
-      <c r="S136">
-        <v>1.775</v>
-      </c>
-      <c r="T136">
-        <v>3</v>
-      </c>
-      <c r="U136">
-        <v>1.85</v>
-      </c>
-      <c r="V136">
-        <v>1.95</v>
-      </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X136">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA136">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6804157</v>
+        <v>6803159</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,55 +12652,55 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>50</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L137">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N137">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
+        <v>1.775</v>
+      </c>
+      <c r="S137">
         <v>2.025</v>
       </c>
-      <c r="S137">
-        <v>1.775</v>
-      </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12709,19 +12709,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.875</v>
+        <v>3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6803160</v>
+        <v>6804164</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,76 +12741,76 @@
         <v>45143.5</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
         <v>3.25</v>
       </c>
       <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>2.6</v>
+      </c>
+      <c r="O138">
+        <v>3.2</v>
+      </c>
+      <c r="P138">
+        <v>2.4</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>1.975</v>
+      </c>
+      <c r="S138">
+        <v>1.825</v>
+      </c>
+      <c r="T138">
+        <v>3</v>
+      </c>
+      <c r="U138">
+        <v>2</v>
+      </c>
+      <c r="V138">
+        <v>1.8</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>2.2</v>
       </c>
-      <c r="N138">
-        <v>2.75</v>
-      </c>
-      <c r="O138">
-        <v>3.25</v>
-      </c>
-      <c r="P138">
-        <v>2.25</v>
-      </c>
-      <c r="Q138">
-        <v>0.25</v>
-      </c>
-      <c r="R138">
-        <v>1.775</v>
-      </c>
-      <c r="S138">
-        <v>2.025</v>
-      </c>
-      <c r="T138">
-        <v>2.5</v>
-      </c>
-      <c r="U138">
-        <v>1.925</v>
-      </c>
-      <c r="V138">
-        <v>1.875</v>
-      </c>
-      <c r="W138">
-        <v>1.75</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6803329</v>
+        <v>6804161</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,76 +12830,76 @@
         <v>45143.5</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
+        <v>2.5</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
         <v>2.6</v>
       </c>
-      <c r="L139">
-        <v>3.25</v>
-      </c>
-      <c r="M139">
-        <v>2.375</v>
-      </c>
       <c r="N139">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X139">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6804164</v>
+        <v>6803329</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,10 +12919,10 @@
         <v>45143.5</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -12934,46 +12934,46 @@
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
         <v>3.25</v>
       </c>
       <c r="M140">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N140">
         <v>2.6</v>
       </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P140">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q140">
         <v>0</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12988,7 +12988,7 @@
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6804161</v>
+        <v>6803160</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,58 +13008,58 @@
         <v>45143.5</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>49</v>
       </c>
       <c r="K141">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N141">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13068,16 +13068,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
         <v>0.925</v>
       </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
-      <c r="AB141">
-        <v>-1</v>
-      </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -14242,7 +14242,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6803244</v>
+        <v>6804175</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14254,49 +14254,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I155">
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K155">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L155">
         <v>3.25</v>
       </c>
       <c r="M155">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N155">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O155">
         <v>3.3</v>
       </c>
       <c r="P155">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S155">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
         <v>1.975</v>
@@ -14305,25 +14305,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14331,7 +14331,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6804175</v>
+        <v>6803244</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14343,49 +14343,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H156">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K156">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L156">
         <v>3.25</v>
       </c>
       <c r="M156">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N156">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O156">
         <v>3.3</v>
       </c>
       <c r="P156">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
         <v>1.975</v>
@@ -14394,25 +14394,25 @@
         <v>1.825</v>
       </c>
       <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>1.6</v>
+      </c>
+      <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
         <v>1</v>
       </c>
-      <c r="X156">
-        <v>-1</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>0.925</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
       <c r="AB156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6803331</v>
+        <v>6804171</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45157.5</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K158">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L158">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M158">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O158">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P158">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB158">
-        <v>-1</v>
-      </c>
       <c r="AC158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6804171</v>
+        <v>6804172</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,58 +14610,58 @@
         <v>45157.5</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>49</v>
       </c>
       <c r="K159">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L159">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N159">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O159">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P159">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S159">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14670,16 +14670,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14687,7 +14687,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6804172</v>
+        <v>6804173</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14699,58 +14699,58 @@
         <v>45157.5</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H160">
+        <v>3</v>
+      </c>
+      <c r="I160">
         <v>1</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>49</v>
       </c>
       <c r="K160">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M160">
+        <v>2.75</v>
+      </c>
+      <c r="N160">
+        <v>1.833</v>
+      </c>
+      <c r="O160">
         <v>3.8</v>
       </c>
-      <c r="N160">
-        <v>1.5</v>
-      </c>
-      <c r="O160">
-        <v>4.2</v>
-      </c>
       <c r="P160">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S160">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
         <v>3</v>
       </c>
       <c r="U160">
+        <v>1.875</v>
+      </c>
+      <c r="V160">
         <v>1.925</v>
       </c>
-      <c r="V160">
-        <v>1.875</v>
-      </c>
       <c r="W160">
-        <v>0.5</v>
+        <v>0.833</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14759,16 +14759,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC160">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6804173</v>
+        <v>6803331</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14788,76 +14788,76 @@
         <v>45157.5</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L161">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M161">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N161">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O161">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P161">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6803246</v>
+        <v>6804184</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,76 +15767,76 @@
         <v>45171.5</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N172">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O172">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P172">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6803164</v>
+        <v>6804183</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,10 +15856,10 @@
         <v>45171.5</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15871,43 +15871,43 @@
         <v>49</v>
       </c>
       <c r="K173">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N173">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O173">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P173">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15916,16 +15916,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
+        <v>0.4625</v>
+      </c>
+      <c r="AA173">
         <v>-0.5</v>
       </c>
-      <c r="AA173">
-        <v>0.5</v>
-      </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6804183</v>
+        <v>6803246</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,10 +15945,10 @@
         <v>45171.5</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15960,43 +15960,43 @@
         <v>49</v>
       </c>
       <c r="K174">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L174">
+        <v>3.2</v>
+      </c>
+      <c r="M174">
+        <v>2.5</v>
+      </c>
+      <c r="N174">
+        <v>2.7</v>
+      </c>
+      <c r="O174">
         <v>3.3</v>
       </c>
-      <c r="M174">
-        <v>3.2</v>
-      </c>
-      <c r="N174">
-        <v>1.65</v>
-      </c>
-      <c r="O174">
-        <v>3.8</v>
-      </c>
       <c r="P174">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R174">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T174">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
-        <v>0.6499999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16005,16 +16005,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16022,7 +16022,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6804184</v>
+        <v>6803164</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16034,76 +16034,76 @@
         <v>45171.5</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="L175">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N175">
-        <v>1.6</v>
+        <v>1.363</v>
       </c>
       <c r="O175">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P175">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R175">
+        <v>1.8</v>
+      </c>
+      <c r="S175">
+        <v>2</v>
+      </c>
+      <c r="T175">
+        <v>3</v>
+      </c>
+      <c r="U175">
+        <v>1.975</v>
+      </c>
+      <c r="V175">
         <v>1.825</v>
       </c>
-      <c r="S175">
-        <v>1.975</v>
-      </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
-      <c r="U175">
-        <v>1.9</v>
-      </c>
-      <c r="V175">
-        <v>1.9</v>
-      </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X175">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -17891,7 +17891,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6804202</v>
+        <v>6803335</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17903,76 +17903,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L196">
         <v>3.3</v>
       </c>
       <c r="M196">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N196">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
+        <v>1.875</v>
+      </c>
+      <c r="S196">
+        <v>1.925</v>
+      </c>
+      <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>1.95</v>
+      </c>
+      <c r="V196">
         <v>1.85</v>
       </c>
-      <c r="S196">
-        <v>1.95</v>
-      </c>
-      <c r="T196">
-        <v>2.5</v>
-      </c>
-      <c r="U196">
-        <v>2</v>
-      </c>
-      <c r="V196">
-        <v>1.8</v>
-      </c>
       <c r="W196">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X196">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
+        <v>0.875</v>
+      </c>
+      <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>0.475</v>
+      </c>
+      <c r="AC196">
         <v>-0.5</v>
-      </c>
-      <c r="AA196">
-        <v>0.475</v>
-      </c>
-      <c r="AB196">
-        <v>-1</v>
-      </c>
-      <c r="AC196">
-        <v>0.8</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17980,7 +17980,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6803335</v>
+        <v>6804202</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17992,76 +17992,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L197">
         <v>3.3</v>
       </c>
       <c r="M197">
+        <v>3.4</v>
+      </c>
+      <c r="N197">
+        <v>2.1</v>
+      </c>
+      <c r="O197">
+        <v>3.3</v>
+      </c>
+      <c r="P197">
+        <v>3</v>
+      </c>
+      <c r="Q197">
+        <v>-0.25</v>
+      </c>
+      <c r="R197">
+        <v>1.85</v>
+      </c>
+      <c r="S197">
+        <v>1.95</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>2</v>
+      </c>
+      <c r="V197">
+        <v>1.8</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
         <v>2.3</v>
       </c>
-      <c r="N197">
-        <v>2.875</v>
-      </c>
-      <c r="O197">
-        <v>3.5</v>
-      </c>
-      <c r="P197">
-        <v>2.15</v>
-      </c>
-      <c r="Q197">
-        <v>0.25</v>
-      </c>
-      <c r="R197">
-        <v>1.875</v>
-      </c>
-      <c r="S197">
-        <v>1.925</v>
-      </c>
-      <c r="T197">
-        <v>2.75</v>
-      </c>
-      <c r="U197">
-        <v>1.95</v>
-      </c>
-      <c r="V197">
-        <v>1.85</v>
-      </c>
-      <c r="W197">
-        <v>1.875</v>
-      </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB197">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6803250</v>
+        <v>6804208</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,13 +18526,13 @@
         <v>45206.21875</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -18541,43 +18541,43 @@
         <v>49</v>
       </c>
       <c r="K203">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N203">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O203">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P203">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q203">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R203">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W203">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18586,7 +18586,7 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA203">
         <v>-1</v>
@@ -18595,7 +18595,7 @@
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6804208</v>
+        <v>6803250</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,13 +18615,13 @@
         <v>45206.21875</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -18630,43 +18630,43 @@
         <v>49</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M204">
+        <v>5</v>
+      </c>
+      <c r="N204">
+        <v>1.5</v>
+      </c>
+      <c r="O204">
+        <v>4.2</v>
+      </c>
+      <c r="P204">
+        <v>5.75</v>
+      </c>
+      <c r="Q204">
+        <v>-1</v>
+      </c>
+      <c r="R204">
+        <v>1.825</v>
+      </c>
+      <c r="S204">
+        <v>1.975</v>
+      </c>
+      <c r="T204">
         <v>2.75</v>
       </c>
-      <c r="N204">
-        <v>2.9</v>
-      </c>
-      <c r="O204">
-        <v>3.2</v>
-      </c>
-      <c r="P204">
-        <v>2.3</v>
-      </c>
-      <c r="Q204">
-        <v>0.25</v>
-      </c>
-      <c r="R204">
+      <c r="U204">
         <v>1.775</v>
       </c>
-      <c r="S204">
+      <c r="V204">
         <v>2.025</v>
       </c>
-      <c r="T204">
-        <v>2.25</v>
-      </c>
-      <c r="U204">
-        <v>1.8</v>
-      </c>
-      <c r="V204">
-        <v>2</v>
-      </c>
       <c r="W204">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18675,7 +18675,7 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA204">
         <v>-1</v>
@@ -18684,7 +18684,7 @@
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19493,7 +19493,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6803337</v>
+        <v>6804213</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19505,73 +19505,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I214">
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K214">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L214">
         <v>3.25</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19582,7 +19582,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6804213</v>
+        <v>6803337</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19594,73 +19594,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I215">
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K215">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N215">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O215">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19671,7 +19671,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6803169</v>
+        <v>6804214</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19683,58 +19683,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L216">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="N216">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="O216">
         <v>3.3</v>
       </c>
       <c r="P216">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q216">
         <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T216">
         <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19743,16 +19743,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19760,7 +19760,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6804214</v>
+        <v>6803169</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19772,58 +19772,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>49</v>
       </c>
       <c r="K217">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L217">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M217">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N217">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="O217">
         <v>3.3</v>
       </c>
       <c r="P217">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
         <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V217">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W217">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19832,16 +19832,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC217">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20650,7 +20650,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6805653</v>
+        <v>6804227</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20662,55 +20662,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
         <v>50</v>
       </c>
       <c r="K227">
+        <v>1.727</v>
+      </c>
+      <c r="L227">
+        <v>3.75</v>
+      </c>
+      <c r="M227">
         <v>4</v>
       </c>
-      <c r="L227">
-        <v>3.3</v>
-      </c>
-      <c r="M227">
-        <v>1.833</v>
-      </c>
       <c r="N227">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O227">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P227">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q227">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R227">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20719,19 +20719,19 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0.6499999999999999</v>
+        <v>3.333</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB227">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20739,7 +20739,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6804227</v>
+        <v>6805653</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20751,55 +20751,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
         <v>50</v>
       </c>
       <c r="K228">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L228">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M228">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N228">
+        <v>4.75</v>
+      </c>
+      <c r="O228">
+        <v>3.6</v>
+      </c>
+      <c r="P228">
         <v>1.65</v>
       </c>
-      <c r="O228">
-        <v>4</v>
-      </c>
-      <c r="P228">
-        <v>4.333</v>
-      </c>
       <c r="Q228">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R228">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S228">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20808,19 +20808,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>3.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20828,7 +20828,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6804224</v>
+        <v>6804223</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20840,76 +20840,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K229">
+        <v>1.444</v>
+      </c>
+      <c r="L229">
+        <v>4.5</v>
+      </c>
+      <c r="M229">
+        <v>5.5</v>
+      </c>
+      <c r="N229">
+        <v>1.5</v>
+      </c>
+      <c r="O229">
+        <v>4.333</v>
+      </c>
+      <c r="P229">
+        <v>5</v>
+      </c>
+      <c r="Q229">
+        <v>-1</v>
+      </c>
+      <c r="R229">
+        <v>1.9</v>
+      </c>
+      <c r="S229">
+        <v>1.9</v>
+      </c>
+      <c r="T229">
         <v>2.75</v>
       </c>
-      <c r="L229">
-        <v>3.4</v>
-      </c>
-      <c r="M229">
-        <v>2.3</v>
-      </c>
-      <c r="N229">
-        <v>2.625</v>
-      </c>
-      <c r="O229">
-        <v>3.1</v>
-      </c>
-      <c r="P229">
-        <v>2.55</v>
-      </c>
-      <c r="Q229">
-        <v>0</v>
-      </c>
-      <c r="R229">
+      <c r="U229">
+        <v>1.925</v>
+      </c>
+      <c r="V229">
         <v>1.875</v>
       </c>
-      <c r="S229">
-        <v>1.925</v>
-      </c>
-      <c r="T229">
-        <v>2.25</v>
-      </c>
-      <c r="U229">
-        <v>1.95</v>
-      </c>
-      <c r="V229">
-        <v>1.85</v>
-      </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC229">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20917,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6804223</v>
+        <v>6804224</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20929,76 +20929,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L230">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M230">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N230">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O230">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P230">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S230">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y230">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5205501</v>
+        <v>5205505</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,58 +4286,58 @@
         <v>45031.21875</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>49</v>
       </c>
       <c r="K43">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L43">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N43">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P43">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
+        <v>1.825</v>
+      </c>
+      <c r="S43">
+        <v>1.975</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
         <v>1.8</v>
       </c>
-      <c r="S43">
-        <v>2</v>
-      </c>
-      <c r="T43">
-        <v>2.75</v>
-      </c>
-      <c r="U43">
-        <v>2</v>
-      </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>0.6000000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4346,16 +4346,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5205505</v>
+        <v>5205501</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,58 +4375,58 @@
         <v>45031.21875</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
         <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>49</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M44">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N44">
+        <v>1.6</v>
+      </c>
+      <c r="O44">
+        <v>3.75</v>
+      </c>
+      <c r="P44">
+        <v>4.5</v>
+      </c>
+      <c r="Q44">
+        <v>-0.75</v>
+      </c>
+      <c r="R44">
+        <v>1.8</v>
+      </c>
+      <c r="S44">
+        <v>2</v>
+      </c>
+      <c r="T44">
         <v>2.75</v>
       </c>
-      <c r="O44">
-        <v>2.9</v>
-      </c>
-      <c r="P44">
-        <v>2.5</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>1.825</v>
-      </c>
-      <c r="S44">
-        <v>1.975</v>
-      </c>
-      <c r="T44">
-        <v>2</v>
-      </c>
       <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
         <v>1.8</v>
       </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
       <c r="W44">
-        <v>1.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4435,16 +4435,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5205513</v>
+        <v>5203870</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,76 +4909,76 @@
         <v>45035.5</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L50">
         <v>3.1</v>
       </c>
       <c r="M50">
+        <v>2.375</v>
+      </c>
+      <c r="N50">
+        <v>1.571</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>5</v>
+      </c>
+      <c r="Q50">
+        <v>-1</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
         <v>3</v>
       </c>
-      <c r="N50">
-        <v>2.1</v>
-      </c>
-      <c r="O50">
-        <v>3.2</v>
-      </c>
-      <c r="P50">
-        <v>3.3</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
+      <c r="U50">
+        <v>1.925</v>
+      </c>
+      <c r="V50">
         <v>1.875</v>
       </c>
-      <c r="S50">
-        <v>1.925</v>
-      </c>
-      <c r="T50">
-        <v>2.5</v>
-      </c>
-      <c r="U50">
-        <v>2</v>
-      </c>
-      <c r="V50">
-        <v>1.8</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y50">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5203870</v>
+        <v>5205509</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,49 +4998,49 @@
         <v>45035.5</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L51">
+        <v>3.2</v>
+      </c>
+      <c r="M51">
+        <v>2.25</v>
+      </c>
+      <c r="N51">
+        <v>2.875</v>
+      </c>
+      <c r="O51">
         <v>3.1</v>
       </c>
-      <c r="M51">
-        <v>2.375</v>
-      </c>
-      <c r="N51">
-        <v>1.571</v>
-      </c>
-      <c r="O51">
-        <v>4</v>
-      </c>
       <c r="P51">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
         <v>1.925</v>
@@ -5049,19 +5049,19 @@
         <v>1.875</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
@@ -5164,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5205509</v>
+        <v>5205513</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,76 +5176,76 @@
         <v>45035.5</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L53">
+        <v>3.1</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>2.1</v>
+      </c>
+      <c r="O53">
         <v>3.2</v>
       </c>
-      <c r="M53">
-        <v>2.25</v>
-      </c>
-      <c r="N53">
-        <v>2.875</v>
-      </c>
-      <c r="O53">
-        <v>3.1</v>
-      </c>
       <c r="P53">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z53">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5205514</v>
+        <v>5205519</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,40 +5888,40 @@
         <v>45039.5</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M61">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="O61">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q61">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
         <v>2.025</v>
@@ -5930,34 +5930,34 @@
         <v>1.775</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA61">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5205519</v>
+        <v>5205514</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,40 +6066,40 @@
         <v>45039.5</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N63">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P63">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
         <v>2.025</v>
@@ -6108,34 +6108,34 @@
         <v>1.775</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5205525</v>
+        <v>6580300</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,13 +6244,13 @@
         <v>45045.21875</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -6259,34 +6259,34 @@
         <v>50</v>
       </c>
       <c r="K65">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
         <v>1.775</v>
@@ -6301,19 +6301,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6580300</v>
+        <v>5205525</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,13 +6333,13 @@
         <v>45045.21875</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -6348,34 +6348,34 @@
         <v>50</v>
       </c>
       <c r="K66">
+        <v>2.1</v>
+      </c>
+      <c r="L66">
+        <v>3.2</v>
+      </c>
+      <c r="M66">
+        <v>3.1</v>
+      </c>
+      <c r="N66">
+        <v>2.15</v>
+      </c>
+      <c r="O66">
+        <v>3.1</v>
+      </c>
+      <c r="P66">
+        <v>3.1</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
         <v>2.25</v>
-      </c>
-      <c r="L66">
-        <v>3.1</v>
-      </c>
-      <c r="M66">
-        <v>2.9</v>
-      </c>
-      <c r="N66">
-        <v>1.909</v>
-      </c>
-      <c r="O66">
-        <v>3.3</v>
-      </c>
-      <c r="P66">
-        <v>3.5</v>
-      </c>
-      <c r="Q66">
-        <v>-0.5</v>
-      </c>
-      <c r="R66">
-        <v>1.975</v>
-      </c>
-      <c r="S66">
-        <v>1.825</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.775</v>
@@ -6390,19 +6390,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC66">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5205526</v>
+        <v>5205524</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,76 +6511,76 @@
         <v>45045.5</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N68">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5205524</v>
+        <v>5205526</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,76 +6689,76 @@
         <v>45045.5</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>1</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K70">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5205533</v>
+        <v>5205532</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>45052.5</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N77">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7389,7 +7389,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5205532</v>
+        <v>5205533</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7401,76 +7401,76 @@
         <v>45052.5</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K78">
+        <v>1.571</v>
+      </c>
+      <c r="L78">
+        <v>3.6</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
         <v>1.8</v>
       </c>
-      <c r="L78">
-        <v>3.4</v>
-      </c>
-      <c r="M78">
-        <v>3.75</v>
-      </c>
-      <c r="N78">
-        <v>1.533</v>
-      </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
+        <v>1.9</v>
+      </c>
+      <c r="S78">
+        <v>1.9</v>
+      </c>
+      <c r="T78">
+        <v>2.25</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
-        <v>3</v>
-      </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y78">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC78">
-        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5205528</v>
+        <v>5205534</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7490,58 +7490,58 @@
         <v>45053.5</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>49</v>
       </c>
       <c r="K79">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L79">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N79">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7550,16 +7550,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5205534</v>
+        <v>5205528</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,58 +7579,58 @@
         <v>45053.5</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>49</v>
       </c>
       <c r="K80">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M80">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N80">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.444</v>
+        <v>1.9</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7639,16 +7639,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5205539</v>
+        <v>5205541</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,76 +8024,76 @@
         <v>45059.5</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K85">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N85">
+        <v>3.6</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
+        <v>1.85</v>
+      </c>
+      <c r="Q85">
+        <v>0.5</v>
+      </c>
+      <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
         <v>1.95</v>
       </c>
-      <c r="O85">
-        <v>3.6</v>
-      </c>
-      <c r="P85">
-        <v>3.1</v>
-      </c>
-      <c r="Q85">
-        <v>-0.5</v>
-      </c>
-      <c r="R85">
-        <v>2</v>
-      </c>
-      <c r="S85">
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
+        <v>2</v>
+      </c>
+      <c r="V85">
         <v>1.8</v>
       </c>
-      <c r="T85">
-        <v>3.25</v>
-      </c>
-      <c r="U85">
-        <v>1.825</v>
-      </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5205541</v>
+        <v>5205539</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,76 +8113,76 @@
         <v>45059.5</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K86">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L86">
+        <v>3.2</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>1.95</v>
+      </c>
+      <c r="O86">
+        <v>3.6</v>
+      </c>
+      <c r="P86">
         <v>3.1</v>
       </c>
-      <c r="M86">
-        <v>2.55</v>
-      </c>
-      <c r="N86">
-        <v>3.6</v>
-      </c>
-      <c r="O86">
-        <v>3.3</v>
-      </c>
-      <c r="P86">
-        <v>1.85</v>
-      </c>
       <c r="Q86">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5205545</v>
+        <v>5205543</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,58 +8736,58 @@
         <v>45066.21875</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>49</v>
       </c>
       <c r="K93">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L93">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M93">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>1.625</v>
+        <v>0.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8796,16 +8796,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5205543</v>
+        <v>5205545</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,58 +8825,58 @@
         <v>45066.21875</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L94">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N94">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>0.5</v>
+        <v>1.625</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8885,16 +8885,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5205555</v>
+        <v>5205552</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,46 +9181,46 @@
         <v>45070.5</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>49</v>
       </c>
       <c r="K98">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="L98">
         <v>3.75</v>
       </c>
       <c r="M98">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N98">
-        <v>1.444</v>
+        <v>1.45</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q98">
         <v>-1</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
         <v>2.75</v>
@@ -9232,7 +9232,7 @@
         <v>2.025</v>
       </c>
       <c r="W98">
-        <v>0.444</v>
+        <v>0.45</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9247,10 +9247,10 @@
         <v>-0</v>
       </c>
       <c r="AB98">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5204481</v>
+        <v>5205553</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,70 +9270,70 @@
         <v>45070.5</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K99">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L99">
+        <v>3.25</v>
+      </c>
+      <c r="M99">
+        <v>3.25</v>
+      </c>
+      <c r="N99">
+        <v>1.85</v>
+      </c>
+      <c r="O99">
+        <v>3.6</v>
+      </c>
+      <c r="P99">
         <v>3.3</v>
       </c>
-      <c r="M99">
-        <v>2.45</v>
-      </c>
-      <c r="N99">
-        <v>1.7</v>
-      </c>
-      <c r="O99">
-        <v>3.75</v>
-      </c>
-      <c r="P99">
-        <v>3.75</v>
-      </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
         <v>3</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z99">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
         <v>0</v>
@@ -9347,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5205553</v>
+        <v>5205555</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,76 +9359,76 @@
         <v>45070.5</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>49</v>
+      </c>
+      <c r="K100">
+        <v>1.533</v>
+      </c>
+      <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>1.444</v>
+      </c>
+      <c r="O100">
+        <v>4</v>
+      </c>
+      <c r="P100">
+        <v>5.75</v>
+      </c>
+      <c r="Q100">
+        <v>-1</v>
+      </c>
+      <c r="R100">
+        <v>1.775</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>2.75</v>
+      </c>
+      <c r="U100">
+        <v>1.775</v>
+      </c>
+      <c r="V100">
+        <v>2.025</v>
+      </c>
+      <c r="W100">
+        <v>0.444</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
-      <c r="J100" t="s">
-        <v>50</v>
-      </c>
-      <c r="K100">
-        <v>2</v>
-      </c>
-      <c r="L100">
-        <v>3.25</v>
-      </c>
-      <c r="M100">
-        <v>3.25</v>
-      </c>
-      <c r="N100">
-        <v>1.85</v>
-      </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>3.3</v>
-      </c>
-      <c r="Q100">
+      <c r="AA100">
+        <v>-0</v>
+      </c>
+      <c r="AB100">
+        <v>0.3875</v>
+      </c>
+      <c r="AC100">
         <v>-0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>2.3</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
-      <c r="AA100">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB100">
-        <v>0</v>
-      </c>
-      <c r="AC100">
-        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5205552</v>
+        <v>5205551</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,76 +9448,76 @@
         <v>45070.5</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="L101">
+        <v>3.3</v>
+      </c>
+      <c r="M101">
+        <v>2.45</v>
+      </c>
+      <c r="N101">
+        <v>2.1</v>
+      </c>
+      <c r="O101">
         <v>3.75</v>
       </c>
-      <c r="M101">
-        <v>4.2</v>
-      </c>
-      <c r="N101">
-        <v>1.45</v>
-      </c>
-      <c r="O101">
-        <v>4.2</v>
-      </c>
       <c r="P101">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>1.8</v>
+      </c>
+      <c r="T101">
+        <v>3.25</v>
+      </c>
+      <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="S101">
-        <v>1.975</v>
-      </c>
-      <c r="T101">
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>2.75</v>
       </c>
-      <c r="U101">
-        <v>1.775</v>
-      </c>
-      <c r="V101">
-        <v>2.025</v>
-      </c>
-      <c r="W101">
-        <v>0.45</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5205551</v>
+        <v>5205549</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9537,73 +9537,73 @@
         <v>45070.5</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M102">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N102">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P102">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X102">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5205550</v>
+        <v>5204481</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45070.5</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K103">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L103">
         <v>3.3</v>
       </c>
       <c r="M103">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N103">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O103">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q103">
+        <v>-0.75</v>
+      </c>
+      <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
+        <v>1.825</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
+        <v>1.925</v>
+      </c>
+      <c r="V103">
+        <v>1.875</v>
+      </c>
+      <c r="W103">
+        <v>0.7</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.4875</v>
+      </c>
+      <c r="AA103">
+        <v>-0.5</v>
+      </c>
+      <c r="AB103">
         <v>0</v>
       </c>
-      <c r="R103">
-        <v>1.9</v>
-      </c>
-      <c r="S103">
-        <v>1.9</v>
-      </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>1.975</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>1.55</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
-      <c r="AA103">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
       <c r="AC103">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5205549</v>
+        <v>5205554</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,58 +9715,58 @@
         <v>45070.5</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H104">
         <v>4</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>49</v>
       </c>
       <c r="K104">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N104">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
         <v>3</v>
       </c>
       <c r="U104">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
-        <v>0.3999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9775,13 +9775,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>1</v>
+      </c>
+      <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
         <v>0.875</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>1.025</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9792,7 +9792,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5205554</v>
+        <v>5205550</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9804,76 +9804,76 @@
         <v>45070.5</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>50</v>
+      </c>
+      <c r="K105">
+        <v>2.375</v>
+      </c>
+      <c r="L105">
+        <v>3.3</v>
+      </c>
+      <c r="M105">
+        <v>2.55</v>
+      </c>
+      <c r="N105">
+        <v>2.375</v>
+      </c>
+      <c r="O105">
+        <v>3.4</v>
+      </c>
+      <c r="P105">
+        <v>2.55</v>
+      </c>
+      <c r="Q105">
         <v>0</v>
       </c>
-      <c r="J105" t="s">
-        <v>49</v>
-      </c>
-      <c r="K105">
-        <v>1.909</v>
-      </c>
-      <c r="L105">
-        <v>3.4</v>
-      </c>
-      <c r="M105">
-        <v>3.4</v>
-      </c>
-      <c r="N105">
-        <v>1.75</v>
-      </c>
-      <c r="O105">
-        <v>3.6</v>
-      </c>
-      <c r="P105">
-        <v>3.8</v>
-      </c>
-      <c r="Q105">
-        <v>-0.75</v>
-      </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9881,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5231437</v>
+        <v>5232540</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,58 +9893,58 @@
         <v>45074.5</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>49</v>
       </c>
       <c r="K106">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M106">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="N106">
-        <v>1.666</v>
+        <v>1.222</v>
       </c>
       <c r="O106">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P106">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R106">
+        <v>1.875</v>
+      </c>
+      <c r="S106">
         <v>1.925</v>
       </c>
-      <c r="S106">
-        <v>1.875</v>
-      </c>
       <c r="T106">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>0.6659999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9953,16 +9953,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5213692</v>
+        <v>5204482</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,58 +9982,58 @@
         <v>45074.5</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>49</v>
       </c>
       <c r="K107">
+        <v>2.5</v>
+      </c>
+      <c r="L107">
+        <v>3.4</v>
+      </c>
+      <c r="M107">
+        <v>2.375</v>
+      </c>
+      <c r="N107">
+        <v>3.8</v>
+      </c>
+      <c r="O107">
+        <v>3.75</v>
+      </c>
+      <c r="P107">
+        <v>1.727</v>
+      </c>
+      <c r="Q107">
+        <v>0.75</v>
+      </c>
+      <c r="R107">
+        <v>1.9</v>
+      </c>
+      <c r="S107">
+        <v>1.9</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
         <v>1.8</v>
       </c>
-      <c r="L107">
-        <v>3.6</v>
-      </c>
-      <c r="M107">
-        <v>3.6</v>
-      </c>
-      <c r="N107">
-        <v>2.15</v>
-      </c>
-      <c r="O107">
-        <v>4.2</v>
-      </c>
-      <c r="P107">
-        <v>2.625</v>
-      </c>
-      <c r="Q107">
-        <v>-0.25</v>
-      </c>
-      <c r="R107">
-        <v>1.975</v>
-      </c>
-      <c r="S107">
-        <v>1.825</v>
-      </c>
-      <c r="T107">
-        <v>3.25</v>
-      </c>
-      <c r="U107">
-        <v>1.9</v>
-      </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10042,13 +10042,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5205558</v>
+        <v>5205557</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,37 +10071,37 @@
         <v>45074.5</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>50</v>
       </c>
       <c r="K108">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L108">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N108">
         <v>2.15</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q108">
         <v>-0.25</v>
@@ -10113,13 +10113,13 @@
         <v>1.875</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10128,7 +10128,7 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z108">
         <v>-1</v>
@@ -10137,10 +10137,10 @@
         <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10148,7 +10148,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5205556</v>
+        <v>5232539</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,55 +10160,55 @@
         <v>45074.5</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>48</v>
       </c>
       <c r="K109">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O109">
         <v>3.4</v>
       </c>
       <c r="P109">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10220,16 +10220,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10237,7 +10237,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5204482</v>
+        <v>5213692</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10249,58 +10249,58 @@
         <v>45074.5</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>49</v>
       </c>
       <c r="K110">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N110">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="Q110">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
+        <v>1.975</v>
+      </c>
+      <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
         <v>1.9</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>1.9</v>
       </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.8</v>
-      </c>
-      <c r="V110">
-        <v>2</v>
-      </c>
       <c r="W110">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10309,13 +10309,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>0.8</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10326,7 +10326,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5205557</v>
+        <v>5231437</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10338,40 +10338,40 @@
         <v>45074.5</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K111">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M111">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
         <v>1.925</v>
@@ -10380,7 +10380,7 @@
         <v>1.875</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U111">
         <v>1.925</v>
@@ -10389,25 +10389,25 @@
         <v>1.875</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5232539</v>
+        <v>5205556</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,55 +10427,55 @@
         <v>45074.5</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>48</v>
       </c>
       <c r="K112">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="N112">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O112">
         <v>3.4</v>
       </c>
       <c r="P112">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R112">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10487,16 +10487,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5232540</v>
+        <v>5205558</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,76 +10516,76 @@
         <v>45074.5</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K113">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="L113">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="M113">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="N113">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="O113">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="P113">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q113">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
+        <v>1.925</v>
+      </c>
+      <c r="S113">
         <v>1.875</v>
       </c>
-      <c r="S113">
-        <v>1.925</v>
-      </c>
       <c r="T113">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.85</v>
       </c>
-      <c r="V113">
-        <v>1.95</v>
-      </c>
       <c r="W113">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6804159</v>
+        <v>6803241</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,73 +12118,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
       <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>49</v>
+      </c>
+      <c r="K131">
         <v>3</v>
       </c>
-      <c r="J131" t="s">
-        <v>48</v>
-      </c>
-      <c r="K131">
-        <v>2.1</v>
-      </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M131">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N131">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P131">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
+        <v>1.85</v>
+      </c>
+      <c r="S131">
+        <v>1.95</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
+        <v>1.775</v>
+      </c>
+      <c r="V131">
         <v>2.025</v>
       </c>
-      <c r="S131">
-        <v>1.775</v>
-      </c>
-      <c r="T131">
-        <v>3</v>
-      </c>
-      <c r="U131">
-        <v>1.85</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA131">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6803328</v>
+        <v>6804160</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,58 +12207,58 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
         <v>49</v>
       </c>
       <c r="K132">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N132">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O132">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
+        <v>1.9</v>
+      </c>
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
         <v>1.8</v>
       </c>
-      <c r="T132">
-        <v>2.75</v>
-      </c>
-      <c r="U132">
-        <v>1.875</v>
-      </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W132">
-        <v>0.444</v>
+        <v>1.15</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12267,13 +12267,13 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6804156</v>
+        <v>6803159</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,76 +12296,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K133">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W133">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
+        <v>1.025</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
         <v>1</v>
-      </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
-      <c r="AC133">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6804157</v>
+        <v>6804156</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,19 +12385,19 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
         <v>0</v>
       </c>
-      <c r="I134">
-        <v>3</v>
-      </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K134">
         <v>2.1</v>
@@ -12409,52 +12409,52 @@
         <v>3.25</v>
       </c>
       <c r="N134">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q134">
         <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA134">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6804160</v>
+        <v>6804157</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,73 +12474,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M135">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N135">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6803241</v>
+        <v>6804159</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,73 +12563,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>3</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K136">
+        <v>2.1</v>
+      </c>
+      <c r="L136">
+        <v>3.5</v>
+      </c>
+      <c r="M136">
         <v>3</v>
       </c>
-      <c r="L136">
-        <v>3.1</v>
-      </c>
-      <c r="M136">
-        <v>2.3</v>
-      </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
+        <v>2.025</v>
+      </c>
+      <c r="S136">
+        <v>1.775</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
         <v>1.85</v>
       </c>
-      <c r="S136">
+      <c r="V136">
         <v>1.95</v>
       </c>
-      <c r="T136">
-        <v>2.25</v>
-      </c>
-      <c r="U136">
-        <v>1.775</v>
-      </c>
-      <c r="V136">
-        <v>2.025</v>
-      </c>
       <c r="W136">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-0.5</v>
+      </c>
+      <c r="AA136">
+        <v>0.3875</v>
+      </c>
+      <c r="AB136">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6803159</v>
+        <v>6803328</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,76 +12652,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N137">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6804164</v>
+        <v>6803160</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,76 +12741,76 @@
         <v>45143.5</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L138">
         <v>3.25</v>
       </c>
       <c r="M138">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N138">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T138">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X138">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6804161</v>
+        <v>6804164</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,76 +12830,76 @@
         <v>45143.5</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>48</v>
+      </c>
+      <c r="K139">
+        <v>2.1</v>
+      </c>
+      <c r="L139">
+        <v>3.25</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>2.6</v>
+      </c>
+      <c r="O139">
+        <v>3.2</v>
+      </c>
+      <c r="P139">
+        <v>2.4</v>
+      </c>
+      <c r="Q139">
         <v>0</v>
       </c>
-      <c r="J139" t="s">
-        <v>49</v>
-      </c>
-      <c r="K139">
-        <v>2.5</v>
-      </c>
-      <c r="L139">
+      <c r="R139">
+        <v>1.975</v>
+      </c>
+      <c r="S139">
+        <v>1.825</v>
+      </c>
+      <c r="T139">
         <v>3</v>
       </c>
-      <c r="M139">
-        <v>2.6</v>
-      </c>
-      <c r="N139">
-        <v>2.15</v>
-      </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
-      <c r="P139">
-        <v>3.1</v>
-      </c>
-      <c r="Q139">
-        <v>-0.25</v>
-      </c>
-      <c r="R139">
-        <v>1.925</v>
-      </c>
-      <c r="S139">
-        <v>1.875</v>
-      </c>
-      <c r="T139">
-        <v>2.5</v>
-      </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6803329</v>
+        <v>6804161</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,76 +12919,76 @@
         <v>45143.5</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
+        <v>2.5</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
         <v>2.6</v>
       </c>
-      <c r="L140">
-        <v>3.25</v>
-      </c>
-      <c r="M140">
-        <v>2.375</v>
-      </c>
       <c r="N140">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X140">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6803160</v>
+        <v>6803329</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45143.5</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L141">
         <v>3.25</v>
       </c>
       <c r="M141">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N141">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O141">
         <v>3.25</v>
       </c>
       <c r="P141">
+        <v>2.375</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>1.8</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
+        <v>1.775</v>
+      </c>
+      <c r="V141">
+        <v>2.025</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
         <v>2.25</v>
       </c>
-      <c r="Q141">
-        <v>0.25</v>
-      </c>
-      <c r="R141">
-        <v>1.775</v>
-      </c>
-      <c r="S141">
-        <v>2.025</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
-      <c r="U141">
-        <v>1.925</v>
-      </c>
-      <c r="V141">
-        <v>1.875</v>
-      </c>
-      <c r="W141">
-        <v>1.75</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13619,7 +13619,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803330</v>
+        <v>6803161</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13631,73 +13631,73 @@
         <v>45150.5</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H148">
+        <v>4</v>
+      </c>
+      <c r="I148">
         <v>1</v>
       </c>
-      <c r="I148">
-        <v>3</v>
-      </c>
       <c r="J148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N148">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P148">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA148">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6803161</v>
+        <v>6803330</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>45150.5</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K149">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N149">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O149">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S149">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T149">
         <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13975,7 +13975,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6804168</v>
+        <v>6803243</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13987,76 +13987,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M152">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N152">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P152">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC152">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14064,7 +14064,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6803243</v>
+        <v>6804168</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14076,76 +14076,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L153">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N153">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O153">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA153">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6804171</v>
+        <v>6803331</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45157.5</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L158">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O158">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6804172</v>
+        <v>6804171</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,58 +14610,58 @@
         <v>45157.5</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="I159">
         <v>1</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>49</v>
       </c>
       <c r="K159">
+        <v>1.909</v>
+      </c>
+      <c r="L159">
+        <v>3.3</v>
+      </c>
+      <c r="M159">
+        <v>3.5</v>
+      </c>
+      <c r="N159">
+        <v>1.909</v>
+      </c>
+      <c r="O159">
+        <v>3.3</v>
+      </c>
+      <c r="P159">
+        <v>3.5</v>
+      </c>
+      <c r="Q159">
+        <v>-0.5</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
         <v>1.8</v>
       </c>
-      <c r="L159">
-        <v>3.4</v>
-      </c>
-      <c r="M159">
-        <v>3.8</v>
-      </c>
-      <c r="N159">
-        <v>1.5</v>
-      </c>
-      <c r="O159">
-        <v>4.2</v>
-      </c>
-      <c r="P159">
-        <v>5</v>
-      </c>
-      <c r="Q159">
-        <v>-1</v>
-      </c>
-      <c r="R159">
-        <v>1.825</v>
-      </c>
-      <c r="S159">
-        <v>1.975</v>
-      </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W159">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14670,16 +14670,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14687,7 +14687,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6804173</v>
+        <v>6804172</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14699,58 +14699,58 @@
         <v>45157.5</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>49</v>
       </c>
       <c r="K160">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N160">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
         <v>3</v>
       </c>
       <c r="U160">
+        <v>1.925</v>
+      </c>
+      <c r="V160">
         <v>1.875</v>
       </c>
-      <c r="V160">
-        <v>1.925</v>
-      </c>
       <c r="W160">
-        <v>0.833</v>
+        <v>0.5</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14759,16 +14759,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>-0</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.875</v>
-      </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
-      <c r="AB160">
-        <v>0.875</v>
-      </c>
-      <c r="AC160">
-        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6803331</v>
+        <v>6804173</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14788,76 +14788,76 @@
         <v>45157.5</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K161">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L161">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M161">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N161">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O161">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6804184</v>
+        <v>6803246</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,76 +15767,76 @@
         <v>45171.5</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K172">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N172">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="O172">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P172">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X172">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6803246</v>
+        <v>6804184</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,76 +15945,76 @@
         <v>45171.5</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K174">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N174">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O174">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P174">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16111,7 +16111,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6804185</v>
+        <v>6804181</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16123,76 +16123,76 @@
         <v>45172.21875</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M176">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N176">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O176">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
+        <v>1.825</v>
+      </c>
+      <c r="V176">
         <v>1.975</v>
       </c>
-      <c r="V176">
-        <v>1.825</v>
-      </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X176">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16200,7 +16200,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6804181</v>
+        <v>6804185</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16212,76 +16212,76 @@
         <v>45172.21875</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K177">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N177">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P177">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.975</v>
+      </c>
+      <c r="V177">
+        <v>1.825</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
         <v>2.5</v>
       </c>
-      <c r="U177">
-        <v>1.825</v>
-      </c>
-      <c r="V177">
-        <v>1.975</v>
-      </c>
-      <c r="W177">
-        <v>1</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>0.825</v>
-      </c>
-      <c r="AC177">
-        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6803333</v>
+        <v>6804193</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,73 +16657,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L182">
         <v>3.25</v>
       </c>
       <c r="M182">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N182">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O182">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P182">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y182">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16734,7 +16734,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6804193</v>
+        <v>6803333</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16746,73 +16746,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K183">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L183">
         <v>3.25</v>
       </c>
       <c r="M183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O183">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P183">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB183">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6804207</v>
+        <v>6804206</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H206">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -18808,43 +18808,43 @@
         <v>49</v>
       </c>
       <c r="K206">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N206">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P206">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R206">
+        <v>1.825</v>
+      </c>
+      <c r="S206">
+        <v>1.975</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
         <v>1.925</v>
       </c>
-      <c r="S206">
+      <c r="V206">
         <v>1.875</v>
       </c>
-      <c r="T206">
-        <v>2.5</v>
-      </c>
-      <c r="U206">
-        <v>1.875</v>
-      </c>
-      <c r="V206">
-        <v>1.925</v>
-      </c>
       <c r="W206">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,13 +18853,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
+        <v>0.825</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
         <v>0.925</v>
-      </c>
-      <c r="AA206">
-        <v>-1</v>
-      </c>
-      <c r="AB206">
-        <v>0.875</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18870,7 +18870,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6804206</v>
+        <v>6804207</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18882,13 +18882,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -18897,43 +18897,43 @@
         <v>49</v>
       </c>
       <c r="K207">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L207">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M207">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N207">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O207">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P207">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S207">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T207">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
+        <v>1.875</v>
+      </c>
+      <c r="V207">
         <v>1.925</v>
       </c>
-      <c r="V207">
-        <v>1.875</v>
-      </c>
       <c r="W207">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18942,13 +18942,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -19671,7 +19671,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6804214</v>
+        <v>6803169</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19683,58 +19683,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F216" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L216">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M216">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N216">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="O216">
         <v>3.3</v>
       </c>
       <c r="P216">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q216">
         <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T216">
         <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W216">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19743,16 +19743,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC216">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19760,7 +19760,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6803169</v>
+        <v>6804214</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19772,58 +19772,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F217" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
         <v>49</v>
       </c>
       <c r="K217">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L217">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M217">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="N217">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="O217">
         <v>3.3</v>
       </c>
       <c r="P217">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
         <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V217">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W217">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19832,16 +19832,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20739,7 +20739,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6805653</v>
+        <v>6804223</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20751,76 +20751,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>50</v>
       </c>
       <c r="K228">
+        <v>1.444</v>
+      </c>
+      <c r="L228">
+        <v>4.5</v>
+      </c>
+      <c r="M228">
+        <v>5.5</v>
+      </c>
+      <c r="N228">
+        <v>1.5</v>
+      </c>
+      <c r="O228">
+        <v>4.333</v>
+      </c>
+      <c r="P228">
+        <v>5</v>
+      </c>
+      <c r="Q228">
+        <v>-1</v>
+      </c>
+      <c r="R228">
+        <v>1.9</v>
+      </c>
+      <c r="S228">
+        <v>1.9</v>
+      </c>
+      <c r="T228">
+        <v>2.75</v>
+      </c>
+      <c r="U228">
+        <v>1.925</v>
+      </c>
+      <c r="V228">
+        <v>1.875</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
         <v>4</v>
       </c>
-      <c r="L228">
-        <v>3.3</v>
-      </c>
-      <c r="M228">
-        <v>1.833</v>
-      </c>
-      <c r="N228">
-        <v>4.75</v>
-      </c>
-      <c r="O228">
-        <v>3.6</v>
-      </c>
-      <c r="P228">
-        <v>1.65</v>
-      </c>
-      <c r="Q228">
-        <v>0.75</v>
-      </c>
-      <c r="R228">
-        <v>1.8</v>
-      </c>
-      <c r="S228">
-        <v>2</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
-      <c r="U228">
-        <v>1.8</v>
-      </c>
-      <c r="V228">
-        <v>2</v>
-      </c>
-      <c r="W228">
-        <v>-1</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
-      <c r="Y228">
-        <v>0.6499999999999999</v>
-      </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB228">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20828,7 +20828,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6804223</v>
+        <v>6804224</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20840,76 +20840,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L229">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N229">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O229">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P229">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q229">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V229">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y229">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20917,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6804224</v>
+        <v>6805653</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20929,76 +20929,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K230">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L230">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M230">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N230">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="O230">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R230">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC230">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21451,7 +21451,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21463,13 +21463,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F236" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -21478,43 +21478,43 @@
         <v>49</v>
       </c>
       <c r="K236">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L236">
         <v>3.25</v>
       </c>
       <c r="M236">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N236">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O236">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P236">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA236">
         <v>-1</v>
@@ -21532,7 +21532,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21540,7 +21540,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21552,13 +21552,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21567,43 +21567,43 @@
         <v>49</v>
       </c>
       <c r="K237">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L237">
         <v>3.25</v>
       </c>
       <c r="M237">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N237">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O237">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P237">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S237">
+        <v>1.875</v>
+      </c>
+      <c r="T237">
+        <v>2.75</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
         <v>1.8</v>
       </c>
-      <c r="T237">
-        <v>2.5</v>
-      </c>
-      <c r="U237">
-        <v>1.975</v>
-      </c>
-      <c r="V237">
-        <v>1.825</v>
-      </c>
       <c r="W237">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA237">
         <v>-1</v>
@@ -21621,7 +21621,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="238" spans="1:29">

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5205483</v>
+        <v>5205482</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,10 +2061,10 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         <v>50</v>
       </c>
       <c r="K18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
@@ -2106,11 +2106,11 @@
         <v>2.5</v>
       </c>
       <c r="U18">
+        <v>1.825</v>
+      </c>
+      <c r="V18">
         <v>1.975</v>
       </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2130,7 +2130,7 @@
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2138,7 +2138,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5205482</v>
+        <v>5205480</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,55 +2150,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M19">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N19">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P19">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2207,19 +2207,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5205480</v>
+        <v>5205483</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,55 +2239,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>50</v>
       </c>
       <c r="K20">
+        <v>1.8</v>
+      </c>
+      <c r="L20">
+        <v>3.4</v>
+      </c>
+      <c r="M20">
+        <v>3.8</v>
+      </c>
+      <c r="N20">
+        <v>2.1</v>
+      </c>
+      <c r="O20">
         <v>3.2</v>
       </c>
-      <c r="L20">
-        <v>2.8</v>
-      </c>
-      <c r="M20">
-        <v>2.25</v>
-      </c>
-      <c r="N20">
-        <v>2.45</v>
-      </c>
-      <c r="O20">
-        <v>2.875</v>
-      </c>
       <c r="P20">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2296,19 +2296,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2850,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6456633</v>
+        <v>5205490</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2862,76 +2862,76 @@
         <v>45017.21875</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>3.3</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>0.7</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2939,7 +2939,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5205490</v>
+        <v>6456633</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2951,76 +2951,76 @@
         <v>45017.21875</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L28">
         <v>3.3</v>
       </c>
       <c r="M28">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P28">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.7</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5203870</v>
+        <v>5205513</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,76 +4909,76 @@
         <v>45035.5</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L50">
         <v>3.1</v>
       </c>
       <c r="M50">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
+        <v>1.925</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
         <v>1.8</v>
       </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>1.925</v>
-      </c>
-      <c r="V50">
-        <v>1.875</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5205509</v>
+        <v>5205510</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,40 +4998,40 @@
         <v>45035.5</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>49</v>
       </c>
       <c r="K51">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N51">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
         <v>1.775</v>
@@ -5043,13 +5043,13 @@
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>1.875</v>
+        <v>0.571</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,16 +5058,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5205508</v>
+        <v>5203870</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,76 +5087,76 @@
         <v>45035.5</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K52">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M52">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N52">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O52">
         <v>4</v>
       </c>
       <c r="P52">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q52">
         <v>-1</v>
       </c>
       <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
         <v>1.8</v>
       </c>
-      <c r="S52">
-        <v>2</v>
-      </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5164,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5205513</v>
+        <v>5205511</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,73 +5176,73 @@
         <v>45035.5</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
         <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5205511</v>
+        <v>5205508</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,13 +5354,13 @@
         <v>45035.5</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -5369,25 +5369,25 @@
         <v>49</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R55">
         <v>1.8</v>
@@ -5396,16 +5396,16 @@
         <v>2</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5414,13 +5414,13 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5205510</v>
+        <v>5205509</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,40 +5443,40 @@
         <v>45035.5</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>49</v>
       </c>
       <c r="K56">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N56">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O56">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
         <v>1.775</v>
@@ -5488,13 +5488,13 @@
         <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
-        <v>0.571</v>
+        <v>1.875</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5503,16 +5503,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5204476</v>
+        <v>5205515</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,61 +5532,61 @@
         <v>45038.21875</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M57">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O57">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P57">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5595,13 +5595,13 @@
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5609,7 +5609,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5205515</v>
+        <v>5204476</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5621,61 +5621,61 @@
         <v>45038.21875</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>48</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L58">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M58">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N58">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O58">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P58">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -5684,13 +5684,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5205519</v>
+        <v>5205514</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,40 +5888,40 @@
         <v>45039.5</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N61">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P61">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
         <v>2.025</v>
@@ -5930,34 +5930,34 @@
         <v>1.775</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5205518</v>
+        <v>5205519</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,76 +5977,76 @@
         <v>45039.5</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M62">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N62">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O62">
         <v>3.1</v>
       </c>
       <c r="P62">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q62">
         <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X62">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA62">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5205514</v>
+        <v>5205518</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,76 +6066,76 @@
         <v>45039.5</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L63">
+        <v>3.25</v>
+      </c>
+      <c r="M63">
         <v>3.2</v>
       </c>
-      <c r="M63">
-        <v>2.625</v>
-      </c>
       <c r="N63">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
+        <v>3.5</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>2.25</v>
+      </c>
+      <c r="U63">
+        <v>1.9</v>
+      </c>
+      <c r="V63">
+        <v>1.9</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>2.1</v>
       </c>
-      <c r="Q63">
-        <v>0.25</v>
-      </c>
-      <c r="R63">
-        <v>2.025</v>
-      </c>
-      <c r="S63">
-        <v>1.775</v>
-      </c>
-      <c r="T63">
-        <v>2.5</v>
-      </c>
-      <c r="U63">
-        <v>1.85</v>
-      </c>
-      <c r="V63">
-        <v>1.95</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6580300</v>
+        <v>5205525</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,13 +6244,13 @@
         <v>45045.21875</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -6259,34 +6259,34 @@
         <v>50</v>
       </c>
       <c r="K65">
+        <v>2.1</v>
+      </c>
+      <c r="L65">
+        <v>3.2</v>
+      </c>
+      <c r="M65">
+        <v>3.1</v>
+      </c>
+      <c r="N65">
+        <v>2.15</v>
+      </c>
+      <c r="O65">
+        <v>3.1</v>
+      </c>
+      <c r="P65">
+        <v>3.1</v>
+      </c>
+      <c r="Q65">
+        <v>-0.25</v>
+      </c>
+      <c r="R65">
+        <v>1.9</v>
+      </c>
+      <c r="S65">
+        <v>1.9</v>
+      </c>
+      <c r="T65">
         <v>2.25</v>
-      </c>
-      <c r="L65">
-        <v>3.1</v>
-      </c>
-      <c r="M65">
-        <v>2.9</v>
-      </c>
-      <c r="N65">
-        <v>1.909</v>
-      </c>
-      <c r="O65">
-        <v>3.3</v>
-      </c>
-      <c r="P65">
-        <v>3.5</v>
-      </c>
-      <c r="Q65">
-        <v>-0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
-      <c r="T65">
-        <v>2.75</v>
       </c>
       <c r="U65">
         <v>1.775</v>
@@ -6301,19 +6301,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5205525</v>
+        <v>6580300</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,13 +6333,13 @@
         <v>45045.21875</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -6348,34 +6348,34 @@
         <v>50</v>
       </c>
       <c r="K66">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L66">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M66">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N66">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O66">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P66">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.775</v>
@@ -6390,19 +6390,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5205524</v>
+        <v>5205526</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,76 +6511,76 @@
         <v>45045.5</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>1</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L68">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O68">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5205521</v>
+        <v>5205524</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,49 +6600,49 @@
         <v>45045.5</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L69">
+        <v>3.2</v>
+      </c>
+      <c r="M69">
+        <v>3.1</v>
+      </c>
+      <c r="N69">
+        <v>2.15</v>
+      </c>
+      <c r="O69">
         <v>3.25</v>
       </c>
-      <c r="M69">
-        <v>3.2</v>
-      </c>
-      <c r="N69">
-        <v>2.3</v>
-      </c>
-      <c r="O69">
-        <v>3.3</v>
-      </c>
       <c r="P69">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
         <v>1.85</v>
@@ -6651,25 +6651,25 @@
         <v>1.95</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5205526</v>
+        <v>5205521</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,40 +6689,40 @@
         <v>45045.5</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
         <v>50</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R70">
         <v>1.775</v>
@@ -6731,13 +6731,13 @@
         <v>2.025</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6746,7 +6746,7 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>4.25</v>
+        <v>1.6</v>
       </c>
       <c r="Z70">
         <v>-1</v>
@@ -6755,10 +6755,10 @@
         <v>1.025</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5205534</v>
+        <v>5205528</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7490,58 +7490,58 @@
         <v>45053.5</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>49</v>
       </c>
       <c r="K79">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L79">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M79">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N79">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>0.444</v>
+        <v>1.9</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7550,16 +7550,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5205528</v>
+        <v>5205534</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,58 +7579,58 @@
         <v>45053.5</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>49</v>
       </c>
       <c r="K80">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N80">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7639,16 +7639,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5205541</v>
+        <v>5205539</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,76 +8024,76 @@
         <v>45059.5</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K85">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L85">
+        <v>3.2</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>1.95</v>
+      </c>
+      <c r="O85">
+        <v>3.6</v>
+      </c>
+      <c r="P85">
         <v>3.1</v>
       </c>
-      <c r="M85">
-        <v>2.55</v>
-      </c>
-      <c r="N85">
-        <v>3.6</v>
-      </c>
-      <c r="O85">
-        <v>3.3</v>
-      </c>
-      <c r="P85">
-        <v>1.85</v>
-      </c>
       <c r="Q85">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W85">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5205539</v>
+        <v>5205541</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,76 +8113,76 @@
         <v>45059.5</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K86">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L86">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N86">
+        <v>3.6</v>
+      </c>
+      <c r="O86">
+        <v>3.3</v>
+      </c>
+      <c r="P86">
+        <v>1.85</v>
+      </c>
+      <c r="Q86">
+        <v>0.5</v>
+      </c>
+      <c r="R86">
+        <v>1.85</v>
+      </c>
+      <c r="S86">
         <v>1.95</v>
       </c>
-      <c r="O86">
-        <v>3.6</v>
-      </c>
-      <c r="P86">
-        <v>3.1</v>
-      </c>
-      <c r="Q86">
-        <v>-0.5</v>
-      </c>
-      <c r="R86">
-        <v>2</v>
-      </c>
-      <c r="S86">
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
+        <v>2</v>
+      </c>
+      <c r="V86">
         <v>1.8</v>
       </c>
-      <c r="T86">
-        <v>3.25</v>
-      </c>
-      <c r="U86">
-        <v>1.825</v>
-      </c>
-      <c r="V86">
-        <v>1.975</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5205543</v>
+        <v>5205545</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,58 +8736,58 @@
         <v>45066.21875</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>49</v>
       </c>
       <c r="K93">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L93">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M93">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N93">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>0.5</v>
+        <v>1.625</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8796,16 +8796,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5205545</v>
+        <v>5205543</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,58 +8825,58 @@
         <v>45066.21875</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M94">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N94">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>1.625</v>
+        <v>0.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8885,16 +8885,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5205552</v>
+        <v>5205554</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,13 +9181,13 @@
         <v>45070.5</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -9196,43 +9196,43 @@
         <v>49</v>
       </c>
       <c r="K98">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N98">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9241,16 +9241,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5205553</v>
+        <v>5205555</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,76 +9270,76 @@
         <v>45070.5</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K99">
+        <v>1.533</v>
+      </c>
+      <c r="L99">
+        <v>3.75</v>
+      </c>
+      <c r="M99">
+        <v>5</v>
+      </c>
+      <c r="N99">
+        <v>1.444</v>
+      </c>
+      <c r="O99">
+        <v>4</v>
+      </c>
+      <c r="P99">
+        <v>5.75</v>
+      </c>
+      <c r="Q99">
+        <v>-1</v>
+      </c>
+      <c r="R99">
+        <v>1.775</v>
+      </c>
+      <c r="S99">
+        <v>2.025</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.775</v>
+      </c>
+      <c r="V99">
+        <v>2.025</v>
+      </c>
+      <c r="W99">
+        <v>0.444</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>3</v>
-      </c>
-      <c r="J99" t="s">
-        <v>50</v>
-      </c>
-      <c r="K99">
-        <v>2</v>
-      </c>
-      <c r="L99">
-        <v>3.25</v>
-      </c>
-      <c r="M99">
-        <v>3.25</v>
-      </c>
-      <c r="N99">
-        <v>1.85</v>
-      </c>
-      <c r="O99">
-        <v>3.6</v>
-      </c>
-      <c r="P99">
-        <v>3.3</v>
-      </c>
-      <c r="Q99">
+      <c r="AA99">
+        <v>-0</v>
+      </c>
+      <c r="AB99">
+        <v>0.3875</v>
+      </c>
+      <c r="AC99">
         <v>-0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.85</v>
-      </c>
-      <c r="V99">
-        <v>1.95</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>2.3</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB99">
-        <v>0</v>
-      </c>
-      <c r="AC99">
-        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9347,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5205555</v>
+        <v>5205553</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,76 +9359,76 @@
         <v>45070.5</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K100">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N100">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB100">
         <v>0</v>
       </c>
-      <c r="AA100">
+      <c r="AC100">
         <v>-0</v>
-      </c>
-      <c r="AB100">
-        <v>0.3875</v>
-      </c>
-      <c r="AC100">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5205551</v>
+        <v>5205549</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,73 +9448,73 @@
         <v>45070.5</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N101">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X101">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5205549</v>
+        <v>5204481</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9537,13 +9537,13 @@
         <v>45070.5</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -9552,43 +9552,43 @@
         <v>49</v>
       </c>
       <c r="K102">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="L102">
+        <v>3.3</v>
+      </c>
+      <c r="M102">
+        <v>2.45</v>
+      </c>
+      <c r="N102">
+        <v>1.7</v>
+      </c>
+      <c r="O102">
         <v>3.75</v>
       </c>
-      <c r="M102">
-        <v>5</v>
-      </c>
-      <c r="N102">
-        <v>1.4</v>
-      </c>
-      <c r="O102">
-        <v>4.2</v>
-      </c>
       <c r="P102">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>3</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>0.3999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9597,16 +9597,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5204481</v>
+        <v>5205550</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45070.5</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L103">
         <v>3.3</v>
       </c>
       <c r="M103">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N103">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P103">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R103">
+        <v>1.9</v>
+      </c>
+      <c r="S103">
+        <v>1.9</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
         <v>1.975</v>
       </c>
-      <c r="S103">
-        <v>1.825</v>
-      </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
-      <c r="U103">
-        <v>1.925</v>
-      </c>
-      <c r="V103">
-        <v>1.875</v>
-      </c>
       <c r="W103">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z103">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5205554</v>
+        <v>5205551</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,40 +9715,40 @@
         <v>45070.5</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M104">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N104">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
         <v>2</v>
@@ -9757,31 +9757,31 @@
         <v>1.8</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9792,7 +9792,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5205550</v>
+        <v>5205552</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9804,76 +9804,76 @@
         <v>45070.5</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N105">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="O105">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q105">
+        <v>-1</v>
+      </c>
+      <c r="R105">
+        <v>1.825</v>
+      </c>
+      <c r="S105">
+        <v>1.975</v>
+      </c>
+      <c r="T105">
+        <v>2.75</v>
+      </c>
+      <c r="U105">
+        <v>1.775</v>
+      </c>
+      <c r="V105">
+        <v>2.025</v>
+      </c>
+      <c r="W105">
+        <v>0.45</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
         <v>0</v>
       </c>
-      <c r="R105">
-        <v>1.9</v>
-      </c>
-      <c r="S105">
-        <v>1.9</v>
-      </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
-      <c r="U105">
-        <v>1.825</v>
-      </c>
-      <c r="V105">
-        <v>1.975</v>
-      </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>1.55</v>
-      </c>
-      <c r="Z105">
-        <v>-1</v>
-      </c>
       <c r="AA105">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9881,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5232540</v>
+        <v>5213692</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,13 +9893,13 @@
         <v>45074.5</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9908,43 +9908,43 @@
         <v>49</v>
       </c>
       <c r="K106">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="N106">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P106">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
         <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.222</v>
+        <v>1.15</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9953,16 +9953,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5204482</v>
+        <v>5205556</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,76 +9982,76 @@
         <v>45074.5</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L107">
+        <v>3.6</v>
+      </c>
+      <c r="M107">
+        <v>1.571</v>
+      </c>
+      <c r="N107">
+        <v>3.2</v>
+      </c>
+      <c r="O107">
         <v>3.4</v>
       </c>
-      <c r="M107">
-        <v>2.375</v>
-      </c>
-      <c r="N107">
-        <v>3.8</v>
-      </c>
-      <c r="O107">
-        <v>3.75</v>
-      </c>
       <c r="P107">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="Q107">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10148,7 +10148,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5232539</v>
+        <v>5205558</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,73 +10160,73 @@
         <v>45074.5</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K109">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M109">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N109">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
+        <v>1.95</v>
+      </c>
+      <c r="V109">
         <v>1.85</v>
       </c>
-      <c r="V109">
-        <v>1.95</v>
-      </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z109">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB109">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10237,7 +10237,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5213692</v>
+        <v>5231437</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10249,58 +10249,58 @@
         <v>45074.5</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>49</v>
       </c>
       <c r="K110">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N110">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O110">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10309,16 +10309,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10326,7 +10326,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5231437</v>
+        <v>5232539</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10338,76 +10338,76 @@
         <v>45074.5</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="L111">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="N111">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S111">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.4625</v>
+        <v>0.375</v>
       </c>
       <c r="AA111">
         <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5205556</v>
+        <v>5232540</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,76 +10427,76 @@
         <v>45074.5</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>5</v>
+        <v>1.166</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M112">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="N112">
-        <v>3.2</v>
+        <v>1.222</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P112">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="Q112">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X112">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5205558</v>
+        <v>5204482</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,73 +10516,73 @@
         <v>45074.5</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>3</v>
-      </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L113">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
+        <v>2.375</v>
+      </c>
+      <c r="N113">
+        <v>3.8</v>
+      </c>
+      <c r="O113">
+        <v>3.75</v>
+      </c>
+      <c r="P113">
+        <v>1.727</v>
+      </c>
+      <c r="Q113">
+        <v>0.75</v>
+      </c>
+      <c r="R113">
+        <v>1.9</v>
+      </c>
+      <c r="S113">
+        <v>1.9</v>
+      </c>
+      <c r="T113">
         <v>2.75</v>
       </c>
-      <c r="N113">
-        <v>2.15</v>
-      </c>
-      <c r="O113">
-        <v>3.3</v>
-      </c>
-      <c r="P113">
-        <v>2.9</v>
-      </c>
-      <c r="Q113">
-        <v>-0.25</v>
-      </c>
-      <c r="R113">
-        <v>1.925</v>
-      </c>
-      <c r="S113">
-        <v>1.875</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6803939</v>
+        <v>6804148</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,76 +10694,76 @@
         <v>45129.21875</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N115">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O115">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6804148</v>
+        <v>6803939</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,76 +10783,76 @@
         <v>45129.21875</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N116">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q116">
+        <v>0.25</v>
+      </c>
+      <c r="R116">
+        <v>1.75</v>
+      </c>
+      <c r="S116">
+        <v>2.05</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
+        <v>1.975</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>2.2</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>0.375</v>
+      </c>
+      <c r="AA116">
         <v>-0.5</v>
       </c>
-      <c r="R116">
-        <v>1.8</v>
-      </c>
-      <c r="S116">
-        <v>2</v>
-      </c>
-      <c r="T116">
-        <v>2.5</v>
-      </c>
-      <c r="U116">
-        <v>1.85</v>
-      </c>
-      <c r="V116">
-        <v>1.95</v>
-      </c>
-      <c r="W116">
-        <v>0.8</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
-      <c r="Z116">
-        <v>0.8</v>
-      </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6804154</v>
+        <v>6804152</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,40 +11584,40 @@
         <v>45136.5</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K125">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
         <v>3.6</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O125">
+        <v>3.4</v>
+      </c>
+      <c r="P125">
         <v>3.8</v>
       </c>
-      <c r="P125">
-        <v>6</v>
-      </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
         <v>1.825</v>
@@ -11626,22 +11626,22 @@
         <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
         <v>2.8</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
@@ -11650,10 +11650,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6804152</v>
+        <v>6804154</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,40 +11673,40 @@
         <v>45136.5</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
         <v>3.6</v>
       </c>
       <c r="N126">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R126">
         <v>1.825</v>
@@ -11715,22 +11715,22 @@
         <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y126">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
         <v>-1</v>
@@ -11739,10 +11739,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6803241</v>
+        <v>6803328</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,13 +12118,13 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -12133,43 +12133,43 @@
         <v>49</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L131">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N131">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P131">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12178,13 +12178,13 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6804160</v>
+        <v>6804156</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,31 +12207,31 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H132">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>49</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N132">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
         <v>3.25</v>
@@ -12243,22 +12243,22 @@
         <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12267,16 +12267,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803159</v>
+        <v>6804157</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,55 +12296,55 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>50</v>
       </c>
       <c r="K133">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N133">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P133">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
+        <v>2.025</v>
+      </c>
+      <c r="S133">
         <v>1.775</v>
       </c>
-      <c r="S133">
-        <v>2.025</v>
-      </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12353,19 +12353,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>3</v>
+        <v>1.875</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6804156</v>
+        <v>6804159</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,76 +12385,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
         <v>2.1</v>
       </c>
       <c r="L134">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N134">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P134">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q134">
         <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T134">
+        <v>3</v>
+      </c>
+      <c r="U134">
+        <v>1.85</v>
+      </c>
+      <c r="V134">
+        <v>1.95</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
         <v>2.5</v>
       </c>
-      <c r="U134">
-        <v>1.95</v>
-      </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
-      <c r="W134">
-        <v>1.2</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6804157</v>
+        <v>6803241</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,73 +12474,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>49</v>
+      </c>
+      <c r="K135">
         <v>3</v>
       </c>
-      <c r="J135" t="s">
-        <v>50</v>
-      </c>
-      <c r="K135">
-        <v>2.1</v>
-      </c>
       <c r="L135">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M135">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N135">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O135">
         <v>3.2</v>
       </c>
       <c r="P135">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
         <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB135">
-        <v>0.925</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6804159</v>
+        <v>6804160</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,73 +12563,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I136">
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X136">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6803328</v>
+        <v>6803159</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,76 +12652,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>50</v>
+      </c>
+      <c r="K137">
+        <v>1.75</v>
+      </c>
+      <c r="L137">
+        <v>3.6</v>
+      </c>
+      <c r="M137">
+        <v>4</v>
+      </c>
+      <c r="N137">
+        <v>1.75</v>
+      </c>
+      <c r="O137">
+        <v>3.75</v>
+      </c>
+      <c r="P137">
+        <v>4</v>
+      </c>
+      <c r="Q137">
+        <v>-0.5</v>
+      </c>
+      <c r="R137">
+        <v>1.775</v>
+      </c>
+      <c r="S137">
+        <v>2.025</v>
+      </c>
+      <c r="T137">
+        <v>2.5</v>
+      </c>
+      <c r="U137">
+        <v>1.8</v>
+      </c>
+      <c r="V137">
+        <v>2</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>3</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>1.025</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
         <v>1</v>
-      </c>
-      <c r="J137" t="s">
-        <v>49</v>
-      </c>
-      <c r="K137">
-        <v>1.666</v>
-      </c>
-      <c r="L137">
-        <v>3.75</v>
-      </c>
-      <c r="M137">
-        <v>4.333</v>
-      </c>
-      <c r="N137">
-        <v>1.444</v>
-      </c>
-      <c r="O137">
-        <v>4.333</v>
-      </c>
-      <c r="P137">
-        <v>5.75</v>
-      </c>
-      <c r="Q137">
-        <v>-1.25</v>
-      </c>
-      <c r="R137">
-        <v>2</v>
-      </c>
-      <c r="S137">
-        <v>1.8</v>
-      </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.875</v>
-      </c>
-      <c r="V137">
-        <v>1.925</v>
-      </c>
-      <c r="W137">
-        <v>0.444</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>1</v>
-      </c>
-      <c r="AA137">
-        <v>-1</v>
-      </c>
-      <c r="AB137">
-        <v>0.875</v>
-      </c>
-      <c r="AC137">
-        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6803160</v>
+        <v>6803329</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,76 +12741,76 @@
         <v>45143.5</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L138">
         <v>3.25</v>
       </c>
       <c r="M138">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N138">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O138">
         <v>3.25</v>
       </c>
       <c r="P138">
+        <v>2.375</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>2</v>
+      </c>
+      <c r="S138">
+        <v>1.8</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
+        <v>1.775</v>
+      </c>
+      <c r="V138">
+        <v>2.025</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>2.25</v>
       </c>
-      <c r="Q138">
-        <v>0.25</v>
-      </c>
-      <c r="R138">
-        <v>1.775</v>
-      </c>
-      <c r="S138">
-        <v>2.025</v>
-      </c>
-      <c r="T138">
-        <v>2.5</v>
-      </c>
-      <c r="U138">
-        <v>1.925</v>
-      </c>
-      <c r="V138">
-        <v>1.875</v>
-      </c>
-      <c r="W138">
-        <v>1.75</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6804164</v>
+        <v>6803160</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,76 +12830,76 @@
         <v>45143.5</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L139">
         <v>3.25</v>
       </c>
       <c r="M139">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N139">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O139">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S139">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X139">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6803329</v>
+        <v>6804164</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,10 +13008,10 @@
         <v>45143.5</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13023,46 +13023,46 @@
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
         <v>3.25</v>
       </c>
       <c r="M141">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N141">
         <v>2.6</v>
       </c>
       <c r="O141">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P141">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q141">
         <v>0</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
+        <v>1.825</v>
+      </c>
+      <c r="T141">
+        <v>3</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
         <v>1.8</v>
       </c>
-      <c r="T141">
-        <v>2.75</v>
-      </c>
-      <c r="U141">
-        <v>1.775</v>
-      </c>
-      <c r="V141">
-        <v>2.025</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
@@ -13077,7 +13077,7 @@
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13619,7 +13619,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6803161</v>
+        <v>6803330</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13631,73 +13631,73 @@
         <v>45150.5</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K148">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T148">
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB148">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6803330</v>
+        <v>6803161</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>45150.5</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G149" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H149">
+        <v>4</v>
+      </c>
+      <c r="I149">
         <v>1</v>
       </c>
-      <c r="I149">
-        <v>3</v>
-      </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N149">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P149">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q149">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
         <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA149">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13797,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6804169</v>
+        <v>6804170</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13809,76 +13809,76 @@
         <v>45151.5</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K150">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M150">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N150">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P150">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q150">
+        <v>-0.25</v>
+      </c>
+      <c r="R150">
+        <v>2.05</v>
+      </c>
+      <c r="S150">
+        <v>1.75</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
+      <c r="V150">
+        <v>1.8</v>
+      </c>
+      <c r="W150">
+        <v>1.375</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>-1</v>
+      </c>
+      <c r="Z150">
+        <v>1.05</v>
+      </c>
+      <c r="AA150">
+        <v>-1</v>
+      </c>
+      <c r="AB150">
+        <v>0.5</v>
+      </c>
+      <c r="AC150">
         <v>-0.5</v>
-      </c>
-      <c r="R150">
-        <v>1.975</v>
-      </c>
-      <c r="S150">
-        <v>1.825</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>2.6</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
-      <c r="AA150">
-        <v>0.825</v>
-      </c>
-      <c r="AB150">
-        <v>0.925</v>
-      </c>
-      <c r="AC150">
-        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13886,7 +13886,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6804170</v>
+        <v>6804169</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13898,76 +13898,76 @@
         <v>45151.5</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151" t="s">
+        <v>48</v>
+      </c>
+      <c r="K151">
+        <v>2.4</v>
+      </c>
+      <c r="L151">
+        <v>3.4</v>
+      </c>
+      <c r="M151">
+        <v>2.5</v>
+      </c>
+      <c r="N151">
+        <v>1.95</v>
+      </c>
+      <c r="O151">
+        <v>3.6</v>
+      </c>
+      <c r="P151">
+        <v>3.4</v>
+      </c>
+      <c r="Q151">
+        <v>-0.5</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
         <v>3</v>
       </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151" t="s">
-        <v>49</v>
-      </c>
-      <c r="K151">
-        <v>2.25</v>
-      </c>
-      <c r="L151">
-        <v>3</v>
-      </c>
-      <c r="M151">
-        <v>3</v>
-      </c>
-      <c r="N151">
-        <v>2.375</v>
-      </c>
-      <c r="O151">
-        <v>3</v>
-      </c>
-      <c r="P151">
-        <v>2.875</v>
-      </c>
-      <c r="Q151">
-        <v>-0.25</v>
-      </c>
-      <c r="R151">
-        <v>2.05</v>
-      </c>
-      <c r="S151">
-        <v>1.75</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
       <c r="U151">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V151">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W151">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB151">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13975,7 +13975,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6803243</v>
+        <v>6804168</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13987,76 +13987,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L152">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N152">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O152">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14064,7 +14064,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6804168</v>
+        <v>6803243</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14076,76 +14076,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M153">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N153">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O153">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P153">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC153">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14242,7 +14242,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6804175</v>
+        <v>6803244</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14254,49 +14254,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H155">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K155">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L155">
         <v>3.25</v>
       </c>
       <c r="M155">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N155">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O155">
         <v>3.3</v>
       </c>
       <c r="P155">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
         <v>1.975</v>
@@ -14305,25 +14305,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>1.6</v>
+      </c>
+      <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
         <v>1</v>
       </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
-      <c r="Z155">
-        <v>0.925</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
       <c r="AB155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14331,7 +14331,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6803244</v>
+        <v>6804175</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14343,49 +14343,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L156">
         <v>3.25</v>
       </c>
       <c r="M156">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N156">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O156">
         <v>3.3</v>
       </c>
       <c r="P156">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
         <v>1.975</v>
@@ -14394,25 +14394,25 @@
         <v>1.825</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6803331</v>
+        <v>6804173</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45157.5</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K158">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L158">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M158">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O158">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S158">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6804173</v>
+        <v>6803331</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14788,76 +14788,76 @@
         <v>45157.5</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L161">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M161">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N161">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O161">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P161">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6803246</v>
+        <v>6803164</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,10 +15767,10 @@
         <v>45171.5</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15782,43 +15782,43 @@
         <v>49</v>
       </c>
       <c r="K172">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N172">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="O172">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P172">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15827,16 +15827,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6804183</v>
+        <v>6804184</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,76 +15856,76 @@
         <v>45171.5</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K173">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N173">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O173">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P173">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q173">
         <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T173">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6804184</v>
+        <v>6803246</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,76 +15945,76 @@
         <v>45171.5</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K174">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L174">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M174">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N174">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="O174">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P174">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R174">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X174">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA174">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16022,7 +16022,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6803164</v>
+        <v>6804183</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16034,10 +16034,10 @@
         <v>45171.5</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16049,43 +16049,43 @@
         <v>49</v>
       </c>
       <c r="K175">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N175">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O175">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P175">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q175">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16094,16 +16094,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
+        <v>0.4625</v>
+      </c>
+      <c r="AA175">
         <v>-0.5</v>
       </c>
-      <c r="AA175">
-        <v>0.5</v>
-      </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16111,7 +16111,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6804181</v>
+        <v>6804185</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16123,76 +16123,76 @@
         <v>45172.21875</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K176">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N176">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P176">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.975</v>
+      </c>
+      <c r="V176">
+        <v>1.825</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>2.5</v>
       </c>
-      <c r="U176">
-        <v>1.825</v>
-      </c>
-      <c r="V176">
-        <v>1.975</v>
-      </c>
-      <c r="W176">
-        <v>1</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
         <v>0.825</v>
-      </c>
-      <c r="AC176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16200,7 +16200,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6804185</v>
+        <v>6804181</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16212,76 +16212,76 @@
         <v>45172.21875</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M177">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N177">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O177">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
+        <v>1.825</v>
+      </c>
+      <c r="V177">
         <v>1.975</v>
       </c>
-      <c r="V177">
-        <v>1.825</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X177">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6804206</v>
+        <v>6804207</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -18808,43 +18808,43 @@
         <v>49</v>
       </c>
       <c r="K206">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L206">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N206">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O206">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S206">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
+        <v>1.875</v>
+      </c>
+      <c r="V206">
         <v>1.925</v>
       </c>
-      <c r="V206">
-        <v>1.875</v>
-      </c>
       <c r="W206">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,13 +18853,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18870,7 +18870,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6804207</v>
+        <v>6804206</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18882,13 +18882,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H207">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -18897,43 +18897,43 @@
         <v>49</v>
       </c>
       <c r="K207">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L207">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N207">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O207">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P207">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R207">
+        <v>1.825</v>
+      </c>
+      <c r="S207">
+        <v>1.975</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
         <v>1.925</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.875</v>
       </c>
-      <c r="T207">
-        <v>2.5</v>
-      </c>
-      <c r="U207">
-        <v>1.875</v>
-      </c>
-      <c r="V207">
-        <v>1.925</v>
-      </c>
       <c r="W207">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18942,13 +18942,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
+        <v>0.825</v>
+      </c>
+      <c r="AA207">
+        <v>-1</v>
+      </c>
+      <c r="AB207">
         <v>0.925</v>
-      </c>
-      <c r="AA207">
-        <v>-1</v>
-      </c>
-      <c r="AB207">
-        <v>0.875</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -19493,7 +19493,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6804213</v>
+        <v>6803337</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19505,73 +19505,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K214">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L214">
         <v>3.25</v>
       </c>
       <c r="M214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N214">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19582,7 +19582,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6803337</v>
+        <v>6804213</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19594,73 +19594,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I215">
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K215">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N215">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P215">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19671,7 +19671,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6803169</v>
+        <v>6804214</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19683,58 +19683,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L216">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="N216">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="O216">
         <v>3.3</v>
       </c>
       <c r="P216">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q216">
         <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T216">
         <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19743,16 +19743,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19760,7 +19760,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6804214</v>
+        <v>6803169</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19772,58 +19772,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>49</v>
       </c>
       <c r="K217">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L217">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M217">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N217">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="O217">
         <v>3.3</v>
       </c>
       <c r="P217">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
         <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V217">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W217">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19832,16 +19832,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC217">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20027,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6803338</v>
+        <v>6804221</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20039,22 +20039,22 @@
         <v>45227.21875</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
         <v>3</v>
       </c>
-      <c r="I220">
-        <v>1</v>
-      </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K220">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L220">
         <v>3.4</v>
@@ -20075,37 +20075,37 @@
         <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z220">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB220">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20116,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6804221</v>
+        <v>6803338</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20128,22 +20128,22 @@
         <v>45227.21875</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H221">
+        <v>3</v>
+      </c>
+      <c r="I221">
         <v>1</v>
       </c>
-      <c r="I221">
-        <v>3</v>
-      </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
         <v>3.4</v>
@@ -20164,37 +20164,37 @@
         <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T221">
         <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20650,7 +20650,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6804227</v>
+        <v>6804223</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20662,55 +20662,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
         <v>50</v>
       </c>
       <c r="K227">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M227">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N227">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O227">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P227">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q227">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R227">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
         <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V227">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20719,19 +20719,19 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>3.333</v>
+        <v>4</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC227">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20739,7 +20739,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6804223</v>
+        <v>6805653</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20751,55 +20751,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
         <v>50</v>
       </c>
       <c r="K228">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L228">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M228">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="N228">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="O228">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>5</v>
+        <v>1.65</v>
       </c>
       <c r="Q228">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20808,19 +20808,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB228">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20828,7 +20828,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6804224</v>
+        <v>6804227</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20840,76 +20840,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K229">
+        <v>1.727</v>
+      </c>
+      <c r="L229">
+        <v>3.75</v>
+      </c>
+      <c r="M229">
+        <v>4</v>
+      </c>
+      <c r="N229">
+        <v>1.65</v>
+      </c>
+      <c r="O229">
+        <v>4</v>
+      </c>
+      <c r="P229">
+        <v>4.333</v>
+      </c>
+      <c r="Q229">
+        <v>-0.75</v>
+      </c>
+      <c r="R229">
+        <v>1.825</v>
+      </c>
+      <c r="S229">
+        <v>1.975</v>
+      </c>
+      <c r="T229">
         <v>2.75</v>
       </c>
-      <c r="L229">
-        <v>3.4</v>
-      </c>
-      <c r="M229">
-        <v>2.3</v>
-      </c>
-      <c r="N229">
-        <v>2.625</v>
-      </c>
-      <c r="O229">
-        <v>3.1</v>
-      </c>
-      <c r="P229">
-        <v>2.55</v>
-      </c>
-      <c r="Q229">
-        <v>0</v>
-      </c>
-      <c r="R229">
-        <v>1.875</v>
-      </c>
-      <c r="S229">
-        <v>1.925</v>
-      </c>
-      <c r="T229">
-        <v>2.25</v>
-      </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V229">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20917,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6805653</v>
+        <v>6804224</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20929,76 +20929,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L230">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M230">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N230">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P230">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="Q230">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S230">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y230">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21451,7 +21451,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21463,13 +21463,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -21478,43 +21478,43 @@
         <v>49</v>
       </c>
       <c r="K236">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L236">
         <v>3.25</v>
       </c>
       <c r="M236">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N236">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O236">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P236">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S236">
+        <v>1.875</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
         <v>1.8</v>
       </c>
-      <c r="T236">
-        <v>2.5</v>
-      </c>
-      <c r="U236">
-        <v>1.975</v>
-      </c>
-      <c r="V236">
-        <v>1.825</v>
-      </c>
       <c r="W236">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA236">
         <v>-1</v>
@@ -21532,7 +21532,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21540,7 +21540,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21552,13 +21552,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21567,43 +21567,43 @@
         <v>49</v>
       </c>
       <c r="K237">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L237">
         <v>3.25</v>
       </c>
       <c r="M237">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N237">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O237">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA237">
         <v>-1</v>
@@ -21621,7 +21621,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -2850,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5205490</v>
+        <v>6456633</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2862,76 +2862,76 @@
         <v>45017.21875</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L27">
         <v>3.3</v>
       </c>
       <c r="M27">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.7</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2939,7 +2939,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6456633</v>
+        <v>5205490</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2951,76 +2951,76 @@
         <v>45017.21875</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>3.3</v>
       </c>
       <c r="M28">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N28">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>0.7</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5205487</v>
+        <v>5203873</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,76 +3129,76 @@
         <v>45018.21875</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M30">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N30">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y30">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5203873</v>
+        <v>5205487</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,76 +3218,76 @@
         <v>45018.21875</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
+        <v>2.8</v>
+      </c>
+      <c r="N31">
+        <v>2.625</v>
+      </c>
+      <c r="O31">
         <v>3.1</v>
       </c>
-      <c r="N31">
-        <v>1.45</v>
-      </c>
-      <c r="O31">
-        <v>4</v>
-      </c>
       <c r="P31">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5205513</v>
+        <v>5203870</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,76 +4909,76 @@
         <v>45035.5</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L50">
         <v>3.1</v>
       </c>
       <c r="M50">
+        <v>2.375</v>
+      </c>
+      <c r="N50">
+        <v>1.571</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>5</v>
+      </c>
+      <c r="Q50">
+        <v>-1</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
         <v>3</v>
       </c>
-      <c r="N50">
-        <v>2.1</v>
-      </c>
-      <c r="O50">
-        <v>3.2</v>
-      </c>
-      <c r="P50">
-        <v>3.3</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
+      <c r="U50">
+        <v>1.925</v>
+      </c>
+      <c r="V50">
         <v>1.875</v>
       </c>
-      <c r="S50">
-        <v>1.925</v>
-      </c>
-      <c r="T50">
-        <v>2.5</v>
-      </c>
-      <c r="U50">
-        <v>2</v>
-      </c>
-      <c r="V50">
-        <v>1.8</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y50">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5205510</v>
+        <v>5205513</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,73 +4998,73 @@
         <v>45035.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z51">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5203870</v>
+        <v>5205512</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,40 +5087,40 @@
         <v>45035.5</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N52">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O52">
+        <v>3.6</v>
+      </c>
+      <c r="P52">
         <v>4</v>
       </c>
-      <c r="P52">
-        <v>5</v>
-      </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
         <v>2</v>
@@ -5129,34 +5129,34 @@
         <v>1.8</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X52">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA52">
+        <v>-1</v>
+      </c>
+      <c r="AB52">
         <v>0.8</v>
       </c>
-      <c r="AB52">
-        <v>-1</v>
-      </c>
       <c r="AC52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5205512</v>
+        <v>5205510</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,13 +5265,13 @@
         <v>45035.5</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -5280,43 +5280,43 @@
         <v>49</v>
       </c>
       <c r="K54">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L54">
+        <v>3.4</v>
+      </c>
+      <c r="M54">
         <v>3.6</v>
       </c>
-      <c r="M54">
-        <v>3.8</v>
-      </c>
       <c r="N54">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q54">
         <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W54">
-        <v>0.7</v>
+        <v>0.571</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5325,13 +5325,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB54">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5205515</v>
+        <v>5204476</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,61 +5532,61 @@
         <v>45038.21875</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L57">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N57">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O57">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P57">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5595,13 +5595,13 @@
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5609,7 +5609,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5204476</v>
+        <v>5205515</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5621,61 +5621,61 @@
         <v>45038.21875</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>48</v>
       </c>
       <c r="K58">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M58">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O58">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -5684,13 +5684,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5205514</v>
+        <v>5205519</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,40 +5888,40 @@
         <v>45039.5</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M61">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="O61">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q61">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
         <v>2.025</v>
@@ -5930,34 +5930,34 @@
         <v>1.775</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA61">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5205519</v>
+        <v>5205518</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,76 +5977,76 @@
         <v>45039.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L62">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M62">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N62">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O62">
         <v>3.1</v>
       </c>
       <c r="P62">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q62">
         <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5205518</v>
+        <v>5205514</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,76 +6066,76 @@
         <v>45039.5</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K63">
+        <v>2.5</v>
+      </c>
+      <c r="L63">
+        <v>3.2</v>
+      </c>
+      <c r="M63">
+        <v>2.625</v>
+      </c>
+      <c r="N63">
+        <v>3.3</v>
+      </c>
+      <c r="O63">
+        <v>3.2</v>
+      </c>
+      <c r="P63">
         <v>2.1</v>
       </c>
-      <c r="L63">
-        <v>3.25</v>
-      </c>
-      <c r="M63">
-        <v>3.2</v>
-      </c>
-      <c r="N63">
-        <v>2.05</v>
-      </c>
-      <c r="O63">
-        <v>3.1</v>
-      </c>
-      <c r="P63">
-        <v>3.5</v>
-      </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5205526</v>
+        <v>5205524</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,76 +6511,76 @@
         <v>45045.5</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N68">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5205524</v>
+        <v>5205526</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,76 +6600,76 @@
         <v>45045.5</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <v>1</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K69">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N69">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O69">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
         <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -8991,7 +8991,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5205542</v>
+        <v>5204480</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9003,76 +9003,76 @@
         <v>45067.5</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>3</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>49</v>
       </c>
       <c r="K96">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M96">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N96">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O96">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q96">
+        <v>-0.75</v>
+      </c>
+      <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>3</v>
+      </c>
+      <c r="U96">
+        <v>1.825</v>
+      </c>
+      <c r="V96">
+        <v>1.975</v>
+      </c>
+      <c r="W96">
+        <v>0.615</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <v>-1</v>
+      </c>
+      <c r="Z96">
+        <v>0.8</v>
+      </c>
+      <c r="AA96">
+        <v>-1</v>
+      </c>
+      <c r="AB96">
         <v>0</v>
       </c>
-      <c r="R96">
-        <v>2</v>
-      </c>
-      <c r="S96">
-        <v>1.8</v>
-      </c>
-      <c r="T96">
-        <v>3.25</v>
-      </c>
-      <c r="U96">
-        <v>1.95</v>
-      </c>
-      <c r="V96">
-        <v>1.85</v>
-      </c>
-      <c r="W96">
-        <v>1.375</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
-      <c r="Y96">
-        <v>-1</v>
-      </c>
-      <c r="Z96">
-        <v>1</v>
-      </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
-      <c r="AB96">
-        <v>0.95</v>
-      </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9080,7 +9080,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5204480</v>
+        <v>5205542</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9092,58 +9092,58 @@
         <v>45067.5</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>3</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>49</v>
       </c>
       <c r="K97">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N97">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
         <v>1.8</v>
       </c>
-      <c r="S97">
-        <v>2</v>
-      </c>
       <c r="T97">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
-        <v>0.615</v>
+        <v>1.375</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9152,16 +9152,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC97">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5205554</v>
+        <v>5204481</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,58 +9181,58 @@
         <v>45070.5</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>49</v>
       </c>
       <c r="K98">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N98">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q98">
         <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
         <v>3</v>
       </c>
       <c r="U98">
+        <v>1.925</v>
+      </c>
+      <c r="V98">
         <v>1.875</v>
       </c>
-      <c r="V98">
-        <v>1.925</v>
-      </c>
       <c r="W98">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9241,16 +9241,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5205555</v>
+        <v>5205550</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,76 +9270,76 @@
         <v>45070.5</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K99">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N99">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9347,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5205553</v>
+        <v>5205551</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,76 +9359,76 @@
         <v>45070.5</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L100">
+        <v>3.3</v>
+      </c>
+      <c r="M100">
+        <v>2.45</v>
+      </c>
+      <c r="N100">
+        <v>2.1</v>
+      </c>
+      <c r="O100">
+        <v>3.75</v>
+      </c>
+      <c r="P100">
+        <v>2.7</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>1.8</v>
+      </c>
+      <c r="T100">
         <v>3.25</v>
       </c>
-      <c r="M100">
-        <v>3.25</v>
-      </c>
-      <c r="N100">
-        <v>1.85</v>
-      </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>3.3</v>
-      </c>
-      <c r="Q100">
+      <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
+        <v>1.825</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>2.75</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
         <v>-0.5</v>
       </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>2.3</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5205549</v>
+        <v>5205555</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,13 +9448,13 @@
         <v>45070.5</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -9463,7 +9463,7 @@
         <v>49</v>
       </c>
       <c r="K101">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="L101">
         <v>3.75</v>
@@ -9472,34 +9472,34 @@
         <v>5</v>
       </c>
       <c r="N101">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
+        <v>1.775</v>
+      </c>
+      <c r="V101">
         <v>2.025</v>
       </c>
-      <c r="V101">
-        <v>1.775</v>
-      </c>
       <c r="W101">
-        <v>0.3999999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9508,16 +9508,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5204481</v>
+        <v>5205554</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9537,58 +9537,58 @@
         <v>45070.5</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>49</v>
       </c>
       <c r="K102">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="N102">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q102">
         <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
         <v>3</v>
       </c>
       <c r="U102">
+        <v>1.875</v>
+      </c>
+      <c r="V102">
         <v>1.925</v>
       </c>
-      <c r="V102">
-        <v>1.875</v>
-      </c>
       <c r="W102">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9597,16 +9597,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5205550</v>
+        <v>5205553</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45070.5</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>50</v>
       </c>
       <c r="K103">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L103">
+        <v>3.25</v>
+      </c>
+      <c r="M103">
+        <v>3.25</v>
+      </c>
+      <c r="N103">
+        <v>1.85</v>
+      </c>
+      <c r="O103">
+        <v>3.6</v>
+      </c>
+      <c r="P103">
         <v>3.3</v>
       </c>
-      <c r="M103">
-        <v>2.55</v>
-      </c>
-      <c r="N103">
-        <v>2.375</v>
-      </c>
-      <c r="O103">
-        <v>3.4</v>
-      </c>
-      <c r="P103">
-        <v>2.55</v>
-      </c>
       <c r="Q103">
+        <v>-0.5</v>
+      </c>
+      <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>1.85</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
+        <v>1.85</v>
+      </c>
+      <c r="V103">
+        <v>1.95</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>2.3</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB103">
         <v>0</v>
       </c>
-      <c r="R103">
-        <v>1.9</v>
-      </c>
-      <c r="S103">
-        <v>1.9</v>
-      </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>1.975</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>1.55</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
-      <c r="AA103">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
       <c r="AC103">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5205551</v>
+        <v>5205552</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45070.5</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="L104">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N104">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X104">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9792,7 +9792,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5205552</v>
+        <v>5205549</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9804,58 +9804,58 @@
         <v>45070.5</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105">
         <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>49</v>
       </c>
       <c r="K105">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N105">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O105">
         <v>4.2</v>
       </c>
       <c r="P105">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
+        <v>2.025</v>
+      </c>
+      <c r="V105">
         <v>1.775</v>
       </c>
-      <c r="V105">
-        <v>2.025</v>
-      </c>
       <c r="W105">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9864,16 +9864,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC105">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9881,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5213692</v>
+        <v>5232539</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,73 +9893,73 @@
         <v>45074.5</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K106">
+        <v>3.75</v>
+      </c>
+      <c r="L106">
+        <v>3.4</v>
+      </c>
+      <c r="M106">
         <v>1.8</v>
       </c>
-      <c r="L106">
-        <v>3.6</v>
-      </c>
-      <c r="M106">
-        <v>3.6</v>
-      </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S106">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5205556</v>
+        <v>5232540</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,76 +9982,76 @@
         <v>45074.5</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>5</v>
+        <v>1.166</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M107">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="N107">
-        <v>3.2</v>
+        <v>1.222</v>
       </c>
       <c r="O107">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P107">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="Q107">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X107">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5205557</v>
+        <v>5231437</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,40 +10071,40 @@
         <v>45074.5</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N108">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
         <v>1.925</v>
@@ -10113,7 +10113,7 @@
         <v>1.875</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U108">
         <v>1.925</v>
@@ -10122,25 +10122,25 @@
         <v>1.875</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10148,7 +10148,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5205558</v>
+        <v>5205556</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,76 +10160,76 @@
         <v>45074.5</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K109">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="L109">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
+        <v>1.571</v>
+      </c>
+      <c r="N109">
+        <v>3.2</v>
+      </c>
+      <c r="O109">
+        <v>3.4</v>
+      </c>
+      <c r="P109">
+        <v>2</v>
+      </c>
+      <c r="Q109">
+        <v>0.5</v>
+      </c>
+      <c r="R109">
+        <v>1.775</v>
+      </c>
+      <c r="S109">
+        <v>2.025</v>
+      </c>
+      <c r="T109">
         <v>2.75</v>
       </c>
-      <c r="N109">
-        <v>2.15</v>
-      </c>
-      <c r="O109">
-        <v>3.3</v>
-      </c>
-      <c r="P109">
-        <v>2.9</v>
-      </c>
-      <c r="Q109">
-        <v>-0.25</v>
-      </c>
-      <c r="R109">
+      <c r="U109">
+        <v>1.875</v>
+      </c>
+      <c r="V109">
         <v>1.925</v>
       </c>
-      <c r="S109">
-        <v>1.875</v>
-      </c>
-      <c r="T109">
-        <v>2.5</v>
-      </c>
-      <c r="U109">
-        <v>1.95</v>
-      </c>
-      <c r="V109">
-        <v>1.85</v>
-      </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y109">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10237,7 +10237,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5231437</v>
+        <v>5213692</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10249,58 +10249,58 @@
         <v>45074.5</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>49</v>
       </c>
       <c r="K110">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N110">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10309,16 +10309,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10326,7 +10326,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5232539</v>
+        <v>5204482</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10338,73 +10338,73 @@
         <v>45074.5</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L111">
         <v>3.4</v>
       </c>
       <c r="M111">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N111">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R111">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X111">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5232540</v>
+        <v>5205557</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,76 +10427,76 @@
         <v>45074.5</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
-        <v>1.166</v>
+        <v>1.909</v>
       </c>
       <c r="L112">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="O112">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="Q112">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
+        <v>1.925</v>
+      </c>
+      <c r="S112">
         <v>1.875</v>
-      </c>
-      <c r="S112">
-        <v>1.925</v>
       </c>
       <c r="T112">
         <v>3.25</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5204482</v>
+        <v>5205558</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,73 +10516,73 @@
         <v>45074.5</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>3</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K113">
+        <v>2.25</v>
+      </c>
+      <c r="L113">
+        <v>3.25</v>
+      </c>
+      <c r="M113">
+        <v>2.75</v>
+      </c>
+      <c r="N113">
+        <v>2.15</v>
+      </c>
+      <c r="O113">
+        <v>3.3</v>
+      </c>
+      <c r="P113">
+        <v>2.9</v>
+      </c>
+      <c r="Q113">
+        <v>-0.25</v>
+      </c>
+      <c r="R113">
+        <v>1.925</v>
+      </c>
+      <c r="S113">
+        <v>1.875</v>
+      </c>
+      <c r="T113">
         <v>2.5</v>
       </c>
-      <c r="L113">
-        <v>3.4</v>
-      </c>
-      <c r="M113">
-        <v>2.375</v>
-      </c>
-      <c r="N113">
-        <v>3.8</v>
-      </c>
-      <c r="O113">
-        <v>3.75</v>
-      </c>
-      <c r="P113">
-        <v>1.727</v>
-      </c>
-      <c r="Q113">
-        <v>0.75</v>
-      </c>
-      <c r="R113">
+      <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
+        <v>1.85</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
         <v>1.9</v>
       </c>
-      <c r="S113">
-        <v>1.9</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.8</v>
-      </c>
-      <c r="V113">
-        <v>2</v>
-      </c>
-      <c r="W113">
-        <v>2.8</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
       <c r="Z113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB113">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6804154</v>
+        <v>6803327</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,76 +11673,76 @@
         <v>45136.5</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K126">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="M126">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N126">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O126">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X126">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11750,7 +11750,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6803327</v>
+        <v>6804154</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11762,76 +11762,76 @@
         <v>45136.5</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L127">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="M127">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N127">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P127">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6803328</v>
+        <v>6804157</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,73 +12118,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M131">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O131">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P131">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
+        <v>1.925</v>
+      </c>
+      <c r="V131">
         <v>1.875</v>
       </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
       <c r="W131">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6804157</v>
+        <v>6804159</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,37 +12296,37 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I133">
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>2.1</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M133">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O133">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
@@ -12338,31 +12338,31 @@
         <v>1.775</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y133">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6804159</v>
+        <v>6803241</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,73 +12385,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>3</v>
       </c>
       <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>49</v>
+      </c>
+      <c r="K134">
         <v>3</v>
       </c>
-      <c r="J134" t="s">
-        <v>48</v>
-      </c>
-      <c r="K134">
-        <v>2.1</v>
-      </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N134">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O134">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q134">
         <v>-0.25</v>
       </c>
       <c r="R134">
+        <v>1.85</v>
+      </c>
+      <c r="S134">
+        <v>1.95</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.775</v>
+      </c>
+      <c r="V134">
         <v>2.025</v>
       </c>
-      <c r="S134">
-        <v>1.775</v>
-      </c>
-      <c r="T134">
-        <v>3</v>
-      </c>
-      <c r="U134">
-        <v>1.85</v>
-      </c>
-      <c r="V134">
-        <v>1.95</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X134">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA134">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6803241</v>
+        <v>6803159</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,76 +12474,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>50</v>
+      </c>
+      <c r="K135">
+        <v>1.75</v>
+      </c>
+      <c r="L135">
+        <v>3.6</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+      <c r="N135">
+        <v>1.75</v>
+      </c>
+      <c r="O135">
+        <v>3.75</v>
+      </c>
+      <c r="P135">
+        <v>4</v>
+      </c>
+      <c r="Q135">
+        <v>-0.5</v>
+      </c>
+      <c r="R135">
+        <v>1.775</v>
+      </c>
+      <c r="S135">
+        <v>2.025</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>1.8</v>
+      </c>
+      <c r="V135">
+        <v>2</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
         <v>3</v>
       </c>
-      <c r="I135">
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>1.025</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>1</v>
-      </c>
-      <c r="J135" t="s">
-        <v>49</v>
-      </c>
-      <c r="K135">
-        <v>3</v>
-      </c>
-      <c r="L135">
-        <v>3.1</v>
-      </c>
-      <c r="M135">
-        <v>2.3</v>
-      </c>
-      <c r="N135">
-        <v>2.15</v>
-      </c>
-      <c r="O135">
-        <v>3.2</v>
-      </c>
-      <c r="P135">
-        <v>3.3</v>
-      </c>
-      <c r="Q135">
-        <v>-0.25</v>
-      </c>
-      <c r="R135">
-        <v>1.85</v>
-      </c>
-      <c r="S135">
-        <v>1.95</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.775</v>
-      </c>
-      <c r="V135">
-        <v>2.025</v>
-      </c>
-      <c r="W135">
-        <v>1.15</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6803159</v>
+        <v>6803328</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,76 +12652,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N137">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6803329</v>
+        <v>6804164</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,10 +12741,10 @@
         <v>45143.5</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12756,46 +12756,46 @@
         <v>48</v>
       </c>
       <c r="K138">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
         <v>3.25</v>
       </c>
       <c r="M138">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N138">
         <v>2.6</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q138">
         <v>0</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
+        <v>1.825</v>
+      </c>
+      <c r="T138">
+        <v>3</v>
+      </c>
+      <c r="U138">
+        <v>2</v>
+      </c>
+      <c r="V138">
         <v>1.8</v>
       </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>1.775</v>
-      </c>
-      <c r="V138">
-        <v>2.025</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y138">
         <v>-1</v>
@@ -12810,7 +12810,7 @@
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6803160</v>
+        <v>6803329</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,76 +12830,76 @@
         <v>45143.5</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G139" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L139">
         <v>3.25</v>
       </c>
       <c r="M139">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N139">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O139">
         <v>3.25</v>
       </c>
       <c r="P139">
+        <v>2.375</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>1.8</v>
+      </c>
+      <c r="T139">
+        <v>2.75</v>
+      </c>
+      <c r="U139">
+        <v>1.775</v>
+      </c>
+      <c r="V139">
+        <v>2.025</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
         <v>2.25</v>
       </c>
-      <c r="Q139">
-        <v>0.25</v>
-      </c>
-      <c r="R139">
-        <v>1.775</v>
-      </c>
-      <c r="S139">
-        <v>2.025</v>
-      </c>
-      <c r="T139">
-        <v>2.5</v>
-      </c>
-      <c r="U139">
-        <v>1.925</v>
-      </c>
-      <c r="V139">
-        <v>1.875</v>
-      </c>
-      <c r="W139">
-        <v>1.75</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6804161</v>
+        <v>6803160</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,58 +12919,58 @@
         <v>45143.5</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>49</v>
       </c>
       <c r="K140">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P140">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12979,16 +12979,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
         <v>0.925</v>
       </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
-      <c r="AB140">
-        <v>-1</v>
-      </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6804164</v>
+        <v>6804161</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45143.5</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M141">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N141">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X141">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13797,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6804170</v>
+        <v>6804169</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13809,76 +13809,76 @@
         <v>45151.5</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>48</v>
+      </c>
+      <c r="K150">
+        <v>2.4</v>
+      </c>
+      <c r="L150">
+        <v>3.4</v>
+      </c>
+      <c r="M150">
+        <v>2.5</v>
+      </c>
+      <c r="N150">
+        <v>1.95</v>
+      </c>
+      <c r="O150">
+        <v>3.6</v>
+      </c>
+      <c r="P150">
+        <v>3.4</v>
+      </c>
+      <c r="Q150">
+        <v>-0.5</v>
+      </c>
+      <c r="R150">
+        <v>1.975</v>
+      </c>
+      <c r="S150">
+        <v>1.825</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="K150">
-        <v>2.25</v>
-      </c>
-      <c r="L150">
-        <v>3</v>
-      </c>
-      <c r="M150">
-        <v>3</v>
-      </c>
-      <c r="N150">
-        <v>2.375</v>
-      </c>
-      <c r="O150">
-        <v>3</v>
-      </c>
-      <c r="P150">
-        <v>2.875</v>
-      </c>
-      <c r="Q150">
-        <v>-0.25</v>
-      </c>
-      <c r="R150">
-        <v>2.05</v>
-      </c>
-      <c r="S150">
-        <v>1.75</v>
-      </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB150">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13886,7 +13886,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6804169</v>
+        <v>6804170</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13898,76 +13898,76 @@
         <v>45151.5</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K151">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M151">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N151">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P151">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q151">
+        <v>-0.25</v>
+      </c>
+      <c r="R151">
+        <v>2.05</v>
+      </c>
+      <c r="S151">
+        <v>1.75</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
+        <v>2</v>
+      </c>
+      <c r="V151">
+        <v>1.8</v>
+      </c>
+      <c r="W151">
+        <v>1.375</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>1.05</v>
+      </c>
+      <c r="AA151">
+        <v>-1</v>
+      </c>
+      <c r="AB151">
+        <v>0.5</v>
+      </c>
+      <c r="AC151">
         <v>-0.5</v>
-      </c>
-      <c r="R151">
-        <v>1.975</v>
-      </c>
-      <c r="S151">
-        <v>1.825</v>
-      </c>
-      <c r="T151">
-        <v>3</v>
-      </c>
-      <c r="U151">
-        <v>1.925</v>
-      </c>
-      <c r="V151">
-        <v>1.875</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>2.6</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
-      <c r="AA151">
-        <v>0.825</v>
-      </c>
-      <c r="AB151">
-        <v>0.925</v>
-      </c>
-      <c r="AC151">
-        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14242,7 +14242,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6803244</v>
+        <v>6804175</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14254,49 +14254,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I155">
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K155">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L155">
         <v>3.25</v>
       </c>
       <c r="M155">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N155">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O155">
         <v>3.3</v>
       </c>
       <c r="P155">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S155">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
         <v>1.975</v>
@@ -14305,25 +14305,25 @@
         <v>1.825</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14331,7 +14331,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6804175</v>
+        <v>6803244</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14343,49 +14343,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H156">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K156">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L156">
         <v>3.25</v>
       </c>
       <c r="M156">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N156">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O156">
         <v>3.3</v>
       </c>
       <c r="P156">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
         <v>1.975</v>
@@ -14394,25 +14394,25 @@
         <v>1.825</v>
       </c>
       <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>1.6</v>
+      </c>
+      <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
         <v>1</v>
       </c>
-      <c r="X156">
-        <v>-1</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>0.925</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
       <c r="AB156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14420,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6804174</v>
+        <v>6804171</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14432,76 +14432,76 @@
         <v>45157.5</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K157">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L157">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M157">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N157">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O157">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>1.8</v>
+      </c>
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
         <v>1.85</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.95</v>
       </c>
-      <c r="T157">
-        <v>2.75</v>
-      </c>
-      <c r="U157">
-        <v>1.975</v>
-      </c>
-      <c r="V157">
-        <v>1.825</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X157">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6804173</v>
+        <v>6804172</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,58 +14521,58 @@
         <v>45157.5</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>49</v>
       </c>
       <c r="K158">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L158">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N158">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O158">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P158">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
         <v>3</v>
       </c>
       <c r="U158">
+        <v>1.925</v>
+      </c>
+      <c r="V158">
         <v>1.875</v>
       </c>
-      <c r="V158">
-        <v>1.925</v>
-      </c>
       <c r="W158">
-        <v>0.833</v>
+        <v>0.5</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14581,16 +14581,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>-0</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
         <v>0.875</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>0.875</v>
-      </c>
-      <c r="AC158">
-        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6804171</v>
+        <v>6804173</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,13 +14610,13 @@
         <v>45157.5</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -14625,43 +14625,43 @@
         <v>49</v>
       </c>
       <c r="K159">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L159">
+        <v>3.25</v>
+      </c>
+      <c r="M159">
+        <v>2.75</v>
+      </c>
+      <c r="N159">
+        <v>1.833</v>
+      </c>
+      <c r="O159">
+        <v>3.8</v>
+      </c>
+      <c r="P159">
         <v>3.3</v>
-      </c>
-      <c r="M159">
-        <v>3.5</v>
-      </c>
-      <c r="N159">
-        <v>1.909</v>
-      </c>
-      <c r="O159">
-        <v>3.3</v>
-      </c>
-      <c r="P159">
-        <v>3.5</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S159">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V159">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W159">
-        <v>0.909</v>
+        <v>0.833</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14670,13 +14670,13 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14687,7 +14687,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6804172</v>
+        <v>6804174</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14699,61 +14699,61 @@
         <v>45157.5</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>48</v>
+      </c>
+      <c r="K160">
+        <v>2.4</v>
+      </c>
+      <c r="L160">
+        <v>3.2</v>
+      </c>
+      <c r="M160">
+        <v>2.625</v>
+      </c>
+      <c r="N160">
+        <v>2.45</v>
+      </c>
+      <c r="O160">
+        <v>3.25</v>
+      </c>
+      <c r="P160">
+        <v>2.625</v>
+      </c>
+      <c r="Q160">
         <v>0</v>
       </c>
-      <c r="J160" t="s">
-        <v>49</v>
-      </c>
-      <c r="K160">
-        <v>1.8</v>
-      </c>
-      <c r="L160">
-        <v>3.4</v>
-      </c>
-      <c r="M160">
-        <v>3.8</v>
-      </c>
-      <c r="N160">
-        <v>1.5</v>
-      </c>
-      <c r="O160">
-        <v>4.2</v>
-      </c>
-      <c r="P160">
-        <v>5</v>
-      </c>
-      <c r="Q160">
-        <v>-1</v>
-      </c>
       <c r="R160">
+        <v>1.85</v>
+      </c>
+      <c r="S160">
+        <v>1.95</v>
+      </c>
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
+        <v>1.975</v>
+      </c>
+      <c r="V160">
         <v>1.825</v>
       </c>
-      <c r="S160">
-        <v>1.975</v>
-      </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>1.925</v>
-      </c>
-      <c r="V160">
-        <v>1.875</v>
-      </c>
       <c r="W160">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y160">
         <v>-1</v>
@@ -14768,7 +14768,7 @@
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14954,7 +14954,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6804176</v>
+        <v>6804180</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14966,76 +14966,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J163" t="s">
         <v>48</v>
       </c>
       <c r="K163">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M163">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N163">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O163">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P163">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q163">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R163">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S163">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V163">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC163">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15043,7 +15043,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6804180</v>
+        <v>6804176</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15055,76 +15055,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>48</v>
       </c>
       <c r="K164">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N164">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O164">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P164">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q164">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R164">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6803164</v>
+        <v>6803246</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,10 +15767,10 @@
         <v>45171.5</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15782,43 +15782,43 @@
         <v>49</v>
       </c>
       <c r="K172">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N172">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O172">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P172">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R172">
+        <v>1.95</v>
+      </c>
+      <c r="S172">
+        <v>1.85</v>
+      </c>
+      <c r="T172">
+        <v>2.75</v>
+      </c>
+      <c r="U172">
+        <v>2</v>
+      </c>
+      <c r="V172">
         <v>1.8</v>
       </c>
-      <c r="S172">
-        <v>2</v>
-      </c>
-      <c r="T172">
-        <v>3</v>
-      </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
       <c r="W172">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15827,16 +15827,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA172">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6804184</v>
+        <v>6803164</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,76 +15856,76 @@
         <v>45171.5</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M173">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N173">
-        <v>1.6</v>
+        <v>1.363</v>
       </c>
       <c r="O173">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P173">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R173">
+        <v>1.8</v>
+      </c>
+      <c r="S173">
+        <v>2</v>
+      </c>
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
+        <v>1.975</v>
+      </c>
+      <c r="V173">
         <v>1.825</v>
       </c>
-      <c r="S173">
-        <v>1.975</v>
-      </c>
-      <c r="T173">
-        <v>2.75</v>
-      </c>
-      <c r="U173">
-        <v>1.9</v>
-      </c>
-      <c r="V173">
-        <v>1.9</v>
-      </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X173">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6803246</v>
+        <v>6804184</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,76 +15945,76 @@
         <v>45171.5</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K174">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N174">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O174">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P174">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16111,7 +16111,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6804185</v>
+        <v>6804181</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16123,76 +16123,76 @@
         <v>45172.21875</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M176">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N176">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O176">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
+        <v>1.825</v>
+      </c>
+      <c r="V176">
         <v>1.975</v>
       </c>
-      <c r="V176">
-        <v>1.825</v>
-      </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X176">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16200,7 +16200,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6804181</v>
+        <v>6804185</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16212,76 +16212,76 @@
         <v>45172.21875</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K177">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N177">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P177">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.975</v>
+      </c>
+      <c r="V177">
+        <v>1.825</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
         <v>2.5</v>
       </c>
-      <c r="U177">
-        <v>1.825</v>
-      </c>
-      <c r="V177">
-        <v>1.975</v>
-      </c>
-      <c r="W177">
-        <v>1</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>0.825</v>
-      </c>
-      <c r="AC177">
-        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6804193</v>
+        <v>6803333</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,73 +16657,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G182" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L182">
         <v>3.25</v>
       </c>
       <c r="M182">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N182">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O182">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P182">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16734,7 +16734,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6803333</v>
+        <v>6804193</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16746,73 +16746,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K183">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L183">
         <v>3.25</v>
       </c>
       <c r="M183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N183">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O183">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P183">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S183">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y183">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA183">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB183">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -17802,7 +17802,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6803167</v>
+        <v>6804202</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17814,76 +17814,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L195">
         <v>3.3</v>
       </c>
       <c r="M195">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N195">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P195">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q195">
         <v>-0.25</v>
       </c>
       <c r="R195">
+        <v>1.85</v>
+      </c>
+      <c r="S195">
+        <v>1.95</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
         <v>1.8</v>
       </c>
-      <c r="S195">
-        <v>2</v>
-      </c>
-      <c r="T195">
-        <v>2.25</v>
-      </c>
-      <c r="U195">
-        <v>1.8</v>
-      </c>
-      <c r="V195">
-        <v>2</v>
-      </c>
       <c r="W195">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
+        <v>-0.5</v>
+      </c>
+      <c r="AA195">
+        <v>0.475</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
         <v>0.8</v>
-      </c>
-      <c r="AA195">
-        <v>-1</v>
-      </c>
-      <c r="AB195">
-        <v>0.8</v>
-      </c>
-      <c r="AC195">
-        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17980,7 +17980,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6804202</v>
+        <v>6803167</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17992,76 +17992,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L197">
         <v>3.3</v>
       </c>
       <c r="M197">
+        <v>2.2</v>
+      </c>
+      <c r="N197">
+        <v>2.05</v>
+      </c>
+      <c r="O197">
         <v>3.4</v>
       </c>
-      <c r="N197">
-        <v>2.1</v>
-      </c>
-      <c r="O197">
-        <v>3.3</v>
-      </c>
       <c r="P197">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V197">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X197">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA197">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6804207</v>
+        <v>6804206</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H206">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -18808,43 +18808,43 @@
         <v>49</v>
       </c>
       <c r="K206">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N206">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P206">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R206">
+        <v>1.825</v>
+      </c>
+      <c r="S206">
+        <v>1.975</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
         <v>1.925</v>
       </c>
-      <c r="S206">
+      <c r="V206">
         <v>1.875</v>
       </c>
-      <c r="T206">
-        <v>2.5</v>
-      </c>
-      <c r="U206">
-        <v>1.875</v>
-      </c>
-      <c r="V206">
-        <v>1.925</v>
-      </c>
       <c r="W206">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,13 +18853,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
+        <v>0.825</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
         <v>0.925</v>
-      </c>
-      <c r="AA206">
-        <v>-1</v>
-      </c>
-      <c r="AB206">
-        <v>0.875</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18870,7 +18870,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6804206</v>
+        <v>6804207</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18882,13 +18882,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -18897,43 +18897,43 @@
         <v>49</v>
       </c>
       <c r="K207">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L207">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M207">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N207">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O207">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P207">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S207">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T207">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
+        <v>1.875</v>
+      </c>
+      <c r="V207">
         <v>1.925</v>
       </c>
-      <c r="V207">
-        <v>1.875</v>
-      </c>
       <c r="W207">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18942,13 +18942,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -19493,7 +19493,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6803337</v>
+        <v>6804213</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19505,73 +19505,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I214">
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K214">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L214">
         <v>3.25</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19582,7 +19582,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6804213</v>
+        <v>6803337</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19594,73 +19594,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I215">
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K215">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N215">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O215">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19671,7 +19671,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6804214</v>
+        <v>6803169</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19683,58 +19683,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F216" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L216">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M216">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N216">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="O216">
         <v>3.3</v>
       </c>
       <c r="P216">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q216">
         <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T216">
         <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W216">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19743,16 +19743,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC216">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19760,7 +19760,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6803169</v>
+        <v>6804214</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19772,58 +19772,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F217" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
         <v>49</v>
       </c>
       <c r="K217">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L217">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M217">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="N217">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="O217">
         <v>3.3</v>
       </c>
       <c r="P217">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
         <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V217">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W217">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19832,16 +19832,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20027,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6804221</v>
+        <v>6803338</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20039,22 +20039,22 @@
         <v>45227.21875</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H220">
+        <v>3</v>
+      </c>
+      <c r="I220">
         <v>1</v>
       </c>
-      <c r="I220">
-        <v>3</v>
-      </c>
       <c r="J220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L220">
         <v>3.4</v>
@@ -20075,37 +20075,37 @@
         <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA220">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20116,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6803338</v>
+        <v>6804221</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20128,22 +20128,22 @@
         <v>45227.21875</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
         <v>3</v>
       </c>
-      <c r="I221">
-        <v>1</v>
-      </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K221">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L221">
         <v>3.4</v>
@@ -20164,37 +20164,37 @@
         <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T221">
         <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z221">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB221">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20739,7 +20739,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6805653</v>
+        <v>6804224</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20751,76 +20751,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K228">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N228">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="O228">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P228">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="Q228">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T228">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y228">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA228">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20917,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6804224</v>
+        <v>6805653</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20929,76 +20929,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K230">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L230">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M230">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N230">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="O230">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R230">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC230">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5205513</v>
+        <v>5205512</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,73 +4998,73 @@
         <v>45035.5</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N51">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5205512</v>
+        <v>5205511</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,58 +5087,58 @@
         <v>45035.5</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>49</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N52">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P52">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5147,13 +5147,13 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5164,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5205511</v>
+        <v>5205513</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,73 +5176,73 @@
         <v>45035.5</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L53">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M53">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O53">
+        <v>3.2</v>
+      </c>
+      <c r="P53">
         <v>3.3</v>
-      </c>
-      <c r="P53">
-        <v>3.4</v>
       </c>
       <c r="Q53">
         <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
+        <v>2.3</v>
+      </c>
+      <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
+        <v>0.925</v>
+      </c>
+      <c r="AB53">
         <v>1</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>0.8</v>
-      </c>
-      <c r="AA53">
-        <v>-1</v>
-      </c>
-      <c r="AB53">
-        <v>0.95</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5205519</v>
+        <v>5205518</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,76 +5888,76 @@
         <v>45039.5</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K61">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L61">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N61">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O61">
         <v>3.1</v>
       </c>
       <c r="P61">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q61">
         <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5205518</v>
+        <v>5205514</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,76 +5977,76 @@
         <v>45039.5</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K62">
+        <v>2.5</v>
+      </c>
+      <c r="L62">
+        <v>3.2</v>
+      </c>
+      <c r="M62">
+        <v>2.625</v>
+      </c>
+      <c r="N62">
+        <v>3.3</v>
+      </c>
+      <c r="O62">
+        <v>3.2</v>
+      </c>
+      <c r="P62">
         <v>2.1</v>
       </c>
-      <c r="L62">
-        <v>3.25</v>
-      </c>
-      <c r="M62">
-        <v>3.2</v>
-      </c>
-      <c r="N62">
-        <v>2.05</v>
-      </c>
-      <c r="O62">
-        <v>3.1</v>
-      </c>
-      <c r="P62">
-        <v>3.5</v>
-      </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5205514</v>
+        <v>5205519</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,40 +6066,40 @@
         <v>45039.5</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M63">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N63">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
         <v>2.025</v>
@@ -6108,34 +6108,34 @@
         <v>1.775</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA63">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5205528</v>
+        <v>5205534</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7490,58 +7490,58 @@
         <v>45053.5</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>49</v>
       </c>
       <c r="K79">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L79">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N79">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7550,16 +7550,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5205534</v>
+        <v>5205528</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,58 +7579,58 @@
         <v>45053.5</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>49</v>
       </c>
       <c r="K80">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M80">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N80">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.444</v>
+        <v>1.9</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7639,16 +7639,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5204481</v>
+        <v>5205550</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,76 +9181,76 @@
         <v>45070.5</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K98">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L98">
         <v>3.3</v>
       </c>
       <c r="M98">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N98">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>1.9</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
+        <v>1.825</v>
+      </c>
+      <c r="V98">
         <v>1.975</v>
       </c>
-      <c r="S98">
-        <v>1.825</v>
-      </c>
-      <c r="T98">
-        <v>3</v>
-      </c>
-      <c r="U98">
-        <v>1.925</v>
-      </c>
-      <c r="V98">
-        <v>1.875</v>
-      </c>
       <c r="W98">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z98">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5205550</v>
+        <v>5204481</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,76 +9270,76 @@
         <v>45070.5</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L99">
         <v>3.3</v>
       </c>
       <c r="M99">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N99">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O99">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P99">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q99">
+        <v>-0.75</v>
+      </c>
+      <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
+        <v>1.825</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>1.925</v>
+      </c>
+      <c r="V99">
+        <v>1.875</v>
+      </c>
+      <c r="W99">
+        <v>0.7</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.4875</v>
+      </c>
+      <c r="AA99">
+        <v>-0.5</v>
+      </c>
+      <c r="AB99">
         <v>0</v>
       </c>
-      <c r="R99">
-        <v>1.9</v>
-      </c>
-      <c r="S99">
-        <v>1.9</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.825</v>
-      </c>
-      <c r="V99">
-        <v>1.975</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>1.55</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5205555</v>
+        <v>5205554</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,58 +9448,58 @@
         <v>45070.5</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>49</v>
       </c>
       <c r="K101">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N101">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9508,16 +9508,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5205554</v>
+        <v>5205555</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9537,58 +9537,58 @@
         <v>45070.5</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>49</v>
       </c>
       <c r="K102">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M102">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N102">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W102">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9597,16 +9597,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6804148</v>
+        <v>6803939</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,76 +10694,76 @@
         <v>45129.21875</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K115">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N115">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q115">
+        <v>0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.75</v>
+      </c>
+      <c r="S115">
+        <v>2.05</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>2.2</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.375</v>
+      </c>
+      <c r="AA115">
         <v>-0.5</v>
       </c>
-      <c r="R115">
-        <v>1.8</v>
-      </c>
-      <c r="S115">
-        <v>2</v>
-      </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>1.85</v>
-      </c>
-      <c r="V115">
-        <v>1.95</v>
-      </c>
-      <c r="W115">
-        <v>0.8</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>0.8</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6803939</v>
+        <v>6804148</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,76 +10783,76 @@
         <v>45129.21875</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K116">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N116">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X116">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6804155</v>
+        <v>6804151</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,10 +11406,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11421,19 +11421,19 @@
         <v>49</v>
       </c>
       <c r="K123">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N123">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
         <v>3.6</v>
@@ -11442,10 +11442,10 @@
         <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11457,7 +11457,7 @@
         <v>2</v>
       </c>
       <c r="W123">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11466,7 +11466,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6804151</v>
+        <v>6804155</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,10 +11495,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11510,19 +11510,19 @@
         <v>49</v>
       </c>
       <c r="K124">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
+        <v>2.9</v>
+      </c>
+      <c r="N124">
+        <v>1.85</v>
+      </c>
+      <c r="O124">
         <v>3.5</v>
-      </c>
-      <c r="N124">
-        <v>1.909</v>
-      </c>
-      <c r="O124">
-        <v>3.3</v>
       </c>
       <c r="P124">
         <v>3.6</v>
@@ -11531,10 +11531,10 @@
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
         <v>2.5</v>
@@ -11546,7 +11546,7 @@
         <v>2</v>
       </c>
       <c r="W124">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11555,7 +11555,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6804157</v>
+        <v>6804156</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,19 +12118,19 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
         <v>0</v>
       </c>
-      <c r="I131">
-        <v>3</v>
-      </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K131">
         <v>2.1</v>
@@ -12142,52 +12142,52 @@
         <v>3.25</v>
       </c>
       <c r="N131">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA131">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6804156</v>
+        <v>6804159</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,76 +12207,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
         <v>2.1</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T132">
+        <v>3</v>
+      </c>
+      <c r="U132">
+        <v>1.85</v>
+      </c>
+      <c r="V132">
+        <v>1.95</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
         <v>2.5</v>
       </c>
-      <c r="U132">
-        <v>1.95</v>
-      </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
-      <c r="W132">
-        <v>1.2</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6804159</v>
+        <v>6803241</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,73 +12296,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>3</v>
       </c>
       <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>49</v>
+      </c>
+      <c r="K133">
         <v>3</v>
       </c>
-      <c r="J133" t="s">
-        <v>48</v>
-      </c>
-      <c r="K133">
-        <v>2.1</v>
-      </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M133">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N133">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P133">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
+        <v>1.95</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
+        <v>1.775</v>
+      </c>
+      <c r="V133">
         <v>2.025</v>
       </c>
-      <c r="S133">
-        <v>1.775</v>
-      </c>
-      <c r="T133">
-        <v>3</v>
-      </c>
-      <c r="U133">
-        <v>1.85</v>
-      </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6803241</v>
+        <v>6803328</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,13 +12385,13 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -12400,43 +12400,43 @@
         <v>49</v>
       </c>
       <c r="K134">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L134">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N134">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12445,13 +12445,13 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6803159</v>
+        <v>6804160</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,46 +12474,46 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N135">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
         <v>2.5</v>
@@ -12525,25 +12525,25 @@
         <v>2</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC135">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6804160</v>
+        <v>6804157</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,73 +12563,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB136">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6803328</v>
+        <v>6803159</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,76 +12652,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>50</v>
+      </c>
+      <c r="K137">
+        <v>1.75</v>
+      </c>
+      <c r="L137">
+        <v>3.6</v>
+      </c>
+      <c r="M137">
+        <v>4</v>
+      </c>
+      <c r="N137">
+        <v>1.75</v>
+      </c>
+      <c r="O137">
+        <v>3.75</v>
+      </c>
+      <c r="P137">
+        <v>4</v>
+      </c>
+      <c r="Q137">
+        <v>-0.5</v>
+      </c>
+      <c r="R137">
+        <v>1.775</v>
+      </c>
+      <c r="S137">
+        <v>2.025</v>
+      </c>
+      <c r="T137">
+        <v>2.5</v>
+      </c>
+      <c r="U137">
+        <v>1.8</v>
+      </c>
+      <c r="V137">
+        <v>2</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>3</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>1.025</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
         <v>1</v>
-      </c>
-      <c r="J137" t="s">
-        <v>49</v>
-      </c>
-      <c r="K137">
-        <v>1.666</v>
-      </c>
-      <c r="L137">
-        <v>3.75</v>
-      </c>
-      <c r="M137">
-        <v>4.333</v>
-      </c>
-      <c r="N137">
-        <v>1.444</v>
-      </c>
-      <c r="O137">
-        <v>4.333</v>
-      </c>
-      <c r="P137">
-        <v>5.75</v>
-      </c>
-      <c r="Q137">
-        <v>-1.25</v>
-      </c>
-      <c r="R137">
-        <v>2</v>
-      </c>
-      <c r="S137">
-        <v>1.8</v>
-      </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.875</v>
-      </c>
-      <c r="V137">
-        <v>1.925</v>
-      </c>
-      <c r="W137">
-        <v>0.444</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>1</v>
-      </c>
-      <c r="AA137">
-        <v>-1</v>
-      </c>
-      <c r="AB137">
-        <v>0.875</v>
-      </c>
-      <c r="AC137">
-        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -14687,7 +14687,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6804174</v>
+        <v>6803331</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14699,49 +14699,49 @@
         <v>45157.5</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K160">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L160">
         <v>3.2</v>
       </c>
       <c r="M160">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N160">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O160">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P160">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q160">
         <v>0</v>
       </c>
       <c r="R160">
+        <v>1.95</v>
+      </c>
+      <c r="S160">
         <v>1.85</v>
       </c>
-      <c r="S160">
-        <v>1.95</v>
-      </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
         <v>1.975</v>
@@ -14753,16 +14753,16 @@
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6803331</v>
+        <v>6804174</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14788,49 +14788,49 @@
         <v>45157.5</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K161">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L161">
         <v>3.2</v>
       </c>
       <c r="M161">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N161">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O161">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P161">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q161">
         <v>0</v>
       </c>
       <c r="R161">
+        <v>1.85</v>
+      </c>
+      <c r="S161">
         <v>1.95</v>
       </c>
-      <c r="S161">
-        <v>1.85</v>
-      </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
         <v>1.975</v>
@@ -14842,16 +14842,16 @@
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y161">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
         <v>-1</v>
@@ -20739,7 +20739,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6804224</v>
+        <v>6804227</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20751,76 +20751,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K228">
+        <v>1.727</v>
+      </c>
+      <c r="L228">
+        <v>3.75</v>
+      </c>
+      <c r="M228">
+        <v>4</v>
+      </c>
+      <c r="N228">
+        <v>1.65</v>
+      </c>
+      <c r="O228">
+        <v>4</v>
+      </c>
+      <c r="P228">
+        <v>4.333</v>
+      </c>
+      <c r="Q228">
+        <v>-0.75</v>
+      </c>
+      <c r="R228">
+        <v>1.825</v>
+      </c>
+      <c r="S228">
+        <v>1.975</v>
+      </c>
+      <c r="T228">
         <v>2.75</v>
       </c>
-      <c r="L228">
-        <v>3.4</v>
-      </c>
-      <c r="M228">
-        <v>2.3</v>
-      </c>
-      <c r="N228">
-        <v>2.625</v>
-      </c>
-      <c r="O228">
-        <v>3.1</v>
-      </c>
-      <c r="P228">
-        <v>2.55</v>
-      </c>
-      <c r="Q228">
-        <v>0</v>
-      </c>
-      <c r="R228">
-        <v>1.875</v>
-      </c>
-      <c r="S228">
-        <v>1.925</v>
-      </c>
-      <c r="T228">
-        <v>2.25</v>
-      </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V228">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20828,7 +20828,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6804227</v>
+        <v>6805653</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20840,55 +20840,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G229" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
         <v>50</v>
       </c>
       <c r="K229">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L229">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M229">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N229">
+        <v>4.75</v>
+      </c>
+      <c r="O229">
+        <v>3.6</v>
+      </c>
+      <c r="P229">
         <v>1.65</v>
       </c>
-      <c r="O229">
-        <v>4</v>
-      </c>
-      <c r="P229">
-        <v>4.333</v>
-      </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R229">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S229">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V229">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20897,19 +20897,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>3.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20917,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6805653</v>
+        <v>6804224</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20929,76 +20929,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L230">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M230">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N230">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P230">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="Q230">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S230">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y230">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21451,7 +21451,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21463,13 +21463,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F236" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -21478,43 +21478,43 @@
         <v>49</v>
       </c>
       <c r="K236">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L236">
         <v>3.25</v>
       </c>
       <c r="M236">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N236">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O236">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P236">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA236">
         <v>-1</v>
@@ -21532,7 +21532,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21540,7 +21540,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21552,13 +21552,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21567,43 +21567,43 @@
         <v>49</v>
       </c>
       <c r="K237">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L237">
         <v>3.25</v>
       </c>
       <c r="M237">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N237">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O237">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P237">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S237">
+        <v>1.875</v>
+      </c>
+      <c r="T237">
+        <v>2.75</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
         <v>1.8</v>
       </c>
-      <c r="T237">
-        <v>2.5</v>
-      </c>
-      <c r="U237">
-        <v>1.975</v>
-      </c>
-      <c r="V237">
-        <v>1.825</v>
-      </c>
       <c r="W237">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA237">
         <v>-1</v>
@@ -21621,7 +21621,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="238" spans="1:29">

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5205482</v>
+        <v>5205483</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,10 +2061,10 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         <v>50</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P18">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
@@ -2106,11 +2106,11 @@
         <v>2.5</v>
       </c>
       <c r="U18">
+        <v>1.975</v>
+      </c>
+      <c r="V18">
         <v>1.825</v>
       </c>
-      <c r="V18">
-        <v>1.975</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2130,7 +2130,7 @@
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5205483</v>
+        <v>5205482</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,10 +2239,10 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2254,22 +2254,22 @@
         <v>50</v>
       </c>
       <c r="K20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N20">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q20">
         <v>-0.25</v>
@@ -2284,11 +2284,11 @@
         <v>2.5</v>
       </c>
       <c r="U20">
+        <v>1.825</v>
+      </c>
+      <c r="V20">
         <v>1.975</v>
       </c>
-      <c r="V20">
-        <v>1.825</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
@@ -2308,7 +2308,7 @@
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -3117,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5203873</v>
+        <v>5205487</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3129,76 +3129,76 @@
         <v>45018.21875</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
+        <v>2.8</v>
+      </c>
+      <c r="N30">
+        <v>2.625</v>
+      </c>
+      <c r="O30">
         <v>3.1</v>
       </c>
-      <c r="N30">
-        <v>1.45</v>
-      </c>
-      <c r="O30">
-        <v>4</v>
-      </c>
       <c r="P30">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3206,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5205487</v>
+        <v>5203873</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3218,76 +3218,76 @@
         <v>45018.21875</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N31">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P31">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y31">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5205505</v>
+        <v>5205501</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,58 +4286,58 @@
         <v>45031.21875</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>49</v>
       </c>
       <c r="K43">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M43">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N43">
+        <v>1.6</v>
+      </c>
+      <c r="O43">
+        <v>3.75</v>
+      </c>
+      <c r="P43">
+        <v>4.5</v>
+      </c>
+      <c r="Q43">
+        <v>-0.75</v>
+      </c>
+      <c r="R43">
+        <v>1.8</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
         <v>2.75</v>
       </c>
-      <c r="O43">
-        <v>2.9</v>
-      </c>
-      <c r="P43">
-        <v>2.5</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>1.825</v>
-      </c>
-      <c r="S43">
-        <v>1.975</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
       <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
         <v>1.8</v>
       </c>
-      <c r="V43">
-        <v>2</v>
-      </c>
       <c r="W43">
-        <v>1.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4346,16 +4346,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5205501</v>
+        <v>5205505</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,58 +4375,58 @@
         <v>45031.21875</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>49</v>
       </c>
       <c r="K44">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N44">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="O44">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P44">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
+        <v>1.825</v>
+      </c>
+      <c r="S44">
+        <v>1.975</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
         <v>1.8</v>
       </c>
-      <c r="S44">
-        <v>2</v>
-      </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>0.6000000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4435,16 +4435,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5203870</v>
+        <v>5205513</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,76 +4909,76 @@
         <v>45035.5</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L50">
         <v>3.1</v>
       </c>
       <c r="M50">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
+        <v>1.925</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
         <v>1.8</v>
       </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>1.925</v>
-      </c>
-      <c r="V50">
-        <v>1.875</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5164,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5205513</v>
+        <v>5205508</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,73 +5176,73 @@
         <v>45035.5</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L53">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N53">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5205508</v>
+        <v>5205509</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,58 +5354,58 @@
         <v>45035.5</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>49</v>
       </c>
       <c r="K55">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N55">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>0.5</v>
+        <v>1.875</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5414,16 +5414,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5205509</v>
+        <v>5203870</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,49 +5443,49 @@
         <v>45035.5</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M56">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N56">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="O56">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P56">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R56">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U56">
         <v>1.925</v>
@@ -5494,19 +5494,19 @@
         <v>1.875</v>
       </c>
       <c r="W56">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB56">
         <v>-1</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5205518</v>
+        <v>5205514</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,76 +5888,76 @@
         <v>45039.5</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K61">
+        <v>2.5</v>
+      </c>
+      <c r="L61">
+        <v>3.2</v>
+      </c>
+      <c r="M61">
+        <v>2.625</v>
+      </c>
+      <c r="N61">
+        <v>3.3</v>
+      </c>
+      <c r="O61">
+        <v>3.2</v>
+      </c>
+      <c r="P61">
         <v>2.1</v>
       </c>
-      <c r="L61">
-        <v>3.25</v>
-      </c>
-      <c r="M61">
-        <v>3.2</v>
-      </c>
-      <c r="N61">
-        <v>2.05</v>
-      </c>
-      <c r="O61">
-        <v>3.1</v>
-      </c>
-      <c r="P61">
-        <v>3.5</v>
-      </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5205514</v>
+        <v>5205518</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,76 +5977,76 @@
         <v>45039.5</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L62">
+        <v>3.25</v>
+      </c>
+      <c r="M62">
         <v>3.2</v>
       </c>
-      <c r="M62">
-        <v>2.625</v>
-      </c>
       <c r="N62">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O62">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
+        <v>3.5</v>
+      </c>
+      <c r="Q62">
+        <v>-0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.8</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <v>2.25</v>
+      </c>
+      <c r="U62">
+        <v>1.9</v>
+      </c>
+      <c r="V62">
+        <v>1.9</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
         <v>2.1</v>
       </c>
-      <c r="Q62">
-        <v>0.25</v>
-      </c>
-      <c r="R62">
-        <v>2.025</v>
-      </c>
-      <c r="S62">
-        <v>1.775</v>
-      </c>
-      <c r="T62">
-        <v>2.5</v>
-      </c>
-      <c r="U62">
-        <v>1.85</v>
-      </c>
-      <c r="V62">
-        <v>1.95</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
       <c r="Y62">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5205525</v>
+        <v>6580300</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,13 +6244,13 @@
         <v>45045.21875</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -6259,34 +6259,34 @@
         <v>50</v>
       </c>
       <c r="K65">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
         <v>1.775</v>
@@ -6301,19 +6301,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6580300</v>
+        <v>5205525</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,13 +6333,13 @@
         <v>45045.21875</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -6348,34 +6348,34 @@
         <v>50</v>
       </c>
       <c r="K66">
+        <v>2.1</v>
+      </c>
+      <c r="L66">
+        <v>3.2</v>
+      </c>
+      <c r="M66">
+        <v>3.1</v>
+      </c>
+      <c r="N66">
+        <v>2.15</v>
+      </c>
+      <c r="O66">
+        <v>3.1</v>
+      </c>
+      <c r="P66">
+        <v>3.1</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
         <v>2.25</v>
-      </c>
-      <c r="L66">
-        <v>3.1</v>
-      </c>
-      <c r="M66">
-        <v>2.9</v>
-      </c>
-      <c r="N66">
-        <v>1.909</v>
-      </c>
-      <c r="O66">
-        <v>3.3</v>
-      </c>
-      <c r="P66">
-        <v>3.5</v>
-      </c>
-      <c r="Q66">
-        <v>-0.5</v>
-      </c>
-      <c r="R66">
-        <v>1.975</v>
-      </c>
-      <c r="S66">
-        <v>1.825</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.775</v>
@@ -6390,19 +6390,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC66">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5205526</v>
+        <v>5205521</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,40 +6600,40 @@
         <v>45045.5</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
         <v>50</v>
       </c>
       <c r="K69">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P69">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R69">
         <v>1.775</v>
@@ -6642,13 +6642,13 @@
         <v>2.025</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6657,7 +6657,7 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>4.25</v>
+        <v>1.6</v>
       </c>
       <c r="Z69">
         <v>-1</v>
@@ -6666,10 +6666,10 @@
         <v>1.025</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5205521</v>
+        <v>5205526</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,40 +6689,40 @@
         <v>45045.5</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>50</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
         <v>1.775</v>
@@ -6731,13 +6731,13 @@
         <v>2.025</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6746,7 +6746,7 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.6</v>
+        <v>4.25</v>
       </c>
       <c r="Z70">
         <v>-1</v>
@@ -6755,10 +6755,10 @@
         <v>1.025</v>
       </c>
       <c r="AB70">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5205534</v>
+        <v>5205528</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7490,58 +7490,58 @@
         <v>45053.5</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>49</v>
       </c>
       <c r="K79">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L79">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M79">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N79">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>0.444</v>
+        <v>1.9</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7550,16 +7550,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5205528</v>
+        <v>5205534</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,58 +7579,58 @@
         <v>45053.5</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>49</v>
       </c>
       <c r="K80">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N80">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7639,16 +7639,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5205539</v>
+        <v>5205541</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,76 +8024,76 @@
         <v>45059.5</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K85">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N85">
+        <v>3.6</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
+        <v>1.85</v>
+      </c>
+      <c r="Q85">
+        <v>0.5</v>
+      </c>
+      <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
         <v>1.95</v>
       </c>
-      <c r="O85">
-        <v>3.6</v>
-      </c>
-      <c r="P85">
-        <v>3.1</v>
-      </c>
-      <c r="Q85">
-        <v>-0.5</v>
-      </c>
-      <c r="R85">
-        <v>2</v>
-      </c>
-      <c r="S85">
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
+        <v>2</v>
+      </c>
+      <c r="V85">
         <v>1.8</v>
       </c>
-      <c r="T85">
-        <v>3.25</v>
-      </c>
-      <c r="U85">
-        <v>1.825</v>
-      </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5205541</v>
+        <v>5205539</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,76 +8113,76 @@
         <v>45059.5</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K86">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L86">
+        <v>3.2</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>1.95</v>
+      </c>
+      <c r="O86">
+        <v>3.6</v>
+      </c>
+      <c r="P86">
         <v>3.1</v>
       </c>
-      <c r="M86">
-        <v>2.55</v>
-      </c>
-      <c r="N86">
-        <v>3.6</v>
-      </c>
-      <c r="O86">
-        <v>3.3</v>
-      </c>
-      <c r="P86">
-        <v>1.85</v>
-      </c>
       <c r="Q86">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5205550</v>
+        <v>5205551</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,76 +9181,76 @@
         <v>45070.5</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L98">
         <v>3.3</v>
       </c>
       <c r="M98">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N98">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
+        <v>1.975</v>
+      </c>
+      <c r="V98">
         <v>1.825</v>
       </c>
-      <c r="V98">
-        <v>1.975</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y98">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5204481</v>
+        <v>5205554</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,58 +9270,58 @@
         <v>45070.5</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>49</v>
       </c>
       <c r="K99">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="N99">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O99">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q99">
         <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
         <v>3</v>
       </c>
       <c r="U99">
+        <v>1.875</v>
+      </c>
+      <c r="V99">
         <v>1.925</v>
       </c>
-      <c r="V99">
-        <v>1.875</v>
-      </c>
       <c r="W99">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9330,16 +9330,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9347,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5205551</v>
+        <v>5205552</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,76 +9359,76 @@
         <v>45070.5</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N100">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X100">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5205554</v>
+        <v>5205553</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,76 +9448,76 @@
         <v>45070.5</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K101">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N101">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O101">
         <v>3.6</v>
       </c>
       <c r="P101">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5205555</v>
+        <v>5205550</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9537,76 +9537,76 @@
         <v>45070.5</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K102">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L102">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M102">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N102">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P102">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5205553</v>
+        <v>5205555</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45070.5</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>49</v>
+      </c>
+      <c r="K103">
+        <v>1.533</v>
+      </c>
+      <c r="L103">
+        <v>3.75</v>
+      </c>
+      <c r="M103">
+        <v>5</v>
+      </c>
+      <c r="N103">
+        <v>1.444</v>
+      </c>
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103">
+        <v>5.75</v>
+      </c>
+      <c r="Q103">
+        <v>-1</v>
+      </c>
+      <c r="R103">
+        <v>1.775</v>
+      </c>
+      <c r="S103">
+        <v>2.025</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.775</v>
+      </c>
+      <c r="V103">
+        <v>2.025</v>
+      </c>
+      <c r="W103">
+        <v>0.444</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
         <v>0</v>
       </c>
-      <c r="I103">
-        <v>3</v>
-      </c>
-      <c r="J103" t="s">
-        <v>50</v>
-      </c>
-      <c r="K103">
-        <v>2</v>
-      </c>
-      <c r="L103">
-        <v>3.25</v>
-      </c>
-      <c r="M103">
-        <v>3.25</v>
-      </c>
-      <c r="N103">
-        <v>1.85</v>
-      </c>
-      <c r="O103">
-        <v>3.6</v>
-      </c>
-      <c r="P103">
-        <v>3.3</v>
-      </c>
-      <c r="Q103">
+      <c r="AA103">
+        <v>-0</v>
+      </c>
+      <c r="AB103">
+        <v>0.3875</v>
+      </c>
+      <c r="AC103">
         <v>-0.5</v>
-      </c>
-      <c r="R103">
-        <v>1.95</v>
-      </c>
-      <c r="S103">
-        <v>1.85</v>
-      </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
-      <c r="U103">
-        <v>1.85</v>
-      </c>
-      <c r="V103">
-        <v>1.95</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>2.3</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
-      <c r="AA103">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB103">
-        <v>0</v>
-      </c>
-      <c r="AC103">
-        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5205552</v>
+        <v>5204481</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,58 +9715,58 @@
         <v>45070.5</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>49</v>
       </c>
       <c r="K104">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="L104">
+        <v>3.3</v>
+      </c>
+      <c r="M104">
+        <v>2.45</v>
+      </c>
+      <c r="N104">
+        <v>1.7</v>
+      </c>
+      <c r="O104">
         <v>3.75</v>
       </c>
-      <c r="M104">
-        <v>4.2</v>
-      </c>
-      <c r="N104">
-        <v>1.45</v>
-      </c>
-      <c r="O104">
-        <v>4.2</v>
-      </c>
       <c r="P104">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
+        <v>1.975</v>
+      </c>
+      <c r="S104">
         <v>1.825</v>
       </c>
-      <c r="S104">
-        <v>1.975</v>
-      </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9775,16 +9775,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>0.4875</v>
+      </c>
+      <c r="AA104">
+        <v>-0.5</v>
+      </c>
+      <c r="AB104">
         <v>0</v>
       </c>
-      <c r="AA104">
+      <c r="AC104">
         <v>-0</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
-      <c r="AC104">
-        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9881,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5232539</v>
+        <v>5205556</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,55 +9893,55 @@
         <v>45074.5</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>48</v>
       </c>
       <c r="K106">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="N106">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O106">
         <v>3.4</v>
       </c>
       <c r="P106">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S106">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9953,16 +9953,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5231437</v>
+        <v>5204482</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,13 +10071,13 @@
         <v>45074.5</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -10086,43 +10086,43 @@
         <v>49</v>
       </c>
       <c r="K108">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2.375</v>
+      </c>
+      <c r="N108">
+        <v>3.8</v>
+      </c>
+      <c r="O108">
         <v>3.75</v>
       </c>
-      <c r="M108">
-        <v>5.5</v>
-      </c>
-      <c r="N108">
-        <v>1.666</v>
-      </c>
-      <c r="O108">
-        <v>3.8</v>
-      </c>
       <c r="P108">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W108">
-        <v>0.6659999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10131,16 +10131,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10148,7 +10148,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5205556</v>
+        <v>5213692</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,76 +10160,76 @@
         <v>45074.5</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K109">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="L109">
         <v>3.6</v>
       </c>
       <c r="M109">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X109">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10237,7 +10237,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5213692</v>
+        <v>5232539</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10249,73 +10249,73 @@
         <v>45074.5</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K110">
+        <v>3.75</v>
+      </c>
+      <c r="L110">
+        <v>3.4</v>
+      </c>
+      <c r="M110">
         <v>1.8</v>
       </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>3.6</v>
-      </c>
       <c r="N110">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O110">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10326,7 +10326,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5204482</v>
+        <v>5205558</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10338,73 +10338,73 @@
         <v>45074.5</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>3</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111">
+        <v>2.25</v>
+      </c>
+      <c r="L111">
+        <v>3.25</v>
+      </c>
+      <c r="M111">
+        <v>2.75</v>
+      </c>
+      <c r="N111">
+        <v>2.15</v>
+      </c>
+      <c r="O111">
+        <v>3.3</v>
+      </c>
+      <c r="P111">
+        <v>2.9</v>
+      </c>
+      <c r="Q111">
+        <v>-0.25</v>
+      </c>
+      <c r="R111">
+        <v>1.925</v>
+      </c>
+      <c r="S111">
+        <v>1.875</v>
+      </c>
+      <c r="T111">
         <v>2.5</v>
       </c>
-      <c r="L111">
-        <v>3.4</v>
-      </c>
-      <c r="M111">
-        <v>2.375</v>
-      </c>
-      <c r="N111">
-        <v>3.8</v>
-      </c>
-      <c r="O111">
-        <v>3.75</v>
-      </c>
-      <c r="P111">
-        <v>1.727</v>
-      </c>
-      <c r="Q111">
-        <v>0.75</v>
-      </c>
-      <c r="R111">
+      <c r="U111">
+        <v>1.95</v>
+      </c>
+      <c r="V111">
+        <v>1.85</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
         <v>1.9</v>
       </c>
-      <c r="S111">
-        <v>1.9</v>
-      </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.8</v>
-      </c>
-      <c r="V111">
-        <v>2</v>
-      </c>
-      <c r="W111">
-        <v>2.8</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5205558</v>
+        <v>5231437</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,40 +10516,40 @@
         <v>45074.5</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>3</v>
-      </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L113">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N113">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
         <v>1.925</v>
@@ -10558,34 +10558,34 @@
         <v>1.875</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA113">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6804152</v>
+        <v>6803327</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,73 +11584,73 @@
         <v>45136.5</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M125">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N125">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O125">
         <v>3.4</v>
       </c>
       <c r="P125">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11661,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6803327</v>
+        <v>6804154</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11673,76 +11673,76 @@
         <v>45136.5</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L126">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N126">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11750,7 +11750,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6804154</v>
+        <v>6804152</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11762,40 +11762,40 @@
         <v>45136.5</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K127">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
         <v>3.6</v>
       </c>
       <c r="N127">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
         <v>3.8</v>
       </c>
-      <c r="P127">
-        <v>6</v>
-      </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
         <v>1.825</v>
@@ -11804,22 +11804,22 @@
         <v>1.975</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
         <v>2.8</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11828,10 +11828,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6804156</v>
+        <v>6803328</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,40 +12118,40 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H131">
+        <v>5</v>
+      </c>
+      <c r="I131">
         <v>1</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>49</v>
       </c>
       <c r="K131">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P131">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
         <v>2</v>
@@ -12160,16 +12160,16 @@
         <v>1.8</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>1.2</v>
+        <v>0.444</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12184,10 +12184,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6804159</v>
+        <v>6804156</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,76 +12207,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
         <v>2.1</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N132">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X132">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA132">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC132">
-        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803241</v>
+        <v>6804157</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,73 +12296,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
         <v>3</v>
       </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L133">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
+        <v>3.25</v>
+      </c>
+      <c r="N133">
         <v>2.3</v>
-      </c>
-      <c r="N133">
-        <v>2.15</v>
       </c>
       <c r="O133">
         <v>3.2</v>
       </c>
       <c r="P133">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6803328</v>
+        <v>6804159</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,73 +12385,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N134">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P134">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB134">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6804157</v>
+        <v>6803241</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,73 +12563,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>49</v>
+      </c>
+      <c r="K136">
         <v>3</v>
       </c>
-      <c r="J136" t="s">
-        <v>50</v>
-      </c>
-      <c r="K136">
-        <v>2.1</v>
-      </c>
       <c r="L136">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M136">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N136">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
         <v>3.2</v>
       </c>
       <c r="P136">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB136">
-        <v>0.925</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6804164</v>
+        <v>6803160</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,76 +12741,76 @@
         <v>45143.5</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L138">
         <v>3.25</v>
       </c>
       <c r="M138">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N138">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T138">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X138">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6803329</v>
+        <v>6804164</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,10 +12830,10 @@
         <v>45143.5</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12845,46 +12845,46 @@
         <v>48</v>
       </c>
       <c r="K139">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L139">
         <v>3.25</v>
       </c>
       <c r="M139">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N139">
         <v>2.6</v>
       </c>
       <c r="O139">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P139">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
+        <v>1.825</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139">
         <v>1.8</v>
       </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.775</v>
-      </c>
-      <c r="V139">
-        <v>2.025</v>
-      </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y139">
         <v>-1</v>
@@ -12899,7 +12899,7 @@
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6803160</v>
+        <v>6803329</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,76 +12919,76 @@
         <v>45143.5</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
         <v>3.25</v>
       </c>
       <c r="M140">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N140">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O140">
         <v>3.25</v>
       </c>
       <c r="P140">
+        <v>2.375</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>1.8</v>
+      </c>
+      <c r="T140">
+        <v>2.75</v>
+      </c>
+      <c r="U140">
+        <v>1.775</v>
+      </c>
+      <c r="V140">
+        <v>2.025</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
         <v>2.25</v>
       </c>
-      <c r="Q140">
-        <v>0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.775</v>
-      </c>
-      <c r="S140">
-        <v>2.025</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
-      <c r="U140">
-        <v>1.925</v>
-      </c>
-      <c r="V140">
-        <v>1.875</v>
-      </c>
-      <c r="W140">
-        <v>1.75</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13975,7 +13975,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6804168</v>
+        <v>6803243</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13987,76 +13987,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M152">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N152">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P152">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC152">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14064,7 +14064,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6803243</v>
+        <v>6804168</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14076,76 +14076,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L153">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N153">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O153">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA153">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14420,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6804171</v>
+        <v>6803331</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14432,76 +14432,76 @@
         <v>45157.5</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K157">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L157">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M157">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N157">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O157">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P157">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W157">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6804172</v>
+        <v>6804171</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,58 +14521,58 @@
         <v>45157.5</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
         <v>1</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>49</v>
       </c>
       <c r="K158">
+        <v>1.909</v>
+      </c>
+      <c r="L158">
+        <v>3.3</v>
+      </c>
+      <c r="M158">
+        <v>3.5</v>
+      </c>
+      <c r="N158">
+        <v>1.909</v>
+      </c>
+      <c r="O158">
+        <v>3.3</v>
+      </c>
+      <c r="P158">
+        <v>3.5</v>
+      </c>
+      <c r="Q158">
+        <v>-0.5</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
         <v>1.8</v>
       </c>
-      <c r="L158">
-        <v>3.4</v>
-      </c>
-      <c r="M158">
-        <v>3.8</v>
-      </c>
-      <c r="N158">
-        <v>1.5</v>
-      </c>
-      <c r="O158">
-        <v>4.2</v>
-      </c>
-      <c r="P158">
-        <v>5</v>
-      </c>
-      <c r="Q158">
-        <v>-1</v>
-      </c>
-      <c r="R158">
-        <v>1.825</v>
-      </c>
-      <c r="S158">
-        <v>1.975</v>
-      </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14581,16 +14581,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6804173</v>
+        <v>6804174</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,76 +14610,76 @@
         <v>45157.5</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K159">
+        <v>2.4</v>
+      </c>
+      <c r="L159">
+        <v>3.2</v>
+      </c>
+      <c r="M159">
+        <v>2.625</v>
+      </c>
+      <c r="N159">
+        <v>2.45</v>
+      </c>
+      <c r="O159">
+        <v>3.25</v>
+      </c>
+      <c r="P159">
+        <v>2.625</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>1.85</v>
+      </c>
+      <c r="S159">
+        <v>1.95</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
+        <v>1.975</v>
+      </c>
+      <c r="V159">
+        <v>1.825</v>
+      </c>
+      <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
         <v>2.25</v>
       </c>
-      <c r="L159">
-        <v>3.25</v>
-      </c>
-      <c r="M159">
-        <v>2.75</v>
-      </c>
-      <c r="N159">
-        <v>1.833</v>
-      </c>
-      <c r="O159">
-        <v>3.8</v>
-      </c>
-      <c r="P159">
-        <v>3.3</v>
-      </c>
-      <c r="Q159">
-        <v>-0.5</v>
-      </c>
-      <c r="R159">
-        <v>1.875</v>
-      </c>
-      <c r="S159">
-        <v>1.925</v>
-      </c>
-      <c r="T159">
-        <v>3</v>
-      </c>
-      <c r="U159">
-        <v>1.875</v>
-      </c>
-      <c r="V159">
-        <v>1.925</v>
-      </c>
-      <c r="W159">
-        <v>0.833</v>
-      </c>
-      <c r="X159">
-        <v>-1</v>
-      </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14687,7 +14687,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6803331</v>
+        <v>6804172</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14699,76 +14699,76 @@
         <v>45157.5</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
         <v>0</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K160">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L160">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N160">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O160">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q160">
+        <v>-1</v>
+      </c>
+      <c r="R160">
+        <v>1.825</v>
+      </c>
+      <c r="S160">
+        <v>1.975</v>
+      </c>
+      <c r="T160">
+        <v>3</v>
+      </c>
+      <c r="U160">
+        <v>1.925</v>
+      </c>
+      <c r="V160">
+        <v>1.875</v>
+      </c>
+      <c r="W160">
+        <v>0.5</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>-1</v>
+      </c>
+      <c r="Z160">
         <v>0</v>
       </c>
-      <c r="R160">
-        <v>1.95</v>
-      </c>
-      <c r="S160">
-        <v>1.85</v>
-      </c>
-      <c r="T160">
-        <v>2.5</v>
-      </c>
-      <c r="U160">
-        <v>1.975</v>
-      </c>
-      <c r="V160">
-        <v>1.825</v>
-      </c>
-      <c r="W160">
-        <v>-1</v>
-      </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
-      <c r="Y160">
-        <v>1.5</v>
-      </c>
-      <c r="Z160">
-        <v>-1</v>
-      </c>
       <c r="AA160">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6804174</v>
+        <v>6804173</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14788,76 +14788,76 @@
         <v>45157.5</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K161">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L161">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M161">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N161">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O161">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X161">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6803246</v>
+        <v>6803164</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,10 +15767,10 @@
         <v>45171.5</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15782,43 +15782,43 @@
         <v>49</v>
       </c>
       <c r="K172">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N172">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="O172">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P172">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15827,16 +15827,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6803164</v>
+        <v>6803246</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,10 +15856,10 @@
         <v>45171.5</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G173" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15871,43 +15871,43 @@
         <v>49</v>
       </c>
       <c r="K173">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N173">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O173">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P173">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.85</v>
+      </c>
+      <c r="T173">
+        <v>2.75</v>
+      </c>
+      <c r="U173">
+        <v>2</v>
+      </c>
+      <c r="V173">
         <v>1.8</v>
       </c>
-      <c r="S173">
-        <v>2</v>
-      </c>
-      <c r="T173">
-        <v>3</v>
-      </c>
-      <c r="U173">
-        <v>1.975</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
       <c r="W173">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15916,16 +15916,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA173">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6804184</v>
+        <v>6804183</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,76 +15945,76 @@
         <v>45171.5</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K174">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L174">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N174">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O174">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P174">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q174">
         <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S174">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X174">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA174">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16022,7 +16022,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6804183</v>
+        <v>6804184</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16034,76 +16034,76 @@
         <v>45171.5</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M175">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N175">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O175">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P175">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q175">
         <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T175">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16111,7 +16111,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6804181</v>
+        <v>6804185</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16123,76 +16123,76 @@
         <v>45172.21875</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K176">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N176">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P176">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.975</v>
+      </c>
+      <c r="V176">
+        <v>1.825</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>2.5</v>
       </c>
-      <c r="U176">
-        <v>1.825</v>
-      </c>
-      <c r="V176">
-        <v>1.975</v>
-      </c>
-      <c r="W176">
-        <v>1</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
         <v>0.825</v>
-      </c>
-      <c r="AC176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16200,7 +16200,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6804185</v>
+        <v>6804181</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16212,76 +16212,76 @@
         <v>45172.21875</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M177">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N177">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O177">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
+        <v>1.825</v>
+      </c>
+      <c r="V177">
         <v>1.975</v>
       </c>
-      <c r="V177">
-        <v>1.825</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X177">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6803333</v>
+        <v>6804193</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,73 +16657,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L182">
         <v>3.25</v>
       </c>
       <c r="M182">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N182">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O182">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P182">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y182">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16734,7 +16734,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6804193</v>
+        <v>6803333</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16746,73 +16746,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K183">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L183">
         <v>3.25</v>
       </c>
       <c r="M183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O183">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P183">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB183">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -17802,7 +17802,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6804202</v>
+        <v>6803167</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17814,76 +17814,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L195">
         <v>3.3</v>
       </c>
       <c r="M195">
+        <v>2.2</v>
+      </c>
+      <c r="N195">
+        <v>2.05</v>
+      </c>
+      <c r="O195">
         <v>3.4</v>
       </c>
-      <c r="N195">
-        <v>2.1</v>
-      </c>
-      <c r="O195">
-        <v>3.3</v>
-      </c>
       <c r="P195">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q195">
         <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X195">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA195">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17980,7 +17980,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6803167</v>
+        <v>6804202</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17992,76 +17992,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G197" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L197">
         <v>3.3</v>
       </c>
       <c r="M197">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N197">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
+        <v>1.85</v>
+      </c>
+      <c r="S197">
+        <v>1.95</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>2</v>
+      </c>
+      <c r="V197">
         <v>1.8</v>
       </c>
-      <c r="S197">
-        <v>2</v>
-      </c>
-      <c r="T197">
-        <v>2.25</v>
-      </c>
-      <c r="U197">
-        <v>1.8</v>
-      </c>
-      <c r="V197">
-        <v>2</v>
-      </c>
       <c r="W197">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
+        <v>-0.5</v>
+      </c>
+      <c r="AA197">
+        <v>0.475</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
         <v>0.8</v>
-      </c>
-      <c r="AA197">
-        <v>-1</v>
-      </c>
-      <c r="AB197">
-        <v>0.8</v>
-      </c>
-      <c r="AC197">
-        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6804206</v>
+        <v>6804207</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -18808,43 +18808,43 @@
         <v>49</v>
       </c>
       <c r="K206">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L206">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N206">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O206">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S206">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
+        <v>1.875</v>
+      </c>
+      <c r="V206">
         <v>1.925</v>
       </c>
-      <c r="V206">
-        <v>1.875</v>
-      </c>
       <c r="W206">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,13 +18853,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18870,7 +18870,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6804207</v>
+        <v>6804206</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18882,13 +18882,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H207">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -18897,43 +18897,43 @@
         <v>49</v>
       </c>
       <c r="K207">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L207">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N207">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O207">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P207">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R207">
+        <v>1.825</v>
+      </c>
+      <c r="S207">
+        <v>1.975</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
         <v>1.925</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.875</v>
       </c>
-      <c r="T207">
-        <v>2.5</v>
-      </c>
-      <c r="U207">
-        <v>1.875</v>
-      </c>
-      <c r="V207">
-        <v>1.925</v>
-      </c>
       <c r="W207">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18942,13 +18942,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
+        <v>0.825</v>
+      </c>
+      <c r="AA207">
+        <v>-1</v>
+      </c>
+      <c r="AB207">
         <v>0.925</v>
-      </c>
-      <c r="AA207">
-        <v>-1</v>
-      </c>
-      <c r="AB207">
-        <v>0.875</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -19493,7 +19493,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6804213</v>
+        <v>6803337</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19505,73 +19505,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K214">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L214">
         <v>3.25</v>
       </c>
       <c r="M214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N214">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19582,7 +19582,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6803337</v>
+        <v>6804213</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19594,73 +19594,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I215">
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K215">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N215">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P215">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19671,7 +19671,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6803169</v>
+        <v>6804214</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19683,58 +19683,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L216">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="N216">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="O216">
         <v>3.3</v>
       </c>
       <c r="P216">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q216">
         <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T216">
         <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19743,16 +19743,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19760,7 +19760,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6804214</v>
+        <v>6803169</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19772,58 +19772,58 @@
         <v>45221.21875</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>49</v>
       </c>
       <c r="K217">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L217">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M217">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N217">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="O217">
         <v>3.3</v>
       </c>
       <c r="P217">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
         <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V217">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W217">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19832,16 +19832,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC217">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20027,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6803338</v>
+        <v>6804221</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20039,22 +20039,22 @@
         <v>45227.21875</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
         <v>3</v>
       </c>
-      <c r="I220">
-        <v>1</v>
-      </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K220">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L220">
         <v>3.4</v>
@@ -20075,37 +20075,37 @@
         <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z220">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB220">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20116,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6804221</v>
+        <v>6803338</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20128,22 +20128,22 @@
         <v>45227.21875</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H221">
+        <v>3</v>
+      </c>
+      <c r="I221">
         <v>1</v>
       </c>
-      <c r="I221">
-        <v>3</v>
-      </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
         <v>3.4</v>
@@ -20164,37 +20164,37 @@
         <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T221">
         <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20650,7 +20650,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6804223</v>
+        <v>6804224</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20662,76 +20662,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L227">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N227">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O227">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P227">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q227">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S227">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V227">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y227">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA227">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB227">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20828,7 +20828,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6805653</v>
+        <v>6804223</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20840,76 +20840,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
         <v>50</v>
       </c>
       <c r="K229">
+        <v>1.444</v>
+      </c>
+      <c r="L229">
+        <v>4.5</v>
+      </c>
+      <c r="M229">
+        <v>5.5</v>
+      </c>
+      <c r="N229">
+        <v>1.5</v>
+      </c>
+      <c r="O229">
+        <v>4.333</v>
+      </c>
+      <c r="P229">
+        <v>5</v>
+      </c>
+      <c r="Q229">
+        <v>-1</v>
+      </c>
+      <c r="R229">
+        <v>1.9</v>
+      </c>
+      <c r="S229">
+        <v>1.9</v>
+      </c>
+      <c r="T229">
+        <v>2.75</v>
+      </c>
+      <c r="U229">
+        <v>1.925</v>
+      </c>
+      <c r="V229">
+        <v>1.875</v>
+      </c>
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
         <v>4</v>
       </c>
-      <c r="L229">
-        <v>3.3</v>
-      </c>
-      <c r="M229">
-        <v>1.833</v>
-      </c>
-      <c r="N229">
-        <v>4.75</v>
-      </c>
-      <c r="O229">
-        <v>3.6</v>
-      </c>
-      <c r="P229">
-        <v>1.65</v>
-      </c>
-      <c r="Q229">
-        <v>0.75</v>
-      </c>
-      <c r="R229">
-        <v>1.8</v>
-      </c>
-      <c r="S229">
-        <v>2</v>
-      </c>
-      <c r="T229">
-        <v>2.5</v>
-      </c>
-      <c r="U229">
-        <v>1.8</v>
-      </c>
-      <c r="V229">
-        <v>2</v>
-      </c>
-      <c r="W229">
-        <v>-1</v>
-      </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
-      <c r="Y229">
-        <v>0.6499999999999999</v>
-      </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB229">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20917,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6804224</v>
+        <v>6805653</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20929,76 +20929,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K230">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L230">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M230">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N230">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="O230">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R230">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC230">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21451,7 +21451,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21463,13 +21463,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -21478,43 +21478,43 @@
         <v>49</v>
       </c>
       <c r="K236">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L236">
         <v>3.25</v>
       </c>
       <c r="M236">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N236">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O236">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P236">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S236">
+        <v>1.875</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
         <v>1.8</v>
       </c>
-      <c r="T236">
-        <v>2.5</v>
-      </c>
-      <c r="U236">
-        <v>1.975</v>
-      </c>
-      <c r="V236">
-        <v>1.825</v>
-      </c>
       <c r="W236">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA236">
         <v>-1</v>
@@ -21532,7 +21532,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21540,7 +21540,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21552,13 +21552,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21567,43 +21567,43 @@
         <v>49</v>
       </c>
       <c r="K237">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L237">
         <v>3.25</v>
       </c>
       <c r="M237">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N237">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O237">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA237">
         <v>-1</v>
@@ -21621,7 +21621,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -133,13 +133,13 @@
     <t>Opava</t>
   </si>
   <si>
-    <t>FC Vlasim</t>
-  </si>
-  <si>
     <t>Hanacka Slavia Kromeriz</t>
   </si>
   <si>
     <t>SK Lisen</t>
+  </si>
+  <si>
+    <t>FC Vlasim</t>
   </si>
   <si>
     <t>Viktoria Zizkov</t>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6804155</v>
+        <v>6804151</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,10 +1429,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1444,19 +1444,19 @@
         <v>45</v>
       </c>
       <c r="K11">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
         <v>3.6</v>
@@ -1465,10 +1465,10 @@
         <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
         <v>2.5</v>
@@ -1480,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="W11">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1489,7 +1489,7 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA11">
         <v>-1</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6804151</v>
+        <v>6804155</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,10 +1518,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1533,19 +1533,19 @@
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
+        <v>2.9</v>
+      </c>
+      <c r="N12">
+        <v>1.85</v>
+      </c>
+      <c r="O12">
         <v>3.5</v>
-      </c>
-      <c r="N12">
-        <v>1.909</v>
-      </c>
-      <c r="O12">
-        <v>3.3</v>
       </c>
       <c r="P12">
         <v>3.6</v>
@@ -1554,10 +1554,10 @@
         <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
         <v>2.5</v>
@@ -1569,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="W12">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,7 +1578,7 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6804154</v>
+        <v>6803327</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,73 +1610,73 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X13">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6803327</v>
+        <v>6804152</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,70 +1699,70 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L14">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
         <v>3.4</v>
       </c>
       <c r="P14">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
         <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6804152</v>
+        <v>6804154</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,37 +1788,37 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
         <v>3.6</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R15">
         <v>1.825</v>
@@ -1827,22 +1827,22 @@
         <v>1.975</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y15">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
@@ -1851,10 +1851,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6803159</v>
+        <v>6804160</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,46 +2141,46 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
         <v>2.5</v>
@@ -2192,25 +2192,25 @@
         <v>2</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6804156</v>
+        <v>6803159</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L20">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6804160</v>
+        <v>6803241</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,55 +2319,55 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>45</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M21">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N21">
         <v>2.15</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q21">
         <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W21">
         <v>1.15</v>
@@ -2379,13 +2379,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6803241</v>
+        <v>6804156</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,58 +2408,58 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>45</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L22">
+        <v>3.25</v>
+      </c>
+      <c r="M22">
+        <v>3.25</v>
+      </c>
+      <c r="N22">
+        <v>2.2</v>
+      </c>
+      <c r="O22">
+        <v>3.25</v>
+      </c>
+      <c r="P22">
         <v>3.1</v>
-      </c>
-      <c r="M22">
-        <v>2.3</v>
-      </c>
-      <c r="N22">
-        <v>2.15</v>
-      </c>
-      <c r="O22">
-        <v>3.2</v>
-      </c>
-      <c r="P22">
-        <v>3.3</v>
       </c>
       <c r="Q22">
         <v>-0.25</v>
       </c>
       <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>1.95</v>
+      </c>
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.775</v>
-      </c>
-      <c r="V22">
-        <v>2.025</v>
-      </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2468,16 +2468,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6804157</v>
+        <v>6803328</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,73 +2497,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L23">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P23">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
+        <v>1.875</v>
+      </c>
+      <c r="V23">
         <v>1.925</v>
       </c>
-      <c r="V23">
-        <v>1.875</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6803328</v>
+        <v>6804157</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,73 +2586,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M24">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N24">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
+        <v>1.925</v>
+      </c>
+      <c r="V24">
         <v>1.875</v>
       </c>
-      <c r="V24">
-        <v>1.925</v>
-      </c>
       <c r="W24">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2678,7 +2678,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6803160</v>
+        <v>6804164</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>45143.5</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L26">
         <v>3.25</v>
       </c>
       <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>2.6</v>
+      </c>
+      <c r="O26">
+        <v>3.2</v>
+      </c>
+      <c r="P26">
+        <v>2.4</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>1.8</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
         <v>2.2</v>
       </c>
-      <c r="N26">
-        <v>2.75</v>
-      </c>
-      <c r="O26">
-        <v>3.25</v>
-      </c>
-      <c r="P26">
-        <v>2.25</v>
-      </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.775</v>
-      </c>
-      <c r="S26">
-        <v>2.025</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.925</v>
-      </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
-      <c r="W26">
-        <v>1.75</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6803329</v>
+        <v>6804161</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,73 +2856,73 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
+        <v>2.5</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
         <v>2.6</v>
       </c>
-      <c r="L27">
-        <v>3.25</v>
-      </c>
-      <c r="M27">
-        <v>2.375</v>
-      </c>
       <c r="N27">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X27">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6804164</v>
+        <v>6803329</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2957,46 +2957,46 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L28">
         <v>3.25</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N28">
         <v>2.6</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P28">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y28">
         <v>-1</v>
@@ -3011,7 +3011,7 @@
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6804161</v>
+        <v>6803160</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,58 +3031,58 @@
         <v>45143.5</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>45</v>
       </c>
       <c r="K29">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N29">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3091,16 +3091,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
         <v>0.925</v>
       </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>-1</v>
-      </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3568,7 +3568,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6804169</v>
+        <v>6804170</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45151.5</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
+        <v>2.05</v>
+      </c>
+      <c r="S38">
+        <v>1.75</v>
+      </c>
+      <c r="T38">
+        <v>2.75</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1.8</v>
+      </c>
+      <c r="W38">
+        <v>1.375</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
+        <v>1.05</v>
+      </c>
+      <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>0.5</v>
+      </c>
+      <c r="AC38">
         <v>-0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.975</v>
-      </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
-      <c r="U38">
-        <v>1.925</v>
-      </c>
-      <c r="V38">
-        <v>1.875</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>2.6</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>0.825</v>
-      </c>
-      <c r="AB38">
-        <v>0.925</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6804170</v>
+        <v>6804169</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>45151.5</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39">
+        <v>2.4</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>2.5</v>
+      </c>
+      <c r="N39">
+        <v>1.95</v>
+      </c>
+      <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
+        <v>3.4</v>
+      </c>
+      <c r="Q39">
+        <v>-0.5</v>
+      </c>
+      <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
+        <v>1.825</v>
+      </c>
+      <c r="T39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>45</v>
-      </c>
-      <c r="K39">
-        <v>2.25</v>
-      </c>
-      <c r="L39">
-        <v>3</v>
-      </c>
-      <c r="M39">
-        <v>3</v>
-      </c>
-      <c r="N39">
-        <v>2.375</v>
-      </c>
-      <c r="O39">
-        <v>3</v>
-      </c>
-      <c r="P39">
-        <v>2.875</v>
-      </c>
-      <c r="Q39">
-        <v>-0.25</v>
-      </c>
-      <c r="R39">
-        <v>2.05</v>
-      </c>
-      <c r="S39">
-        <v>1.75</v>
-      </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB39">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6804168</v>
+        <v>6803243</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N40">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6803243</v>
+        <v>6804168</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N41">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O41">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6804175</v>
+        <v>6803244</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,49 +4277,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L43">
         <v>3.25</v>
       </c>
       <c r="M43">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O43">
         <v>3.3</v>
       </c>
       <c r="P43">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
         <v>1.975</v>
@@ -4328,25 +4328,25 @@
         <v>1.825</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6803244</v>
+        <v>6804175</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,49 +4366,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
         <v>3.25</v>
       </c>
       <c r="M44">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N44">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O44">
         <v>3.3</v>
       </c>
       <c r="P44">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
         <v>1.975</v>
@@ -4417,25 +4417,25 @@
         <v>1.825</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6804171</v>
+        <v>6804173</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,10 +4458,10 @@
         <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4470,43 +4470,43 @@
         <v>45</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L45">
+        <v>3.25</v>
+      </c>
+      <c r="M45">
+        <v>2.75</v>
+      </c>
+      <c r="N45">
+        <v>1.833</v>
+      </c>
+      <c r="O45">
+        <v>3.8</v>
+      </c>
+      <c r="P45">
         <v>3.3</v>
-      </c>
-      <c r="M45">
-        <v>3.5</v>
-      </c>
-      <c r="N45">
-        <v>1.909</v>
-      </c>
-      <c r="O45">
-        <v>3.3</v>
-      </c>
-      <c r="P45">
-        <v>3.5</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W45">
-        <v>0.909</v>
+        <v>0.833</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4515,13 +4515,13 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6804173</v>
+        <v>6803331</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4636,73 +4636,73 @@
         <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L47">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N47">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O47">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W47">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6803331</v>
+        <v>6804171</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,73 +4814,73 @@
         <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M49">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N49">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O49">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB49">
-        <v>-1</v>
-      </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6804180</v>
+        <v>6804176</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6804176</v>
+        <v>6804180</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>46</v>
       </c>
       <c r="K52">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N52">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P52">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5345,10 +5345,10 @@
         <v>45164.5</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5437,7 +5437,7 @@
         <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6803246</v>
+        <v>6804184</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45171.5</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L60">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N60">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>45171.5</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6804184</v>
+        <v>6803246</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45171.5</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N63">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X63">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6680,7 +6680,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
         <v>43</v>
@@ -6769,10 +6769,10 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F71" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" t="s">
         <v>41</v>
-      </c>
-      <c r="G71" t="s">
-        <v>39</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7306,7 +7306,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7392,7 +7392,7 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7573,7 +7573,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7926,10 +7926,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8015,7 +8015,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
         <v>33</v>
@@ -8730,7 +8730,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -8816,7 +8816,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
         <v>37</v>
@@ -8997,7 +8997,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
@@ -9617,7 +9617,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9709,7 +9709,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9887,7 +9887,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -10065,7 +10065,7 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -10332,7 +10332,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6804223</v>
+        <v>6805653</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,55 +10685,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
         <v>47</v>
       </c>
       <c r="K115">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L115">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="N115">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="O115">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>5</v>
+        <v>1.65</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10742,19 +10742,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB115">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6804224</v>
+        <v>6804223</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
+        <v>1.444</v>
+      </c>
+      <c r="L116">
+        <v>4.5</v>
+      </c>
+      <c r="M116">
+        <v>5.5</v>
+      </c>
+      <c r="N116">
+        <v>1.5</v>
+      </c>
+      <c r="O116">
+        <v>4.333</v>
+      </c>
+      <c r="P116">
+        <v>5</v>
+      </c>
+      <c r="Q116">
+        <v>-1</v>
+      </c>
+      <c r="R116">
+        <v>1.9</v>
+      </c>
+      <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
         <v>2.75</v>
       </c>
-      <c r="L116">
-        <v>3.4</v>
-      </c>
-      <c r="M116">
-        <v>2.3</v>
-      </c>
-      <c r="N116">
-        <v>2.625</v>
-      </c>
-      <c r="O116">
-        <v>3.1</v>
-      </c>
-      <c r="P116">
-        <v>2.55</v>
-      </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116">
+      <c r="U116">
+        <v>1.925</v>
+      </c>
+      <c r="V116">
         <v>1.875</v>
       </c>
-      <c r="S116">
-        <v>1.925</v>
-      </c>
-      <c r="T116">
-        <v>2.25</v>
-      </c>
-      <c r="U116">
-        <v>1.95</v>
-      </c>
-      <c r="V116">
-        <v>1.85</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC116">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6804227</v>
+        <v>6804224</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K117">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L117">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N117">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6805653</v>
+        <v>6804227</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,55 +10952,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
+        <v>1.727</v>
+      </c>
+      <c r="L118">
+        <v>3.75</v>
+      </c>
+      <c r="M118">
         <v>4</v>
       </c>
-      <c r="L118">
-        <v>3.3</v>
-      </c>
-      <c r="M118">
-        <v>1.833</v>
-      </c>
       <c r="N118">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q118">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11009,19 +11009,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.6499999999999999</v>
+        <v>3.333</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6803252</v>
+        <v>6804225</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,56 +11041,56 @@
         <v>45235.26041666666</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J119" t="s">
         <v>47</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L119">
         <v>3.3</v>
       </c>
       <c r="M119">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
+        <v>1.975</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.85</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.95</v>
       </c>
-      <c r="T119">
-        <v>3</v>
-      </c>
-      <c r="U119">
-        <v>2</v>
-      </c>
-      <c r="V119">
-        <v>1.8</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
@@ -11098,19 +11098,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6804225</v>
+        <v>6803252</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,55 +11130,55 @@
         <v>45235.26041666666</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>47</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N120">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11187,19 +11187,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,13 +11486,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11501,43 +11501,43 @@
         <v>45</v>
       </c>
       <c r="K124">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L124">
         <v>3.25</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N124">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
+        <v>1.875</v>
+      </c>
+      <c r="T124">
+        <v>2.75</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
-      <c r="U124">
-        <v>1.975</v>
-      </c>
-      <c r="V124">
-        <v>1.825</v>
-      </c>
       <c r="W124">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,7 +11546,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11555,7 +11555,7 @@
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,13 +11575,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11590,43 +11590,43 @@
         <v>45</v>
       </c>
       <c r="K125">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L125">
         <v>3.25</v>
       </c>
       <c r="M125">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11635,7 +11635,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11644,7 +11644,7 @@
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H126">
         <v>0</v>

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Vysocina Jihlava</t>
   </si>
   <si>
-    <t>MFK Vyskov</t>
+    <t>MFK Chrudim</t>
   </si>
   <si>
-    <t>MFK Chrudim</t>
+    <t>MFK Vyskov</t>
   </si>
   <si>
     <t>SK Prostejov</t>
@@ -133,13 +133,13 @@
     <t>Opava</t>
   </si>
   <si>
+    <t>FC Vlasim</t>
+  </si>
+  <si>
     <t>Hanacka Slavia Kromeriz</t>
   </si>
   <si>
     <t>SK Lisen</t>
-  </si>
-  <si>
-    <t>FC Vlasim</t>
   </si>
   <si>
     <t>Viktoria Zizkov</t>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>FK Pribram</t>
+  </si>
+  <si>
+    <t>FC Sellier  Bellot Vlasim</t>
   </si>
   <si>
     <t>H</t>
@@ -519,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2">
         <v>2.15</v>
@@ -705,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6804148</v>
+        <v>6803939</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +723,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.75</v>
+      </c>
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1.825</v>
+      </c>
+      <c r="V3">
+        <v>1.975</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>2.2</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.375</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.85</v>
-      </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
-      <c r="W3">
-        <v>0.8</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
       <c r="AB3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6803939</v>
+        <v>6804148</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +812,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X4">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>2.625</v>
@@ -987,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -996,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>2.15</v>
@@ -1085,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>3.1</v>
@@ -1174,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1254,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1263,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1.4</v>
@@ -1343,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1352,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>1.75</v>
@@ -1441,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>1.95</v>
@@ -1530,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>2.15</v>
@@ -1595,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6803327</v>
+        <v>6804154</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,73 +1613,73 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L13">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N13">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6804152</v>
+        <v>6803327</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,70 +1702,70 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M14">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O14">
         <v>3.4</v>
       </c>
       <c r="P14">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T14">
         <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1773,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6804154</v>
+        <v>6804152</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,37 +1791,37 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
         <v>3.6</v>
       </c>
       <c r="N15">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
+        <v>3.4</v>
+      </c>
+      <c r="P15">
         <v>3.8</v>
       </c>
-      <c r="P15">
-        <v>6</v>
-      </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
         <v>1.825</v>
@@ -1827,22 +1830,22 @@
         <v>1.975</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
         <v>2.8</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
@@ -1851,10 +1854,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1886,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1975,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <v>2.8</v>
@@ -2064,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2129,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6804160</v>
+        <v>6804156</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,31 +2144,31 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N19">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O19">
         <v>3.25</v>
@@ -2177,22 +2180,22 @@
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2201,16 +2204,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6803159</v>
+        <v>6803328</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2233,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N20">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6803241</v>
+        <v>6804160</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,55 +2322,55 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N21">
         <v>2.15</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P21">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q21">
         <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>1.15</v>
@@ -2379,13 +2382,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6804156</v>
+        <v>6804157</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,19 +2411,19 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K22">
         <v>2.1</v>
@@ -2432,52 +2435,52 @@
         <v>3.25</v>
       </c>
       <c r="N22">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O22">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q22">
         <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6803328</v>
+        <v>6803159</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2500,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23">
+        <v>1.75</v>
+      </c>
+      <c r="L23">
+        <v>3.6</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>1.75</v>
+      </c>
+      <c r="O23">
+        <v>3.75</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
+        <v>1.8</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
+        <v>1.025</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>1.666</v>
-      </c>
-      <c r="L23">
-        <v>3.75</v>
-      </c>
-      <c r="M23">
-        <v>4.333</v>
-      </c>
-      <c r="N23">
-        <v>1.444</v>
-      </c>
-      <c r="O23">
-        <v>4.333</v>
-      </c>
-      <c r="P23">
-        <v>5.75</v>
-      </c>
-      <c r="Q23">
-        <v>-1.25</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
-      <c r="U23">
-        <v>1.875</v>
-      </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
-      <c r="W23">
-        <v>0.444</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>0.875</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6804157</v>
+        <v>6803241</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,73 +2589,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>2.1</v>
-      </c>
       <c r="L24">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O24">
         <v>3.2</v>
       </c>
       <c r="P24">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB24">
-        <v>0.925</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2678,7 +2681,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2687,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>2.1</v>
@@ -2752,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6804164</v>
+        <v>6803160</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,13 +2767,13 @@
         <v>45143.5</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2779,61 +2782,61 @@
         <v>46</v>
       </c>
       <c r="K26">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L26">
         <v>3.25</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N26">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O26">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P26">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X26">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6804161</v>
+        <v>6804164</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2856,76 @@
         <v>45143.5</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
+        <v>3.25</v>
+      </c>
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2.6</v>
       </c>
-      <c r="N27">
-        <v>2.15</v>
-      </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6803329</v>
+        <v>6804161</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2945,76 @@
         <v>45143.5</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>46</v>
       </c>
       <c r="K28">
+        <v>2.5</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
         <v>2.6</v>
       </c>
-      <c r="L28">
-        <v>3.25</v>
-      </c>
-      <c r="M28">
-        <v>2.375</v>
-      </c>
       <c r="N28">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O28">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P28">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X28">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6803160</v>
+        <v>6803329</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3034,76 @@
         <v>45143.5</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L29">
         <v>3.25</v>
       </c>
       <c r="M29">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N29">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O29">
         <v>3.25</v>
       </c>
       <c r="P29">
+        <v>2.375</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>1.8</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
+        <v>1.775</v>
+      </c>
+      <c r="V29">
+        <v>2.025</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
         <v>2.25</v>
       </c>
-      <c r="Q29">
-        <v>0.25</v>
-      </c>
-      <c r="R29">
-        <v>1.775</v>
-      </c>
-      <c r="S29">
-        <v>2.025</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
-      <c r="W29">
-        <v>1.75</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3132,7 +3135,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3221,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>1.833</v>
@@ -3301,7 +3304,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3310,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>1.571</v>
@@ -3399,7 +3402,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>1.666</v>
@@ -3479,7 +3482,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3488,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
         <v>2.25</v>
@@ -3568,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3577,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>2.4</v>
@@ -3657,7 +3660,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>4</v>
@@ -3666,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>1.333</v>
@@ -3746,7 +3749,7 @@
         <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3755,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>1.571</v>
@@ -3820,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6804170</v>
+        <v>6804169</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3835,76 @@
         <v>45151.5</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38">
+        <v>2.4</v>
+      </c>
+      <c r="L38">
+        <v>3.4</v>
+      </c>
+      <c r="M38">
+        <v>2.5</v>
+      </c>
+      <c r="N38">
+        <v>1.95</v>
+      </c>
+      <c r="O38">
+        <v>3.6</v>
+      </c>
+      <c r="P38">
+        <v>3.4</v>
+      </c>
+      <c r="Q38">
+        <v>-0.5</v>
+      </c>
+      <c r="R38">
+        <v>1.975</v>
+      </c>
+      <c r="S38">
+        <v>1.825</v>
+      </c>
+      <c r="T38">
         <v>3</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>45</v>
-      </c>
-      <c r="K38">
-        <v>2.25</v>
-      </c>
-      <c r="L38">
-        <v>3</v>
-      </c>
-      <c r="M38">
-        <v>3</v>
-      </c>
-      <c r="N38">
-        <v>2.375</v>
-      </c>
-      <c r="O38">
-        <v>3</v>
-      </c>
-      <c r="P38">
-        <v>2.875</v>
-      </c>
-      <c r="Q38">
-        <v>-0.25</v>
-      </c>
-      <c r="R38">
-        <v>2.05</v>
-      </c>
-      <c r="S38">
-        <v>1.75</v>
-      </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6804169</v>
+        <v>6804170</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3924,76 @@
         <v>45151.5</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q39">
+        <v>-0.25</v>
+      </c>
+      <c r="R39">
+        <v>2.05</v>
+      </c>
+      <c r="S39">
+        <v>1.75</v>
+      </c>
+      <c r="T39">
+        <v>2.75</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>1.8</v>
+      </c>
+      <c r="W39">
+        <v>1.375</v>
+      </c>
+      <c r="X39">
+        <v>-1</v>
+      </c>
+      <c r="Y39">
+        <v>-1</v>
+      </c>
+      <c r="Z39">
+        <v>1.05</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>0.5</v>
+      </c>
+      <c r="AC39">
         <v>-0.5</v>
-      </c>
-      <c r="R39">
-        <v>1.975</v>
-      </c>
-      <c r="S39">
-        <v>1.825</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
-      <c r="U39">
-        <v>1.925</v>
-      </c>
-      <c r="V39">
-        <v>1.875</v>
-      </c>
-      <c r="W39">
-        <v>-1</v>
-      </c>
-      <c r="X39">
-        <v>2.6</v>
-      </c>
-      <c r="Y39">
-        <v>-1</v>
-      </c>
-      <c r="Z39">
-        <v>-1</v>
-      </c>
-      <c r="AA39">
-        <v>0.825</v>
-      </c>
-      <c r="AB39">
-        <v>0.925</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4022,7 +4025,7 @@
         <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4099,7 +4102,7 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>43</v>
@@ -4111,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>1.5</v>
@@ -4200,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4289,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>2.2</v>
@@ -4366,7 +4369,7 @@
         <v>45157.21875</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4378,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.95</v>
@@ -4455,7 +4458,7 @@
         <v>45157.5</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
         <v>44</v>
@@ -4467,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>2.25</v>
@@ -4532,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6804172</v>
+        <v>6803331</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4547,76 @@
         <v>45157.5</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
+        <v>2.5</v>
+      </c>
+      <c r="O46">
+        <v>3.2</v>
+      </c>
+      <c r="P46">
+        <v>2.5</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1.95</v>
+      </c>
+      <c r="S46">
+        <v>1.85</v>
+      </c>
+      <c r="T46">
+        <v>2.5</v>
+      </c>
+      <c r="U46">
+        <v>1.975</v>
+      </c>
+      <c r="V46">
+        <v>1.825</v>
+      </c>
+      <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
         <v>1.5</v>
       </c>
-      <c r="O46">
-        <v>4.2</v>
-      </c>
-      <c r="P46">
-        <v>5</v>
-      </c>
-      <c r="Q46">
-        <v>-1</v>
-      </c>
-      <c r="R46">
-        <v>1.825</v>
-      </c>
-      <c r="S46">
-        <v>1.975</v>
-      </c>
-      <c r="T46">
-        <v>3</v>
-      </c>
-      <c r="U46">
-        <v>1.925</v>
-      </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
-      <c r="W46">
-        <v>0.5</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6803331</v>
+        <v>6804171</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4636,76 @@
         <v>45157.5</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P47">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB47">
-        <v>-1</v>
-      </c>
       <c r="AC47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4713,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6804174</v>
+        <v>6804172</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,61 +4725,61 @@
         <v>45157.5</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>46</v>
       </c>
       <c r="K48">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N48">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P48">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X48">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
@@ -4791,7 +4794,7 @@
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6804171</v>
+        <v>6804174</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4814,76 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L49">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P49">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4912,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>1.8</v>
@@ -4977,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6804176</v>
+        <v>6804180</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4992,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N51">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6804180</v>
+        <v>6804176</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5081,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N52">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O52">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P52">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5170,7 @@
         <v>45164.21875</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5179,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>1.6</v>
@@ -5268,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54">
         <v>3.6</v>
@@ -5345,10 +5348,10 @@
         <v>45164.5</v>
       </c>
       <c r="F55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s">
         <v>40</v>
-      </c>
-      <c r="G55" t="s">
-        <v>39</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5357,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>1.85</v>
@@ -5437,7 +5440,7 @@
         <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5446,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
         <v>2.15</v>
@@ -5535,7 +5538,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>2.2</v>
@@ -5612,10 +5615,10 @@
         <v>45171.21875</v>
       </c>
       <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
         <v>31</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5624,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5704,7 +5707,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5713,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>1.666</v>
@@ -5802,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>1.666</v>
@@ -5867,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6803164</v>
+        <v>6803246</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,10 +5882,10 @@
         <v>45171.5</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5891,46 +5894,46 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N61">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O61">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
+        <v>1.95</v>
+      </c>
+      <c r="S61">
+        <v>1.85</v>
+      </c>
+      <c r="T61">
+        <v>2.75</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="V61">
         <v>1.8</v>
       </c>
-      <c r="S61">
-        <v>2</v>
-      </c>
-      <c r="T61">
-        <v>3</v>
-      </c>
-      <c r="U61">
-        <v>1.975</v>
-      </c>
-      <c r="V61">
-        <v>1.825</v>
-      </c>
       <c r="W61">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5939,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA61">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5968,7 +5971,7 @@
         <v>45171.5</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -5980,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6045,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6803246</v>
+        <v>6803164</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,10 +6060,10 @@
         <v>45171.5</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,46 +6072,46 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M63">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N63">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P63">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6117,16 +6120,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6158,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6247,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>2.4</v>
@@ -6336,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6425,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6514,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>2.2</v>
@@ -6591,7 +6594,7 @@
         <v>45185.21875</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6603,7 +6606,7 @@
         <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>1.4</v>
@@ -6668,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6803333</v>
+        <v>6804193</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,13 +6683,13 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
         <v>39</v>
       </c>
-      <c r="G70" t="s">
-        <v>43</v>
-      </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6695,58 +6698,58 @@
         <v>47</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
         <v>3.25</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N70">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P70">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S70">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6757,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6804193</v>
+        <v>6803333</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,70 +6775,70 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
         <v>3.25</v>
       </c>
       <c r="M71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O71">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P71">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S71">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6870,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>2.25</v>
@@ -6950,7 +6953,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -6959,7 +6962,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>2.1</v>
@@ -7048,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>1.909</v>
@@ -7125,7 +7128,7 @@
         <v>45192.21875</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>42</v>
@@ -7137,7 +7140,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
         <v>2.2</v>
@@ -7226,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>2.15</v>
@@ -7306,7 +7309,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7315,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>1.45</v>
@@ -7392,7 +7395,7 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7404,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>2.05</v>
@@ -7484,7 +7487,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7493,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>1.8</v>
@@ -7573,7 +7576,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7582,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>2.3</v>
@@ -7671,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
         <v>2.7</v>
@@ -7751,7 +7754,7 @@
         <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7760,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>2.1</v>
@@ -7825,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6803167</v>
+        <v>6804202</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7840,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L83">
         <v>3.3</v>
       </c>
       <c r="M83">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P83">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
+        <v>1.85</v>
+      </c>
+      <c r="S83">
+        <v>1.95</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>2</v>
+      </c>
+      <c r="V83">
         <v>1.8</v>
       </c>
-      <c r="S83">
-        <v>2</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>1.8</v>
-      </c>
-      <c r="V83">
-        <v>2</v>
-      </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
+        <v>-0.5</v>
+      </c>
+      <c r="AA83">
+        <v>0.475</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>0.8</v>
-      </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>0.8</v>
-      </c>
-      <c r="AC83">
-        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,10 +7929,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F84" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" t="s">
         <v>39</v>
-      </c>
-      <c r="G84" t="s">
-        <v>41</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7938,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>2.8</v>
@@ -8003,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6804202</v>
+        <v>6803167</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8018,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>46</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
+        <v>2.2</v>
+      </c>
+      <c r="N85">
+        <v>2.05</v>
+      </c>
+      <c r="O85">
         <v>3.4</v>
       </c>
-      <c r="N85">
-        <v>2.1</v>
-      </c>
-      <c r="O85">
-        <v>3.3</v>
-      </c>
       <c r="P85">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q85">
         <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X85">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8116,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8196,7 +8199,7 @@
         <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8205,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87">
         <v>3.75</v>
@@ -8294,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>1.727</v>
@@ -8383,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>2.8</v>
@@ -8472,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>1.6</v>
@@ -8549,7 +8552,7 @@
         <v>45206.21875</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8561,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>2.3</v>
@@ -8638,7 +8641,7 @@
         <v>45206.21875</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>42</v>
@@ -8650,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
         <v>1.5</v>
@@ -8730,7 +8733,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -8739,7 +8742,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
         <v>3</v>
@@ -8804,7 +8807,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6804206</v>
+        <v>6804207</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,58 +8819,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I94">
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N94">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P94">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
+        <v>1.875</v>
+      </c>
+      <c r="V94">
         <v>1.925</v>
       </c>
-      <c r="V94">
-        <v>1.875</v>
-      </c>
       <c r="W94">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8876,13 +8879,13 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8893,7 +8896,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6804207</v>
+        <v>6804206</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,58 +8908,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M95">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N95">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R95">
+        <v>1.825</v>
+      </c>
+      <c r="S95">
+        <v>1.975</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
         <v>1.925</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.875</v>
       </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.875</v>
-      </c>
-      <c r="V95">
-        <v>1.925</v>
-      </c>
       <c r="W95">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8965,13 +8968,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
+        <v>0.825</v>
+      </c>
+      <c r="AA95">
+        <v>-1</v>
+      </c>
+      <c r="AB95">
         <v>0.925</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0.875</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8997,7 +9000,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9006,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -9095,7 +9098,7 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>2.45</v>
@@ -9175,7 +9178,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9184,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>3.25</v>
@@ -9273,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
         <v>1.615</v>
@@ -9353,7 +9356,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9362,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>1.4</v>
@@ -9451,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>1.909</v>
@@ -9516,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6804213</v>
+        <v>6803337</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,70 +9534,70 @@
         <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
         <v>3.25</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P102">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9605,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6803337</v>
+        <v>6804213</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,73 +9620,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L103">
         <v>3.25</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O103">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9709,7 +9712,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9718,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -9807,7 +9810,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>4.2</v>
@@ -9887,7 +9890,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9896,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -9985,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>2</v>
@@ -10050,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6803338</v>
+        <v>6804221</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,19 +10068,19 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
         <v>3</v>
       </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
         <v>3.4</v>
@@ -10098,37 +10101,37 @@
         <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T108">
         <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10139,7 +10142,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6804221</v>
+        <v>6803338</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10154,19 +10157,19 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>1</v>
       </c>
-      <c r="I109">
-        <v>3</v>
-      </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K109">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L109">
         <v>3.4</v>
@@ -10187,37 +10190,37 @@
         <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
         <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10252,7 +10255,7 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K110">
         <v>3.6</v>
@@ -10332,7 +10335,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10341,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111">
         <v>2.05</v>
@@ -10430,7 +10433,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10519,7 +10522,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
         <v>1.95</v>
@@ -10608,7 +10611,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>1.75</v>
@@ -10673,7 +10676,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6805653</v>
+        <v>6804227</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10688,52 +10691,52 @@
         <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K115">
+        <v>1.727</v>
+      </c>
+      <c r="L115">
+        <v>3.75</v>
+      </c>
+      <c r="M115">
         <v>4</v>
       </c>
-      <c r="L115">
-        <v>3.3</v>
-      </c>
-      <c r="M115">
-        <v>1.833</v>
-      </c>
       <c r="N115">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P115">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10742,19 +10745,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.6499999999999999</v>
+        <v>3.333</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6804223</v>
+        <v>6805653</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10777,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116" t="s">
+        <v>48</v>
+      </c>
+      <c r="K116">
+        <v>4</v>
+      </c>
+      <c r="L116">
+        <v>3.3</v>
+      </c>
+      <c r="M116">
+        <v>1.833</v>
+      </c>
+      <c r="N116">
+        <v>4.75</v>
+      </c>
+      <c r="O116">
+        <v>3.6</v>
+      </c>
+      <c r="P116">
+        <v>1.65</v>
+      </c>
+      <c r="Q116">
+        <v>0.75</v>
+      </c>
+      <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>1.8</v>
+      </c>
+      <c r="V116">
+        <v>2</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
         <v>1</v>
       </c>
-      <c r="I116">
-        <v>2</v>
-      </c>
-      <c r="J116" t="s">
-        <v>47</v>
-      </c>
-      <c r="K116">
-        <v>1.444</v>
-      </c>
-      <c r="L116">
-        <v>4.5</v>
-      </c>
-      <c r="M116">
-        <v>5.5</v>
-      </c>
-      <c r="N116">
-        <v>1.5</v>
-      </c>
-      <c r="O116">
-        <v>4.333</v>
-      </c>
-      <c r="P116">
-        <v>5</v>
-      </c>
-      <c r="Q116">
-        <v>-1</v>
-      </c>
-      <c r="R116">
-        <v>1.9</v>
-      </c>
-      <c r="S116">
-        <v>1.9</v>
-      </c>
-      <c r="T116">
-        <v>2.75</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>4</v>
-      </c>
-      <c r="Z116">
-        <v>-1</v>
-      </c>
-      <c r="AA116">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB116">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,10 +10866,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10875,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K117">
         <v>2.75</v>
@@ -10940,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6804227</v>
+        <v>6804223</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,55 +10955,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N118">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P118">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
         <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11009,19 +11012,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>3.333</v>
+        <v>4</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11047,7 @@
         <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11053,7 +11056,7 @@
         <v>4</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K119">
         <v>2.25</v>
@@ -11142,7 +11145,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>2</v>
@@ -11231,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -11311,7 +11314,7 @@
         <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11320,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11409,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>1.833</v>
@@ -11474,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,55 +11492,55 @@
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L124">
         <v>3.25</v>
       </c>
       <c r="M124">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N124">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P124">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,7 +11549,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11555,7 +11558,7 @@
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,55 +11581,55 @@
         <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K125">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L125">
         <v>3.25</v>
       </c>
       <c r="M125">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
+        <v>1.875</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="T125">
-        <v>2.5</v>
-      </c>
-      <c r="U125">
-        <v>1.975</v>
-      </c>
-      <c r="V125">
-        <v>1.825</v>
-      </c>
       <c r="W125">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11635,7 +11638,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11644,7 +11647,7 @@
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11670,7 @@
         <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11676,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
         <v>2.05</v>
@@ -11765,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>1.6</v>
@@ -11854,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K128">
         <v>2.45</v>
@@ -11943,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>2.25</v>
@@ -12001,6 +12004,598 @@
       </c>
       <c r="AC129">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>6804233</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45352.58333333334</v>
+      </c>
+      <c r="F130" t="s">
+        <v>38</v>
+      </c>
+      <c r="G130" t="s">
+        <v>44</v>
+      </c>
+      <c r="K130">
+        <v>2.1</v>
+      </c>
+      <c r="L130">
+        <v>3.3</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+      <c r="N130">
+        <v>1.909</v>
+      </c>
+      <c r="O130">
+        <v>3.4</v>
+      </c>
+      <c r="P130">
+        <v>3.6</v>
+      </c>
+      <c r="Q130">
+        <v>-0.5</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>1.85</v>
+      </c>
+      <c r="T130">
+        <v>2.25</v>
+      </c>
+      <c r="U130">
+        <v>1.825</v>
+      </c>
+      <c r="V130">
+        <v>1.975</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>6803172</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F131" t="s">
+        <v>37</v>
+      </c>
+      <c r="G131" t="s">
+        <v>36</v>
+      </c>
+      <c r="K131">
+        <v>2.4</v>
+      </c>
+      <c r="L131">
+        <v>3.2</v>
+      </c>
+      <c r="M131">
+        <v>2.6</v>
+      </c>
+      <c r="N131">
+        <v>2.2</v>
+      </c>
+      <c r="O131">
+        <v>3.25</v>
+      </c>
+      <c r="P131">
+        <v>3</v>
+      </c>
+      <c r="Q131">
+        <v>-0.25</v>
+      </c>
+      <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
+        <v>1.9</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
+        <v>1.975</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>6804234</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45353.4375</v>
+      </c>
+      <c r="F132" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132" t="s">
+        <v>30</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>3.6</v>
+      </c>
+      <c r="N132">
+        <v>1.909</v>
+      </c>
+      <c r="O132">
+        <v>3.2</v>
+      </c>
+      <c r="P132">
+        <v>3.8</v>
+      </c>
+      <c r="Q132">
+        <v>-0.5</v>
+      </c>
+      <c r="R132">
+        <v>1.925</v>
+      </c>
+      <c r="S132">
+        <v>1.875</v>
+      </c>
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
+        <v>1.85</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>6803340</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45353.4375</v>
+      </c>
+      <c r="F133" t="s">
+        <v>40</v>
+      </c>
+      <c r="G133" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133">
+        <v>3.6</v>
+      </c>
+      <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>1.909</v>
+      </c>
+      <c r="N133">
+        <v>3.75</v>
+      </c>
+      <c r="O133">
+        <v>3.25</v>
+      </c>
+      <c r="P133">
+        <v>1.909</v>
+      </c>
+      <c r="Q133">
+        <v>0.5</v>
+      </c>
+      <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
+        <v>1.95</v>
+      </c>
+      <c r="T133">
+        <v>2.5</v>
+      </c>
+      <c r="U133">
+        <v>1.825</v>
+      </c>
+      <c r="V133">
+        <v>1.975</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>6803254</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45353.4375</v>
+      </c>
+      <c r="F134" t="s">
+        <v>41</v>
+      </c>
+      <c r="G134" t="s">
+        <v>42</v>
+      </c>
+      <c r="K134">
+        <v>1.727</v>
+      </c>
+      <c r="L134">
+        <v>3.3</v>
+      </c>
+      <c r="M134">
+        <v>4.333</v>
+      </c>
+      <c r="N134">
+        <v>1.75</v>
+      </c>
+      <c r="O134">
+        <v>3.4</v>
+      </c>
+      <c r="P134">
+        <v>4.333</v>
+      </c>
+      <c r="Q134">
+        <v>-0.75</v>
+      </c>
+      <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
+        <v>1.775</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>1.925</v>
+      </c>
+      <c r="V134">
+        <v>1.875</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>6804236</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45353.54166666666</v>
+      </c>
+      <c r="F135" t="s">
+        <v>45</v>
+      </c>
+      <c r="G135" t="s">
+        <v>35</v>
+      </c>
+      <c r="K135">
+        <v>1.909</v>
+      </c>
+      <c r="L135">
+        <v>3.1</v>
+      </c>
+      <c r="M135">
+        <v>3.75</v>
+      </c>
+      <c r="N135">
+        <v>1.909</v>
+      </c>
+      <c r="O135">
+        <v>3.1</v>
+      </c>
+      <c r="P135">
+        <v>4</v>
+      </c>
+      <c r="Q135">
+        <v>-0.5</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>1.85</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
+        <v>1.8</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>6804235</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45354.27083333334</v>
+      </c>
+      <c r="F136" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" t="s">
+        <v>32</v>
+      </c>
+      <c r="K136">
+        <v>1.5</v>
+      </c>
+      <c r="L136">
+        <v>3.75</v>
+      </c>
+      <c r="M136">
+        <v>5.5</v>
+      </c>
+      <c r="N136">
+        <v>1.571</v>
+      </c>
+      <c r="O136">
+        <v>3.8</v>
+      </c>
+      <c r="P136">
+        <v>5</v>
+      </c>
+      <c r="Q136">
+        <v>-0.75</v>
+      </c>
+      <c r="R136">
+        <v>1.775</v>
+      </c>
+      <c r="S136">
+        <v>2.025</v>
+      </c>
+      <c r="T136">
+        <v>2.5</v>
+      </c>
+      <c r="U136">
+        <v>1.8</v>
+      </c>
+      <c r="V136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>6804237</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45355.5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>43</v>
+      </c>
+      <c r="G137" t="s">
+        <v>29</v>
+      </c>
+      <c r="K137">
+        <v>2.3</v>
+      </c>
+      <c r="L137">
+        <v>3.3</v>
+      </c>
+      <c r="M137">
+        <v>2.625</v>
+      </c>
+      <c r="N137">
+        <v>2.25</v>
+      </c>
+      <c r="O137">
+        <v>3.4</v>
+      </c>
+      <c r="P137">
+        <v>2.8</v>
+      </c>
+      <c r="Q137">
+        <v>-0.25</v>
+      </c>
+      <c r="R137">
+        <v>2.025</v>
+      </c>
+      <c r="S137">
+        <v>1.775</v>
+      </c>
+      <c r="T137">
+        <v>2.5</v>
+      </c>
+      <c r="U137">
+        <v>1.825</v>
+      </c>
+      <c r="V137">
+        <v>1.975</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Vysocina Jihlava</t>
   </si>
   <si>
-    <t>MFK Chrudim</t>
+    <t>MFK Vyskov</t>
   </si>
   <si>
-    <t>MFK Vyskov</t>
+    <t>MFK Chrudim</t>
   </si>
   <si>
     <t>SK Prostejov</t>
@@ -133,13 +133,13 @@
     <t>Opava</t>
   </si>
   <si>
-    <t>FC Vlasim</t>
+    <t>SK Lisen</t>
   </si>
   <si>
     <t>Hanacka Slavia Kromeriz</t>
   </si>
   <si>
-    <t>SK Lisen</t>
+    <t>FC Vlasim</t>
   </si>
   <si>
     <t>Viktoria Zizkov</t>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6803939</v>
+        <v>6804148</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,73 +723,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N3">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X3">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6804148</v>
+        <v>6803939</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,73 +812,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q4">
+        <v>0.25</v>
+      </c>
+      <c r="R4">
+        <v>1.75</v>
+      </c>
+      <c r="S4">
+        <v>2.05</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>1.825</v>
+      </c>
+      <c r="V4">
+        <v>1.975</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>2.2</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
+        <v>0.375</v>
+      </c>
+      <c r="AA4">
         <v>-0.5</v>
       </c>
-      <c r="R4">
-        <v>1.8</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>1.85</v>
-      </c>
-      <c r="V4">
-        <v>1.95</v>
-      </c>
-      <c r="W4">
-        <v>0.8</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>0.8</v>
-      </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
       <c r="AB4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6804154</v>
+        <v>6804152</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,37 +1613,37 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
         <v>3.6</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O13">
+        <v>3.4</v>
+      </c>
+      <c r="P13">
         <v>3.8</v>
       </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
         <v>1.825</v>
@@ -1652,22 +1652,22 @@
         <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
         <v>2.8</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
@@ -1676,10 +1676,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6804152</v>
+        <v>6804154</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,37 +1791,37 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
         <v>3.6</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R15">
         <v>1.825</v>
@@ -1830,22 +1830,22 @@
         <v>1.975</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y15">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
@@ -1854,10 +1854,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6804156</v>
+        <v>6804157</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,19 +2144,19 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>2.1</v>
@@ -2168,52 +2168,52 @@
         <v>3.25</v>
       </c>
       <c r="N19">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6803328</v>
+        <v>6803159</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,76 +2233,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20">
+        <v>1.75</v>
+      </c>
+      <c r="L20">
+        <v>3.6</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>1.75</v>
+      </c>
+      <c r="O20">
+        <v>3.75</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.775</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
+        <v>1.8</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>1.025</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>1.666</v>
-      </c>
-      <c r="L20">
-        <v>3.75</v>
-      </c>
-      <c r="M20">
-        <v>4.333</v>
-      </c>
-      <c r="N20">
-        <v>1.444</v>
-      </c>
-      <c r="O20">
-        <v>4.333</v>
-      </c>
-      <c r="P20">
-        <v>5.75</v>
-      </c>
-      <c r="Q20">
-        <v>-1.25</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>1.8</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
-      <c r="W20">
-        <v>0.444</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>0.875</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6804160</v>
+        <v>6804159</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,73 +2322,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q21">
         <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>1.85</v>
+      </c>
+      <c r="V21">
+        <v>1.95</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>2.5</v>
       </c>
-      <c r="U21">
-        <v>1.8</v>
-      </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
-      <c r="W21">
-        <v>1.15</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6804157</v>
+        <v>6804156</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,19 +2411,19 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>2.1</v>
@@ -2435,52 +2435,52 @@
         <v>3.25</v>
       </c>
       <c r="N22">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O22">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
         <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6803159</v>
+        <v>6804160</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,46 +2500,46 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N23">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O23">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,25 +2551,25 @@
         <v>2</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6803241</v>
+        <v>6803328</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,13 +2589,13 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2604,43 +2604,43 @@
         <v>46</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N24">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P24">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2649,13 +2649,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6804159</v>
+        <v>6803241</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,7 +2678,7 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -2687,64 +2687,64 @@
         <v>3</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="J25" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25">
-        <v>2.1</v>
-      </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N25">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
+        <v>1.85</v>
+      </c>
+      <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
+        <v>1.775</v>
+      </c>
+      <c r="V25">
         <v>2.025</v>
       </c>
-      <c r="S25">
-        <v>1.775</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>1.85</v>
-      </c>
-      <c r="V25">
-        <v>1.95</v>
-      </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X25">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA25">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6803160</v>
+        <v>6803329</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45143.5</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L26">
         <v>3.25</v>
       </c>
       <c r="M26">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N26">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O26">
         <v>3.25</v>
       </c>
       <c r="P26">
+        <v>2.375</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1.8</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
+        <v>1.775</v>
+      </c>
+      <c r="V26">
+        <v>2.025</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
         <v>2.25</v>
       </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.775</v>
-      </c>
-      <c r="S26">
-        <v>2.025</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.925</v>
-      </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
-      <c r="W26">
-        <v>1.75</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6804164</v>
+        <v>6804161</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,73 +2859,73 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N27">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X27">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6804161</v>
+        <v>6804164</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,73 +2948,73 @@
         <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
+        <v>3.25</v>
+      </c>
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2.6</v>
       </c>
-      <c r="N28">
-        <v>2.15</v>
-      </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6803329</v>
+        <v>6803160</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,76 +3034,76 @@
         <v>45143.5</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L29">
         <v>3.25</v>
       </c>
       <c r="M29">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N29">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
         <v>3.25</v>
       </c>
       <c r="P29">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X29">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3571,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>4</v>
@@ -4102,7 +4102,7 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>43</v>
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6803244</v>
+        <v>6804175</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,49 +4280,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K43">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L43">
         <v>3.25</v>
       </c>
       <c r="M43">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N43">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O43">
         <v>3.3</v>
       </c>
       <c r="P43">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
         <v>1.975</v>
@@ -4331,25 +4331,25 @@
         <v>1.825</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6804175</v>
+        <v>6803244</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,49 +4369,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
         <v>3.25</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O44">
         <v>3.3</v>
       </c>
       <c r="P44">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
         <v>1.975</v>
@@ -4420,25 +4420,25 @@
         <v>1.825</v>
       </c>
       <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
+        <v>-1</v>
+      </c>
+      <c r="Y44">
+        <v>1.6</v>
+      </c>
+      <c r="Z44">
+        <v>-1</v>
+      </c>
+      <c r="AA44">
         <v>1</v>
       </c>
-      <c r="X44">
-        <v>-1</v>
-      </c>
-      <c r="Y44">
-        <v>-1</v>
-      </c>
-      <c r="Z44">
-        <v>0.925</v>
-      </c>
-      <c r="AA44">
-        <v>-1</v>
-      </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6804173</v>
+        <v>6803331</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45157.5</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K45">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N45">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O45">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P45">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6803331</v>
+        <v>6804171</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,76 +4547,76 @@
         <v>45157.5</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O46">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
         <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
       <c r="AC46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4624,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6804171</v>
+        <v>6804172</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4636,58 +4636,58 @@
         <v>45157.5</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>46</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N47">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4696,16 +4696,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4713,7 +4713,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6804172</v>
+        <v>6804173</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4725,58 +4725,58 @@
         <v>45157.5</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>46</v>
       </c>
       <c r="K48">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M48">
+        <v>2.75</v>
+      </c>
+      <c r="N48">
+        <v>1.833</v>
+      </c>
+      <c r="O48">
         <v>3.8</v>
       </c>
-      <c r="N48">
-        <v>1.5</v>
-      </c>
-      <c r="O48">
-        <v>4.2</v>
-      </c>
       <c r="P48">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
+        <v>1.875</v>
+      </c>
+      <c r="V48">
         <v>1.925</v>
       </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
-        <v>0.5</v>
+        <v>0.833</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4785,16 +4785,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6804180</v>
+        <v>6804176</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,76 +4992,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6804176</v>
+        <v>6804180</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,76 +5081,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="K52">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N52">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P52">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5170,7 +5170,7 @@
         <v>45164.21875</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5348,7 +5348,7 @@
         <v>45164.5</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
         <v>40</v>
@@ -5440,7 +5440,7 @@
         <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5615,10 +5615,10 @@
         <v>45171.21875</v>
       </c>
       <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
         <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>31</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5707,7 +5707,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6804184</v>
+        <v>6803164</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,76 +5793,76 @@
         <v>45171.5</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N60">
-        <v>1.6</v>
+        <v>1.363</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P60">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R60">
+        <v>1.8</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>3</v>
+      </c>
+      <c r="U60">
+        <v>1.975</v>
+      </c>
+      <c r="V60">
         <v>1.825</v>
       </c>
-      <c r="S60">
-        <v>1.975</v>
-      </c>
-      <c r="T60">
-        <v>2.75</v>
-      </c>
-      <c r="U60">
-        <v>1.9</v>
-      </c>
-      <c r="V60">
-        <v>1.9</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X60">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>45171.5</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6803164</v>
+        <v>6804184</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,76 +6060,76 @@
         <v>45171.5</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
+        <v>1.666</v>
+      </c>
+      <c r="L63">
+        <v>3.6</v>
+      </c>
+      <c r="M63">
+        <v>4.2</v>
+      </c>
+      <c r="N63">
         <v>1.6</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <v>3.75</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>4.5</v>
       </c>
-      <c r="N63">
-        <v>1.363</v>
-      </c>
-      <c r="O63">
-        <v>4.333</v>
-      </c>
-      <c r="P63">
-        <v>6.5</v>
-      </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>45185.21875</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6671,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6804193</v>
+        <v>6803333</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,73 +6683,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
         <v>3.25</v>
       </c>
       <c r="M70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6803333</v>
+        <v>6804193</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,73 +6772,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L71">
         <v>3.25</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N71">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O71">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y71">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6953,7 +6953,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -7128,7 +7128,7 @@
         <v>45192.21875</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
         <v>42</v>
@@ -7395,7 +7395,7 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7487,7 +7487,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7576,7 +7576,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7754,7 +7754,7 @@
         <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7828,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6804202</v>
+        <v>6803167</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7840,76 +7840,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L83">
         <v>3.3</v>
       </c>
       <c r="M83">
+        <v>2.2</v>
+      </c>
+      <c r="N83">
+        <v>2.05</v>
+      </c>
+      <c r="O83">
         <v>3.4</v>
       </c>
-      <c r="N83">
-        <v>2.1</v>
-      </c>
-      <c r="O83">
-        <v>3.3</v>
-      </c>
       <c r="P83">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X83">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA83">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6803335</v>
+        <v>6804202</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,76 +7929,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L84">
         <v>3.3</v>
       </c>
       <c r="M84">
+        <v>3.4</v>
+      </c>
+      <c r="N84">
+        <v>2.1</v>
+      </c>
+      <c r="O84">
+        <v>3.3</v>
+      </c>
+      <c r="P84">
+        <v>3</v>
+      </c>
+      <c r="Q84">
+        <v>-0.25</v>
+      </c>
+      <c r="R84">
+        <v>1.85</v>
+      </c>
+      <c r="S84">
+        <v>1.95</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
+      <c r="V84">
+        <v>1.8</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
         <v>2.3</v>
       </c>
-      <c r="N84">
-        <v>2.875</v>
-      </c>
-      <c r="O84">
-        <v>3.5</v>
-      </c>
-      <c r="P84">
-        <v>2.15</v>
-      </c>
-      <c r="Q84">
-        <v>0.25</v>
-      </c>
-      <c r="R84">
-        <v>1.875</v>
-      </c>
-      <c r="S84">
-        <v>1.925</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>1.95</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
-      <c r="W84">
-        <v>1.875</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB84">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6803167</v>
+        <v>6803335</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,10 +8018,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8033,43 +8033,43 @@
         <v>46</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N85">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>1.05</v>
+        <v>1.875</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8078,16 +8078,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6804208</v>
+        <v>6803250</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,10 +8555,10 @@
         <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8567,43 +8567,43 @@
         <v>46</v>
       </c>
       <c r="K91">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>4.2</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1</v>
+      </c>
+      <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
+        <v>1.975</v>
+      </c>
+      <c r="T91">
         <v>2.75</v>
       </c>
-      <c r="N91">
-        <v>2.9</v>
-      </c>
-      <c r="O91">
-        <v>3.2</v>
-      </c>
-      <c r="P91">
-        <v>2.3</v>
-      </c>
-      <c r="Q91">
-        <v>0.25</v>
-      </c>
-      <c r="R91">
+      <c r="U91">
         <v>1.775</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>2.025</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.8</v>
-      </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8612,7 +8612,7 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8621,7 +8621,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6803250</v>
+        <v>6804208</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,10 +8644,10 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -8656,43 +8656,43 @@
         <v>46</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M92">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8701,7 +8701,7 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8710,7 +8710,7 @@
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8733,7 +8733,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -8908,7 +8908,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
         <v>37</v>
@@ -9178,7 +9178,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9356,7 +9356,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6803337</v>
+        <v>6804213</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,73 +9531,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
         <v>3.25</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O102">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6804213</v>
+        <v>6803337</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,73 +9620,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
         <v>3.25</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P103">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9712,7 +9712,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9890,7 +9890,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -10065,7 +10065,7 @@
         <v>45227.21875</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10154,7 +10154,7 @@
         <v>45227.21875</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
         <v>40</v>
@@ -10335,7 +10335,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10676,7 +10676,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6804227</v>
+        <v>6804223</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10688,55 +10688,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>48</v>
       </c>
       <c r="K115">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N115">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P115">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10745,19 +10745,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>3.333</v>
+        <v>4</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC115">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10765,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6805653</v>
+        <v>6804224</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,76 +10777,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L116">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N116">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="Q116">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6804224</v>
+        <v>6804227</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,73 +10869,73 @@
         <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
+        <v>1.727</v>
+      </c>
+      <c r="L117">
+        <v>3.75</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+      <c r="N117">
+        <v>1.65</v>
+      </c>
+      <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
+        <v>4.333</v>
+      </c>
+      <c r="Q117">
+        <v>-0.75</v>
+      </c>
+      <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
         <v>2.75</v>
       </c>
-      <c r="L117">
-        <v>3.4</v>
-      </c>
-      <c r="M117">
-        <v>2.3</v>
-      </c>
-      <c r="N117">
-        <v>2.625</v>
-      </c>
-      <c r="O117">
-        <v>3.1</v>
-      </c>
-      <c r="P117">
-        <v>2.55</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>1.875</v>
-      </c>
-      <c r="S117">
-        <v>1.925</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6804223</v>
+        <v>6805653</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,55 +10955,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
         <v>48</v>
       </c>
       <c r="K118">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="N118">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="O118">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>5</v>
+        <v>1.65</v>
       </c>
       <c r="Q118">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11012,19 +11012,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB118">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6804225</v>
+        <v>6803252</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,55 +11044,55 @@
         <v>45235.26041666666</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L119">
         <v>3.3</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N119">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11101,19 +11101,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6803252</v>
+        <v>6804225</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,56 +11133,56 @@
         <v>45235.26041666666</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J120" t="s">
         <v>48</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N120">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
+        <v>1.825</v>
+      </c>
+      <c r="S120">
+        <v>1.975</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
         <v>1.85</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.95</v>
       </c>
-      <c r="T120">
-        <v>3</v>
-      </c>
-      <c r="U120">
-        <v>2</v>
-      </c>
-      <c r="V120">
-        <v>1.8</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
@@ -11190,19 +11190,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11314,7 +11314,7 @@
         <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,10 +11492,10 @@
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11504,43 +11504,43 @@
         <v>46</v>
       </c>
       <c r="K124">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L124">
         <v>3.25</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N124">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
+        <v>1.875</v>
+      </c>
+      <c r="T124">
+        <v>2.75</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
-      <c r="U124">
-        <v>1.975</v>
-      </c>
-      <c r="V124">
-        <v>1.825</v>
-      </c>
       <c r="W124">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,7 +11549,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11558,7 +11558,7 @@
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,10 +11581,10 @@
         <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11593,43 +11593,43 @@
         <v>46</v>
       </c>
       <c r="K125">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L125">
         <v>3.25</v>
       </c>
       <c r="M125">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,7 +11638,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11647,7 +11647,7 @@
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12028,6 +12028,15 @@
       <c r="G130" t="s">
         <v>44</v>
       </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>46</v>
+      </c>
       <c r="K130">
         <v>2.1</v>
       </c>
@@ -12038,46 +12047,52 @@
         <v>3</v>
       </c>
       <c r="N130">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA130">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12112,31 +12127,31 @@
         <v>2.6</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O131">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P131">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
         <v>0</v>
@@ -12174,7 +12189,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -12186,31 +12201,31 @@
         <v>3.6</v>
       </c>
       <c r="N132">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O132">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q132">
         <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12233,7 +12248,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803340</v>
+        <v>6803254</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12245,46 +12260,46 @@
         <v>45353.4375</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K133">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N133">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>0</v>
@@ -12307,7 +12322,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6803254</v>
+        <v>6803340</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12319,46 +12334,46 @@
         <v>45353.4375</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K134">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M134">
+        <v>1.909</v>
+      </c>
+      <c r="N134">
         <v>4.333</v>
       </c>
-      <c r="N134">
-        <v>1.75</v>
-      </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R134">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>0</v>
@@ -12408,31 +12423,31 @@
         <v>3.75</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -12482,31 +12497,31 @@
         <v>5.5</v>
       </c>
       <c r="N136">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="O136">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P136">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q136">
         <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12556,31 +12571,31 @@
         <v>2.625</v>
       </c>
       <c r="N137">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
         <v>0</v>

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -133,13 +133,13 @@
     <t>Opava</t>
   </si>
   <si>
-    <t>SK Lisen</t>
+    <t>FC Vlasim</t>
   </si>
   <si>
     <t>Hanacka Slavia Kromeriz</t>
   </si>
   <si>
-    <t>FC Vlasim</t>
+    <t>SK Lisen</t>
   </si>
   <si>
     <t>Viktoria Zizkov</t>
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6804152</v>
+        <v>6804154</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,37 +1613,37 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
         <v>3.6</v>
       </c>
       <c r="N13">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R13">
         <v>1.825</v>
@@ -1652,22 +1652,22 @@
         <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y13">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
@@ -1676,10 +1676,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6804154</v>
+        <v>6804152</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,37 +1791,37 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
         <v>3.6</v>
       </c>
       <c r="N15">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
+        <v>3.4</v>
+      </c>
+      <c r="P15">
         <v>3.8</v>
       </c>
-      <c r="P15">
-        <v>6</v>
-      </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
         <v>1.825</v>
@@ -1830,22 +1830,22 @@
         <v>1.975</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
         <v>2.8</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
@@ -1854,10 +1854,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6804159</v>
+        <v>6804160</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,73 +2322,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I21">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N21">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P21">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q21">
         <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6804156</v>
+        <v>6803241</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,58 +2411,58 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>46</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M22">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N22">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q22">
         <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W22">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2471,16 +2471,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6804160</v>
+        <v>6804156</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,31 +2500,31 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M23">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O23">
         <v>3.25</v>
@@ -2536,22 +2536,22 @@
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2560,16 +2560,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6803328</v>
+        <v>6804159</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,73 +2589,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6803241</v>
+        <v>6803328</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,13 +2678,13 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2693,43 +2693,43 @@
         <v>46</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N25">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P25">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W25">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2738,13 +2738,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2856,7 +2856,7 @@
         <v>45143.5</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -2945,7 +2945,7 @@
         <v>45143.5</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3482,7 +3482,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3571,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6803331</v>
+        <v>6804172</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45157.5</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N45">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P45">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q45">
+        <v>-1</v>
+      </c>
+      <c r="R45">
+        <v>1.825</v>
+      </c>
+      <c r="S45">
+        <v>1.975</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>1.925</v>
+      </c>
+      <c r="V45">
+        <v>1.875</v>
+      </c>
+      <c r="W45">
+        <v>0.5</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
         <v>0</v>
       </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
-      <c r="T45">
-        <v>2.5</v>
-      </c>
-      <c r="U45">
-        <v>1.975</v>
-      </c>
-      <c r="V45">
-        <v>1.825</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>1.5</v>
-      </c>
-      <c r="Z45">
-        <v>-1</v>
-      </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6804171</v>
+        <v>6804174</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,76 +4547,76 @@
         <v>45157.5</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N46">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4624,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6804172</v>
+        <v>6804171</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4636,58 +4636,58 @@
         <v>45157.5</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>46</v>
       </c>
       <c r="K47">
+        <v>1.909</v>
+      </c>
+      <c r="L47">
+        <v>3.3</v>
+      </c>
+      <c r="M47">
+        <v>3.5</v>
+      </c>
+      <c r="N47">
+        <v>1.909</v>
+      </c>
+      <c r="O47">
+        <v>3.3</v>
+      </c>
+      <c r="P47">
+        <v>3.5</v>
+      </c>
+      <c r="Q47">
+        <v>-0.5</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
         <v>1.8</v>
       </c>
-      <c r="L47">
-        <v>3.4</v>
-      </c>
-      <c r="M47">
-        <v>3.8</v>
-      </c>
-      <c r="N47">
-        <v>1.5</v>
-      </c>
-      <c r="O47">
-        <v>4.2</v>
-      </c>
-      <c r="P47">
-        <v>5</v>
-      </c>
-      <c r="Q47">
-        <v>-1</v>
-      </c>
-      <c r="R47">
-        <v>1.825</v>
-      </c>
-      <c r="S47">
-        <v>1.975</v>
-      </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4696,16 +4696,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>45157.5</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
         <v>44</v>
@@ -4802,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6804174</v>
+        <v>6803331</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,49 +4814,49 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L49">
         <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N49">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
+        <v>1.95</v>
+      </c>
+      <c r="S49">
         <v>1.85</v>
       </c>
-      <c r="S49">
-        <v>1.95</v>
-      </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
         <v>1.975</v>
@@ -4868,16 +4868,16 @@
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB49">
         <v>-1</v>
@@ -5348,7 +5348,7 @@
         <v>45164.5</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
         <v>40</v>
@@ -5440,7 +5440,7 @@
         <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6803164</v>
+        <v>6803246</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,10 +5793,10 @@
         <v>45171.5</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5808,43 +5808,43 @@
         <v>46</v>
       </c>
       <c r="K60">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M60">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N60">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O60">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P60">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q60">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
+        <v>1.95</v>
+      </c>
+      <c r="S60">
+        <v>1.85</v>
+      </c>
+      <c r="T60">
+        <v>2.75</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+      <c r="V60">
         <v>1.8</v>
       </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
-      <c r="T60">
-        <v>3</v>
-      </c>
-      <c r="U60">
-        <v>1.975</v>
-      </c>
-      <c r="V60">
-        <v>1.825</v>
-      </c>
       <c r="W60">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5853,16 +5853,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6803246</v>
+        <v>6804183</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,10 +5882,10 @@
         <v>45171.5</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5897,43 +5897,43 @@
         <v>46</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L61">
+        <v>3.3</v>
+      </c>
+      <c r="M61">
         <v>3.2</v>
       </c>
-      <c r="M61">
-        <v>2.5</v>
-      </c>
       <c r="N61">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="O61">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
+        <v>1.925</v>
+      </c>
+      <c r="S61">
+        <v>1.875</v>
+      </c>
+      <c r="T61">
+        <v>3.25</v>
+      </c>
+      <c r="U61">
+        <v>1.85</v>
+      </c>
+      <c r="V61">
         <v>1.95</v>
       </c>
-      <c r="S61">
-        <v>1.85</v>
-      </c>
-      <c r="T61">
-        <v>2.75</v>
-      </c>
-      <c r="U61">
-        <v>2</v>
-      </c>
-      <c r="V61">
-        <v>1.8</v>
-      </c>
       <c r="W61">
-        <v>1.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
+        <v>0.4625</v>
+      </c>
+      <c r="AA61">
+        <v>-0.5</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.95</v>
-      </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
-      <c r="AB61">
-        <v>-1</v>
-      </c>
-      <c r="AC61">
-        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6804183</v>
+        <v>6804184</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,76 +5971,76 @@
         <v>45171.5</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N62">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q62">
         <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6804184</v>
+        <v>6803164</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,76 +6060,76 @@
         <v>45171.5</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M63">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N63">
-        <v>1.6</v>
+        <v>1.363</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P63">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
+        <v>1.975</v>
+      </c>
+      <c r="V63">
         <v>1.825</v>
       </c>
-      <c r="S63">
-        <v>1.975</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>1.9</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X63">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6671,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6803333</v>
+        <v>6804193</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,73 +6683,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
         <v>3.25</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N70">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P70">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S70">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6804193</v>
+        <v>6803333</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,73 +6772,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
         <v>3.25</v>
       </c>
       <c r="M71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O71">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P71">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S71">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -7395,7 +7395,7 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7576,7 +7576,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6804202</v>
+        <v>6803335</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,76 +7929,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F84" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" t="s">
         <v>39</v>
       </c>
-      <c r="G84" t="s">
-        <v>33</v>
-      </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L84">
         <v>3.3</v>
       </c>
       <c r="M84">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
+        <v>1.875</v>
+      </c>
+      <c r="S84">
+        <v>1.925</v>
+      </c>
+      <c r="T84">
+        <v>2.75</v>
+      </c>
+      <c r="U84">
+        <v>1.95</v>
+      </c>
+      <c r="V84">
         <v>1.85</v>
       </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
-      <c r="U84">
-        <v>2</v>
-      </c>
-      <c r="V84">
-        <v>1.8</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X84">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
+        <v>0.875</v>
+      </c>
+      <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
+        <v>0.475</v>
+      </c>
+      <c r="AC84">
         <v>-0.5</v>
-      </c>
-      <c r="AA84">
-        <v>0.475</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
-      <c r="AC84">
-        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6803335</v>
+        <v>6804202</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
+        <v>3.4</v>
+      </c>
+      <c r="N85">
+        <v>2.1</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
+        <v>3</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>1.95</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
+        <v>2</v>
+      </c>
+      <c r="V85">
+        <v>1.8</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
         <v>2.3</v>
       </c>
-      <c r="N85">
-        <v>2.875</v>
-      </c>
-      <c r="O85">
-        <v>3.5</v>
-      </c>
-      <c r="P85">
-        <v>2.15</v>
-      </c>
-      <c r="Q85">
-        <v>0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>1.925</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
-      <c r="U85">
-        <v>1.95</v>
-      </c>
-      <c r="V85">
-        <v>1.85</v>
-      </c>
-      <c r="W85">
-        <v>1.875</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB85">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6803250</v>
+        <v>6804208</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,13 +8552,13 @@
         <v>45206.21875</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8567,43 +8567,43 @@
         <v>46</v>
       </c>
       <c r="K91">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8612,7 +8612,7 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8621,7 +8621,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6804208</v>
+        <v>6803250</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,13 +8641,13 @@
         <v>45206.21875</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -8656,43 +8656,43 @@
         <v>46</v>
       </c>
       <c r="K92">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L92">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M92">
+        <v>5</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>4.2</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1</v>
+      </c>
+      <c r="R92">
+        <v>1.825</v>
+      </c>
+      <c r="S92">
+        <v>1.975</v>
+      </c>
+      <c r="T92">
         <v>2.75</v>
       </c>
-      <c r="N92">
-        <v>2.9</v>
-      </c>
-      <c r="O92">
-        <v>3.2</v>
-      </c>
-      <c r="P92">
-        <v>2.3</v>
-      </c>
-      <c r="Q92">
-        <v>0.25</v>
-      </c>
-      <c r="R92">
+      <c r="U92">
         <v>1.775</v>
       </c>
-      <c r="S92">
+      <c r="V92">
         <v>2.025</v>
       </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.8</v>
-      </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
       <c r="W92">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8701,7 +8701,7 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8710,7 +8710,7 @@
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8733,7 +8733,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -8807,7 +8807,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6804207</v>
+        <v>6804206</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8819,13 +8819,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -8834,43 +8834,43 @@
         <v>46</v>
       </c>
       <c r="K94">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M94">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P94">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R94">
+        <v>1.825</v>
+      </c>
+      <c r="S94">
+        <v>1.975</v>
+      </c>
+      <c r="T94">
+        <v>2.75</v>
+      </c>
+      <c r="U94">
         <v>1.925</v>
       </c>
-      <c r="S94">
+      <c r="V94">
         <v>1.875</v>
       </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
-      <c r="U94">
-        <v>1.875</v>
-      </c>
-      <c r="V94">
-        <v>1.925</v>
-      </c>
       <c r="W94">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8879,13 +8879,13 @@
         <v>-1</v>
       </c>
       <c r="Z94">
+        <v>0.825</v>
+      </c>
+      <c r="AA94">
+        <v>-1</v>
+      </c>
+      <c r="AB94">
         <v>0.925</v>
-      </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
-      <c r="AB94">
-        <v>0.875</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8896,7 +8896,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6804206</v>
+        <v>6804207</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8908,13 +8908,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -8923,43 +8923,43 @@
         <v>46</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L95">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N95">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
+        <v>1.875</v>
+      </c>
+      <c r="V95">
         <v>1.925</v>
       </c>
-      <c r="V95">
-        <v>1.875</v>
-      </c>
       <c r="W95">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8968,13 +8968,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9531,7 +9531,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
@@ -9712,7 +9712,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9890,7 +9890,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6804221</v>
+        <v>6803338</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,22 +10065,22 @@
         <v>45227.21875</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L108">
         <v>3.4</v>
@@ -10101,37 +10101,37 @@
         <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
         <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10142,7 +10142,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6803338</v>
+        <v>6804221</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10154,22 +10154,22 @@
         <v>45227.21875</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
         <v>3</v>
       </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K109">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L109">
         <v>3.4</v>
@@ -10190,37 +10190,37 @@
         <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T109">
         <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10335,7 +10335,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10676,7 +10676,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6804223</v>
+        <v>6804227</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10688,55 +10688,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>48</v>
       </c>
       <c r="K115">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L115">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N115">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O115">
+        <v>4</v>
+      </c>
+      <c r="P115">
         <v>4.333</v>
       </c>
-      <c r="P115">
-        <v>5</v>
-      </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10745,19 +10745,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>4</v>
+        <v>3.333</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10765,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6804224</v>
+        <v>6804223</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,76 +10777,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K116">
+        <v>1.444</v>
+      </c>
+      <c r="L116">
+        <v>4.5</v>
+      </c>
+      <c r="M116">
+        <v>5.5</v>
+      </c>
+      <c r="N116">
+        <v>1.5</v>
+      </c>
+      <c r="O116">
+        <v>4.333</v>
+      </c>
+      <c r="P116">
+        <v>5</v>
+      </c>
+      <c r="Q116">
+        <v>-1</v>
+      </c>
+      <c r="R116">
+        <v>1.9</v>
+      </c>
+      <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
         <v>2.75</v>
       </c>
-      <c r="L116">
-        <v>3.4</v>
-      </c>
-      <c r="M116">
-        <v>2.3</v>
-      </c>
-      <c r="N116">
-        <v>2.625</v>
-      </c>
-      <c r="O116">
-        <v>3.1</v>
-      </c>
-      <c r="P116">
-        <v>2.55</v>
-      </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116">
+      <c r="U116">
+        <v>1.925</v>
+      </c>
+      <c r="V116">
         <v>1.875</v>
       </c>
-      <c r="S116">
-        <v>1.925</v>
-      </c>
-      <c r="T116">
-        <v>2.25</v>
-      </c>
-      <c r="U116">
-        <v>1.95</v>
-      </c>
-      <c r="V116">
-        <v>1.85</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC116">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6804227</v>
+        <v>6805653</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,55 +10866,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
         <v>48</v>
       </c>
       <c r="K117">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L117">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M117">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N117">
+        <v>4.75</v>
+      </c>
+      <c r="O117">
+        <v>3.6</v>
+      </c>
+      <c r="P117">
         <v>1.65</v>
       </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
-      <c r="P117">
-        <v>4.333</v>
-      </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10923,19 +10923,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>3.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6805653</v>
+        <v>6804224</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,76 +10955,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N118">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P118">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="Q118">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y118">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11314,7 +11314,7 @@
         <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -12117,6 +12117,15 @@
       <c r="G131" t="s">
         <v>36</v>
       </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131">
+        <v>3</v>
+      </c>
+      <c r="J131" t="s">
+        <v>47</v>
+      </c>
       <c r="K131">
         <v>2.4</v>
       </c>
@@ -12139,10 +12148,10 @@
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
         <v>2.25</v>
@@ -12154,19 +12163,25 @@
         <v>2.025</v>
       </c>
       <c r="W131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>0</v>
+        <v>0.4125</v>
+      </c>
+      <c r="AB131">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6804234</v>
+        <v>6803254</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,61 +12201,76 @@
         <v>45353.4375</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
+        <v>4.333</v>
+      </c>
+      <c r="N132">
+        <v>1.909</v>
+      </c>
+      <c r="O132">
+        <v>3.3</v>
+      </c>
+      <c r="P132">
         <v>3.6</v>
-      </c>
-      <c r="N132">
-        <v>1.833</v>
-      </c>
-      <c r="O132">
-        <v>3.25</v>
-      </c>
-      <c r="P132">
-        <v>4.2</v>
       </c>
       <c r="Q132">
         <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
+        <v>0.825</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12248,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803254</v>
+        <v>6803340</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12260,61 +12290,76 @@
         <v>45353.4375</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L133">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N133">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
+        <v>0.95</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12322,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6803340</v>
+        <v>6804234</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12334,61 +12379,76 @@
         <v>45353.4375</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>47</v>
       </c>
       <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
         <v>3.6</v>
       </c>
-      <c r="L134">
-        <v>3.2</v>
-      </c>
-      <c r="M134">
+      <c r="N134">
         <v>1.909</v>
-      </c>
-      <c r="N134">
-        <v>4.333</v>
       </c>
       <c r="O134">
         <v>3.2</v>
       </c>
       <c r="P134">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q134">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12413,6 +12473,15 @@
       <c r="G135" t="s">
         <v>35</v>
       </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>47</v>
+      </c>
       <c r="K135">
         <v>1.909</v>
       </c>
@@ -12423,46 +12492,52 @@
         <v>3.75</v>
       </c>
       <c r="N135">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O135">
         <v>3.5</v>
       </c>
       <c r="P135">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q135">
         <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
         <v>3</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0</v>
+        <v>0.425</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12571,31 +12646,31 @@
         <v>2.625</v>
       </c>
       <c r="N137">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
         <v>3.6</v>
       </c>
       <c r="P137">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
         <v>0</v>

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -133,13 +133,13 @@
     <t>Opava</t>
   </si>
   <si>
-    <t>FC Vlasim</t>
-  </si>
-  <si>
     <t>Hanacka Slavia Kromeriz</t>
   </si>
   <si>
     <t>SK Lisen</t>
+  </si>
+  <si>
+    <t>FC Vlasim</t>
   </si>
   <si>
     <t>Viktoria Zizkov</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6804154</v>
+        <v>6803327</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,73 +1613,73 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X13">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1687,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6803327</v>
+        <v>6804152</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,70 +1702,70 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L14">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
         <v>3.4</v>
       </c>
       <c r="P14">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
         <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6804152</v>
+        <v>6804154</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,37 +1791,37 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
         <v>3.6</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R15">
         <v>1.825</v>
@@ -1830,22 +1830,22 @@
         <v>1.975</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y15">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
@@ -1854,10 +1854,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6804157</v>
+        <v>6804156</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,19 +2144,19 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>2.1</v>
@@ -2168,52 +2168,52 @@
         <v>3.25</v>
       </c>
       <c r="N19">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6803159</v>
+        <v>6804159</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,76 +2233,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>2.025</v>
+      </c>
+      <c r="S20">
+        <v>1.775</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>1.85</v>
+      </c>
+      <c r="V20">
+        <v>1.95</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>2.5</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
         <v>-0.5</v>
       </c>
-      <c r="R20">
-        <v>1.775</v>
-      </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
-      <c r="U20">
-        <v>1.8</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>3</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6803241</v>
+        <v>6804157</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,73 +2411,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L22">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M22">
+        <v>3.25</v>
+      </c>
+      <c r="N22">
         <v>2.3</v>
-      </c>
-      <c r="N22">
-        <v>2.15</v>
       </c>
       <c r="O22">
         <v>3.2</v>
       </c>
       <c r="P22">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q22">
         <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T22">
         <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB22">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6804156</v>
+        <v>6803159</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,76 +2500,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L23">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O23">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
+        <v>1.025</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>1</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6804159</v>
+        <v>6803241</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,73 +2589,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>3</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>2.1</v>
-      </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>2.25</v>
+      </c>
+      <c r="U24">
+        <v>1.775</v>
+      </c>
+      <c r="V24">
         <v>2.025</v>
       </c>
-      <c r="S24">
-        <v>1.775</v>
-      </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="U24">
-        <v>1.85</v>
-      </c>
-      <c r="V24">
-        <v>1.95</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X24">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2681,7 +2681,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6803329</v>
+        <v>6804164</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,10 +2767,10 @@
         <v>45143.5</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2782,46 +2782,46 @@
         <v>47</v>
       </c>
       <c r="K26">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L26">
         <v>3.25</v>
       </c>
       <c r="M26">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>2.6</v>
       </c>
       <c r="O26">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
         <v>1.8</v>
       </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.775</v>
-      </c>
-      <c r="V26">
-        <v>2.025</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y26">
         <v>-1</v>
@@ -2836,7 +2836,7 @@
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6804161</v>
+        <v>6803160</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,58 +2856,58 @@
         <v>45143.5</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>46</v>
       </c>
       <c r="K27">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2916,16 +2916,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>0.925</v>
       </c>
-      <c r="AA27">
-        <v>-1</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6804164</v>
+        <v>6803329</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,7 +2948,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2960,46 +2960,46 @@
         <v>47</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L28">
         <v>3.25</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N28">
         <v>2.6</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P28">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y28">
         <v>-1</v>
@@ -3014,7 +3014,7 @@
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6803160</v>
+        <v>6804161</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,58 +3034,58 @@
         <v>45143.5</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>46</v>
       </c>
       <c r="K29">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L29">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N29">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O29">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.75</v>
+        <v>1.15</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3094,16 +3094,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3482,7 +3482,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3571,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6804175</v>
+        <v>6803244</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,49 +4280,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L43">
         <v>3.25</v>
       </c>
       <c r="M43">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O43">
         <v>3.3</v>
       </c>
       <c r="P43">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
         <v>1.975</v>
@@ -4331,25 +4331,25 @@
         <v>1.825</v>
       </c>
       <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
+        <v>-1</v>
+      </c>
+      <c r="Y43">
+        <v>1.6</v>
+      </c>
+      <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
         <v>1</v>
       </c>
-      <c r="X43">
-        <v>-1</v>
-      </c>
-      <c r="Y43">
-        <v>-1</v>
-      </c>
-      <c r="Z43">
-        <v>0.925</v>
-      </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6803244</v>
+        <v>6804175</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,49 +4369,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
         <v>3.25</v>
       </c>
       <c r="M44">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N44">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O44">
         <v>3.3</v>
       </c>
       <c r="P44">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
         <v>1.975</v>
@@ -4420,25 +4420,25 @@
         <v>1.825</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6804172</v>
+        <v>6804174</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,61 +4458,61 @@
         <v>45157.5</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N45">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R45">
+        <v>1.85</v>
+      </c>
+      <c r="S45">
+        <v>1.95</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>1.975</v>
+      </c>
+      <c r="V45">
         <v>1.825</v>
       </c>
-      <c r="S45">
-        <v>1.975</v>
-      </c>
-      <c r="T45">
-        <v>3</v>
-      </c>
-      <c r="U45">
-        <v>1.925</v>
-      </c>
-      <c r="V45">
-        <v>1.875</v>
-      </c>
       <c r="W45">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4527,7 +4527,7 @@
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6804174</v>
+        <v>6804173</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,76 +4547,76 @@
         <v>45157.5</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N46">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X46">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4624,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6804171</v>
+        <v>6804172</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4636,58 +4636,58 @@
         <v>45157.5</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>46</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N47">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4696,16 +4696,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4713,7 +4713,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6804173</v>
+        <v>6803331</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,73 +4728,73 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K48">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L48">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N48">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O48">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4802,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6803331</v>
+        <v>6804171</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,73 +4817,73 @@
         <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M49">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N49">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O49">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB49">
-        <v>-1</v>
-      </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6804176</v>
+        <v>6804180</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,76 +4992,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
       </c>
       <c r="K51">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N51">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6804180</v>
+        <v>6804176</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,76 +5081,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N52">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O52">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P52">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5348,10 +5348,10 @@
         <v>45164.5</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6803246</v>
+        <v>6804184</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,76 +5793,76 @@
         <v>45171.5</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L60">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N60">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6804183</v>
+        <v>6803246</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,7 +5885,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5897,43 +5897,43 @@
         <v>46</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
+        <v>3.2</v>
+      </c>
+      <c r="M61">
+        <v>2.5</v>
+      </c>
+      <c r="N61">
+        <v>2.7</v>
+      </c>
+      <c r="O61">
         <v>3.3</v>
       </c>
-      <c r="M61">
-        <v>3.2</v>
-      </c>
-      <c r="N61">
-        <v>1.65</v>
-      </c>
-      <c r="O61">
-        <v>3.8</v>
-      </c>
       <c r="P61">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.6499999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6804184</v>
+        <v>6804183</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,76 +5971,76 @@
         <v>45171.5</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N62">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O62">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q62">
         <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X62">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA62">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6671,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6804193</v>
+        <v>6803333</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,73 +6683,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
         <v>3.25</v>
       </c>
       <c r="M70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6803333</v>
+        <v>6804193</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,70 +6775,70 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L71">
         <v>3.25</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N71">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O71">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y71">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -7309,7 +7309,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7395,7 +7395,7 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7576,7 +7576,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7929,10 +7929,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8018,7 +8018,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
         <v>33</v>
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6804208</v>
+        <v>6803250</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,13 +8552,13 @@
         <v>45206.21875</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8567,43 +8567,43 @@
         <v>46</v>
       </c>
       <c r="K91">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>4.2</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1</v>
+      </c>
+      <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
+        <v>1.975</v>
+      </c>
+      <c r="T91">
         <v>2.75</v>
       </c>
-      <c r="N91">
-        <v>2.9</v>
-      </c>
-      <c r="O91">
-        <v>3.2</v>
-      </c>
-      <c r="P91">
-        <v>2.3</v>
-      </c>
-      <c r="Q91">
-        <v>0.25</v>
-      </c>
-      <c r="R91">
+      <c r="U91">
         <v>1.775</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>2.025</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.8</v>
-      </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8612,7 +8612,7 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8621,7 +8621,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6803250</v>
+        <v>6804208</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,13 +8641,13 @@
         <v>45206.21875</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -8656,43 +8656,43 @@
         <v>46</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M92">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8701,7 +8701,7 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8710,7 +8710,7 @@
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8733,7 +8733,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -8807,7 +8807,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6804206</v>
+        <v>6804207</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8819,13 +8819,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -8834,43 +8834,43 @@
         <v>46</v>
       </c>
       <c r="K94">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N94">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P94">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
+        <v>1.875</v>
+      </c>
+      <c r="V94">
         <v>1.925</v>
       </c>
-      <c r="V94">
-        <v>1.875</v>
-      </c>
       <c r="W94">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8879,13 +8879,13 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8896,7 +8896,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6804207</v>
+        <v>6804206</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8908,13 +8908,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -8923,43 +8923,43 @@
         <v>46</v>
       </c>
       <c r="K95">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M95">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N95">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R95">
+        <v>1.825</v>
+      </c>
+      <c r="S95">
+        <v>1.975</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
         <v>1.925</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.875</v>
       </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.875</v>
-      </c>
-      <c r="V95">
-        <v>1.925</v>
-      </c>
       <c r="W95">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8968,13 +8968,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
+        <v>0.825</v>
+      </c>
+      <c r="AA95">
+        <v>-1</v>
+      </c>
+      <c r="AB95">
         <v>0.925</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0.875</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9000,7 +9000,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9531,7 +9531,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
@@ -9620,7 +9620,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9712,7 +9712,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9890,7 +9890,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -10068,7 +10068,7 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -10335,7 +10335,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10676,7 +10676,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6804227</v>
+        <v>6805653</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,52 +10691,52 @@
         <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
         <v>48</v>
       </c>
       <c r="K115">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N115">
+        <v>4.75</v>
+      </c>
+      <c r="O115">
+        <v>3.6</v>
+      </c>
+      <c r="P115">
         <v>1.65</v>
       </c>
-      <c r="O115">
-        <v>4</v>
-      </c>
-      <c r="P115">
-        <v>4.333</v>
-      </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10745,19 +10745,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>3.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10765,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6804223</v>
+        <v>6804227</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,55 +10777,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
         <v>1</v>
-      </c>
-      <c r="I116">
-        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>48</v>
       </c>
       <c r="K116">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L116">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N116">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O116">
+        <v>4</v>
+      </c>
+      <c r="P116">
         <v>4.333</v>
       </c>
-      <c r="P116">
-        <v>5</v>
-      </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
         <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10834,19 +10834,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>4</v>
+        <v>3.333</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6805653</v>
+        <v>6804223</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,76 +10866,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>48</v>
       </c>
       <c r="K117">
+        <v>1.444</v>
+      </c>
+      <c r="L117">
+        <v>4.5</v>
+      </c>
+      <c r="M117">
+        <v>5.5</v>
+      </c>
+      <c r="N117">
+        <v>1.5</v>
+      </c>
+      <c r="O117">
+        <v>4.333</v>
+      </c>
+      <c r="P117">
+        <v>5</v>
+      </c>
+      <c r="Q117">
+        <v>-1</v>
+      </c>
+      <c r="R117">
+        <v>1.9</v>
+      </c>
+      <c r="S117">
+        <v>1.9</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
+        <v>1.925</v>
+      </c>
+      <c r="V117">
+        <v>1.875</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
         <v>4</v>
       </c>
-      <c r="L117">
-        <v>3.3</v>
-      </c>
-      <c r="M117">
-        <v>1.833</v>
-      </c>
-      <c r="N117">
-        <v>4.75</v>
-      </c>
-      <c r="O117">
-        <v>3.6</v>
-      </c>
-      <c r="P117">
-        <v>1.65</v>
-      </c>
-      <c r="Q117">
-        <v>0.75</v>
-      </c>
-      <c r="R117">
-        <v>1.8</v>
-      </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>2.5</v>
-      </c>
-      <c r="U117">
-        <v>1.8</v>
-      </c>
-      <c r="V117">
-        <v>2</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>0.6499999999999999</v>
-      </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
         <v>30</v>
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6803252</v>
+        <v>6804225</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,56 +11044,56 @@
         <v>45235.26041666666</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L119">
         <v>3.3</v>
       </c>
       <c r="M119">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
+        <v>1.975</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.85</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.95</v>
       </c>
-      <c r="T119">
-        <v>3</v>
-      </c>
-      <c r="U119">
-        <v>2</v>
-      </c>
-      <c r="V119">
-        <v>1.8</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
@@ -11101,19 +11101,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6804225</v>
+        <v>6803252</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,55 +11133,55 @@
         <v>45235.26041666666</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>48</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N120">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11190,19 +11190,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11314,7 +11314,7 @@
         <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,13 +11489,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11504,43 +11504,43 @@
         <v>46</v>
       </c>
       <c r="K124">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L124">
         <v>3.25</v>
       </c>
       <c r="M124">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N124">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P124">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,7 +11549,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11558,7 +11558,7 @@
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,13 +11578,13 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11593,43 +11593,43 @@
         <v>46</v>
       </c>
       <c r="K125">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L125">
         <v>3.25</v>
       </c>
       <c r="M125">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
+        <v>1.875</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="T125">
-        <v>2.5</v>
-      </c>
-      <c r="U125">
-        <v>1.975</v>
-      </c>
-      <c r="V125">
-        <v>1.825</v>
-      </c>
       <c r="W125">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,7 +11638,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11647,7 +11647,7 @@
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11670,7 +11670,7 @@
         <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12201,7 +12201,7 @@
         <v>45353.4375</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
         <v>42</v>
@@ -12290,7 +12290,7 @@
         <v>45353.4375</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -12562,6 +12562,15 @@
       <c r="G136" t="s">
         <v>32</v>
       </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>46</v>
+      </c>
       <c r="K136">
         <v>1.5</v>
       </c>
@@ -12572,46 +12581,52 @@
         <v>5.5</v>
       </c>
       <c r="N136">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O136">
         <v>3.75</v>
       </c>
       <c r="P136">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q136">
         <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB136">
+        <v>0.875</v>
+      </c>
+      <c r="AC136">
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12636,6 +12651,15 @@
       <c r="G137" t="s">
         <v>29</v>
       </c>
+      <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>46</v>
+      </c>
       <c r="K137">
         <v>2.3</v>
       </c>
@@ -12646,45 +12670,643 @@
         <v>2.625</v>
       </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
         <v>3.6</v>
       </c>
       <c r="P137">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
+        <v>-1</v>
+      </c>
+      <c r="AB137">
+        <v>0.45</v>
+      </c>
+      <c r="AC137">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>6804238</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45359.58333333334</v>
+      </c>
+      <c r="F138" t="s">
+        <v>44</v>
+      </c>
+      <c r="G138" t="s">
+        <v>40</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>3.25</v>
+      </c>
+      <c r="M138">
+        <v>3.5</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138">
+        <v>3</v>
+      </c>
+      <c r="P138">
+        <v>3.75</v>
+      </c>
+      <c r="Q138">
+        <v>-0.5</v>
+      </c>
+      <c r="R138">
+        <v>2.025</v>
+      </c>
+      <c r="S138">
+        <v>1.775</v>
+      </c>
+      <c r="T138">
+        <v>2.25</v>
+      </c>
+      <c r="U138">
+        <v>1.975</v>
+      </c>
+      <c r="V138">
+        <v>1.825</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>6804242</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45360.26041666666</v>
+      </c>
+      <c r="F139" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" t="s">
+        <v>45</v>
+      </c>
+      <c r="K139">
+        <v>1.727</v>
+      </c>
+      <c r="L139">
+        <v>3.5</v>
+      </c>
+      <c r="M139">
+        <v>4.333</v>
+      </c>
+      <c r="N139">
+        <v>1.533</v>
+      </c>
+      <c r="O139">
+        <v>4</v>
+      </c>
+      <c r="P139">
+        <v>5.25</v>
+      </c>
+      <c r="Q139">
+        <v>-1</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>1.8</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
+        <v>1.825</v>
+      </c>
+      <c r="V139">
+        <v>1.975</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>6804243</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45360.26041666666</v>
+      </c>
+      <c r="F140" t="s">
+        <v>31</v>
+      </c>
+      <c r="G140" t="s">
+        <v>34</v>
+      </c>
+      <c r="K140">
+        <v>1.8</v>
+      </c>
+      <c r="L140">
+        <v>3.6</v>
+      </c>
+      <c r="M140">
+        <v>3.8</v>
+      </c>
+      <c r="N140">
+        <v>2.1</v>
+      </c>
+      <c r="O140">
+        <v>3.3</v>
+      </c>
+      <c r="P140">
+        <v>3.1</v>
+      </c>
+      <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.875</v>
+      </c>
+      <c r="S140">
+        <v>1.925</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>1.9</v>
+      </c>
+      <c r="V140">
+        <v>1.9</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>6804239</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45360.27083333334</v>
+      </c>
+      <c r="F141" t="s">
+        <v>32</v>
+      </c>
+      <c r="G141" t="s">
+        <v>43</v>
+      </c>
+      <c r="K141">
+        <v>2.25</v>
+      </c>
+      <c r="L141">
+        <v>3.6</v>
+      </c>
+      <c r="M141">
+        <v>2.7</v>
+      </c>
+      <c r="N141">
+        <v>2.25</v>
+      </c>
+      <c r="O141">
+        <v>3.6</v>
+      </c>
+      <c r="P141">
+        <v>2.75</v>
+      </c>
+      <c r="Q141">
+        <v>-0.25</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>1.8</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
+        <v>2</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>6803173</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45360.58333333334</v>
+      </c>
+      <c r="F142" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" t="s">
+        <v>33</v>
+      </c>
+      <c r="K142">
+        <v>1.727</v>
+      </c>
+      <c r="L142">
+        <v>3.5</v>
+      </c>
+      <c r="M142">
+        <v>4.333</v>
+      </c>
+      <c r="N142">
+        <v>1.727</v>
+      </c>
+      <c r="O142">
+        <v>3.5</v>
+      </c>
+      <c r="P142">
+        <v>4.333</v>
+      </c>
+      <c r="Q142">
+        <v>-0.75</v>
+      </c>
+      <c r="R142">
+        <v>1.975</v>
+      </c>
+      <c r="S142">
+        <v>1.825</v>
+      </c>
+      <c r="T142">
+        <v>2.5</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>1.8</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>6803255</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45361.26041666666</v>
+      </c>
+      <c r="F143" t="s">
+        <v>42</v>
+      </c>
+      <c r="G143" t="s">
+        <v>38</v>
+      </c>
+      <c r="K143">
+        <v>2.375</v>
+      </c>
+      <c r="L143">
+        <v>3.2</v>
+      </c>
+      <c r="M143">
+        <v>2.8</v>
+      </c>
+      <c r="N143">
+        <v>2.4</v>
+      </c>
+      <c r="O143">
+        <v>3.2</v>
+      </c>
+      <c r="P143">
+        <v>2.8</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1.75</v>
+      </c>
+      <c r="S143">
+        <v>2.05</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
+        <v>1.9</v>
+      </c>
+      <c r="V143">
+        <v>1.9</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>6804241</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45361.4375</v>
+      </c>
+      <c r="F144" t="s">
+        <v>35</v>
+      </c>
+      <c r="G144" t="s">
+        <v>37</v>
+      </c>
+      <c r="K144">
+        <v>3.2</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144">
+        <v>3.6</v>
+      </c>
+      <c r="P144">
+        <v>2.1</v>
+      </c>
+      <c r="Q144">
+        <v>0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.925</v>
+      </c>
+      <c r="S144">
+        <v>1.875</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.825</v>
+      </c>
+      <c r="V144">
+        <v>1.975</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>6803341</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45361.47916666666</v>
+      </c>
+      <c r="F145" t="s">
+        <v>29</v>
+      </c>
+      <c r="G145" t="s">
+        <v>39</v>
+      </c>
+      <c r="K145">
+        <v>1.727</v>
+      </c>
+      <c r="L145">
+        <v>3.5</v>
+      </c>
+      <c r="M145">
+        <v>4.333</v>
+      </c>
+      <c r="N145">
+        <v>1.727</v>
+      </c>
+      <c r="O145">
+        <v>3.5</v>
+      </c>
+      <c r="P145">
+        <v>4.333</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
+        <v>1.975</v>
+      </c>
+      <c r="S145">
+        <v>1.825</v>
+      </c>
+      <c r="T145">
+        <v>2.5</v>
+      </c>
+      <c r="U145">
+        <v>1.8</v>
+      </c>
+      <c r="V145">
+        <v>2</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
         <v>0</v>
       </c>
     </row>

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Vysocina Jihlava</t>
   </si>
   <si>
-    <t>MFK Vyskov</t>
+    <t>MFK Chrudim</t>
   </si>
   <si>
-    <t>MFK Chrudim</t>
+    <t>MFK Vyskov</t>
   </si>
   <si>
     <t>SK Prostejov</t>
@@ -133,13 +133,13 @@
     <t>Opava</t>
   </si>
   <si>
-    <t>Hanacka Slavia Kromeriz</t>
-  </si>
-  <si>
     <t>SK Lisen</t>
   </si>
   <si>
     <t>FC Vlasim</t>
+  </si>
+  <si>
+    <t>Hanacka Slavia Kromeriz</t>
   </si>
   <si>
     <t>Viktoria Zizkov</t>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6804148</v>
+        <v>6803939</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,73 +723,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.75</v>
+      </c>
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1.825</v>
+      </c>
+      <c r="V3">
+        <v>1.975</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>2.2</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.375</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.85</v>
-      </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
-      <c r="W3">
-        <v>0.8</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
       <c r="AB3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6803939</v>
+        <v>6804148</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,73 +812,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X4">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -990,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6804151</v>
+        <v>6804155</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,10 +1432,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1447,19 +1447,19 @@
         <v>46</v>
       </c>
       <c r="K11">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
+        <v>2.9</v>
+      </c>
+      <c r="N11">
+        <v>1.85</v>
+      </c>
+      <c r="O11">
         <v>3.5</v>
-      </c>
-      <c r="N11">
-        <v>1.909</v>
-      </c>
-      <c r="O11">
-        <v>3.3</v>
       </c>
       <c r="P11">
         <v>3.6</v>
@@ -1468,10 +1468,10 @@
         <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
         <v>2.5</v>
@@ -1483,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="W11">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1492,7 +1492,7 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
         <v>-1</v>
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6804155</v>
+        <v>6804151</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,10 +1521,10 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1536,19 +1536,19 @@
         <v>46</v>
       </c>
       <c r="K12">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
         <v>3.6</v>
@@ -1557,10 +1557,10 @@
         <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
         <v>2.5</v>
@@ -1572,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="W12">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1581,7 +1581,7 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6803327</v>
+        <v>6804152</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,70 +1613,70 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L13">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N13">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O13">
         <v>3.4</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
         <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1687,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6804152</v>
+        <v>6804154</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,37 +1702,37 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
         <v>3.6</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P14">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R14">
         <v>1.825</v>
@@ -1741,22 +1741,22 @@
         <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y14">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
@@ -1765,10 +1765,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6804154</v>
+        <v>6803327</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,73 +1791,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X15">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6804156</v>
+        <v>6803241</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,58 +2144,58 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M19">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N19">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2204,16 +2204,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6804159</v>
+        <v>6803159</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,76 +2233,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20">
+        <v>1.75</v>
+      </c>
+      <c r="L20">
+        <v>3.6</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>1.75</v>
+      </c>
+      <c r="O20">
+        <v>3.75</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.775</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
+        <v>1.8</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20">
-        <v>2.1</v>
-      </c>
-      <c r="L20">
-        <v>3.5</v>
-      </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>2.25</v>
-      </c>
-      <c r="O20">
-        <v>3.5</v>
-      </c>
-      <c r="P20">
-        <v>2.7</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>2.025</v>
-      </c>
-      <c r="S20">
-        <v>1.775</v>
-      </c>
-      <c r="T20">
-        <v>3</v>
-      </c>
-      <c r="U20">
-        <v>1.85</v>
-      </c>
-      <c r="V20">
-        <v>1.95</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>2.5</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6804160</v>
+        <v>6803328</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,58 +2322,58 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P21">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2382,13 +2382,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6803159</v>
+        <v>6804159</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,76 +2500,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O23">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>2.025</v>
+      </c>
+      <c r="S23">
+        <v>1.775</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>1.85</v>
+      </c>
+      <c r="V23">
+        <v>1.95</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>2.5</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
         <v>-0.5</v>
       </c>
-      <c r="R23">
-        <v>1.775</v>
-      </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>3</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6803241</v>
+        <v>6804160</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,55 +2589,55 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
         <v>3</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N24">
         <v>2.15</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>1.15</v>
@@ -2649,13 +2649,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6803328</v>
+        <v>6804156</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,40 +2678,40 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
       </c>
       <c r="K25">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N25">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P25">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
         <v>2</v>
@@ -2720,16 +2720,16 @@
         <v>1.8</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
-        <v>0.444</v>
+        <v>1.2</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2744,10 +2744,10 @@
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6804164</v>
+        <v>6803160</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45143.5</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L26">
         <v>3.25</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N26">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O26">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P26">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X26">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6803160</v>
+        <v>6803329</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,76 +2856,76 @@
         <v>45143.5</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L27">
         <v>3.25</v>
       </c>
       <c r="M27">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N27">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O27">
         <v>3.25</v>
       </c>
       <c r="P27">
+        <v>2.375</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1.8</v>
+      </c>
+      <c r="T27">
+        <v>2.75</v>
+      </c>
+      <c r="U27">
+        <v>1.775</v>
+      </c>
+      <c r="V27">
+        <v>2.025</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
         <v>2.25</v>
       </c>
-      <c r="Q27">
-        <v>0.25</v>
-      </c>
-      <c r="R27">
-        <v>1.775</v>
-      </c>
-      <c r="S27">
-        <v>2.025</v>
-      </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
-      <c r="U27">
-        <v>1.925</v>
-      </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
-      <c r="W27">
-        <v>1.75</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6803329</v>
+        <v>6804161</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,73 +2948,73 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
+        <v>2.5</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
         <v>2.6</v>
       </c>
-      <c r="L28">
-        <v>3.25</v>
-      </c>
-      <c r="M28">
-        <v>2.375</v>
-      </c>
       <c r="N28">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O28">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P28">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X28">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6804161</v>
+        <v>6804164</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,73 +3037,73 @@
         <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>2.1</v>
+      </c>
+      <c r="L29">
+        <v>3.25</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>2.6</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
+        <v>2.4</v>
+      </c>
+      <c r="Q29">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29">
-        <v>2.5</v>
-      </c>
-      <c r="L29">
+      <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
+        <v>1.825</v>
+      </c>
+      <c r="T29">
         <v>3</v>
       </c>
-      <c r="M29">
-        <v>2.6</v>
-      </c>
-      <c r="N29">
-        <v>2.15</v>
-      </c>
-      <c r="O29">
-        <v>3.1</v>
-      </c>
-      <c r="P29">
-        <v>3.1</v>
-      </c>
-      <c r="Q29">
-        <v>-0.25</v>
-      </c>
-      <c r="R29">
-        <v>1.925</v>
-      </c>
-      <c r="S29">
-        <v>1.875</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3571,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6803161</v>
+        <v>6803330</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,73 +3657,73 @@
         <v>45150.5</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O36">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q36">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6803330</v>
+        <v>6803161</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,73 +3746,73 @@
         <v>45150.5</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N37">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6803243</v>
+        <v>6804168</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,76 +4013,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4090,7 +4090,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6804168</v>
+        <v>6803243</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4102,76 +4102,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K41">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N41">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6803244</v>
+        <v>6804175</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,49 +4280,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K43">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L43">
         <v>3.25</v>
       </c>
       <c r="M43">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N43">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O43">
         <v>3.3</v>
       </c>
       <c r="P43">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
         <v>1.975</v>
@@ -4331,25 +4331,25 @@
         <v>1.825</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6804175</v>
+        <v>6803244</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,49 +4369,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
         <v>3.25</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O44">
         <v>3.3</v>
       </c>
       <c r="P44">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
         <v>1.975</v>
@@ -4420,25 +4420,25 @@
         <v>1.825</v>
       </c>
       <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
+        <v>-1</v>
+      </c>
+      <c r="Y44">
+        <v>1.6</v>
+      </c>
+      <c r="Z44">
+        <v>-1</v>
+      </c>
+      <c r="AA44">
         <v>1</v>
       </c>
-      <c r="X44">
-        <v>-1</v>
-      </c>
-      <c r="Y44">
-        <v>-1</v>
-      </c>
-      <c r="Z44">
-        <v>0.925</v>
-      </c>
-      <c r="AA44">
-        <v>-1</v>
-      </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6804173</v>
+        <v>6804172</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,58 +4547,58 @@
         <v>45157.5</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>46</v>
       </c>
       <c r="K46">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O46">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
         <v>3</v>
       </c>
       <c r="U46">
+        <v>1.925</v>
+      </c>
+      <c r="V46">
         <v>1.875</v>
       </c>
-      <c r="V46">
-        <v>1.925</v>
-      </c>
       <c r="W46">
-        <v>0.833</v>
+        <v>0.5</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4607,16 +4607,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>-0</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>0.875</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>0.875</v>
-      </c>
-      <c r="AC46">
-        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4624,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6804172</v>
+        <v>6804173</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4636,58 +4636,58 @@
         <v>45157.5</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>46</v>
       </c>
       <c r="K47">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M47">
+        <v>2.75</v>
+      </c>
+      <c r="N47">
+        <v>1.833</v>
+      </c>
+      <c r="O47">
         <v>3.8</v>
       </c>
-      <c r="N47">
-        <v>1.5</v>
-      </c>
-      <c r="O47">
-        <v>4.2</v>
-      </c>
       <c r="P47">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
         <v>3</v>
       </c>
       <c r="U47">
+        <v>1.875</v>
+      </c>
+      <c r="V47">
         <v>1.925</v>
       </c>
-      <c r="V47">
-        <v>1.875</v>
-      </c>
       <c r="W47">
-        <v>0.5</v>
+        <v>0.833</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4696,16 +4696,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4713,7 +4713,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6803331</v>
+        <v>6804171</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,73 +4728,73 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K48">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N48">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA48">
+        <v>-1</v>
+      </c>
+      <c r="AB48">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB48">
-        <v>-1</v>
-      </c>
       <c r="AC48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4802,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6804171</v>
+        <v>6803331</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,76 +4814,76 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K49">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L49">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5170,7 +5170,7 @@
         <v>45164.21875</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5348,10 +5348,10 @@
         <v>45164.5</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5615,10 +5615,10 @@
         <v>45171.21875</v>
       </c>
       <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
         <v>31</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5707,7 +5707,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6804184</v>
+        <v>6804183</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,76 +5793,76 @@
         <v>45171.5</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N60">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q60">
         <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X60">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA60">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6803246</v>
+        <v>6803164</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,10 +5882,10 @@
         <v>45171.5</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5897,43 +5897,43 @@
         <v>46</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N61">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="O61">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P61">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6804183</v>
+        <v>6803246</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,7 +5974,7 @@
         <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5986,43 +5986,43 @@
         <v>46</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
+        <v>3.2</v>
+      </c>
+      <c r="M62">
+        <v>2.5</v>
+      </c>
+      <c r="N62">
+        <v>2.7</v>
+      </c>
+      <c r="O62">
         <v>3.3</v>
       </c>
-      <c r="M62">
-        <v>3.2</v>
-      </c>
-      <c r="N62">
-        <v>1.65</v>
-      </c>
-      <c r="O62">
-        <v>3.8</v>
-      </c>
       <c r="P62">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W62">
-        <v>0.6499999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6803164</v>
+        <v>6804184</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,76 +6060,76 @@
         <v>45171.5</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
+        <v>1.666</v>
+      </c>
+      <c r="L63">
+        <v>3.6</v>
+      </c>
+      <c r="M63">
+        <v>4.2</v>
+      </c>
+      <c r="N63">
         <v>1.6</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <v>3.75</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>4.5</v>
       </c>
-      <c r="N63">
-        <v>1.363</v>
-      </c>
-      <c r="O63">
-        <v>4.333</v>
-      </c>
-      <c r="P63">
-        <v>6.5</v>
-      </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6804185</v>
+        <v>6804181</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,76 +6149,76 @@
         <v>45172.21875</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N64">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P64">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
+        <v>1.825</v>
+      </c>
+      <c r="V64">
         <v>1.975</v>
       </c>
-      <c r="V64">
-        <v>1.825</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X64">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6226,7 +6226,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6804181</v>
+        <v>6804185</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6238,76 +6238,76 @@
         <v>45172.21875</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O65">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T65">
+        <v>2.75</v>
+      </c>
+      <c r="U65">
+        <v>1.975</v>
+      </c>
+      <c r="V65">
+        <v>1.825</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
         <v>2.5</v>
       </c>
-      <c r="U65">
-        <v>1.825</v>
-      </c>
-      <c r="V65">
-        <v>1.975</v>
-      </c>
-      <c r="W65">
-        <v>1</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.825</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>45185.21875</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6671,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6803333</v>
+        <v>6804193</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,70 +6686,70 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
         <v>3.25</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N70">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P70">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S70">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6804193</v>
+        <v>6803333</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,73 +6772,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
         <v>3.25</v>
       </c>
       <c r="M71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O71">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P71">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S71">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6953,7 +6953,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -7128,7 +7128,7 @@
         <v>45192.21875</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>42</v>
@@ -7309,7 +7309,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7395,7 +7395,7 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7487,7 +7487,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7576,7 +7576,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7754,7 +7754,7 @@
         <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7828,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6803167</v>
+        <v>6804202</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7840,76 +7840,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L83">
         <v>3.3</v>
       </c>
       <c r="M83">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P83">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
+        <v>1.85</v>
+      </c>
+      <c r="S83">
+        <v>1.95</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>2</v>
+      </c>
+      <c r="V83">
         <v>1.8</v>
       </c>
-      <c r="S83">
-        <v>2</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>1.8</v>
-      </c>
-      <c r="V83">
-        <v>2</v>
-      </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
+        <v>-0.5</v>
+      </c>
+      <c r="AA83">
+        <v>0.475</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>0.8</v>
-      </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>0.8</v>
-      </c>
-      <c r="AC83">
-        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6803335</v>
+        <v>6803167</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,10 +7929,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7944,43 +7944,43 @@
         <v>46</v>
       </c>
       <c r="K84">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L84">
         <v>3.3</v>
       </c>
       <c r="M84">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N84">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O84">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>1.875</v>
+        <v>1.05</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7989,16 +7989,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6804202</v>
+        <v>6803335</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F85" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" t="s">
         <v>40</v>
       </c>
-      <c r="G85" t="s">
-        <v>33</v>
-      </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
+        <v>1.925</v>
+      </c>
+      <c r="T85">
+        <v>2.75</v>
+      </c>
+      <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="S85">
-        <v>1.95</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
-      <c r="U85">
-        <v>2</v>
-      </c>
-      <c r="V85">
-        <v>1.8</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X85">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
+        <v>0.875</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
+        <v>0.475</v>
+      </c>
+      <c r="AC85">
         <v>-0.5</v>
-      </c>
-      <c r="AA85">
-        <v>0.475</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
-      <c r="AC85">
-        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8552,7 +8552,7 @@
         <v>45206.21875</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>42</v>
@@ -8641,7 +8641,7 @@
         <v>45206.21875</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8733,7 +8733,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -8908,7 +8908,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
         <v>37</v>
@@ -9000,7 +9000,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9178,7 +9178,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9356,7 +9356,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9531,7 +9531,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
@@ -9620,7 +9620,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9712,7 +9712,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9890,7 +9890,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -10065,10 +10065,10 @@
         <v>45227.21875</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -10154,7 +10154,7 @@
         <v>45227.21875</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
         <v>38</v>
@@ -10335,7 +10335,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10676,7 +10676,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6805653</v>
+        <v>6804223</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10688,76 +10688,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>48</v>
       </c>
       <c r="K115">
+        <v>1.444</v>
+      </c>
+      <c r="L115">
+        <v>4.5</v>
+      </c>
+      <c r="M115">
+        <v>5.5</v>
+      </c>
+      <c r="N115">
+        <v>1.5</v>
+      </c>
+      <c r="O115">
+        <v>4.333</v>
+      </c>
+      <c r="P115">
+        <v>5</v>
+      </c>
+      <c r="Q115">
+        <v>-1</v>
+      </c>
+      <c r="R115">
+        <v>1.9</v>
+      </c>
+      <c r="S115">
+        <v>1.9</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.925</v>
+      </c>
+      <c r="V115">
+        <v>1.875</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
         <v>4</v>
       </c>
-      <c r="L115">
-        <v>3.3</v>
-      </c>
-      <c r="M115">
-        <v>1.833</v>
-      </c>
-      <c r="N115">
-        <v>4.75</v>
-      </c>
-      <c r="O115">
-        <v>3.6</v>
-      </c>
-      <c r="P115">
-        <v>1.65</v>
-      </c>
-      <c r="Q115">
-        <v>0.75</v>
-      </c>
-      <c r="R115">
-        <v>1.8</v>
-      </c>
-      <c r="S115">
-        <v>2</v>
-      </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>1.8</v>
-      </c>
-      <c r="V115">
-        <v>2</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>0.6499999999999999</v>
-      </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10765,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6804227</v>
+        <v>6804224</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,76 +10777,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N116">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6804223</v>
+        <v>6804227</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,55 +10866,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
         <v>1</v>
-      </c>
-      <c r="I117">
-        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>48</v>
       </c>
       <c r="K117">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L117">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M117">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N117">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
         <v>4.333</v>
       </c>
-      <c r="P117">
-        <v>5</v>
-      </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
         <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10923,19 +10923,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>4</v>
+        <v>3.333</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB117">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6804224</v>
+        <v>6805653</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,76 +10955,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N118">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="O118">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11047,7 +11047,7 @@
         <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11314,7 +11314,7 @@
         <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,10 +11492,10 @@
         <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11504,43 +11504,43 @@
         <v>46</v>
       </c>
       <c r="K124">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L124">
         <v>3.25</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N124">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
+        <v>1.875</v>
+      </c>
+      <c r="T124">
+        <v>2.75</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
-      <c r="U124">
-        <v>1.975</v>
-      </c>
-      <c r="V124">
-        <v>1.825</v>
-      </c>
       <c r="W124">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,7 +11549,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11558,7 +11558,7 @@
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,10 +11581,10 @@
         <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11593,43 +11593,43 @@
         <v>46</v>
       </c>
       <c r="K125">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L125">
         <v>3.25</v>
       </c>
       <c r="M125">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,7 +11638,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11647,7 +11647,7 @@
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11670,7 +11670,7 @@
         <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12189,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6803254</v>
+        <v>6803340</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,76 +12201,76 @@
         <v>45353.4375</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>0</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L132">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132">
+        <v>3.1</v>
+      </c>
+      <c r="P132">
         <v>1.909</v>
       </c>
-      <c r="O132">
-        <v>3.3</v>
-      </c>
-      <c r="P132">
-        <v>3.6</v>
-      </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
+        <v>1.825</v>
+      </c>
+      <c r="S132">
         <v>1.975</v>
       </c>
-      <c r="S132">
-        <v>1.825</v>
-      </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803340</v>
+        <v>6804234</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,76 +12290,76 @@
         <v>45353.4375</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
         <v>3.6</v>
       </c>
-      <c r="L133">
+      <c r="N133">
+        <v>1.909</v>
+      </c>
+      <c r="O133">
         <v>3.2</v>
       </c>
-      <c r="M133">
-        <v>1.909</v>
-      </c>
-      <c r="N133">
-        <v>4</v>
-      </c>
-      <c r="O133">
-        <v>3.1</v>
-      </c>
       <c r="P133">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
+        <v>1.975</v>
+      </c>
+      <c r="S133">
         <v>1.825</v>
-      </c>
-      <c r="S133">
-        <v>1.975</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W133">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>0.825</v>
       </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6804234</v>
+        <v>6803254</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,37 +12379,37 @@
         <v>45353.4375</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N134">
         <v>1.909</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q134">
         <v>-0.5</v>
@@ -12421,22 +12421,22 @@
         <v>1.825</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z134">
         <v>-1</v>
@@ -12448,7 +12448,7 @@
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12738,7 +12738,16 @@
         <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>48</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12771,25 +12780,31 @@
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,11 +12824,20 @@
         <v>45360.26041666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>45</v>
       </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>47</v>
+      </c>
       <c r="K139">
         <v>1.727</v>
       </c>
@@ -12824,46 +12848,52 @@
         <v>4.333</v>
       </c>
       <c r="N139">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
         <v>4</v>
       </c>
-      <c r="P139">
-        <v>5.25</v>
-      </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB139">
+        <v>0.95</v>
+      </c>
+      <c r="AC139">
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12883,11 +12913,20 @@
         <v>45360.26041666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>34</v>
       </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140" t="s">
+        <v>48</v>
+      </c>
       <c r="K140">
         <v>1.8</v>
       </c>
@@ -12898,10 +12937,10 @@
         <v>3.8</v>
       </c>
       <c r="N140">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P140">
         <v>3.1</v>
@@ -12910,34 +12949,40 @@
         <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
+        <v>0.875</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12962,6 +13007,15 @@
       <c r="G141" t="s">
         <v>43</v>
       </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>46</v>
+      </c>
       <c r="K141">
         <v>2.25</v>
       </c>
@@ -12972,46 +13026,52 @@
         <v>2.7</v>
       </c>
       <c r="N141">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O141">
         <v>3.6</v>
       </c>
       <c r="P141">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q141">
         <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA141">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13046,10 +13106,10 @@
         <v>4.333</v>
       </c>
       <c r="N142">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P142">
         <v>4.333</v>
@@ -13058,19 +13118,19 @@
         <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
         <v>2.5</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W142">
         <v>0</v>
@@ -13120,31 +13180,31 @@
         <v>2.8</v>
       </c>
       <c r="N143">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O143">
         <v>3.2</v>
       </c>
       <c r="P143">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q143">
         <v>0</v>
       </c>
       <c r="R143">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S143">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T143">
         <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
         <v>0</v>
@@ -13194,31 +13254,31 @@
         <v>2</v>
       </c>
       <c r="N144">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O144">
         <v>3.6</v>
       </c>
       <c r="P144">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q144">
         <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
         <v>0</v>
@@ -13256,7 +13316,7 @@
         <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K145">
         <v>1.727</v>
@@ -13268,31 +13328,31 @@
         <v>4.333</v>
       </c>
       <c r="N145">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O145">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P145">
         <v>4.333</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
         <v>0</v>

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Vysocina Jihlava</t>
   </si>
   <si>
-    <t>MFK Chrudim</t>
+    <t>MFK Vyskov</t>
   </si>
   <si>
-    <t>MFK Vyskov</t>
+    <t>MFK Chrudim</t>
   </si>
   <si>
     <t>SK Prostejov</t>
@@ -133,13 +133,13 @@
     <t>Opava</t>
   </si>
   <si>
+    <t>Hanacka Slavia Kromeriz</t>
+  </si>
+  <si>
     <t>SK Lisen</t>
   </si>
   <si>
     <t>FC Vlasim</t>
-  </si>
-  <si>
-    <t>Hanacka Slavia Kromeriz</t>
   </si>
   <si>
     <t>Viktoria Zizkov</t>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6803939</v>
+        <v>6804148</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,73 +723,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N3">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X3">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6804148</v>
+        <v>6803939</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,73 +812,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q4">
+        <v>0.25</v>
+      </c>
+      <c r="R4">
+        <v>1.75</v>
+      </c>
+      <c r="S4">
+        <v>2.05</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>1.825</v>
+      </c>
+      <c r="V4">
+        <v>1.975</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>2.2</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
+        <v>0.375</v>
+      </c>
+      <c r="AA4">
         <v>-0.5</v>
       </c>
-      <c r="R4">
-        <v>1.8</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>1.85</v>
-      </c>
-      <c r="V4">
-        <v>1.95</v>
-      </c>
-      <c r="W4">
-        <v>0.8</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>0.8</v>
-      </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
       <c r="AB4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -990,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6804152</v>
+        <v>6803327</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,70 +1613,70 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N13">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O13">
         <v>3.4</v>
       </c>
       <c r="P13">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1687,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6804154</v>
+        <v>6804152</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,37 +1702,37 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
         <v>3.6</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
+        <v>3.4</v>
+      </c>
+      <c r="P14">
         <v>3.8</v>
       </c>
-      <c r="P14">
-        <v>6</v>
-      </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
         <v>1.825</v>
@@ -1741,22 +1741,22 @@
         <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
         <v>2.8</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
@@ -1765,10 +1765,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6803327</v>
+        <v>6804154</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,73 +1791,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L15">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N15">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6803241</v>
+        <v>6804157</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,73 +2144,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
+        <v>3.25</v>
+      </c>
+      <c r="N19">
         <v>2.3</v>
-      </c>
-      <c r="N19">
-        <v>2.15</v>
       </c>
       <c r="O19">
         <v>3.2</v>
       </c>
       <c r="P19">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB19">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6803159</v>
+        <v>6804160</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,46 +2233,46 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N20">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
         <v>2.5</v>
@@ -2284,25 +2284,25 @@
         <v>2</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2322,10 +2322,10 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6804157</v>
+        <v>6803159</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,55 +2411,55 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>48</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O22">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
         <v>2.025</v>
       </c>
-      <c r="S22">
-        <v>1.775</v>
-      </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2468,19 +2468,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.875</v>
+        <v>3</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6804159</v>
+        <v>6803241</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,7 +2500,7 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -2509,64 +2509,64 @@
         <v>3</v>
       </c>
       <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>2.1</v>
-      </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O23">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>1.775</v>
+      </c>
+      <c r="V23">
         <v>2.025</v>
       </c>
-      <c r="S23">
-        <v>1.775</v>
-      </c>
-      <c r="T23">
-        <v>3</v>
-      </c>
-      <c r="U23">
-        <v>1.85</v>
-      </c>
-      <c r="V23">
-        <v>1.95</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X23">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6804160</v>
+        <v>6804156</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,31 +2589,31 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M24">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N24">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O24">
         <v>3.25</v>
@@ -2625,22 +2625,22 @@
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2649,16 +2649,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6804156</v>
+        <v>6804159</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>2.1</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O25">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>1.85</v>
+      </c>
+      <c r="V25">
+        <v>1.95</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
         <v>2.5</v>
       </c>
-      <c r="U25">
-        <v>1.95</v>
-      </c>
-      <c r="V25">
-        <v>1.85</v>
-      </c>
-      <c r="W25">
-        <v>1.2</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6803160</v>
+        <v>6804164</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45143.5</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L26">
         <v>3.25</v>
       </c>
       <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>2.6</v>
+      </c>
+      <c r="O26">
+        <v>3.2</v>
+      </c>
+      <c r="P26">
+        <v>2.4</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>1.8</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
         <v>2.2</v>
       </c>
-      <c r="N26">
-        <v>2.75</v>
-      </c>
-      <c r="O26">
-        <v>3.25</v>
-      </c>
-      <c r="P26">
-        <v>2.25</v>
-      </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.775</v>
-      </c>
-      <c r="S26">
-        <v>2.025</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.925</v>
-      </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
-      <c r="W26">
-        <v>1.75</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6803329</v>
+        <v>6804161</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,76 +2856,76 @@
         <v>45143.5</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
+        <v>2.5</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
         <v>2.6</v>
       </c>
-      <c r="L27">
-        <v>3.25</v>
-      </c>
-      <c r="M27">
-        <v>2.375</v>
-      </c>
       <c r="N27">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X27">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6804161</v>
+        <v>6803329</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,73 +2948,73 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>2.6</v>
+      </c>
+      <c r="L28">
+        <v>3.25</v>
+      </c>
+      <c r="M28">
+        <v>2.375</v>
+      </c>
+      <c r="N28">
+        <v>2.6</v>
+      </c>
+      <c r="O28">
+        <v>3.25</v>
+      </c>
+      <c r="P28">
+        <v>2.375</v>
+      </c>
+      <c r="Q28">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28">
-        <v>2.5</v>
-      </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-      <c r="M28">
-        <v>2.6</v>
-      </c>
-      <c r="N28">
-        <v>2.15</v>
-      </c>
-      <c r="O28">
-        <v>3.1</v>
-      </c>
-      <c r="P28">
-        <v>3.1</v>
-      </c>
-      <c r="Q28">
-        <v>-0.25</v>
-      </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W28">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6804164</v>
+        <v>6803160</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,76 +3034,76 @@
         <v>45143.5</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L29">
         <v>3.25</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N29">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X29">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3571,7 +3571,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6803330</v>
+        <v>6803161</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,73 +3657,73 @@
         <v>45150.5</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P36">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R36">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6803161</v>
+        <v>6803330</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,73 +3746,73 @@
         <v>45150.5</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O37">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q37">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB37">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6804168</v>
+        <v>6803243</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,76 +4013,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N40">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4090,7 +4090,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6803243</v>
+        <v>6804168</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4102,76 +4102,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N41">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O41">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6804175</v>
+        <v>6803244</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,49 +4280,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L43">
         <v>3.25</v>
       </c>
       <c r="M43">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O43">
         <v>3.3</v>
       </c>
       <c r="P43">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
         <v>1.975</v>
@@ -4331,25 +4331,25 @@
         <v>1.825</v>
       </c>
       <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
+        <v>-1</v>
+      </c>
+      <c r="Y43">
+        <v>1.6</v>
+      </c>
+      <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
         <v>1</v>
       </c>
-      <c r="X43">
-        <v>-1</v>
-      </c>
-      <c r="Y43">
-        <v>-1</v>
-      </c>
-      <c r="Z43">
-        <v>0.925</v>
-      </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6803244</v>
+        <v>6804175</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,49 +4369,49 @@
         <v>45157.21875</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
         <v>3.25</v>
       </c>
       <c r="M44">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N44">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O44">
         <v>3.3</v>
       </c>
       <c r="P44">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
         <v>1.975</v>
@@ -4420,25 +4420,25 @@
         <v>1.825</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6804174</v>
+        <v>6804171</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45157.5</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N45">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1.8</v>
+      </c>
+      <c r="T45">
+        <v>2.5</v>
+      </c>
+      <c r="U45">
         <v>1.85</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>1.95</v>
       </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.975</v>
-      </c>
-      <c r="V45">
-        <v>1.825</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X45">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6804172</v>
+        <v>6803331</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,76 +4547,76 @@
         <v>45157.5</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
+      <c r="J46" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46">
+        <v>2.15</v>
+      </c>
+      <c r="L46">
+        <v>3.2</v>
+      </c>
+      <c r="M46">
+        <v>2.9</v>
+      </c>
+      <c r="N46">
+        <v>2.5</v>
+      </c>
+      <c r="O46">
+        <v>3.2</v>
+      </c>
+      <c r="P46">
+        <v>2.5</v>
+      </c>
+      <c r="Q46">
         <v>0</v>
       </c>
-      <c r="J46" t="s">
-        <v>46</v>
-      </c>
-      <c r="K46">
-        <v>1.8</v>
-      </c>
-      <c r="L46">
-        <v>3.4</v>
-      </c>
-      <c r="M46">
-        <v>3.8</v>
-      </c>
-      <c r="N46">
+      <c r="R46">
+        <v>1.95</v>
+      </c>
+      <c r="S46">
+        <v>1.85</v>
+      </c>
+      <c r="T46">
+        <v>2.5</v>
+      </c>
+      <c r="U46">
+        <v>1.975</v>
+      </c>
+      <c r="V46">
+        <v>1.825</v>
+      </c>
+      <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
         <v>1.5</v>
       </c>
-      <c r="O46">
-        <v>4.2</v>
-      </c>
-      <c r="P46">
-        <v>5</v>
-      </c>
-      <c r="Q46">
-        <v>-1</v>
-      </c>
-      <c r="R46">
-        <v>1.825</v>
-      </c>
-      <c r="S46">
-        <v>1.975</v>
-      </c>
-      <c r="T46">
-        <v>3</v>
-      </c>
-      <c r="U46">
-        <v>1.925</v>
-      </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
-      <c r="W46">
-        <v>0.5</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>45157.5</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>44</v>
@@ -4713,7 +4713,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6804171</v>
+        <v>6804174</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4725,76 +4725,76 @@
         <v>45157.5</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L48">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N48">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4802,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6803331</v>
+        <v>6804172</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,76 +4814,76 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
         <v>0</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N49">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O49">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P49">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q49">
+        <v>-1</v>
+      </c>
+      <c r="R49">
+        <v>1.825</v>
+      </c>
+      <c r="S49">
+        <v>1.975</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <v>1.925</v>
+      </c>
+      <c r="V49">
+        <v>1.875</v>
+      </c>
+      <c r="W49">
+        <v>0.5</v>
+      </c>
+      <c r="X49">
+        <v>-1</v>
+      </c>
+      <c r="Y49">
+        <v>-1</v>
+      </c>
+      <c r="Z49">
         <v>0</v>
       </c>
-      <c r="R49">
-        <v>1.95</v>
-      </c>
-      <c r="S49">
-        <v>1.85</v>
-      </c>
-      <c r="T49">
-        <v>2.5</v>
-      </c>
-      <c r="U49">
-        <v>1.975</v>
-      </c>
-      <c r="V49">
-        <v>1.825</v>
-      </c>
-      <c r="W49">
-        <v>-1</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
-      <c r="Y49">
-        <v>1.5</v>
-      </c>
-      <c r="Z49">
-        <v>-1</v>
-      </c>
       <c r="AA49">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6804180</v>
+        <v>6804176</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,76 +4992,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6804176</v>
+        <v>6804180</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,76 +5081,76 @@
         <v>45163.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="K52">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N52">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P52">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5170,7 +5170,7 @@
         <v>45164.21875</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5348,10 +5348,10 @@
         <v>45164.5</v>
       </c>
       <c r="F55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" t="s">
         <v>39</v>
-      </c>
-      <c r="G55" t="s">
-        <v>41</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5615,10 +5615,10 @@
         <v>45171.21875</v>
       </c>
       <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
         <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>31</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5707,7 +5707,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>45171.5</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
         <v>29</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6803164</v>
+        <v>6804184</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,76 +5882,76 @@
         <v>45171.5</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
+        <v>1.666</v>
+      </c>
+      <c r="L61">
+        <v>3.6</v>
+      </c>
+      <c r="M61">
+        <v>4.2</v>
+      </c>
+      <c r="N61">
         <v>1.6</v>
       </c>
-      <c r="L61">
+      <c r="O61">
         <v>3.75</v>
       </c>
-      <c r="M61">
+      <c r="P61">
         <v>4.5</v>
       </c>
-      <c r="N61">
-        <v>1.363</v>
-      </c>
-      <c r="O61">
-        <v>4.333</v>
-      </c>
-      <c r="P61">
-        <v>6.5</v>
-      </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>45171.5</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6804184</v>
+        <v>6803164</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,76 +6060,76 @@
         <v>45171.5</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M63">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N63">
-        <v>1.6</v>
+        <v>1.363</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P63">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
+        <v>1.975</v>
+      </c>
+      <c r="V63">
         <v>1.825</v>
       </c>
-      <c r="S63">
-        <v>1.975</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>1.9</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X63">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6804181</v>
+        <v>6804185</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,76 +6149,76 @@
         <v>45172.21875</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L64">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O64">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.975</v>
+      </c>
+      <c r="V64">
+        <v>1.825</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
         <v>2.5</v>
       </c>
-      <c r="U64">
-        <v>1.825</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
-      <c r="W64">
-        <v>1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.825</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6226,7 +6226,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6804185</v>
+        <v>6804181</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6238,76 +6238,76 @@
         <v>45172.21875</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N65">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
+        <v>1.825</v>
+      </c>
+      <c r="V65">
         <v>1.975</v>
       </c>
-      <c r="V65">
-        <v>1.825</v>
-      </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X65">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>45185.21875</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6683,10 +6683,10 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6772,7 +6772,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
         <v>43</v>
@@ -6953,7 +6953,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -7128,7 +7128,7 @@
         <v>45192.21875</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
         <v>42</v>
@@ -7309,7 +7309,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7395,7 +7395,7 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7487,7 +7487,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7576,7 +7576,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7754,7 +7754,7 @@
         <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7828,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6804202</v>
+        <v>6803167</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7840,76 +7840,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L83">
         <v>3.3</v>
       </c>
       <c r="M83">
+        <v>2.2</v>
+      </c>
+      <c r="N83">
+        <v>2.05</v>
+      </c>
+      <c r="O83">
         <v>3.4</v>
       </c>
-      <c r="N83">
-        <v>2.1</v>
-      </c>
-      <c r="O83">
-        <v>3.3</v>
-      </c>
       <c r="P83">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X83">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA83">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6803167</v>
+        <v>6803335</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,10 +7929,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7944,43 +7944,43 @@
         <v>46</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L84">
         <v>3.3</v>
       </c>
       <c r="M84">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N84">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>1.05</v>
+        <v>1.875</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7989,16 +7989,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6803335</v>
+        <v>6804202</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
+        <v>3.4</v>
+      </c>
+      <c r="N85">
+        <v>2.1</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
+        <v>3</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>1.95</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
+        <v>2</v>
+      </c>
+      <c r="V85">
+        <v>1.8</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
         <v>2.3</v>
       </c>
-      <c r="N85">
-        <v>2.875</v>
-      </c>
-      <c r="O85">
-        <v>3.5</v>
-      </c>
-      <c r="P85">
-        <v>2.15</v>
-      </c>
-      <c r="Q85">
-        <v>0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>1.925</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
-      <c r="U85">
-        <v>1.95</v>
-      </c>
-      <c r="V85">
-        <v>1.85</v>
-      </c>
-      <c r="W85">
-        <v>1.875</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB85">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6803250</v>
+        <v>6804208</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,10 +8555,10 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8567,43 +8567,43 @@
         <v>46</v>
       </c>
       <c r="K91">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8612,7 +8612,7 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8621,7 +8621,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6804208</v>
+        <v>6803250</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,10 +8644,10 @@
         <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -8656,43 +8656,43 @@
         <v>46</v>
       </c>
       <c r="K92">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L92">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M92">
+        <v>5</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>4.2</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1</v>
+      </c>
+      <c r="R92">
+        <v>1.825</v>
+      </c>
+      <c r="S92">
+        <v>1.975</v>
+      </c>
+      <c r="T92">
         <v>2.75</v>
       </c>
-      <c r="N92">
-        <v>2.9</v>
-      </c>
-      <c r="O92">
-        <v>3.2</v>
-      </c>
-      <c r="P92">
-        <v>2.3</v>
-      </c>
-      <c r="Q92">
-        <v>0.25</v>
-      </c>
-      <c r="R92">
+      <c r="U92">
         <v>1.775</v>
       </c>
-      <c r="S92">
+      <c r="V92">
         <v>2.025</v>
       </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.8</v>
-      </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
       <c r="W92">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8701,7 +8701,7 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8710,7 +8710,7 @@
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8733,7 +8733,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -8908,7 +8908,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
         <v>37</v>
@@ -9000,7 +9000,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9178,7 +9178,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9356,7 +9356,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6804213</v>
+        <v>6803337</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,70 +9534,70 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
         <v>3.25</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P102">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6803337</v>
+        <v>6804213</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,73 +9620,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L103">
         <v>3.25</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O103">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9712,7 +9712,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9890,7 +9890,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -10065,10 +10065,10 @@
         <v>45227.21875</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -10154,7 +10154,7 @@
         <v>45227.21875</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
         <v>38</v>
@@ -10335,7 +10335,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10777,10 +10777,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10866,7 +10866,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
         <v>34</v>
@@ -10955,7 +10955,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
         <v>36</v>
@@ -11047,7 +11047,7 @@
         <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11314,7 +11314,7 @@
         <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11489,10 +11489,10 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11578,7 +11578,7 @@
         <v>45241.26041666666</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
         <v>37</v>
@@ -11670,7 +11670,7 @@
         <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12201,10 +12201,10 @@
         <v>45353.4375</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6804234</v>
+        <v>6803254</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,37 +12290,37 @@
         <v>45353.4375</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N133">
         <v>1.909</v>
       </c>
       <c r="O133">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q133">
         <v>-0.5</v>
@@ -12332,22 +12332,22 @@
         <v>1.825</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z133">
         <v>-1</v>
@@ -12359,7 +12359,7 @@
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6803254</v>
+        <v>6804234</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,37 +12379,37 @@
         <v>45353.4375</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N134">
         <v>1.909</v>
       </c>
       <c r="O134">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q134">
         <v>-0.5</v>
@@ -12421,22 +12421,22 @@
         <v>1.825</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y134">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
@@ -12448,7 +12448,7 @@
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12824,7 +12824,7 @@
         <v>45360.26041666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
         <v>45</v>
@@ -12913,7 +12913,7 @@
         <v>45360.26041666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>34</v>
@@ -13096,6 +13096,15 @@
       <c r="G142" t="s">
         <v>33</v>
       </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>47</v>
+      </c>
       <c r="K142">
         <v>1.727</v>
       </c>
@@ -13106,46 +13115,52 @@
         <v>4.333</v>
       </c>
       <c r="N142">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="O142">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
         <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
         <v>1.8</v>
       </c>
-      <c r="V142">
-        <v>2</v>
-      </c>
       <c r="W142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
+        <v>0.8</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13170,6 +13185,15 @@
       <c r="G143" t="s">
         <v>38</v>
       </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>47</v>
+      </c>
       <c r="K143">
         <v>2.375</v>
       </c>
@@ -13180,46 +13204,52 @@
         <v>2.8</v>
       </c>
       <c r="N143">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P143">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>0</v>
+        <v>0.375</v>
+      </c>
+      <c r="AB143">
+        <v>-0.5</v>
+      </c>
+      <c r="AC143">
+        <v>0.425</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13244,6 +13274,15 @@
       <c r="G144" t="s">
         <v>37</v>
       </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>48</v>
+      </c>
       <c r="K144">
         <v>3.2</v>
       </c>
@@ -13254,49 +13293,55 @@
         <v>2</v>
       </c>
       <c r="N144">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -13316,7 +13361,16 @@
         <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>47</v>
       </c>
       <c r="K145">
         <v>1.727</v>
@@ -13328,46 +13382,52 @@
         <v>4.333</v>
       </c>
       <c r="N145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O145">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q145">
         <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
+++ b/Czech Republic 2 Liga/Czech Republic 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Vysocina Jihlava</t>
   </si>
   <si>
-    <t>MFK Vyskov</t>
+    <t>MFK Chrudim</t>
   </si>
   <si>
-    <t>MFK Chrudim</t>
+    <t>MFK Vyskov</t>
   </si>
   <si>
     <t>SK Prostejov</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6804148</v>
+        <v>6803939</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,73 +723,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q3">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.75</v>
+      </c>
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1.825</v>
+      </c>
+      <c r="V3">
+        <v>1.975</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>2.2</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.375</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.85</v>
-      </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
-      <c r="W3">
-        <v>0.8</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
       <c r="AB3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6803939</v>
+        <v>6804148</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,73 +812,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X4">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1791,7 +1791,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6804157</v>
+        <v>6803159</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,55 +2144,55 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>48</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L19">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M19">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
+        <v>1.775</v>
+      </c>
+      <c r="S19">
         <v>2.025</v>
       </c>
-      <c r="S19">
-        <v>1.775</v>
-      </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2201,19 +2201,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.875</v>
+        <v>3</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6804160</v>
+        <v>6803241</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,55 +2233,55 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N20">
         <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q20">
         <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
         <v>1.15</v>
@@ -2293,13 +2293,13 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2322,7 +2322,7 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>39</v>
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6803159</v>
+        <v>6804160</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,46 +2411,46 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N22">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
         <v>2.5</v>
@@ -2462,25 +2462,25 @@
         <v>2</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6803241</v>
+        <v>6804159</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,73 +2500,73 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
+        <v>2.1</v>
+      </c>
+      <c r="L23">
+        <v>3.5</v>
+      </c>
+      <c r="M23">
         <v>3</v>
       </c>
-      <c r="L23">
-        <v>3.1</v>
-      </c>
-      <c r="M23">
-        <v>2.3</v>
-      </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>2.025</v>
+      </c>
+      <c r="S23">
+        <v>1.775</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
         <v>1.85</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.95</v>
       </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.775</v>
-      </c>
-      <c r="V23">
-        <v>2.025</v>
-      </c>
       <c r="W23">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
+        <v>-0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0.3875</v>
+      </c>
+      <c r="AB23">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6804156</v>
+        <v>6804157</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,19 +2589,19 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>2.1</v>
@@ -2613,52 +2613,52 @@
         <v>3.25</v>
       </c>
       <c r="N24">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6804159</v>
+        <v>6804156</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45140.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>2.1</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N25">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
+        <v>1.95</v>
+      </c>
+      <c r="V25">
         <v>1.85</v>
       </c>
-      <c r="V25">
-        <v>1.95</v>
-      </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X25">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
+        <v>-1</v>
+      </c>
+      <c r="AC25">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC25">
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6804164</v>
+        <v>6803160</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45143.5</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L26">
         <v>3.25</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N26">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O26">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P26">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X26">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6803160</v>
+        <v>6804164</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,76 +3034,76 @@
         <v>45143.5</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
         <v>3.25</v>
       </c>
       <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>2.6</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
+        <v>2.4</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
+        <v>1.825</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>1.8</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
         <v>2.2</v>
       </c>
-      <c r="N29">
-        <v>2.75</v>
-      </c>
-      <c r="O29">
-        <v>3.25</v>
-      </c>
-      <c r="P29">
-        <v>2.25</v>
-      </c>
-      <c r="Q29">
-        <v>0.25</v>
-      </c>
-      <c r="R29">
-        <v>1.775</v>
-      </c>
-      <c r="S29">
-        <v>2.025</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
-      <c r="W29">
-        <v>1.75</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6803161</v>
+        <v>6803330</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,73 +3657,73 @@
         <v>45150.5</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O36">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q36">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6803330</v>
+        <v>6803161</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,73 +3746,73 @@
         <v>45150.5</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N37">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6803243</v>
+        <v>6804168</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,76 +4013,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4090,7 +4090,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6804168</v>
+        <v>6803243</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4102,76 +4102,76 @@
         <v>45152.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K41">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N41">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4369,7 +4369,7 @@
         <v>45157.21875</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6804171</v>
+        <v>6804174</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45157.5</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N45">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O45">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6803331</v>
+        <v>6804173</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,76 +4547,76 @@
         <v>45157.5</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N46">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O46">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4624,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6804173</v>
+        <v>6804171</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4636,13 +4636,13 @@
         <v>45157.5</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -4651,43 +4651,43 @@
         <v>46</v>
       </c>
       <c r="K47">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O47">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P47">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q47">
         <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>0.833</v>
+        <v>0.909</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4696,13 +4696,13 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4713,7 +4713,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6804174</v>
+        <v>6804172</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4725,61 +4725,61 @@
         <v>45157.5</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K48">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N48">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P48">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X48">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
@@ -4794,7 +4794,7 @@
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4802,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6804172</v>
+        <v>6803331</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,76 +4814,76 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
-      <c r="I49">
+      <c r="J49" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49">
+        <v>2.15</v>
+      </c>
+      <c r="L49">
+        <v>3.2</v>
+      </c>
+      <c r="M49">
+        <v>2.9</v>
+      </c>
+      <c r="N49">
+        <v>2.5</v>
+      </c>
+      <c r="O49">
+        <v>3.2</v>
+      </c>
+      <c r="P49">
+        <v>2.5</v>
+      </c>
+      <c r="Q49">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K49">
-        <v>1.8</v>
-      </c>
-      <c r="L49">
-        <v>3.4</v>
-      </c>
-      <c r="M49">
-        <v>3.8</v>
-      </c>
-      <c r="N49">
+      <c r="R49">
+        <v>1.95</v>
+      </c>
+      <c r="S49">
+        <v>1.85</v>
+      </c>
+      <c r="T49">
+        <v>2.5</v>
+      </c>
+      <c r="U49">
+        <v>1.975</v>
+      </c>
+      <c r="V49">
+        <v>1.825</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>-1</v>
+      </c>
+      <c r="Y49">
         <v>1.5</v>
       </c>
-      <c r="O49">
-        <v>4.2</v>
-      </c>
-      <c r="P49">
-        <v>5</v>
-      </c>
-      <c r="Q49">
-        <v>-1</v>
-      </c>
-      <c r="R49">
-        <v>1.825</v>
-      </c>
-      <c r="S49">
-        <v>1.975</v>
-      </c>
-      <c r="T49">
-        <v>3</v>
-      </c>
-      <c r="U49">
-        <v>1.925</v>
-      </c>
-      <c r="V49">
-        <v>1.875</v>
-      </c>
-      <c r="W49">
-        <v>0.5</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
-      <c r="Y49">
-        <v>-1</v>
-      </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5084,7 +5084,7 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5170,7 +5170,7 @@
         <v>45164.21875</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5615,10 +5615,10 @@
         <v>45171.21875</v>
       </c>
       <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
         <v>31</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6804184</v>
+        <v>6803246</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,76 +5882,76 @@
         <v>45171.5</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N61">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="O61">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X61">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6803246</v>
+        <v>6803164</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,10 +5971,10 @@
         <v>45171.5</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5986,43 +5986,43 @@
         <v>46</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M62">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N62">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P62">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,16 +6031,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6803164</v>
+        <v>6804184</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,76 +6060,76 @@
         <v>45171.5</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
+        <v>1.666</v>
+      </c>
+      <c r="L63">
+        <v>3.6</v>
+      </c>
+      <c r="M63">
+        <v>4.2</v>
+      </c>
+      <c r="N63">
         <v>1.6</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <v>3.75</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>4.5</v>
       </c>
-      <c r="N63">
-        <v>1.363</v>
-      </c>
-      <c r="O63">
-        <v>4.333</v>
-      </c>
-      <c r="P63">
-        <v>6.5</v>
-      </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>45185.21875</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6671,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6804193</v>
+        <v>6803333</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,73 +6683,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
         <v>3.25</v>
       </c>
       <c r="M70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
         <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6803333</v>
+        <v>6804193</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,73 +6772,73 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L71">
         <v>3.25</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N71">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O71">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y71">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6953,7 +6953,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -7128,7 +7128,7 @@
         <v>45192.21875</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>42</v>
@@ -7487,7 +7487,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7754,7 +7754,7 @@
         <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6803335</v>
+        <v>6804202</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,76 +7929,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L84">
         <v>3.3</v>
       </c>
       <c r="M84">
+        <v>3.4</v>
+      </c>
+      <c r="N84">
+        <v>2.1</v>
+      </c>
+      <c r="O84">
+        <v>3.3</v>
+      </c>
+      <c r="P84">
+        <v>3</v>
+      </c>
+      <c r="Q84">
+        <v>-0.25</v>
+      </c>
+      <c r="R84">
+        <v>1.85</v>
+      </c>
+      <c r="S84">
+        <v>1.95</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
+      <c r="V84">
+        <v>1.8</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
         <v>2.3</v>
       </c>
-      <c r="N84">
-        <v>2.875</v>
-      </c>
-      <c r="O84">
-        <v>3.5</v>
-      </c>
-      <c r="P84">
-        <v>2.15</v>
-      </c>
-      <c r="Q84">
-        <v>0.25</v>
-      </c>
-      <c r="R84">
-        <v>1.875</v>
-      </c>
-      <c r="S84">
-        <v>1.925</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>1.95</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
-      <c r="W84">
-        <v>1.875</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB84">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6804202</v>
+        <v>6803335</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
+        <v>1.925</v>
+      </c>
+      <c r="T85">
+        <v>2.75</v>
+      </c>
+      <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="S85">
-        <v>1.95</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
-      <c r="U85">
-        <v>2</v>
-      </c>
-      <c r="V85">
-        <v>1.8</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X85">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
+        <v>0.875</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
+        <v>0.475</v>
+      </c>
+      <c r="AC85">
         <v>-0.5</v>
-      </c>
-      <c r="AA85">
-        <v>0.475</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
-      <c r="AC85">
-        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6804208</v>
+        <v>6803250</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,10 +8555,10 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8567,43 +8567,43 @@
         <v>46</v>
       </c>
       <c r="K91">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>4.2</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1</v>
+      </c>
+      <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
+        <v>1.975</v>
+      </c>
+      <c r="T91">
         <v>2.75</v>
       </c>
-      <c r="N91">
-        <v>2.9</v>
-      </c>
-      <c r="O91">
-        <v>3.2</v>
-      </c>
-      <c r="P91">
-        <v>2.3</v>
-      </c>
-      <c r="Q91">
-        <v>0.25</v>
-      </c>
-      <c r="R91">
+      <c r="U91">
         <v>1.775</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>2.025</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.8</v>
-      </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8612,7 +8612,7 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8621,7 +8621,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6803250</v>
+        <v>6804208</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,10 +8644,10 @@
         <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -8656,43 +8656,43 @@
         <v>46</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M92">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8701,7 +8701,7 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8710,7 +8710,7 @@
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9178,7 +9178,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9356,7 +9356,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6803337</v>
+        <v>6804213</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,73 +9531,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
         <v>3.25</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O102">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6804213</v>
+        <v>6803337</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,73 +9620,73 @@
         <v>45220.4375</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
         <v>3.25</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P103">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6803338</v>
+        <v>6804221</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,19 +10068,19 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
         <v>3</v>
       </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
         <v>3.4</v>
@@ -10101,37 +10101,37 @@
         <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T108">
         <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10142,7 +10142,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6804221</v>
+        <v>6803338</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,19 +10157,19 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>1</v>
       </c>
-      <c r="I109">
-        <v>3</v>
-      </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K109">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L109">
         <v>3.4</v>
@@ -10190,37 +10190,37 @@
         <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
         <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10676,7 +10676,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6804223</v>
+        <v>6804227</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10688,55 +10688,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
         <v>1</v>
-      </c>
-      <c r="I115">
-        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>48</v>
       </c>
       <c r="K115">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L115">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N115">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O115">
+        <v>4</v>
+      </c>
+      <c r="P115">
         <v>4.333</v>
       </c>
-      <c r="P115">
-        <v>5</v>
-      </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10745,19 +10745,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>4</v>
+        <v>3.333</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10780,7 +10780,7 @@
         <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6804227</v>
+        <v>6804223</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,55 +10866,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>48</v>
       </c>
       <c r="K117">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L117">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M117">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N117">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P117">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
         <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10923,19 +10923,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>3.333</v>
+        <v>4</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6804225</v>
+        <v>6803252</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,55 +11044,55 @@
         <v>45235.26041666666</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L119">
         <v>3.3</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N119">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11101,19 +11101,19 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6803252</v>
+        <v>6804225</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,56 +11133,56 @@
         <v>45235.26041666666</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J120" t="s">
         <v>48</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
         <v>3.3</v>
       </c>
       <c r="M120">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N120">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
+        <v>1.825</v>
+      </c>
+      <c r="S120">
+        <v>1.975</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
         <v>1.85</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.95</v>
       </c>
-      <c r="T120">
-        <v>3</v>
-      </c>
-      <c r="U120">
-        <v>2</v>
-      </c>
-      <c r="V120">
-        <v>1.8</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
@@ -11190,19 +11190,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6804231</v>
+        <v>6804230</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,10 +11492,10 @@
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11504,43 +11504,43 @@
         <v>46</v>
       </c>
       <c r="K124">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L124">
         <v>3.25</v>
       </c>
       <c r="M124">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N124">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P124">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,7 +11549,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11558,7 +11558,7 @@
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6804230</v>
+        <v>6804231</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,10 +11581,10 @@
         <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11593,43 +11593,43 @@
         <v>46</v>
       </c>
       <c r="K125">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="L125">
         <v>3.25</v>
       </c>
       <c r="M125">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
+        <v>1.875</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="T125">
-        <v>2.5</v>
-      </c>
-      <c r="U125">
-        <v>1.975</v>
-      </c>
-      <c r="V125">
-        <v>1.825</v>
-      </c>
       <c r="W125">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,7 +11638,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11647,7 +11647,7 @@
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12189,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6803340</v>
+        <v>6803254</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,76 +12201,76 @@
         <v>45353.4375</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
         <v>1</v>
       </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K132">
+        <v>1.727</v>
+      </c>
+      <c r="L132">
+        <v>3.3</v>
+      </c>
+      <c r="M132">
+        <v>4.333</v>
+      </c>
+      <c r="N132">
+        <v>1.909</v>
+      </c>
+      <c r="O132">
+        <v>3.3</v>
+      </c>
+      <c r="P132">
         <v>3.6</v>
       </c>
-      <c r="L132">
-        <v>3.2</v>
-      </c>
-      <c r="M132">
-        <v>1.909</v>
-      </c>
-      <c r="N132">
-        <v>4</v>
-      </c>
-      <c r="O132">
-        <v>3.1</v>
-      </c>
-      <c r="P132">
-        <v>1.909</v>
-      </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
+        <v>1.975</v>
+      </c>
+      <c r="S132">
         <v>1.825</v>
       </c>
-      <c r="S132">
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
         <v>1.975</v>
       </c>
-      <c r="T132">
-        <v>2.25</v>
-      </c>
-      <c r="U132">
-        <v>1.85</v>
-      </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
         <v>0.825</v>
       </c>
-      <c r="AA132">
-        <v>-1</v>
-      </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6803254</v>
+        <v>6803340</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,76 +12290,76 @@
         <v>45353.4375</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
         <v>0</v>
       </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L133">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133">
+        <v>3.1</v>
+      </c>
+      <c r="P133">
         <v>1.909</v>
       </c>
-      <c r="O133">
-        <v>3.3</v>
-      </c>
-      <c r="P133">
-        <v>3.6</v>
-      </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
+        <v>1.825</v>
+      </c>
+      <c r="S133">
         <v>1.975</v>
       </c>
-      <c r="S133">
-        <v>1.825</v>
-      </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12382,7 +12382,7 @@
         <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6804242</v>
+        <v>6804243</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,73 +12827,73 @@
         <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L139">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N139">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6804243</v>
+        <v>6804242</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,73 +12916,73 @@
         <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140">
+        <v>1.727</v>
+      </c>
+      <c r="L140">
+        <v>3.5</v>
+      </c>
+      <c r="M140">
+        <v>4.333</v>
+      </c>
+      <c r="N140">
         <v>1.8</v>
       </c>
-      <c r="L140">
-        <v>3.6</v>
-      </c>
-      <c r="M140">
-        <v>3.8</v>
-      </c>
-      <c r="N140">
-        <v>2.15</v>
-      </c>
       <c r="O140">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y140">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13428,6 +13428,629 @@
       </c>
       <c r="AC145">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>6804246</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45366.54166666666</v>
+      </c>
+      <c r="F146" t="s">
+        <v>43</v>
+      </c>
+      <c r="G146" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>46</v>
+      </c>
+      <c r="K146">
+        <v>2.6</v>
+      </c>
+      <c r="L146">
+        <v>3.2</v>
+      </c>
+      <c r="M146">
+        <v>2.4</v>
+      </c>
+      <c r="N146">
+        <v>2.6</v>
+      </c>
+      <c r="O146">
+        <v>3.3</v>
+      </c>
+      <c r="P146">
+        <v>2.3</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>1.975</v>
+      </c>
+      <c r="S146">
+        <v>1.825</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
+        <v>1.825</v>
+      </c>
+      <c r="V146">
+        <v>1.975</v>
+      </c>
+      <c r="W146">
+        <v>1.6</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA146">
+        <v>-1</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>6804245</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45366.58333333334</v>
+      </c>
+      <c r="F147" t="s">
+        <v>45</v>
+      </c>
+      <c r="G147" t="s">
+        <v>32</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>46</v>
+      </c>
+      <c r="K147">
+        <v>1.8</v>
+      </c>
+      <c r="L147">
+        <v>3.4</v>
+      </c>
+      <c r="M147">
+        <v>3.75</v>
+      </c>
+      <c r="N147">
+        <v>1.833</v>
+      </c>
+      <c r="O147">
+        <v>3.4</v>
+      </c>
+      <c r="P147">
+        <v>3.5</v>
+      </c>
+      <c r="Q147">
+        <v>-0.5</v>
+      </c>
+      <c r="R147">
+        <v>1.925</v>
+      </c>
+      <c r="S147">
+        <v>1.875</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>1.9</v>
+      </c>
+      <c r="V147">
+        <v>1.9</v>
+      </c>
+      <c r="W147">
+        <v>0.833</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>0.925</v>
+      </c>
+      <c r="AA147">
+        <v>-1</v>
+      </c>
+      <c r="AB147">
+        <v>0.45</v>
+      </c>
+      <c r="AC147">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>6803174</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45367.26041666666</v>
+      </c>
+      <c r="F148" t="s">
+        <v>30</v>
+      </c>
+      <c r="G148" t="s">
+        <v>36</v>
+      </c>
+      <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>46</v>
+      </c>
+      <c r="K148">
+        <v>2.75</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>2.4</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148">
+        <v>3.2</v>
+      </c>
+      <c r="P148">
+        <v>2.15</v>
+      </c>
+      <c r="Q148">
+        <v>0.25</v>
+      </c>
+      <c r="R148">
+        <v>1.85</v>
+      </c>
+      <c r="S148">
+        <v>1.95</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
+        <v>1.975</v>
+      </c>
+      <c r="V148">
+        <v>1.825</v>
+      </c>
+      <c r="W148">
+        <v>2</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>6803256</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45367.41666666666</v>
+      </c>
+      <c r="F149" t="s">
+        <v>37</v>
+      </c>
+      <c r="G149" t="s">
+        <v>42</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>46</v>
+      </c>
+      <c r="K149">
+        <v>1.5</v>
+      </c>
+      <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149">
+        <v>5</v>
+      </c>
+      <c r="N149">
+        <v>1.65</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.9</v>
+      </c>
+      <c r="S149">
+        <v>1.9</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
+        <v>2</v>
+      </c>
+      <c r="V149">
+        <v>1.8</v>
+      </c>
+      <c r="W149">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>0.45</v>
+      </c>
+      <c r="AA149">
+        <v>-0.5</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>6803342</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F150" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150" t="s">
+        <v>44</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>48</v>
+      </c>
+      <c r="K150">
+        <v>2.5</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>2.6</v>
+      </c>
+      <c r="N150">
+        <v>2.55</v>
+      </c>
+      <c r="O150">
+        <v>2.8</v>
+      </c>
+      <c r="P150">
+        <v>2.7</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>1.825</v>
+      </c>
+      <c r="S150">
+        <v>1.975</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.775</v>
+      </c>
+      <c r="V150">
+        <v>2.025</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>1.7</v>
+      </c>
+      <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>6804244</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F151" t="s">
+        <v>40</v>
+      </c>
+      <c r="G151" t="s">
+        <v>38</v>
+      </c>
+      <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>46</v>
+      </c>
+      <c r="K151">
+        <v>2.25</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
+        <v>2.625</v>
+      </c>
+      <c r="O151">
+        <v>2.875</v>
+      </c>
+      <c r="P151">
+        <v>2.625</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>1.9</v>
+      </c>
+      <c r="S151">
+        <v>1.9</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>1.8</v>
+      </c>
+      <c r="V151">
+        <v>2</v>
+      </c>
+      <c r="W151">
+        <v>1.625</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA151">
+        <v>-1</v>
+      </c>
+      <c r="AB151">
+        <v>0.8</v>
+      </c>
+      <c r="AC151">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>6804248</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F152" t="s">
+        <v>33</v>
+      </c>
+      <c r="G152" t="s">
+        <v>29</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>46</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>3.1</v>
+      </c>
+      <c r="M152">
+        <v>3.4</v>
+      </c>
+      <c r="N152">
+        <v>1.8</v>
+      </c>
+      <c r="O152">
+        <v>3.2</v>
+      </c>
+      <c r="P152">
+        <v>4</v>
+      </c>
+      <c r="Q152">
+        <v>-0.5</v>
+      </c>
+      <c r="R152">
+        <v>1.8</v>
+      </c>
+      <